--- a/groups/old/results.xlsx
+++ b/groups/old/results.xlsx
@@ -6754,76 +6754,76 @@
         <v>305</v>
       </c>
       <c r="G3">
-        <v>4527</v>
+        <v>4526</v>
       </c>
       <c r="H3">
-        <v>4891</v>
+        <v>4892</v>
       </c>
       <c r="I3">
-        <v>7500</v>
+        <v>7501</v>
       </c>
       <c r="J3">
-        <v>15258</v>
+        <v>15260</v>
       </c>
       <c r="K3">
-        <v>15853</v>
+        <v>15858</v>
       </c>
       <c r="L3">
-        <v>24251</v>
+        <v>24264</v>
       </c>
       <c r="M3">
-        <v>34482</v>
+        <v>34495</v>
       </c>
       <c r="N3">
-        <v>37680</v>
+        <v>37698</v>
       </c>
       <c r="O3">
-        <v>39398</v>
+        <v>39415</v>
       </c>
       <c r="P3">
-        <v>44910</v>
+        <v>44937</v>
       </c>
       <c r="Q3">
-        <v>46270</v>
+        <v>46298</v>
       </c>
       <c r="R3">
-        <v>46894</v>
+        <v>46927</v>
       </c>
       <c r="S3">
-        <v>49283</v>
+        <v>49312</v>
       </c>
       <c r="T3">
-        <v>52531</v>
+        <v>52557</v>
       </c>
       <c r="U3">
-        <v>62856</v>
+        <v>62900</v>
       </c>
       <c r="V3">
-        <v>69229</v>
+        <v>69290</v>
       </c>
       <c r="W3">
-        <v>72694</v>
+        <v>72761</v>
       </c>
       <c r="X3">
-        <v>76355</v>
+        <v>76420</v>
       </c>
       <c r="Y3">
-        <v>87031</v>
+        <v>87089</v>
       </c>
       <c r="Z3">
-        <v>103759</v>
+        <v>103823</v>
       </c>
       <c r="AA3">
-        <v>123660</v>
+        <v>123723</v>
       </c>
       <c r="AB3">
-        <v>129121</v>
+        <v>129187</v>
       </c>
       <c r="AC3">
-        <v>155470</v>
+        <v>155571</v>
       </c>
       <c r="AD3">
-        <v>182082</v>
+        <v>182207</v>
       </c>
     </row>
     <row r="4" spans="1:30">

--- a/groups/old/results.xlsx
+++ b/groups/old/results.xlsx
@@ -6136,7 +6136,7 @@
     <t>1829</t>
   </si>
   <si>
-    <t>50-</t>
+    <t>1+, 51-</t>
   </si>
   <si>
     <t>1830</t>
@@ -6754,76 +6754,76 @@
         <v>305</v>
       </c>
       <c r="G3">
-        <v>4526</v>
+        <v>4528</v>
       </c>
       <c r="H3">
-        <v>4892</v>
+        <v>4897</v>
       </c>
       <c r="I3">
-        <v>7501</v>
+        <v>7514</v>
       </c>
       <c r="J3">
-        <v>15260</v>
+        <v>15290</v>
       </c>
       <c r="K3">
-        <v>15858</v>
+        <v>15882</v>
       </c>
       <c r="L3">
-        <v>24264</v>
+        <v>24313</v>
       </c>
       <c r="M3">
-        <v>34495</v>
+        <v>34561</v>
       </c>
       <c r="N3">
-        <v>37698</v>
+        <v>37774</v>
       </c>
       <c r="O3">
-        <v>39415</v>
+        <v>39509</v>
       </c>
       <c r="P3">
-        <v>44937</v>
+        <v>45055</v>
       </c>
       <c r="Q3">
-        <v>46298</v>
+        <v>46439</v>
       </c>
       <c r="R3">
-        <v>46927</v>
+        <v>47071</v>
       </c>
       <c r="S3">
-        <v>49312</v>
+        <v>49466</v>
       </c>
       <c r="T3">
-        <v>52557</v>
+        <v>52731</v>
       </c>
       <c r="U3">
-        <v>62900</v>
+        <v>63148</v>
       </c>
       <c r="V3">
-        <v>69290</v>
+        <v>69542</v>
       </c>
       <c r="W3">
-        <v>72761</v>
+        <v>73061</v>
       </c>
       <c r="X3">
-        <v>76420</v>
+        <v>76754</v>
       </c>
       <c r="Y3">
-        <v>87089</v>
+        <v>87484</v>
       </c>
       <c r="Z3">
-        <v>103823</v>
+        <v>104285</v>
       </c>
       <c r="AA3">
-        <v>123723</v>
+        <v>124240</v>
       </c>
       <c r="AB3">
-        <v>129187</v>
+        <v>129725</v>
       </c>
       <c r="AC3">
-        <v>155571</v>
+        <v>156268</v>
       </c>
       <c r="AD3">
-        <v>182207</v>
+        <v>183018</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -6923,7 +6923,7 @@
         <v>62</v>
       </c>
       <c r="B5">
-        <v>3738</v>
+        <v>3740</v>
       </c>
       <c r="C5">
         <v>2941</v>
@@ -7199,7 +7199,7 @@
         <v>65</v>
       </c>
       <c r="B8">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="C8">
         <v>830</v>
@@ -7291,7 +7291,7 @@
         <v>66</v>
       </c>
       <c r="B9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>44</v>
@@ -33172,7 +33172,7 @@
       <c r="A1838" s="2" t="s">
         <v>2038</v>
       </c>
-      <c r="B1838" s="4" t="s">
+      <c r="B1838" s="3" t="s">
         <v>2039</v>
       </c>
       <c r="I1838" s="3" t="s">

--- a/groups/old/results.xlsx
+++ b/groups/old/results.xlsx
@@ -6745,85 +6745,85 @@
         <v>81</v>
       </c>
       <c r="D3">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E3">
         <v>86</v>
       </c>
       <c r="F3">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G3">
-        <v>4528</v>
+        <v>4532</v>
       </c>
       <c r="H3">
         <v>4897</v>
       </c>
       <c r="I3">
-        <v>7514</v>
+        <v>7523</v>
       </c>
       <c r="J3">
-        <v>15290</v>
+        <v>15309</v>
       </c>
       <c r="K3">
-        <v>15882</v>
+        <v>15904</v>
       </c>
       <c r="L3">
-        <v>24313</v>
+        <v>24346</v>
       </c>
       <c r="M3">
-        <v>34561</v>
+        <v>34643</v>
       </c>
       <c r="N3">
-        <v>37774</v>
+        <v>37869</v>
       </c>
       <c r="O3">
-        <v>39509</v>
+        <v>39607</v>
       </c>
       <c r="P3">
-        <v>45055</v>
+        <v>45179</v>
       </c>
       <c r="Q3">
-        <v>46439</v>
+        <v>46557</v>
       </c>
       <c r="R3">
-        <v>47071</v>
+        <v>47189</v>
       </c>
       <c r="S3">
-        <v>49466</v>
+        <v>49583</v>
       </c>
       <c r="T3">
-        <v>52731</v>
+        <v>52858</v>
       </c>
       <c r="U3">
-        <v>63148</v>
+        <v>63328</v>
       </c>
       <c r="V3">
-        <v>69542</v>
+        <v>69779</v>
       </c>
       <c r="W3">
-        <v>73061</v>
+        <v>73357</v>
       </c>
       <c r="X3">
-        <v>76754</v>
+        <v>77074</v>
       </c>
       <c r="Y3">
-        <v>87484</v>
+        <v>87885</v>
       </c>
       <c r="Z3">
-        <v>104285</v>
+        <v>104731</v>
       </c>
       <c r="AA3">
-        <v>124240</v>
+        <v>124691</v>
       </c>
       <c r="AB3">
-        <v>129725</v>
+        <v>130225</v>
       </c>
       <c r="AC3">
-        <v>156268</v>
+        <v>156954</v>
       </c>
       <c r="AD3">
-        <v>183018</v>
+        <v>183795</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -6837,7 +6837,7 @@
         <v>24104</v>
       </c>
       <c r="D4">
-        <v>23942</v>
+        <v>23967</v>
       </c>
       <c r="E4">
         <v>23698</v>
@@ -6929,7 +6929,7 @@
         <v>2941</v>
       </c>
       <c r="D5">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="E5">
         <v>2736</v>
@@ -7021,7 +7021,7 @@
         <v>585</v>
       </c>
       <c r="D6">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="E6">
         <v>656</v>
@@ -7113,7 +7113,7 @@
         <v>23</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>22</v>
@@ -7205,7 +7205,7 @@
         <v>830</v>
       </c>
       <c r="D8">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="E8">
         <v>871</v>
@@ -7297,7 +7297,7 @@
         <v>44</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9">
         <v>36</v>
@@ -19665,8 +19665,8 @@
       <c r="B654" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D654" s="4" t="s">
-        <v>100</v>
+      <c r="D654" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="F654" s="4" t="s">
         <v>148</v>

--- a/groups/old/results.xlsx
+++ b/groups/old/results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7470" uniqueCount="2052">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7474" uniqueCount="2052">
   <si>
     <t>№</t>
   </si>
@@ -6754,76 +6754,76 @@
         <v>306</v>
       </c>
       <c r="G3">
-        <v>4532</v>
+        <v>4535</v>
       </c>
       <c r="H3">
-        <v>4897</v>
+        <v>4898</v>
       </c>
       <c r="I3">
-        <v>7523</v>
+        <v>7526</v>
       </c>
       <c r="J3">
-        <v>15309</v>
+        <v>14150</v>
       </c>
       <c r="K3">
-        <v>15904</v>
+        <v>15917</v>
       </c>
       <c r="L3">
-        <v>24346</v>
+        <v>24366</v>
       </c>
       <c r="M3">
-        <v>34643</v>
+        <v>34671</v>
       </c>
       <c r="N3">
-        <v>37869</v>
+        <v>37900</v>
       </c>
       <c r="O3">
-        <v>39607</v>
+        <v>39651</v>
       </c>
       <c r="P3">
-        <v>45179</v>
+        <v>45232</v>
       </c>
       <c r="Q3">
-        <v>46557</v>
+        <v>46615</v>
       </c>
       <c r="R3">
-        <v>47189</v>
+        <v>47254</v>
       </c>
       <c r="S3">
-        <v>49583</v>
+        <v>49642</v>
       </c>
       <c r="T3">
-        <v>52858</v>
+        <v>52927</v>
       </c>
       <c r="U3">
-        <v>63328</v>
+        <v>63461</v>
       </c>
       <c r="V3">
-        <v>69779</v>
+        <v>69979</v>
       </c>
       <c r="W3">
-        <v>73357</v>
+        <v>73538</v>
       </c>
       <c r="X3">
-        <v>77074</v>
+        <v>77259</v>
       </c>
       <c r="Y3">
-        <v>87885</v>
+        <v>88091</v>
       </c>
       <c r="Z3">
-        <v>104731</v>
+        <v>104937</v>
       </c>
       <c r="AA3">
-        <v>124691</v>
+        <v>124916</v>
       </c>
       <c r="AB3">
-        <v>130225</v>
+        <v>130463</v>
       </c>
       <c r="AC3">
-        <v>156954</v>
+        <v>157219</v>
       </c>
       <c r="AD3">
-        <v>183795</v>
+        <v>184099</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -6855,7 +6855,7 @@
         <v>2370</v>
       </c>
       <c r="J4">
-        <v>1164</v>
+        <v>1266</v>
       </c>
       <c r="K4">
         <v>1115</v>
@@ -6947,7 +6947,7 @@
         <v>813</v>
       </c>
       <c r="J5">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="K5">
         <v>351</v>
@@ -7039,7 +7039,7 @@
         <v>80</v>
       </c>
       <c r="J6">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K6">
         <v>82</v>
@@ -7223,7 +7223,7 @@
         <v>139</v>
       </c>
       <c r="J8">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K8">
         <v>122</v>
@@ -7985,7 +7985,7 @@
         <v>80</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>74</v>
@@ -8265,7 +8265,7 @@
         <v>74</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>74</v>
@@ -9015,6 +9015,9 @@
       <c r="H57" s="3" t="s">
         <v>88</v>
       </c>
+      <c r="J57" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="58" spans="1:19">
       <c r="A58" s="2" t="s">
@@ -9271,6 +9274,9 @@
       <c r="H68" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="J68" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="K68" s="3" t="s">
         <v>74</v>
       </c>
@@ -9744,7 +9750,7 @@
         <v>74</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="O88" s="4" t="s">
         <v>148</v>
@@ -11379,7 +11385,7 @@
         <v>110</v>
       </c>
       <c r="J157" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K157" s="3" t="s">
         <v>110</v>
@@ -15361,7 +15367,7 @@
         <v>80</v>
       </c>
       <c r="J366" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="O366" s="4" t="s">
         <v>111</v>
@@ -18355,6 +18361,9 @@
       <c r="G551" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="J551" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="552" spans="1:24">
       <c r="A552" s="2" t="s">
@@ -24395,6 +24404,9 @@
         <v>74</v>
       </c>
       <c r="F950" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J950" s="3" t="s">
         <v>74</v>
       </c>
     </row>

--- a/groups/old/results.xlsx
+++ b/groups/old/results.xlsx
@@ -6757,73 +6757,73 @@
         <v>4535</v>
       </c>
       <c r="H3">
-        <v>4898</v>
+        <v>4899</v>
       </c>
       <c r="I3">
-        <v>7526</v>
+        <v>7529</v>
       </c>
       <c r="J3">
-        <v>14150</v>
+        <v>14158</v>
       </c>
       <c r="K3">
-        <v>15917</v>
+        <v>15922</v>
       </c>
       <c r="L3">
-        <v>24366</v>
+        <v>24375</v>
       </c>
       <c r="M3">
-        <v>34671</v>
+        <v>34687</v>
       </c>
       <c r="N3">
-        <v>37900</v>
+        <v>37919</v>
       </c>
       <c r="O3">
-        <v>39651</v>
+        <v>39675</v>
       </c>
       <c r="P3">
-        <v>45232</v>
+        <v>45256</v>
       </c>
       <c r="Q3">
-        <v>46615</v>
+        <v>46636</v>
       </c>
       <c r="R3">
-        <v>47254</v>
+        <v>47277</v>
       </c>
       <c r="S3">
-        <v>49642</v>
+        <v>49673</v>
       </c>
       <c r="T3">
-        <v>52927</v>
+        <v>52962</v>
       </c>
       <c r="U3">
-        <v>63461</v>
+        <v>63495</v>
       </c>
       <c r="V3">
-        <v>69979</v>
+        <v>70013</v>
       </c>
       <c r="W3">
-        <v>73538</v>
+        <v>73568</v>
       </c>
       <c r="X3">
-        <v>77259</v>
+        <v>77293</v>
       </c>
       <c r="Y3">
-        <v>88091</v>
+        <v>88136</v>
       </c>
       <c r="Z3">
-        <v>104937</v>
+        <v>105009</v>
       </c>
       <c r="AA3">
-        <v>124916</v>
+        <v>125003</v>
       </c>
       <c r="AB3">
-        <v>130463</v>
+        <v>130548</v>
       </c>
       <c r="AC3">
-        <v>157219</v>
+        <v>157310</v>
       </c>
       <c r="AD3">
-        <v>184099</v>
+        <v>184215</v>
       </c>
     </row>
     <row r="4" spans="1:30">

--- a/groups/old/results.xlsx
+++ b/groups/old/results.xlsx
@@ -265,156 +265,159 @@
     <t>3+, 2-</t>
   </si>
   <si>
+    <t>4+, 7-</t>
+  </si>
+  <si>
+    <t>3+, 3-</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1+, 5-</t>
+  </si>
+  <si>
+    <t>7+, 11-</t>
+  </si>
+  <si>
+    <t>3+, 12-</t>
+  </si>
+  <si>
+    <t>1+, 2-</t>
+  </si>
+  <si>
+    <t>1+, 3-</t>
+  </si>
+  <si>
+    <t>1+, 9-</t>
+  </si>
+  <si>
+    <t>1+, 6-</t>
+  </si>
+  <si>
+    <t>1+, 14-</t>
+  </si>
+  <si>
+    <t>2-</t>
+  </si>
+  <si>
+    <t>4-</t>
+  </si>
+  <si>
+    <t>6-</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2+, 1-</t>
+  </si>
+  <si>
+    <t>2+, 8-</t>
+  </si>
+  <si>
+    <t>3+, 1-</t>
+  </si>
+  <si>
+    <t>1-</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>4+, 2-</t>
+  </si>
+  <si>
+    <t>4+, 3-</t>
+  </si>
+  <si>
+    <t>4+</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1+, 28-</t>
+  </si>
+  <si>
+    <t>2+, 12-</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1+, 11-</t>
+  </si>
+  <si>
+    <t>1+, 8-</t>
+  </si>
+  <si>
+    <t>5-</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>1+, 7-</t>
+  </si>
+  <si>
+    <t>2+, 3-</t>
+  </si>
+  <si>
+    <t>3+, 18-</t>
+  </si>
+  <si>
+    <t>5+</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>3+, 8-</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>6+, 2-</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2+, 13-</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>5+, 16-</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>4+, 1-</t>
+  </si>
+  <si>
+    <t>1+, 18-</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>3+, 6-</t>
   </si>
   <si>
-    <t>3+, 3-</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1+, 5-</t>
-  </si>
-  <si>
-    <t>7+, 11-</t>
-  </si>
-  <si>
-    <t>3+, 12-</t>
-  </si>
-  <si>
-    <t>1+, 2-</t>
-  </si>
-  <si>
-    <t>1+, 3-</t>
-  </si>
-  <si>
-    <t>1+, 9-</t>
-  </si>
-  <si>
-    <t>1+, 6-</t>
-  </si>
-  <si>
-    <t>1+, 14-</t>
-  </si>
-  <si>
-    <t>2-</t>
-  </si>
-  <si>
-    <t>4-</t>
-  </si>
-  <si>
-    <t>6-</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2+, 1-</t>
-  </si>
-  <si>
-    <t>2+, 8-</t>
-  </si>
-  <si>
-    <t>3+, 1-</t>
-  </si>
-  <si>
-    <t>1-</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>4+, 2-</t>
-  </si>
-  <si>
-    <t>4+, 3-</t>
-  </si>
-  <si>
-    <t>4+</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>1+, 28-</t>
-  </si>
-  <si>
-    <t>2+, 12-</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>1+, 11-</t>
-  </si>
-  <si>
-    <t>1+, 8-</t>
-  </si>
-  <si>
-    <t>5-</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>1+, 7-</t>
-  </si>
-  <si>
-    <t>2+, 3-</t>
-  </si>
-  <si>
-    <t>3+, 18-</t>
-  </si>
-  <si>
-    <t>5+</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>3+, 8-</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>6+, 2-</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>2+, 13-</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>5+, 16-</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>4+, 1-</t>
-  </si>
-  <si>
-    <t>1+, 18-</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>17</t>
   </si>
   <si>
@@ -2165,9 +2168,6 @@
   </si>
   <si>
     <t>538</t>
-  </si>
-  <si>
-    <t>4+, 7-</t>
   </si>
   <si>
     <t>539</t>
@@ -6754,76 +6754,76 @@
         <v>306</v>
       </c>
       <c r="G3">
-        <v>4539</v>
+        <v>4543</v>
       </c>
       <c r="H3">
-        <v>4901</v>
+        <v>4906</v>
       </c>
       <c r="I3">
-        <v>7534</v>
+        <v>7535</v>
       </c>
       <c r="J3">
-        <v>14178</v>
+        <v>14184</v>
       </c>
       <c r="K3">
-        <v>15940</v>
+        <v>15958</v>
       </c>
       <c r="L3">
-        <v>24393</v>
+        <v>24422</v>
       </c>
       <c r="M3">
-        <v>34719</v>
+        <v>34784</v>
       </c>
       <c r="N3">
-        <v>37956</v>
+        <v>38045</v>
       </c>
       <c r="O3">
-        <v>39714</v>
+        <v>39805</v>
       </c>
       <c r="P3">
-        <v>45303</v>
+        <v>45418</v>
       </c>
       <c r="Q3">
-        <v>46682</v>
+        <v>46807</v>
       </c>
       <c r="R3">
-        <v>47326</v>
+        <v>47448</v>
       </c>
       <c r="S3">
-        <v>49734</v>
+        <v>49866</v>
       </c>
       <c r="T3">
-        <v>53036</v>
+        <v>53204</v>
       </c>
       <c r="U3">
-        <v>63593</v>
+        <v>63790</v>
       </c>
       <c r="V3">
-        <v>70160</v>
+        <v>70347</v>
       </c>
       <c r="W3">
-        <v>73714</v>
+        <v>73898</v>
       </c>
       <c r="X3">
-        <v>77436</v>
+        <v>77633</v>
       </c>
       <c r="Y3">
-        <v>88308</v>
+        <v>88494</v>
       </c>
       <c r="Z3">
-        <v>105196</v>
+        <v>105421</v>
       </c>
       <c r="AA3">
-        <v>125236</v>
+        <v>125496</v>
       </c>
       <c r="AB3">
-        <v>130796</v>
+        <v>131067</v>
       </c>
       <c r="AC3">
-        <v>157592</v>
+        <v>157916</v>
       </c>
       <c r="AD3">
-        <v>184545</v>
+        <v>184914</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -6980,7 +6980,7 @@
         <v>31</v>
       </c>
       <c r="U5">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="V5">
         <v>28</v>
@@ -8079,7 +8079,7 @@
         <v>116</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>74</v>
@@ -8096,7 +8096,7 @@
     </row>
     <row r="26" spans="1:27">
       <c r="A26" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>80</v>
@@ -8119,7 +8119,7 @@
     </row>
     <row r="27" spans="1:27">
       <c r="A27" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>80</v>
@@ -8154,7 +8154,7 @@
     </row>
     <row r="28" spans="1:27">
       <c r="A28" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>89</v>
@@ -8174,7 +8174,7 @@
     </row>
     <row r="29" spans="1:27">
       <c r="A29" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>88</v>
@@ -8191,7 +8191,7 @@
     </row>
     <row r="30" spans="1:27">
       <c r="A30" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>80</v>
@@ -8233,7 +8233,7 @@
         <v>74</v>
       </c>
       <c r="X30" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AA30" s="3" t="s">
         <v>74</v>
@@ -8241,7 +8241,7 @@
     </row>
     <row r="31" spans="1:27">
       <c r="A31" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>88</v>
@@ -8276,7 +8276,7 @@
     </row>
     <row r="32" spans="1:27">
       <c r="A32" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>74</v>
@@ -8317,16 +8317,16 @@
     </row>
     <row r="33" spans="1:29">
       <c r="A33" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>88</v>
@@ -8337,7 +8337,7 @@
     </row>
     <row r="34" spans="1:29">
       <c r="A34" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>99</v>
@@ -8361,7 +8361,7 @@
         <v>74</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>80</v>
@@ -8399,19 +8399,19 @@
     </row>
     <row r="35" spans="1:29">
       <c r="A35" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>110</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>80</v>
@@ -8423,15 +8423,15 @@
         <v>88</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:29">
       <c r="A36" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>91</v>
@@ -8440,7 +8440,7 @@
         <v>74</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>93</v>
@@ -8451,7 +8451,7 @@
     </row>
     <row r="37" spans="1:29">
       <c r="A37" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>88</v>
@@ -8477,7 +8477,7 @@
     </row>
     <row r="38" spans="1:29">
       <c r="A38" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>80</v>
@@ -8500,7 +8500,7 @@
     </row>
     <row r="39" spans="1:29">
       <c r="A39" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>74</v>
@@ -8520,7 +8520,7 @@
     </row>
     <row r="40" spans="1:29">
       <c r="A40" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>78</v>
@@ -8540,7 +8540,7 @@
     </row>
     <row r="41" spans="1:29">
       <c r="A41" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>74</v>
@@ -8560,7 +8560,7 @@
     </row>
     <row r="42" spans="1:29">
       <c r="A42" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>74</v>
@@ -8619,7 +8619,7 @@
     </row>
     <row r="43" spans="1:29">
       <c r="A43" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>80</v>
@@ -8642,7 +8642,7 @@
     </row>
     <row r="44" spans="1:29">
       <c r="A44" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>90</v>
@@ -8674,7 +8674,7 @@
     </row>
     <row r="45" spans="1:29">
       <c r="A45" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>78</v>
@@ -8683,7 +8683,7 @@
         <v>74</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>74</v>
@@ -8692,7 +8692,7 @@
         <v>80</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>78</v>
@@ -8700,13 +8700,13 @@
     </row>
     <row r="46" spans="1:29">
       <c r="A46" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>85</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>88</v>
@@ -8717,7 +8717,7 @@
     </row>
     <row r="47" spans="1:29">
       <c r="A47" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>89</v>
@@ -8732,12 +8732,12 @@
         <v>74</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:29">
       <c r="A48" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>78</v>
@@ -8760,7 +8760,7 @@
     </row>
     <row r="49" spans="1:19">
       <c r="A49" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>88</v>
@@ -8769,7 +8769,7 @@
         <v>79</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>79</v>
@@ -8789,16 +8789,16 @@
     </row>
     <row r="50" spans="1:19">
       <c r="A50" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>114</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>91</v>
@@ -8810,12 +8810,12 @@
         <v>93</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51" spans="1:19">
       <c r="A51" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>78</v>
@@ -8835,7 +8835,7 @@
     </row>
     <row r="52" spans="1:19">
       <c r="A52" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>74</v>
@@ -8876,7 +8876,7 @@
     </row>
     <row r="53" spans="1:19">
       <c r="A53" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>80</v>
@@ -8903,7 +8903,7 @@
         <v>74</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M53" s="3" t="s">
         <v>80</v>
@@ -8917,7 +8917,7 @@
     </row>
     <row r="54" spans="1:19">
       <c r="A54" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>77</v>
@@ -8940,7 +8940,7 @@
     </row>
     <row r="55" spans="1:19">
       <c r="A55" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>85</v>
@@ -8969,7 +8969,7 @@
     </row>
     <row r="56" spans="1:19">
       <c r="A56" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>85</v>
@@ -8992,7 +8992,7 @@
     </row>
     <row r="57" spans="1:19">
       <c r="A57" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>74</v>
@@ -9001,7 +9001,7 @@
         <v>74</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>77</v>
@@ -9021,7 +9021,7 @@
     </row>
     <row r="58" spans="1:19">
       <c r="A58" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>74</v>
@@ -9041,7 +9041,7 @@
     </row>
     <row r="59" spans="1:19">
       <c r="A59" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>80</v>
@@ -9061,7 +9061,7 @@
     </row>
     <row r="60" spans="1:19">
       <c r="A60" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>80</v>
@@ -9084,7 +9084,7 @@
     </row>
     <row r="61" spans="1:19">
       <c r="A61" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>74</v>
@@ -9108,7 +9108,7 @@
         <v>80</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J61" s="3" t="s">
         <v>74</v>
@@ -9125,7 +9125,7 @@
     </row>
     <row r="62" spans="1:19">
       <c r="A62" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>80</v>
@@ -9151,7 +9151,7 @@
     </row>
     <row r="63" spans="1:19">
       <c r="A63" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>74</v>
@@ -9168,7 +9168,7 @@
     </row>
     <row r="64" spans="1:19">
       <c r="A64" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>110</v>
@@ -9177,7 +9177,7 @@
         <v>89</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>72</v>
@@ -9188,7 +9188,7 @@
     </row>
     <row r="65" spans="1:21">
       <c r="A65" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>74</v>
@@ -9211,7 +9211,7 @@
     </row>
     <row r="66" spans="1:21">
       <c r="A66" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>80</v>
@@ -9228,7 +9228,7 @@
     </row>
     <row r="67" spans="1:21">
       <c r="A67" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>113</v>
@@ -9251,7 +9251,7 @@
     </row>
     <row r="68" spans="1:21">
       <c r="A68" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>74</v>
@@ -9286,7 +9286,7 @@
     </row>
     <row r="69" spans="1:21">
       <c r="A69" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>80</v>
@@ -9306,7 +9306,7 @@
     </row>
     <row r="70" spans="1:21">
       <c r="A70" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>74</v>
@@ -9344,7 +9344,7 @@
     </row>
     <row r="71" spans="1:21">
       <c r="A71" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>80</v>
@@ -9382,7 +9382,7 @@
     </row>
     <row r="72" spans="1:21">
       <c r="A72" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>74</v>
@@ -9411,7 +9411,7 @@
     </row>
     <row r="73" spans="1:21">
       <c r="A73" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>89</v>
@@ -9431,7 +9431,7 @@
     </row>
     <row r="74" spans="1:21">
       <c r="A74" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>74</v>
@@ -9451,7 +9451,7 @@
     </row>
     <row r="75" spans="1:21">
       <c r="A75" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>74</v>
@@ -9483,7 +9483,7 @@
     </row>
     <row r="76" spans="1:21">
       <c r="A76" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>74</v>
@@ -9500,7 +9500,7 @@
     </row>
     <row r="77" spans="1:21">
       <c r="A77" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>89</v>
@@ -9518,18 +9518,18 @@
         <v>80</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H77" s="3" t="s">
         <v>74</v>
       </c>
       <c r="O77" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="78" spans="1:21">
       <c r="A78" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>80</v>
@@ -9549,7 +9549,7 @@
     </row>
     <row r="79" spans="1:21">
       <c r="A79" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>77</v>
@@ -9572,7 +9572,7 @@
     </row>
     <row r="80" spans="1:21">
       <c r="A80" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>72</v>
@@ -9592,7 +9592,7 @@
     </row>
     <row r="81" spans="1:21">
       <c r="A81" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>80</v>
@@ -9612,7 +9612,7 @@
     </row>
     <row r="82" spans="1:21">
       <c r="A82" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>74</v>
@@ -9626,7 +9626,7 @@
     </row>
     <row r="83" spans="1:21">
       <c r="A83" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>88</v>
@@ -9643,7 +9643,7 @@
     </row>
     <row r="84" spans="1:21">
       <c r="A84" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>74</v>
@@ -9669,7 +9669,7 @@
     </row>
     <row r="85" spans="1:21">
       <c r="A85" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>74</v>
@@ -9689,7 +9689,7 @@
     </row>
     <row r="86" spans="1:21">
       <c r="A86" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>72</v>
@@ -9709,7 +9709,7 @@
     </row>
     <row r="87" spans="1:21">
       <c r="A87" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>74</v>
@@ -9726,7 +9726,7 @@
     </row>
     <row r="88" spans="1:21">
       <c r="A88" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>85</v>
@@ -9753,12 +9753,12 @@
         <v>114</v>
       </c>
       <c r="O88" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="89" spans="1:21">
       <c r="A89" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>88</v>
@@ -9775,7 +9775,7 @@
     </row>
     <row r="90" spans="1:21">
       <c r="A90" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>88</v>
@@ -9811,12 +9811,12 @@
         <v>110</v>
       </c>
       <c r="U90" s="3" t="s">
-        <v>188</v>
+        <v>69</v>
       </c>
     </row>
     <row r="91" spans="1:21">
       <c r="A91" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>109</v>
@@ -9837,7 +9837,7 @@
         <v>74</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>74</v>
@@ -9845,7 +9845,7 @@
     </row>
     <row r="92" spans="1:21">
       <c r="A92" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>80</v>
@@ -9859,7 +9859,7 @@
     </row>
     <row r="93" spans="1:21">
       <c r="A93" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>88</v>
@@ -9879,7 +9879,7 @@
     </row>
     <row r="94" spans="1:21">
       <c r="A94" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>110</v>
@@ -9891,7 +9891,7 @@
         <v>83</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>99</v>
@@ -9911,7 +9911,7 @@
     </row>
     <row r="95" spans="1:21">
       <c r="A95" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>74</v>
@@ -9949,10 +9949,10 @@
     </row>
     <row r="96" spans="1:21">
       <c r="A96" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>91</v>
@@ -9969,7 +9969,7 @@
     </row>
     <row r="97" spans="1:21">
       <c r="A97" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>89</v>
@@ -9984,12 +9984,12 @@
         <v>80</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="98" spans="1:21">
       <c r="A98" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>74</v>
@@ -10004,12 +10004,12 @@
         <v>80</v>
       </c>
       <c r="N98" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="99" spans="1:21">
       <c r="A99" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>74</v>
@@ -10029,7 +10029,7 @@
     </row>
     <row r="100" spans="1:21">
       <c r="A100" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>74</v>
@@ -10046,7 +10046,7 @@
     </row>
     <row r="101" spans="1:21">
       <c r="A101" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>74</v>
@@ -10090,7 +10090,7 @@
     </row>
     <row r="102" spans="1:21">
       <c r="A102" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>89</v>
@@ -10108,12 +10108,12 @@
         <v>80</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="103" spans="1:21">
       <c r="A103" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>74</v>
@@ -10125,13 +10125,13 @@
         <v>80</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>74</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M103" s="3" t="s">
         <v>74</v>
@@ -10139,7 +10139,7 @@
     </row>
     <row r="104" spans="1:21">
       <c r="A104" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>74</v>
@@ -10165,7 +10165,7 @@
     </row>
     <row r="105" spans="1:21">
       <c r="A105" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>74</v>
@@ -10191,7 +10191,7 @@
     </row>
     <row r="106" spans="1:21">
       <c r="A106" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>80</v>
@@ -10208,7 +10208,7 @@
     </row>
     <row r="107" spans="1:21">
       <c r="A107" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>77</v>
@@ -10231,7 +10231,7 @@
     </row>
     <row r="108" spans="1:21">
       <c r="A108" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>88</v>
@@ -10251,7 +10251,7 @@
     </row>
     <row r="109" spans="1:21">
       <c r="A109" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>74</v>
@@ -10268,7 +10268,7 @@
     </row>
     <row r="110" spans="1:21">
       <c r="A110" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>74</v>
@@ -10279,7 +10279,7 @@
     </row>
     <row r="111" spans="1:21">
       <c r="A111" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>88</v>
@@ -10297,12 +10297,12 @@
         <v>88</v>
       </c>
       <c r="K111" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="112" spans="1:21">
       <c r="A112" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>72</v>
@@ -10311,7 +10311,7 @@
         <v>99</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>74</v>
@@ -10328,7 +10328,7 @@
     </row>
     <row r="113" spans="1:29">
       <c r="A113" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>88</v>
@@ -10342,10 +10342,10 @@
     </row>
     <row r="114" spans="1:29">
       <c r="A114" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>88</v>
@@ -10353,7 +10353,7 @@
     </row>
     <row r="115" spans="1:29">
       <c r="A115" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>74</v>
@@ -10377,7 +10377,7 @@
         <v>74</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J115" s="3" t="s">
         <v>80</v>
@@ -10394,7 +10394,7 @@
     </row>
     <row r="116" spans="1:29">
       <c r="A116" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>74</v>
@@ -10414,7 +10414,7 @@
     </row>
     <row r="117" spans="1:29">
       <c r="A117" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>104</v>
@@ -10426,7 +10426,7 @@
         <v>88</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F117" s="3" t="s">
         <v>78</v>
@@ -10438,7 +10438,7 @@
         <v>74</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J117" s="3" t="s">
         <v>128</v>
@@ -10479,7 +10479,7 @@
     </row>
     <row r="118" spans="1:29">
       <c r="A118" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>74</v>
@@ -10493,7 +10493,7 @@
     </row>
     <row r="119" spans="1:29">
       <c r="A119" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>110</v>
@@ -10501,7 +10501,7 @@
     </row>
     <row r="120" spans="1:29">
       <c r="A120" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>77</v>
@@ -10516,12 +10516,12 @@
         <v>80</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="121" spans="1:29">
       <c r="A121" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>92</v>
@@ -10544,10 +10544,10 @@
     </row>
     <row r="122" spans="1:29">
       <c r="A122" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>80</v>
@@ -10561,7 +10561,7 @@
     </row>
     <row r="123" spans="1:29">
       <c r="A123" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>74</v>
@@ -10581,7 +10581,7 @@
     </row>
     <row r="124" spans="1:29">
       <c r="A124" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>78</v>
@@ -10598,7 +10598,7 @@
     </row>
     <row r="125" spans="1:29">
       <c r="A125" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>83</v>
@@ -10615,7 +10615,7 @@
     </row>
     <row r="126" spans="1:29">
       <c r="A126" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>89</v>
@@ -10635,7 +10635,7 @@
     </row>
     <row r="127" spans="1:29">
       <c r="A127" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>74</v>
@@ -10658,7 +10658,7 @@
     </row>
     <row r="128" spans="1:29">
       <c r="A128" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>74</v>
@@ -10687,7 +10687,7 @@
     </row>
     <row r="129" spans="1:20">
       <c r="A129" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>91</v>
@@ -10707,7 +10707,7 @@
     </row>
     <row r="130" spans="1:20">
       <c r="A130" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>74</v>
@@ -10730,10 +10730,10 @@
     </row>
     <row r="131" spans="1:20">
       <c r="A131" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>80</v>
@@ -10753,7 +10753,7 @@
     </row>
     <row r="132" spans="1:20">
       <c r="A132" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>74</v>
@@ -10767,10 +10767,10 @@
     </row>
     <row r="133" spans="1:20">
       <c r="A133" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>74</v>
@@ -10811,7 +10811,7 @@
     </row>
     <row r="134" spans="1:20">
       <c r="A134" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>74</v>
@@ -10849,7 +10849,7 @@
     </row>
     <row r="135" spans="1:20">
       <c r="A135" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>74</v>
@@ -10858,7 +10858,7 @@
         <v>74</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>80</v>
@@ -10881,7 +10881,7 @@
     </row>
     <row r="136" spans="1:20">
       <c r="A136" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>74</v>
@@ -10904,10 +10904,10 @@
     </row>
     <row r="137" spans="1:20">
       <c r="A137" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>74</v>
@@ -10927,7 +10927,7 @@
     </row>
     <row r="138" spans="1:20">
       <c r="A138" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>72</v>
@@ -10950,7 +10950,7 @@
     </row>
     <row r="139" spans="1:20">
       <c r="A139" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>97</v>
@@ -10970,7 +10970,7 @@
     </row>
     <row r="140" spans="1:20">
       <c r="A140" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>77</v>
@@ -11002,7 +11002,7 @@
     </row>
     <row r="141" spans="1:20">
       <c r="A141" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>81</v>
@@ -11022,7 +11022,7 @@
     </row>
     <row r="142" spans="1:20">
       <c r="A142" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>74</v>
@@ -11042,7 +11042,7 @@
     </row>
     <row r="143" spans="1:20">
       <c r="A143" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>88</v>
@@ -11051,7 +11051,7 @@
         <v>74</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E143" s="3" t="s">
         <v>80</v>
@@ -11062,7 +11062,7 @@
     </row>
     <row r="144" spans="1:20">
       <c r="A144" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>80</v>
@@ -11085,7 +11085,7 @@
     </row>
     <row r="145" spans="1:23">
       <c r="A145" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>80</v>
@@ -11105,10 +11105,10 @@
     </row>
     <row r="146" spans="1:23">
       <c r="A146" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>88</v>
@@ -11125,7 +11125,7 @@
     </row>
     <row r="147" spans="1:23">
       <c r="A147" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>72</v>
@@ -11148,10 +11148,10 @@
     </row>
     <row r="148" spans="1:23">
       <c r="A148" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>89</v>
@@ -11160,15 +11160,15 @@
         <v>74</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="149" spans="1:23">
       <c r="A149" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>74</v>
@@ -11185,7 +11185,7 @@
     </row>
     <row r="150" spans="1:23">
       <c r="A150" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>89</v>
@@ -11208,7 +11208,7 @@
     </row>
     <row r="151" spans="1:23">
       <c r="A151" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>74</v>
@@ -11220,7 +11220,7 @@
         <v>74</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F151" s="3" t="s">
         <v>88</v>
@@ -11228,7 +11228,7 @@
     </row>
     <row r="152" spans="1:23">
       <c r="A152" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>114</v>
@@ -11251,7 +11251,7 @@
     </row>
     <row r="153" spans="1:23">
       <c r="A153" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>74</v>
@@ -11260,7 +11260,7 @@
         <v>81</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E153" s="3" t="s">
         <v>74</v>
@@ -11274,7 +11274,7 @@
     </row>
     <row r="154" spans="1:23">
       <c r="A154" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>74</v>
@@ -11300,7 +11300,7 @@
     </row>
     <row r="155" spans="1:23">
       <c r="A155" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>88</v>
@@ -11320,7 +11320,7 @@
     </row>
     <row r="156" spans="1:23">
       <c r="A156" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>80</v>
@@ -11364,16 +11364,16 @@
     </row>
     <row r="157" spans="1:23">
       <c r="A157" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>97</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>77</v>
@@ -11394,7 +11394,7 @@
         <v>110</v>
       </c>
       <c r="M157" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N157" s="3" t="s">
         <v>74</v>
@@ -11408,7 +11408,7 @@
     </row>
     <row r="158" spans="1:23">
       <c r="A158" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>74</v>
@@ -11446,7 +11446,7 @@
     </row>
     <row r="159" spans="1:23">
       <c r="A159" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>74</v>
@@ -11469,7 +11469,7 @@
     </row>
     <row r="160" spans="1:23">
       <c r="A160" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>78</v>
@@ -11492,7 +11492,7 @@
     </row>
     <row r="161" spans="1:16">
       <c r="A161" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>78</v>
@@ -11512,7 +11512,7 @@
     </row>
     <row r="162" spans="1:16">
       <c r="A162" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>69</v>
@@ -11532,7 +11532,7 @@
     </row>
     <row r="163" spans="1:16">
       <c r="A163" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>113</v>
@@ -11544,20 +11544,20 @@
         <v>80</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="164" spans="1:16">
       <c r="A164" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="165" spans="1:16">
       <c r="A165" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>80</v>
@@ -11577,7 +11577,7 @@
     </row>
     <row r="166" spans="1:16">
       <c r="A166" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>74</v>
@@ -11601,12 +11601,12 @@
         <v>110</v>
       </c>
       <c r="O166" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="167" spans="1:16">
       <c r="A167" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>74</v>
@@ -11620,7 +11620,7 @@
     </row>
     <row r="168" spans="1:16">
       <c r="A168" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>74</v>
@@ -11640,7 +11640,7 @@
     </row>
     <row r="169" spans="1:16">
       <c r="A169" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>89</v>
@@ -11657,7 +11657,7 @@
     </row>
     <row r="170" spans="1:16">
       <c r="A170" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>74</v>
@@ -11674,7 +11674,7 @@
     </row>
     <row r="171" spans="1:16">
       <c r="A171" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>80</v>
@@ -11686,12 +11686,12 @@
         <v>114</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="172" spans="1:16">
       <c r="A172" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>74</v>
@@ -11718,18 +11718,18 @@
         <v>74</v>
       </c>
       <c r="P172" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="173" spans="1:16">
       <c r="A173" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D173" s="3" t="s">
         <v>74</v>
@@ -11746,7 +11746,7 @@
     </row>
     <row r="174" spans="1:16">
       <c r="A174" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>88</v>
@@ -11766,7 +11766,7 @@
     </row>
     <row r="175" spans="1:16">
       <c r="A175" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>88</v>
@@ -11780,7 +11780,7 @@
     </row>
     <row r="176" spans="1:16">
       <c r="A176" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>74</v>
@@ -11797,7 +11797,7 @@
     </row>
     <row r="177" spans="1:9">
       <c r="A177" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>74</v>
@@ -11817,7 +11817,7 @@
     </row>
     <row r="178" spans="1:9">
       <c r="A178" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>80</v>
@@ -11837,7 +11837,7 @@
     </row>
     <row r="179" spans="1:9">
       <c r="A179" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>74</v>
@@ -11846,7 +11846,7 @@
         <v>74</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E179" s="3" t="s">
         <v>77</v>
@@ -11857,7 +11857,7 @@
     </row>
     <row r="180" spans="1:9">
       <c r="A180" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>88</v>
@@ -11877,7 +11877,7 @@
     </row>
     <row r="181" spans="1:9">
       <c r="A181" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>74</v>
@@ -11900,7 +11900,7 @@
     </row>
     <row r="182" spans="1:9">
       <c r="A182" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>74</v>
@@ -11923,7 +11923,7 @@
     </row>
     <row r="183" spans="1:9">
       <c r="A183" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>89</v>
@@ -11946,7 +11946,7 @@
     </row>
     <row r="184" spans="1:9">
       <c r="A184" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>74</v>
@@ -11960,7 +11960,7 @@
     </row>
     <row r="185" spans="1:9">
       <c r="A185" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>74</v>
@@ -11974,7 +11974,7 @@
     </row>
     <row r="186" spans="1:9">
       <c r="A186" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D186" s="3" t="s">
         <v>88</v>
@@ -11985,7 +11985,7 @@
     </row>
     <row r="187" spans="1:9">
       <c r="A187" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>99</v>
@@ -12008,7 +12008,7 @@
     </row>
     <row r="188" spans="1:9">
       <c r="A188" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>74</v>
@@ -12028,7 +12028,7 @@
     </row>
     <row r="189" spans="1:9">
       <c r="A189" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>74</v>
@@ -12048,7 +12048,7 @@
     </row>
     <row r="190" spans="1:9">
       <c r="A190" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>74</v>
@@ -12059,7 +12059,7 @@
     </row>
     <row r="191" spans="1:9">
       <c r="A191" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>74</v>
@@ -12079,7 +12079,7 @@
     </row>
     <row r="192" spans="1:9">
       <c r="A192" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>88</v>
@@ -12096,7 +12096,7 @@
     </row>
     <row r="193" spans="1:27">
       <c r="A193" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C193" s="3" t="s">
         <v>74</v>
@@ -12108,12 +12108,12 @@
         <v>88</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="194" spans="1:27">
       <c r="A194" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>80</v>
@@ -12136,7 +12136,7 @@
     </row>
     <row r="195" spans="1:27">
       <c r="A195" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>113</v>
@@ -12153,7 +12153,7 @@
     </row>
     <row r="196" spans="1:27">
       <c r="A196" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>74</v>
@@ -12170,7 +12170,7 @@
     </row>
     <row r="197" spans="1:27">
       <c r="A197" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>78</v>
@@ -12184,7 +12184,7 @@
     </row>
     <row r="198" spans="1:27">
       <c r="A198" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>78</v>
@@ -12201,7 +12201,7 @@
     </row>
     <row r="199" spans="1:27">
       <c r="A199" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>74</v>
@@ -12215,7 +12215,7 @@
     </row>
     <row r="200" spans="1:27">
       <c r="A200" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>78</v>
@@ -12229,7 +12229,7 @@
     </row>
     <row r="201" spans="1:27">
       <c r="A201" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>88</v>
@@ -12249,7 +12249,7 @@
     </row>
     <row r="202" spans="1:27">
       <c r="A202" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>80</v>
@@ -12266,7 +12266,7 @@
     </row>
     <row r="203" spans="1:27">
       <c r="A203" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>97</v>
@@ -12280,7 +12280,7 @@
     </row>
     <row r="204" spans="1:27">
       <c r="A204" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>74</v>
@@ -12336,7 +12336,7 @@
     </row>
     <row r="205" spans="1:27">
       <c r="A205" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>74</v>
@@ -12356,7 +12356,7 @@
     </row>
     <row r="206" spans="1:27">
       <c r="A206" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>74</v>
@@ -12376,18 +12376,18 @@
     </row>
     <row r="207" spans="1:27">
       <c r="A207" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D207" s="3" t="s">
         <v>74</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="208" spans="1:27">
       <c r="A208" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>78</v>
@@ -12396,12 +12396,12 @@
         <v>88</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="209" spans="1:19">
       <c r="A209" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>89</v>
@@ -12412,7 +12412,7 @@
     </row>
     <row r="210" spans="1:19">
       <c r="A210" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D210" s="3" t="s">
         <v>80</v>
@@ -12420,10 +12420,10 @@
     </row>
     <row r="211" spans="1:19">
       <c r="A211" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>74</v>
@@ -12441,15 +12441,15 @@
         <v>100</v>
       </c>
       <c r="J211" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="S211" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="212" spans="1:19">
       <c r="A212" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>80</v>
@@ -12469,7 +12469,7 @@
     </row>
     <row r="213" spans="1:19">
       <c r="A213" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>74</v>
@@ -12481,12 +12481,12 @@
         <v>74</v>
       </c>
       <c r="F213" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="214" spans="1:19">
       <c r="A214" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>88</v>
@@ -12497,7 +12497,7 @@
     </row>
     <row r="215" spans="1:19">
       <c r="A215" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>74</v>
@@ -12514,7 +12514,7 @@
     </row>
     <row r="216" spans="1:19">
       <c r="A216" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>74</v>
@@ -12534,7 +12534,7 @@
     </row>
     <row r="217" spans="1:19">
       <c r="A217" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>74</v>
@@ -12554,7 +12554,7 @@
     </row>
     <row r="218" spans="1:19">
       <c r="A218" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>74</v>
@@ -12574,7 +12574,7 @@
     </row>
     <row r="219" spans="1:19">
       <c r="A219" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>78</v>
@@ -12586,7 +12586,7 @@
         <v>80</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F219" s="3" t="s">
         <v>113</v>
@@ -12594,7 +12594,7 @@
     </row>
     <row r="220" spans="1:19">
       <c r="A220" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C220" s="3" t="s">
         <v>74</v>
@@ -12611,7 +12611,7 @@
     </row>
     <row r="221" spans="1:19">
       <c r="A221" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D221" s="3" t="s">
         <v>74</v>
@@ -12619,7 +12619,7 @@
     </row>
     <row r="222" spans="1:19">
       <c r="A222" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>74</v>
@@ -12636,7 +12636,7 @@
     </row>
     <row r="223" spans="1:19">
       <c r="A223" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>79</v>
@@ -12650,7 +12650,7 @@
     </row>
     <row r="224" spans="1:19">
       <c r="A224" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>88</v>
@@ -12673,7 +12673,7 @@
     </row>
     <row r="225" spans="1:7">
       <c r="A225" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>74</v>
@@ -12682,7 +12682,7 @@
         <v>74</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E225" s="3" t="s">
         <v>74</v>
@@ -12690,7 +12690,7 @@
     </row>
     <row r="226" spans="1:7">
       <c r="A226" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>113</v>
@@ -12704,7 +12704,7 @@
     </row>
     <row r="227" spans="1:7">
       <c r="A227" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>74</v>
@@ -12712,10 +12712,10 @@
     </row>
     <row r="228" spans="1:7">
       <c r="A228" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E228" s="3" t="s">
         <v>69</v>
@@ -12723,12 +12723,12 @@
     </row>
     <row r="229" spans="1:7">
       <c r="A229" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="230" spans="1:7">
       <c r="A230" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D230" s="3" t="s">
         <v>80</v>
@@ -12739,7 +12739,7 @@
     </row>
     <row r="231" spans="1:7">
       <c r="A231" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D231" s="3" t="s">
         <v>80</v>
@@ -12747,7 +12747,7 @@
     </row>
     <row r="232" spans="1:7">
       <c r="A232" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D232" s="3" t="s">
         <v>89</v>
@@ -12755,10 +12755,10 @@
     </row>
     <row r="233" spans="1:7">
       <c r="A233" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C233" s="3" t="s">
         <v>74</v>
@@ -12775,7 +12775,7 @@
     </row>
     <row r="234" spans="1:7">
       <c r="A234" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>74</v>
@@ -12795,12 +12795,12 @@
     </row>
     <row r="235" spans="1:7">
       <c r="A235" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="236" spans="1:7">
       <c r="A236" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>74</v>
@@ -12814,7 +12814,7 @@
     </row>
     <row r="237" spans="1:7">
       <c r="A237" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>80</v>
@@ -12825,7 +12825,7 @@
     </row>
     <row r="238" spans="1:7">
       <c r="A238" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D238" s="3" t="s">
         <v>77</v>
@@ -12833,7 +12833,7 @@
     </row>
     <row r="239" spans="1:7">
       <c r="A239" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D239" s="3" t="s">
         <v>74</v>
@@ -12841,7 +12841,7 @@
     </row>
     <row r="240" spans="1:7">
       <c r="A240" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>110</v>
@@ -12864,7 +12864,7 @@
     </row>
     <row r="241" spans="1:17">
       <c r="A241" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D241" s="4" t="s">
         <v>93</v>
@@ -12872,7 +12872,7 @@
     </row>
     <row r="242" spans="1:17">
       <c r="A242" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>89</v>
@@ -12913,7 +12913,7 @@
     </row>
     <row r="243" spans="1:17">
       <c r="A243" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>74</v>
@@ -12933,7 +12933,7 @@
     </row>
     <row r="244" spans="1:17">
       <c r="A244" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>89</v>
@@ -12950,10 +12950,10 @@
     </row>
     <row r="245" spans="1:17">
       <c r="A245" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C245" s="3" t="s">
         <v>80</v>
@@ -12970,7 +12970,7 @@
     </row>
     <row r="246" spans="1:17">
       <c r="A246" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>74</v>
@@ -12984,7 +12984,7 @@
     </row>
     <row r="247" spans="1:17">
       <c r="A247" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>80</v>
@@ -12998,7 +12998,7 @@
     </row>
     <row r="248" spans="1:17">
       <c r="A248" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D248" s="3" t="s">
         <v>80</v>
@@ -13006,12 +13006,12 @@
     </row>
     <row r="249" spans="1:17">
       <c r="A249" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="250" spans="1:17">
       <c r="A250" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>74</v>
@@ -13022,12 +13022,12 @@
     </row>
     <row r="251" spans="1:17">
       <c r="A251" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="252" spans="1:17">
       <c r="A252" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>74</v>
@@ -13041,7 +13041,7 @@
     </row>
     <row r="253" spans="1:17">
       <c r="A253" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>114</v>
@@ -13052,7 +13052,7 @@
     </row>
     <row r="254" spans="1:17">
       <c r="A254" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>74</v>
@@ -13069,7 +13069,7 @@
     </row>
     <row r="255" spans="1:17">
       <c r="A255" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>80</v>
@@ -13092,7 +13092,7 @@
     </row>
     <row r="256" spans="1:17">
       <c r="A256" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>74</v>
@@ -13103,7 +13103,7 @@
     </row>
     <row r="257" spans="1:11">
       <c r="A257" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D257" s="3" t="s">
         <v>74</v>
@@ -13114,7 +13114,7 @@
     </row>
     <row r="258" spans="1:11">
       <c r="A258" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>79</v>
@@ -13131,7 +13131,7 @@
     </row>
     <row r="259" spans="1:11">
       <c r="A259" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>77</v>
@@ -13151,15 +13151,15 @@
     </row>
     <row r="260" spans="1:11">
       <c r="A260" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="261" spans="1:11">
       <c r="A261" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>78</v>
@@ -13176,7 +13176,7 @@
     </row>
     <row r="262" spans="1:11">
       <c r="A262" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>80</v>
@@ -13196,7 +13196,7 @@
     </row>
     <row r="263" spans="1:11">
       <c r="A263" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>74</v>
@@ -13219,7 +13219,7 @@
     </row>
     <row r="264" spans="1:11">
       <c r="A264" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>74</v>
@@ -13236,7 +13236,7 @@
     </row>
     <row r="265" spans="1:11">
       <c r="A265" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>88</v>
@@ -13248,29 +13248,29 @@
         <v>88</v>
       </c>
       <c r="K265" s="4" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="266" spans="1:11">
       <c r="A266" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E266" s="3" t="s">
         <v>85</v>
       </c>
       <c r="F266" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="267" spans="1:11">
       <c r="A267" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>77</v>
@@ -13278,7 +13278,7 @@
     </row>
     <row r="268" spans="1:11">
       <c r="A268" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>88</v>
@@ -13292,7 +13292,7 @@
     </row>
     <row r="269" spans="1:11">
       <c r="A269" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>74</v>
@@ -13312,18 +13312,18 @@
     </row>
     <row r="270" spans="1:11">
       <c r="A270" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D270" s="3" t="s">
         <v>88</v>
       </c>
       <c r="E270" s="4" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="271" spans="1:11">
       <c r="A271" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>78</v>
@@ -13340,7 +13340,7 @@
     </row>
     <row r="272" spans="1:11">
       <c r="A272" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>88</v>
@@ -13349,7 +13349,7 @@
         <v>74</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E272" s="3" t="s">
         <v>89</v>
@@ -13366,7 +13366,7 @@
     </row>
     <row r="273" spans="1:23">
       <c r="A273" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>74</v>
@@ -13378,7 +13378,7 @@
         <v>80</v>
       </c>
       <c r="E273" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F273" s="3" t="s">
         <v>74</v>
@@ -13404,7 +13404,7 @@
     </row>
     <row r="274" spans="1:23">
       <c r="A274" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>74</v>
@@ -13427,7 +13427,7 @@
     </row>
     <row r="275" spans="1:23">
       <c r="A275" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>78</v>
@@ -13447,7 +13447,7 @@
     </row>
     <row r="276" spans="1:23">
       <c r="A276" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>80</v>
@@ -13456,7 +13456,7 @@
         <v>77</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E276" s="3" t="s">
         <v>97</v>
@@ -13470,7 +13470,7 @@
     </row>
     <row r="277" spans="1:23">
       <c r="A277" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>74</v>
@@ -13487,7 +13487,7 @@
     </row>
     <row r="278" spans="1:23">
       <c r="A278" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>74</v>
@@ -13501,7 +13501,7 @@
     </row>
     <row r="279" spans="1:23">
       <c r="A279" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>80</v>
@@ -13518,7 +13518,7 @@
     </row>
     <row r="280" spans="1:23">
       <c r="A280" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>74</v>
@@ -13547,10 +13547,10 @@
     </row>
     <row r="281" spans="1:23">
       <c r="A281" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>114</v>
@@ -13579,7 +13579,7 @@
     </row>
     <row r="282" spans="1:23">
       <c r="A282" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>90</v>
@@ -13602,7 +13602,7 @@
     </row>
     <row r="283" spans="1:23">
       <c r="A283" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>74</v>
@@ -13628,7 +13628,7 @@
     </row>
     <row r="284" spans="1:23">
       <c r="A284" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>83</v>
@@ -13648,7 +13648,7 @@
     </row>
     <row r="285" spans="1:23">
       <c r="A285" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>74</v>
@@ -13680,7 +13680,7 @@
     </row>
     <row r="286" spans="1:23">
       <c r="A286" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>77</v>
@@ -13700,7 +13700,7 @@
     </row>
     <row r="287" spans="1:23">
       <c r="A287" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>74</v>
@@ -13720,10 +13720,10 @@
     </row>
     <row r="288" spans="1:23">
       <c r="A288" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>74</v>
@@ -13737,7 +13737,7 @@
     </row>
     <row r="289" spans="1:14">
       <c r="A289" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>88</v>
@@ -13757,7 +13757,7 @@
     </row>
     <row r="290" spans="1:14">
       <c r="A290" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>74</v>
@@ -13766,7 +13766,7 @@
         <v>74</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E290" s="3" t="s">
         <v>74</v>
@@ -13780,7 +13780,7 @@
     </row>
     <row r="291" spans="1:14">
       <c r="A291" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>79</v>
@@ -13800,7 +13800,7 @@
     </row>
     <row r="292" spans="1:14">
       <c r="A292" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>89</v>
@@ -13820,7 +13820,7 @@
     </row>
     <row r="293" spans="1:14">
       <c r="A293" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>74</v>
@@ -13849,7 +13849,7 @@
     </row>
     <row r="294" spans="1:14">
       <c r="A294" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>74</v>
@@ -13869,10 +13869,10 @@
     </row>
     <row r="295" spans="1:14">
       <c r="A295" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>88</v>
@@ -13881,7 +13881,7 @@
         <v>74</v>
       </c>
       <c r="E295" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H295" s="4" t="s">
         <v>100</v>
@@ -13889,7 +13889,7 @@
     </row>
     <row r="296" spans="1:14">
       <c r="A296" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>74</v>
@@ -13909,7 +13909,7 @@
     </row>
     <row r="297" spans="1:14">
       <c r="A297" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>88</v>
@@ -13917,7 +13917,7 @@
     </row>
     <row r="298" spans="1:14">
       <c r="A298" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B298" s="3" t="s">
         <v>77</v>
@@ -13931,7 +13931,7 @@
     </row>
     <row r="299" spans="1:14">
       <c r="A299" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>74</v>
@@ -13948,7 +13948,7 @@
     </row>
     <row r="300" spans="1:14">
       <c r="A300" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>88</v>
@@ -13968,7 +13968,7 @@
     </row>
     <row r="301" spans="1:14">
       <c r="A301" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>89</v>
@@ -13985,7 +13985,7 @@
     </row>
     <row r="302" spans="1:14">
       <c r="A302" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>74</v>
@@ -14017,7 +14017,7 @@
     </row>
     <row r="303" spans="1:14">
       <c r="A303" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>80</v>
@@ -14043,7 +14043,7 @@
     </row>
     <row r="304" spans="1:14">
       <c r="A304" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>80</v>
@@ -14052,7 +14052,7 @@
         <v>88</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E304" s="3" t="s">
         <v>80</v>
@@ -14063,7 +14063,7 @@
     </row>
     <row r="305" spans="1:16">
       <c r="A305" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>80</v>
@@ -14087,7 +14087,7 @@
         <v>74</v>
       </c>
       <c r="I305" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K305" s="3" t="s">
         <v>74</v>
@@ -14098,7 +14098,7 @@
     </row>
     <row r="306" spans="1:16">
       <c r="A306" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>74</v>
@@ -14127,7 +14127,7 @@
     </row>
     <row r="307" spans="1:16">
       <c r="A307" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>78</v>
@@ -14142,12 +14142,12 @@
         <v>80</v>
       </c>
       <c r="I307" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="308" spans="1:16">
       <c r="A308" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>97</v>
@@ -14164,7 +14164,7 @@
     </row>
     <row r="309" spans="1:16">
       <c r="A309" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>88</v>
@@ -14175,7 +14175,7 @@
     </row>
     <row r="310" spans="1:16">
       <c r="A310" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>80</v>
@@ -14192,7 +14192,7 @@
     </row>
     <row r="311" spans="1:16">
       <c r="A311" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B311" s="3" t="s">
         <v>98</v>
@@ -14212,7 +14212,7 @@
     </row>
     <row r="312" spans="1:16">
       <c r="A312" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>74</v>
@@ -14229,7 +14229,7 @@
     </row>
     <row r="313" spans="1:16">
       <c r="A313" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>80</v>
@@ -14243,7 +14243,7 @@
     </row>
     <row r="314" spans="1:16">
       <c r="A314" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>74</v>
@@ -14257,7 +14257,7 @@
     </row>
     <row r="315" spans="1:16">
       <c r="A315" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>80</v>
@@ -14271,7 +14271,7 @@
     </row>
     <row r="316" spans="1:16">
       <c r="A316" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D316" s="3" t="s">
         <v>74</v>
@@ -14282,7 +14282,7 @@
     </row>
     <row r="317" spans="1:16">
       <c r="A317" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>83</v>
@@ -14299,7 +14299,7 @@
     </row>
     <row r="318" spans="1:16">
       <c r="A318" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>80</v>
@@ -14316,7 +14316,7 @@
     </row>
     <row r="319" spans="1:16">
       <c r="A319" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>78</v>
@@ -14333,7 +14333,7 @@
     </row>
     <row r="320" spans="1:16">
       <c r="A320" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>89</v>
@@ -14356,7 +14356,7 @@
     </row>
     <row r="321" spans="1:23">
       <c r="A321" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>78</v>
@@ -14412,7 +14412,7 @@
     </row>
     <row r="322" spans="1:23">
       <c r="A322" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>80</v>
@@ -14429,7 +14429,7 @@
     </row>
     <row r="323" spans="1:23">
       <c r="A323" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>74</v>
@@ -14452,10 +14452,10 @@
     </row>
     <row r="324" spans="1:23">
       <c r="A324" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>88</v>
@@ -14464,7 +14464,7 @@
         <v>88</v>
       </c>
       <c r="E324" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F324" s="3" t="s">
         <v>88</v>
@@ -14478,7 +14478,7 @@
     </row>
     <row r="325" spans="1:23">
       <c r="A325" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>74</v>
@@ -14489,7 +14489,7 @@
     </row>
     <row r="326" spans="1:23">
       <c r="A326" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>113</v>
@@ -14509,7 +14509,7 @@
     </row>
     <row r="327" spans="1:23">
       <c r="A327" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>80</v>
@@ -14529,7 +14529,7 @@
     </row>
     <row r="328" spans="1:23">
       <c r="A328" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>74</v>
@@ -14549,7 +14549,7 @@
     </row>
     <row r="329" spans="1:23">
       <c r="A329" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>80</v>
@@ -14566,7 +14566,7 @@
     </row>
     <row r="330" spans="1:23">
       <c r="A330" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>74</v>
@@ -14583,7 +14583,7 @@
     </row>
     <row r="331" spans="1:23">
       <c r="A331" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>88</v>
@@ -14603,7 +14603,7 @@
     </row>
     <row r="332" spans="1:23">
       <c r="A332" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>97</v>
@@ -14623,7 +14623,7 @@
     </row>
     <row r="333" spans="1:23">
       <c r="A333" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>74</v>
@@ -14667,7 +14667,7 @@
     </row>
     <row r="334" spans="1:23">
       <c r="A334" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>74</v>
@@ -14687,7 +14687,7 @@
     </row>
     <row r="335" spans="1:23">
       <c r="A335" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B335" s="3" t="s">
         <v>80</v>
@@ -14696,7 +14696,7 @@
         <v>74</v>
       </c>
       <c r="D335" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E335" s="3" t="s">
         <v>88</v>
@@ -14707,7 +14707,7 @@
     </row>
     <row r="336" spans="1:23">
       <c r="A336" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>109</v>
@@ -14745,7 +14745,7 @@
     </row>
     <row r="337" spans="1:25">
       <c r="A337" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B337" s="3" t="s">
         <v>74</v>
@@ -14789,7 +14789,7 @@
     </row>
     <row r="338" spans="1:25">
       <c r="A338" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B338" s="3" t="s">
         <v>81</v>
@@ -14801,7 +14801,7 @@
         <v>80</v>
       </c>
       <c r="E338" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F338" s="3" t="s">
         <v>74</v>
@@ -14809,7 +14809,7 @@
     </row>
     <row r="339" spans="1:25">
       <c r="A339" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B339" s="3" t="s">
         <v>74</v>
@@ -14826,7 +14826,7 @@
     </row>
     <row r="340" spans="1:25">
       <c r="A340" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B340" s="3" t="s">
         <v>80</v>
@@ -14861,7 +14861,7 @@
     </row>
     <row r="341" spans="1:25">
       <c r="A341" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B341" s="3" t="s">
         <v>74</v>
@@ -14878,7 +14878,7 @@
     </row>
     <row r="342" spans="1:25">
       <c r="A342" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>80</v>
@@ -14898,7 +14898,7 @@
     </row>
     <row r="343" spans="1:25">
       <c r="A343" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B343" s="3" t="s">
         <v>80</v>
@@ -14915,7 +14915,7 @@
     </row>
     <row r="344" spans="1:25">
       <c r="A344" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>74</v>
@@ -14929,7 +14929,7 @@
     </row>
     <row r="345" spans="1:25">
       <c r="A345" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B345" s="3" t="s">
         <v>74</v>
@@ -14964,13 +14964,13 @@
     </row>
     <row r="346" spans="1:25">
       <c r="A346" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D346" s="3" t="s">
         <v>74</v>
       </c>
       <c r="L346" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M346" s="4" t="s">
         <v>100</v>
@@ -14978,7 +14978,7 @@
     </row>
     <row r="347" spans="1:25">
       <c r="A347" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B347" s="3" t="s">
         <v>74</v>
@@ -14998,7 +14998,7 @@
     </row>
     <row r="348" spans="1:25">
       <c r="A348" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>74</v>
@@ -15015,7 +15015,7 @@
     </row>
     <row r="349" spans="1:25">
       <c r="A349" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>72</v>
@@ -15045,12 +15045,12 @@
         <v>74</v>
       </c>
       <c r="O349" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="350" spans="1:25">
       <c r="A350" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>74</v>
@@ -15067,7 +15067,7 @@
     </row>
     <row r="351" spans="1:25">
       <c r="A351" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B351" s="3" t="s">
         <v>89</v>
@@ -15078,24 +15078,24 @@
     </row>
     <row r="352" spans="1:25">
       <c r="A352" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D352" s="3" t="s">
         <v>88</v>
       </c>
       <c r="F352" s="3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="353" spans="1:17">
       <c r="A353" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B353" s="3" t="s">
         <v>90</v>
@@ -15115,7 +15115,7 @@
     </row>
     <row r="354" spans="1:17">
       <c r="A354" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>74</v>
@@ -15132,7 +15132,7 @@
     </row>
     <row r="355" spans="1:17">
       <c r="A355" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>85</v>
@@ -15152,7 +15152,7 @@
     </row>
     <row r="356" spans="1:17">
       <c r="A356" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>74</v>
@@ -15172,7 +15172,7 @@
     </row>
     <row r="357" spans="1:17">
       <c r="A357" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B357" s="3" t="s">
         <v>85</v>
@@ -15184,7 +15184,7 @@
         <v>89</v>
       </c>
       <c r="E357" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F357" s="3" t="s">
         <v>85</v>
@@ -15192,7 +15192,7 @@
     </row>
     <row r="358" spans="1:17">
       <c r="A358" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>110</v>
@@ -15215,7 +15215,7 @@
     </row>
     <row r="359" spans="1:17">
       <c r="A359" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>74</v>
@@ -15235,10 +15235,10 @@
     </row>
     <row r="360" spans="1:17">
       <c r="A360" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C360" s="3" t="s">
         <v>74</v>
@@ -15255,7 +15255,7 @@
     </row>
     <row r="361" spans="1:17">
       <c r="A361" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>74</v>
@@ -15264,7 +15264,7 @@
         <v>74</v>
       </c>
       <c r="D361" s="3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E361" s="3" t="s">
         <v>88</v>
@@ -15275,7 +15275,7 @@
     </row>
     <row r="362" spans="1:17">
       <c r="A362" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>77</v>
@@ -15292,7 +15292,7 @@
     </row>
     <row r="363" spans="1:17">
       <c r="A363" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>85</v>
@@ -15312,7 +15312,7 @@
     </row>
     <row r="364" spans="1:17">
       <c r="A364" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>74</v>
@@ -15332,7 +15332,7 @@
     </row>
     <row r="365" spans="1:17">
       <c r="A365" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B365" s="3" t="s">
         <v>77</v>
@@ -15346,7 +15346,7 @@
     </row>
     <row r="366" spans="1:17">
       <c r="A366" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>74</v>
@@ -15381,7 +15381,7 @@
     </row>
     <row r="367" spans="1:17">
       <c r="A367" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B367" s="3" t="s">
         <v>85</v>
@@ -15398,7 +15398,7 @@
     </row>
     <row r="368" spans="1:17">
       <c r="A368" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>72</v>
@@ -15407,15 +15407,15 @@
         <v>74</v>
       </c>
       <c r="D368" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="369" spans="1:13">
       <c r="A369" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C369" s="3" t="s">
         <v>76</v>
@@ -15426,7 +15426,7 @@
     </row>
     <row r="370" spans="1:13">
       <c r="A370" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B370" s="3" t="s">
         <v>77</v>
@@ -15443,15 +15443,15 @@
     </row>
     <row r="371" spans="1:13">
       <c r="A371" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D371" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="372" spans="1:13">
       <c r="A372" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>74</v>
@@ -15477,10 +15477,10 @@
     </row>
     <row r="373" spans="1:13">
       <c r="A373" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C373" s="3" t="s">
         <v>80</v>
@@ -15494,7 +15494,7 @@
     </row>
     <row r="374" spans="1:13">
       <c r="A374" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>74</v>
@@ -15514,7 +15514,7 @@
     </row>
     <row r="375" spans="1:13">
       <c r="A375" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>114</v>
@@ -15526,7 +15526,7 @@
         <v>76</v>
       </c>
       <c r="E375" s="3" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F375" s="3" t="s">
         <v>80</v>
@@ -15534,7 +15534,7 @@
     </row>
     <row r="376" spans="1:13">
       <c r="A376" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B376" s="3" t="s">
         <v>74</v>
@@ -15557,7 +15557,7 @@
     </row>
     <row r="377" spans="1:13">
       <c r="A377" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B377" s="3" t="s">
         <v>80</v>
@@ -15574,7 +15574,7 @@
     </row>
     <row r="378" spans="1:13">
       <c r="A378" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C378" s="3" t="s">
         <v>88</v>
@@ -15585,7 +15585,7 @@
     </row>
     <row r="379" spans="1:13">
       <c r="A379" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B379" s="3" t="s">
         <v>89</v>
@@ -15611,7 +15611,7 @@
     </row>
     <row r="380" spans="1:13">
       <c r="A380" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B380" s="3" t="s">
         <v>74</v>
@@ -15625,10 +15625,10 @@
     </row>
     <row r="381" spans="1:13">
       <c r="A381" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>74</v>
@@ -15642,7 +15642,7 @@
     </row>
     <row r="382" spans="1:13">
       <c r="A382" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B382" s="3" t="s">
         <v>74</v>
@@ -15656,7 +15656,7 @@
     </row>
     <row r="383" spans="1:13">
       <c r="A383" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B383" s="3" t="s">
         <v>77</v>
@@ -15676,7 +15676,7 @@
     </row>
     <row r="384" spans="1:13">
       <c r="A384" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B384" s="3" t="s">
         <v>80</v>
@@ -15690,7 +15690,7 @@
     </row>
     <row r="385" spans="1:14">
       <c r="A385" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>74</v>
@@ -15704,7 +15704,7 @@
     </row>
     <row r="386" spans="1:14">
       <c r="A386" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B386" s="3" t="s">
         <v>89</v>
@@ -15718,7 +15718,7 @@
     </row>
     <row r="387" spans="1:14">
       <c r="A387" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B387" s="3" t="s">
         <v>98</v>
@@ -15732,7 +15732,7 @@
     </row>
     <row r="388" spans="1:14">
       <c r="A388" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D388" s="3" t="s">
         <v>97</v>
@@ -15743,7 +15743,7 @@
     </row>
     <row r="389" spans="1:14">
       <c r="A389" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B389" s="3" t="s">
         <v>88</v>
@@ -15757,7 +15757,7 @@
     </row>
     <row r="390" spans="1:14">
       <c r="A390" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B390" s="3" t="s">
         <v>80</v>
@@ -15774,7 +15774,7 @@
     </row>
     <row r="391" spans="1:14">
       <c r="A391" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B391" s="3" t="s">
         <v>80</v>
@@ -15794,7 +15794,7 @@
     </row>
     <row r="392" spans="1:14">
       <c r="A392" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B392" s="3" t="s">
         <v>88</v>
@@ -15814,7 +15814,7 @@
     </row>
     <row r="393" spans="1:14">
       <c r="A393" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B393" s="3" t="s">
         <v>72</v>
@@ -15823,7 +15823,7 @@
         <v>74</v>
       </c>
       <c r="D393" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E393" s="3" t="s">
         <v>85</v>
@@ -15837,7 +15837,7 @@
     </row>
     <row r="394" spans="1:14">
       <c r="A394" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B394" s="3" t="s">
         <v>89</v>
@@ -15854,7 +15854,7 @@
     </row>
     <row r="395" spans="1:14">
       <c r="A395" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>74</v>
@@ -15862,7 +15862,7 @@
     </row>
     <row r="396" spans="1:14">
       <c r="A396" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B396" s="3" t="s">
         <v>77</v>
@@ -15888,7 +15888,7 @@
     </row>
     <row r="397" spans="1:14">
       <c r="A397" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B397" s="3" t="s">
         <v>110</v>
@@ -15905,7 +15905,7 @@
     </row>
     <row r="398" spans="1:14">
       <c r="A398" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D398" s="3" t="s">
         <v>77</v>
@@ -15913,7 +15913,7 @@
     </row>
     <row r="399" spans="1:14">
       <c r="A399" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B399" s="3" t="s">
         <v>80</v>
@@ -15930,7 +15930,7 @@
     </row>
     <row r="400" spans="1:14">
       <c r="A400" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>88</v>
@@ -15941,7 +15941,7 @@
     </row>
     <row r="401" spans="1:14">
       <c r="A401" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B401" s="3" t="s">
         <v>80</v>
@@ -15956,12 +15956,12 @@
         <v>80</v>
       </c>
       <c r="I401" s="3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="402" spans="1:14">
       <c r="A402" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B402" s="3" t="s">
         <v>80</v>
@@ -15972,7 +15972,7 @@
     </row>
     <row r="403" spans="1:14">
       <c r="A403" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B403" s="3" t="s">
         <v>90</v>
@@ -15998,7 +15998,7 @@
     </row>
     <row r="404" spans="1:14">
       <c r="A404" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B404" s="3" t="s">
         <v>74</v>
@@ -16018,7 +16018,7 @@
     </row>
     <row r="405" spans="1:14">
       <c r="A405" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B405" s="3" t="s">
         <v>88</v>
@@ -16038,7 +16038,7 @@
     </row>
     <row r="406" spans="1:14">
       <c r="A406" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B406" s="3" t="s">
         <v>72</v>
@@ -16052,7 +16052,7 @@
     </row>
     <row r="407" spans="1:14">
       <c r="A407" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B407" s="3" t="s">
         <v>77</v>
@@ -16078,13 +16078,13 @@
     </row>
     <row r="408" spans="1:14">
       <c r="A408" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C408" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D408" s="4" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E408" s="3" t="s">
         <v>97</v>
@@ -16092,7 +16092,7 @@
     </row>
     <row r="409" spans="1:14">
       <c r="A409" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B409" s="3" t="s">
         <v>80</v>
@@ -16101,7 +16101,7 @@
         <v>74</v>
       </c>
       <c r="D409" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F409" s="3" t="s">
         <v>89</v>
@@ -16109,7 +16109,7 @@
     </row>
     <row r="410" spans="1:14">
       <c r="A410" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B410" s="3" t="s">
         <v>74</v>
@@ -16126,15 +16126,15 @@
     </row>
     <row r="411" spans="1:14">
       <c r="A411" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D411" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="412" spans="1:14">
       <c r="A412" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D412" s="3" t="s">
         <v>113</v>
@@ -16142,7 +16142,7 @@
     </row>
     <row r="413" spans="1:14">
       <c r="A413" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D413" s="3" t="s">
         <v>88</v>
@@ -16153,7 +16153,7 @@
     </row>
     <row r="414" spans="1:14">
       <c r="A414" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D414" s="3" t="s">
         <v>80</v>
@@ -16164,7 +16164,7 @@
     </row>
     <row r="415" spans="1:14">
       <c r="A415" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C415" s="3" t="s">
         <v>80</v>
@@ -16172,7 +16172,7 @@
     </row>
     <row r="416" spans="1:14">
       <c r="A416" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B416" s="3" t="s">
         <v>77</v>
@@ -16192,7 +16192,7 @@
     </row>
     <row r="417" spans="1:9">
       <c r="A417" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B417" s="3" t="s">
         <v>91</v>
@@ -16206,7 +16206,7 @@
     </row>
     <row r="418" spans="1:9">
       <c r="A418" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B418" s="3" t="s">
         <v>74</v>
@@ -16229,7 +16229,7 @@
     </row>
     <row r="419" spans="1:9">
       <c r="A419" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D419" s="3" t="s">
         <v>80</v>
@@ -16237,7 +16237,7 @@
     </row>
     <row r="420" spans="1:9">
       <c r="A420" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B420" s="3" t="s">
         <v>80</v>
@@ -16249,7 +16249,7 @@
         <v>74</v>
       </c>
       <c r="E420" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F420" s="3" t="s">
         <v>74</v>
@@ -16257,7 +16257,7 @@
     </row>
     <row r="421" spans="1:9">
       <c r="A421" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B421" s="3" t="s">
         <v>74</v>
@@ -16268,7 +16268,7 @@
     </row>
     <row r="422" spans="1:9">
       <c r="A422" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B422" s="3" t="s">
         <v>99</v>
@@ -16285,7 +16285,7 @@
     </row>
     <row r="423" spans="1:9">
       <c r="A423" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B423" s="3" t="s">
         <v>72</v>
@@ -16308,7 +16308,7 @@
     </row>
     <row r="424" spans="1:9">
       <c r="A424" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B424" s="3" t="s">
         <v>89</v>
@@ -16317,7 +16317,7 @@
         <v>89</v>
       </c>
       <c r="D424" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E424" s="3" t="s">
         <v>80</v>
@@ -16325,7 +16325,7 @@
     </row>
     <row r="425" spans="1:9">
       <c r="A425" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B425" s="3" t="s">
         <v>77</v>
@@ -16342,7 +16342,7 @@
     </row>
     <row r="426" spans="1:9">
       <c r="A426" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>74</v>
@@ -16356,7 +16356,7 @@
     </row>
     <row r="427" spans="1:9">
       <c r="A427" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>80</v>
@@ -16367,7 +16367,7 @@
     </row>
     <row r="428" spans="1:9">
       <c r="A428" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C428" s="3" t="s">
         <v>80</v>
@@ -16378,7 +16378,7 @@
     </row>
     <row r="429" spans="1:9">
       <c r="A429" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>80</v>
@@ -16387,12 +16387,12 @@
         <v>91</v>
       </c>
       <c r="F429" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="430" spans="1:9">
       <c r="A430" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B430" s="3" t="s">
         <v>80</v>
@@ -16403,7 +16403,7 @@
     </row>
     <row r="431" spans="1:9">
       <c r="A431" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B431" s="3" t="s">
         <v>78</v>
@@ -16420,7 +16420,7 @@
     </row>
     <row r="432" spans="1:9">
       <c r="A432" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B432" s="3" t="s">
         <v>89</v>
@@ -16435,15 +16435,15 @@
         <v>80</v>
       </c>
       <c r="H432" s="3" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="I432" s="3" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="433" spans="1:9">
       <c r="A433" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B433" s="3" t="s">
         <v>74</v>
@@ -16458,7 +16458,7 @@
         <v>74</v>
       </c>
       <c r="G433" s="4" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H433" s="3" t="s">
         <v>74</v>
@@ -16466,7 +16466,7 @@
     </row>
     <row r="434" spans="1:9">
       <c r="A434" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C434" s="3" t="s">
         <v>74</v>
@@ -16474,7 +16474,7 @@
     </row>
     <row r="435" spans="1:9">
       <c r="A435" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B435" s="3" t="s">
         <v>88</v>
@@ -16491,7 +16491,7 @@
     </row>
     <row r="436" spans="1:9">
       <c r="A436" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B436" s="3" t="s">
         <v>80</v>
@@ -16499,15 +16499,15 @@
     </row>
     <row r="437" spans="1:9">
       <c r="A437" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D437" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="438" spans="1:9">
       <c r="A438" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B438" s="3" t="s">
         <v>78</v>
@@ -16524,7 +16524,7 @@
     </row>
     <row r="439" spans="1:9">
       <c r="A439" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C439" s="3" t="s">
         <v>113</v>
@@ -16535,7 +16535,7 @@
     </row>
     <row r="440" spans="1:9">
       <c r="A440" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B440" s="3" t="s">
         <v>85</v>
@@ -16552,7 +16552,7 @@
     </row>
     <row r="441" spans="1:9">
       <c r="A441" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B441" s="3" t="s">
         <v>80</v>
@@ -16572,7 +16572,7 @@
     </row>
     <row r="442" spans="1:9">
       <c r="A442" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B442" s="3" t="s">
         <v>80</v>
@@ -16586,41 +16586,41 @@
     </row>
     <row r="443" spans="1:9">
       <c r="A443" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="444" spans="1:9">
       <c r="A444" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="445" spans="1:9">
       <c r="A445" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D445" s="3" t="s">
         <v>88</v>
       </c>
       <c r="E445" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="446" spans="1:9">
       <c r="A446" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="447" spans="1:9">
       <c r="A447" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="448" spans="1:9">
       <c r="A448" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B448" s="3" t="s">
         <v>74</v>
@@ -16640,7 +16640,7 @@
     </row>
     <row r="449" spans="1:9">
       <c r="A449" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B449" s="3" t="s">
         <v>80</v>
@@ -16660,7 +16660,7 @@
     </row>
     <row r="450" spans="1:9">
       <c r="A450" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B450" s="3" t="s">
         <v>74</v>
@@ -16674,7 +16674,7 @@
     </row>
     <row r="451" spans="1:9">
       <c r="A451" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C451" s="3" t="s">
         <v>74</v>
@@ -16682,7 +16682,7 @@
     </row>
     <row r="452" spans="1:9">
       <c r="A452" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B452" s="3" t="s">
         <v>74</v>
@@ -16699,7 +16699,7 @@
     </row>
     <row r="453" spans="1:9">
       <c r="A453" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B453" s="3" t="s">
         <v>80</v>
@@ -16710,12 +16710,12 @@
     </row>
     <row r="454" spans="1:9">
       <c r="A454" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="455" spans="1:9">
       <c r="A455" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B455" s="3" t="s">
         <v>74</v>
@@ -16735,7 +16735,7 @@
     </row>
     <row r="456" spans="1:9">
       <c r="A456" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B456" s="3" t="s">
         <v>74</v>
@@ -16744,7 +16744,7 @@
         <v>88</v>
       </c>
       <c r="D456" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E456" s="3" t="s">
         <v>72</v>
@@ -16755,7 +16755,7 @@
     </row>
     <row r="457" spans="1:9">
       <c r="A457" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B457" s="3" t="s">
         <v>78</v>
@@ -16769,7 +16769,7 @@
     </row>
     <row r="458" spans="1:9">
       <c r="A458" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B458" s="3" t="s">
         <v>80</v>
@@ -16783,7 +16783,7 @@
     </row>
     <row r="459" spans="1:9">
       <c r="A459" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C459" s="3" t="s">
         <v>88</v>
@@ -16800,7 +16800,7 @@
     </row>
     <row r="460" spans="1:9">
       <c r="A460" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="I460" s="4" t="s">
         <v>94</v>
@@ -16808,7 +16808,7 @@
     </row>
     <row r="461" spans="1:9">
       <c r="A461" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B461" s="3" t="s">
         <v>74</v>
@@ -16825,7 +16825,7 @@
     </row>
     <row r="462" spans="1:9">
       <c r="A462" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B462" s="3" t="s">
         <v>88</v>
@@ -16840,12 +16840,12 @@
         <v>74</v>
       </c>
       <c r="I462" s="3" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="463" spans="1:9">
       <c r="A463" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B463" s="3" t="s">
         <v>109</v>
@@ -16856,7 +16856,7 @@
     </row>
     <row r="464" spans="1:9">
       <c r="A464" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="I464" s="4" t="s">
         <v>100</v>
@@ -16864,7 +16864,7 @@
     </row>
     <row r="465" spans="1:17">
       <c r="A465" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B465" s="3" t="s">
         <v>113</v>
@@ -16881,7 +16881,7 @@
     </row>
     <row r="466" spans="1:17">
       <c r="A466" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B466" s="3" t="s">
         <v>74</v>
@@ -16904,7 +16904,7 @@
     </row>
     <row r="467" spans="1:17">
       <c r="A467" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B467" s="4" t="s">
         <v>93</v>
@@ -16915,7 +16915,7 @@
     </row>
     <row r="468" spans="1:17">
       <c r="A468" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C468" s="3" t="s">
         <v>74</v>
@@ -16926,7 +16926,7 @@
     </row>
     <row r="469" spans="1:17">
       <c r="A469" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B469" s="3" t="s">
         <v>74</v>
@@ -16935,7 +16935,7 @@
         <v>77</v>
       </c>
       <c r="E469" s="3" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F469" s="3" t="s">
         <v>78</v>
@@ -16946,7 +16946,7 @@
     </row>
     <row r="470" spans="1:17">
       <c r="A470" s="2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B470" s="3" t="s">
         <v>80</v>
@@ -16972,7 +16972,7 @@
     </row>
     <row r="471" spans="1:17">
       <c r="A471" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B471" s="3" t="s">
         <v>77</v>
@@ -16992,7 +16992,7 @@
     </row>
     <row r="472" spans="1:17">
       <c r="A472" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B472" s="3" t="s">
         <v>74</v>
@@ -17009,7 +17009,7 @@
     </row>
     <row r="473" spans="1:17">
       <c r="A473" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B473" s="3" t="s">
         <v>74</v>
@@ -17020,7 +17020,7 @@
     </row>
     <row r="474" spans="1:17">
       <c r="A474" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B474" s="3" t="s">
         <v>74</v>
@@ -17043,7 +17043,7 @@
     </row>
     <row r="475" spans="1:17">
       <c r="A475" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B475" s="3" t="s">
         <v>78</v>
@@ -17060,7 +17060,7 @@
     </row>
     <row r="476" spans="1:17">
       <c r="A476" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B476" s="3" t="s">
         <v>88</v>
@@ -17069,12 +17069,12 @@
         <v>80</v>
       </c>
       <c r="E476" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="477" spans="1:17">
       <c r="A477" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B477" s="3" t="s">
         <v>74</v>
@@ -17088,7 +17088,7 @@
     </row>
     <row r="478" spans="1:17">
       <c r="A478" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B478" s="3" t="s">
         <v>78</v>
@@ -17108,7 +17108,7 @@
     </row>
     <row r="479" spans="1:17">
       <c r="A479" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B479" s="3" t="s">
         <v>74</v>
@@ -17125,7 +17125,7 @@
     </row>
     <row r="480" spans="1:17">
       <c r="A480" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B480" s="3" t="s">
         <v>74</v>
@@ -17142,7 +17142,7 @@
     </row>
     <row r="481" spans="1:9">
       <c r="A481" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B481" s="3" t="s">
         <v>74</v>
@@ -17153,7 +17153,7 @@
     </row>
     <row r="482" spans="1:9">
       <c r="A482" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B482" s="3" t="s">
         <v>80</v>
@@ -17173,7 +17173,7 @@
     </row>
     <row r="483" spans="1:9">
       <c r="A483" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B483" s="3" t="s">
         <v>74</v>
@@ -17187,10 +17187,10 @@
     </row>
     <row r="484" spans="1:9">
       <c r="A484" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C484" s="3" t="s">
         <v>74</v>
@@ -17207,7 +17207,7 @@
     </row>
     <row r="485" spans="1:9">
       <c r="A485" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B485" s="3" t="s">
         <v>80</v>
@@ -17227,7 +17227,7 @@
     </row>
     <row r="486" spans="1:9">
       <c r="A486" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B486" s="3" t="s">
         <v>74</v>
@@ -17244,20 +17244,20 @@
     </row>
     <row r="487" spans="1:9">
       <c r="A487" s="2" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="488" spans="1:9">
       <c r="A488" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="E488" s="3" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="489" spans="1:9">
       <c r="A489" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B489" s="3" t="s">
         <v>80</v>
@@ -17268,7 +17268,7 @@
     </row>
     <row r="490" spans="1:9">
       <c r="A490" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B490" s="3" t="s">
         <v>74</v>
@@ -17279,7 +17279,7 @@
     </row>
     <row r="491" spans="1:9">
       <c r="A491" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B491" s="3" t="s">
         <v>74</v>
@@ -17296,7 +17296,7 @@
     </row>
     <row r="492" spans="1:9">
       <c r="A492" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C492" s="3" t="s">
         <v>74</v>
@@ -17310,12 +17310,12 @@
     </row>
     <row r="493" spans="1:9">
       <c r="A493" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="494" spans="1:9">
       <c r="A494" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C494" s="3" t="s">
         <v>88</v>
@@ -17332,7 +17332,7 @@
     </row>
     <row r="495" spans="1:9">
       <c r="A495" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B495" s="3" t="s">
         <v>80</v>
@@ -17346,7 +17346,7 @@
     </row>
     <row r="496" spans="1:9">
       <c r="A496" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B496" s="3" t="s">
         <v>74</v>
@@ -17366,15 +17366,15 @@
     </row>
     <row r="497" spans="1:9">
       <c r="A497" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="E497" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="498" spans="1:9">
       <c r="A498" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C498" s="3" t="s">
         <v>88</v>
@@ -17382,7 +17382,7 @@
     </row>
     <row r="499" spans="1:9">
       <c r="A499" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B499" s="3" t="s">
         <v>88</v>
@@ -17402,7 +17402,7 @@
     </row>
     <row r="500" spans="1:9">
       <c r="A500" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B500" s="3" t="s">
         <v>91</v>
@@ -17428,7 +17428,7 @@
     </row>
     <row r="501" spans="1:9">
       <c r="A501" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C501" s="3" t="s">
         <v>77</v>
@@ -17436,7 +17436,7 @@
     </row>
     <row r="502" spans="1:9">
       <c r="A502" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B502" s="3" t="s">
         <v>74</v>
@@ -17456,7 +17456,7 @@
     </row>
     <row r="503" spans="1:9">
       <c r="A503" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B503" s="3" t="s">
         <v>85</v>
@@ -17468,12 +17468,12 @@
         <v>85</v>
       </c>
       <c r="E503" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="504" spans="1:9">
       <c r="A504" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B504" s="3" t="s">
         <v>74</v>
@@ -17490,10 +17490,10 @@
     </row>
     <row r="505" spans="1:9">
       <c r="A505" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C505" s="3" t="s">
         <v>74</v>
@@ -17519,7 +17519,7 @@
     </row>
     <row r="506" spans="1:9">
       <c r="A506" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B506" s="3" t="s">
         <v>74</v>
@@ -17533,7 +17533,7 @@
     </row>
     <row r="507" spans="1:9">
       <c r="A507" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B507" s="3" t="s">
         <v>74</v>
@@ -17553,7 +17553,7 @@
     </row>
     <row r="508" spans="1:9">
       <c r="A508" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B508" s="3" t="s">
         <v>80</v>
@@ -17576,7 +17576,7 @@
     </row>
     <row r="509" spans="1:9">
       <c r="A509" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B509" s="3" t="s">
         <v>79</v>
@@ -17596,7 +17596,7 @@
     </row>
     <row r="510" spans="1:9">
       <c r="A510" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B510" s="3" t="s">
         <v>80</v>
@@ -17613,7 +17613,7 @@
     </row>
     <row r="511" spans="1:9">
       <c r="A511" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B511" s="3" t="s">
         <v>69</v>
@@ -17627,7 +17627,7 @@
     </row>
     <row r="512" spans="1:9">
       <c r="A512" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D512" s="3" t="s">
         <v>80</v>
@@ -17635,7 +17635,7 @@
     </row>
     <row r="513" spans="1:25">
       <c r="A513" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B513" s="3" t="s">
         <v>89</v>
@@ -17667,7 +17667,7 @@
     </row>
     <row r="514" spans="1:25">
       <c r="A514" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C514" s="3" t="s">
         <v>80</v>
@@ -17684,7 +17684,7 @@
     </row>
     <row r="515" spans="1:25">
       <c r="A515" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B515" s="3" t="s">
         <v>97</v>
@@ -17692,7 +17692,7 @@
     </row>
     <row r="516" spans="1:25">
       <c r="A516" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B516" s="3" t="s">
         <v>88</v>
@@ -17706,7 +17706,7 @@
     </row>
     <row r="517" spans="1:25">
       <c r="A517" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C517" s="3" t="s">
         <v>80</v>
@@ -17714,7 +17714,7 @@
     </row>
     <row r="518" spans="1:25">
       <c r="A518" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B518" s="3" t="s">
         <v>74</v>
@@ -17731,10 +17731,10 @@
     </row>
     <row r="519" spans="1:25">
       <c r="A519" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B519" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C519" s="3" t="s">
         <v>74</v>
@@ -17748,7 +17748,7 @@
     </row>
     <row r="520" spans="1:25">
       <c r="A520" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B520" s="3" t="s">
         <v>89</v>
@@ -17777,7 +17777,7 @@
     </row>
     <row r="521" spans="1:25">
       <c r="A521" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D521" s="3" t="s">
         <v>74</v>
@@ -17785,7 +17785,7 @@
     </row>
     <row r="522" spans="1:25">
       <c r="A522" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B522" s="3" t="s">
         <v>88</v>
@@ -17832,7 +17832,7 @@
     </row>
     <row r="523" spans="1:25">
       <c r="A523" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B523" s="3" t="s">
         <v>74</v>
@@ -17858,7 +17858,7 @@
     </row>
     <row r="524" spans="1:25">
       <c r="A524" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B524" s="3" t="s">
         <v>74</v>
@@ -17875,7 +17875,7 @@
     </row>
     <row r="525" spans="1:25">
       <c r="A525" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B525" s="3" t="s">
         <v>89</v>
@@ -17887,7 +17887,7 @@
         <v>74</v>
       </c>
       <c r="E525" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F525" s="3" t="s">
         <v>80</v>
@@ -17898,7 +17898,7 @@
     </row>
     <row r="526" spans="1:25">
       <c r="A526" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C526" s="3" t="s">
         <v>88</v>
@@ -17906,7 +17906,7 @@
     </row>
     <row r="527" spans="1:25">
       <c r="A527" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B527" s="3" t="s">
         <v>74</v>
@@ -17923,7 +17923,7 @@
     </row>
     <row r="528" spans="1:25">
       <c r="A528" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B528" s="3" t="s">
         <v>74</v>
@@ -17943,7 +17943,7 @@
     </row>
     <row r="529" spans="1:17">
       <c r="A529" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B529" s="3" t="s">
         <v>89</v>
@@ -17960,7 +17960,7 @@
     </row>
     <row r="530" spans="1:17">
       <c r="A530" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B530" s="3" t="s">
         <v>74</v>
@@ -17983,7 +17983,7 @@
     </row>
     <row r="531" spans="1:17">
       <c r="A531" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B531" s="3" t="s">
         <v>89</v>
@@ -18006,7 +18006,7 @@
     </row>
     <row r="532" spans="1:17">
       <c r="A532" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B532" s="3" t="s">
         <v>74</v>
@@ -18029,7 +18029,7 @@
     </row>
     <row r="533" spans="1:17">
       <c r="A533" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B533" s="3" t="s">
         <v>77</v>
@@ -18040,7 +18040,7 @@
     </row>
     <row r="534" spans="1:17">
       <c r="A534" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B534" s="3" t="s">
         <v>74</v>
@@ -18057,7 +18057,7 @@
     </row>
     <row r="535" spans="1:17">
       <c r="A535" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B535" s="3" t="s">
         <v>109</v>
@@ -18074,7 +18074,7 @@
     </row>
     <row r="536" spans="1:17">
       <c r="A536" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B536" s="3" t="s">
         <v>74</v>
@@ -18089,12 +18089,12 @@
         <v>77</v>
       </c>
       <c r="F536" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="537" spans="1:17">
       <c r="A537" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B537" s="3" t="s">
         <v>74</v>
@@ -18117,7 +18117,7 @@
     </row>
     <row r="538" spans="1:17">
       <c r="A538" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B538" s="3" t="s">
         <v>78</v>
@@ -18155,7 +18155,7 @@
     </row>
     <row r="539" spans="1:17">
       <c r="A539" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B539" s="3" t="s">
         <v>74</v>
@@ -18175,7 +18175,7 @@
     </row>
     <row r="540" spans="1:17">
       <c r="A540" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C540" s="3" t="s">
         <v>74</v>
@@ -18186,7 +18186,7 @@
     </row>
     <row r="541" spans="1:17">
       <c r="A541" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D541" s="3" t="s">
         <v>74</v>
@@ -18194,7 +18194,7 @@
     </row>
     <row r="542" spans="1:17">
       <c r="A542" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="E542" s="3" t="s">
         <v>77</v>
@@ -18202,7 +18202,7 @@
     </row>
     <row r="543" spans="1:17">
       <c r="A543" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B543" s="3" t="s">
         <v>74</v>
@@ -18228,7 +18228,7 @@
     </row>
     <row r="544" spans="1:17">
       <c r="A544" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B544" s="3" t="s">
         <v>80</v>
@@ -18248,7 +18248,7 @@
     </row>
     <row r="545" spans="1:24">
       <c r="A545" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B545" s="3" t="s">
         <v>80</v>
@@ -18262,7 +18262,7 @@
     </row>
     <row r="546" spans="1:24">
       <c r="A546" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="D546" s="3" t="s">
         <v>83</v>
@@ -18270,10 +18270,10 @@
     </row>
     <row r="547" spans="1:24">
       <c r="A547" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B547" s="3" t="s">
-        <v>716</v>
+        <v>82</v>
       </c>
       <c r="D547" s="3" t="s">
         <v>80</v>
@@ -18296,7 +18296,7 @@
         <v>110</v>
       </c>
       <c r="E548" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F548" s="3" t="s">
         <v>91</v>
@@ -18472,7 +18472,7 @@
         <v>74</v>
       </c>
       <c r="D558" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="559" spans="1:24">
@@ -18644,7 +18644,7 @@
         <v>738</v>
       </c>
       <c r="E569" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="570" spans="1:15">
@@ -18710,7 +18710,7 @@
         <v>745</v>
       </c>
       <c r="B575" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D575" s="3" t="s">
         <v>74</v>
@@ -18724,7 +18724,7 @@
         <v>746</v>
       </c>
       <c r="F576" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="577" spans="1:7">
@@ -18798,7 +18798,7 @@
         <v>104</v>
       </c>
       <c r="F583" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G583" s="3" t="s">
         <v>74</v>
@@ -18837,7 +18837,7 @@
         <v>756</v>
       </c>
       <c r="B586" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C586" s="3" t="s">
         <v>74</v>
@@ -19078,7 +19078,7 @@
         <v>88</v>
       </c>
       <c r="M606" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W606" s="3" t="s">
         <v>80</v>
@@ -19358,7 +19358,7 @@
         <v>74</v>
       </c>
       <c r="G632" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="633" spans="1:7">
@@ -19432,7 +19432,7 @@
         <v>88</v>
       </c>
       <c r="E639" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="640" spans="1:7">
@@ -19687,7 +19687,7 @@
         <v>80</v>
       </c>
       <c r="F654" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="655" spans="1:22">
@@ -19874,7 +19874,7 @@
         <v>843</v>
       </c>
       <c r="E671" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -20055,7 +20055,7 @@
         <v>78</v>
       </c>
       <c r="E682" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="683" spans="1:15">
@@ -20135,13 +20135,13 @@
         <v>74</v>
       </c>
       <c r="F686" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K686" s="4" t="s">
         <v>111</v>
       </c>
       <c r="O686" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="687" spans="1:15">
@@ -20350,7 +20350,7 @@
         <v>870</v>
       </c>
       <c r="B696" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C696" s="3" t="s">
         <v>80</v>
@@ -20456,13 +20456,13 @@
         <v>875</v>
       </c>
       <c r="B701" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C701" s="3" t="s">
         <v>80</v>
       </c>
       <c r="D701" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E701" s="3" t="s">
         <v>78</v>
@@ -20480,7 +20480,7 @@
         <v>77</v>
       </c>
       <c r="K701" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L701" s="3" t="s">
         <v>77</v>
@@ -20853,7 +20853,7 @@
         <v>89</v>
       </c>
       <c r="F721" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P721" s="4" t="s">
         <v>100</v>
@@ -20938,7 +20938,7 @@
         <v>89</v>
       </c>
       <c r="F726" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="727" spans="1:16">
@@ -21151,7 +21151,7 @@
         <v>924</v>
       </c>
       <c r="D747" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="748" spans="1:7">
@@ -21183,7 +21183,7 @@
         <v>74</v>
       </c>
       <c r="C751" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D751" s="3" t="s">
         <v>80</v>
@@ -21263,7 +21263,7 @@
         <v>935</v>
       </c>
       <c r="B758" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="759" spans="1:26">
@@ -21290,10 +21290,10 @@
         <v>938</v>
       </c>
       <c r="B761" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E761" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="762" spans="1:26">
@@ -21327,7 +21327,7 @@
         <v>80</v>
       </c>
       <c r="E763" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F763" s="3" t="s">
         <v>74</v>
@@ -21438,7 +21438,7 @@
         <v>80</v>
       </c>
       <c r="G766" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H766" s="3" t="s">
         <v>80</v>
@@ -21453,7 +21453,7 @@
         <v>95</v>
       </c>
       <c r="O766" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q766" s="4" t="s">
         <v>100</v>
@@ -21507,7 +21507,7 @@
         <v>946</v>
       </c>
       <c r="B769" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C769" s="3" t="s">
         <v>88</v>
@@ -21699,7 +21699,7 @@
         <v>88</v>
       </c>
       <c r="F778" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="779" spans="1:29">
@@ -22243,7 +22243,7 @@
         <v>988</v>
       </c>
       <c r="D810" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="811" spans="1:11">
@@ -22279,7 +22279,7 @@
         <v>80</v>
       </c>
       <c r="E813" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F813" s="3" t="s">
         <v>80</v>
@@ -22413,7 +22413,7 @@
         <v>1004</v>
       </c>
       <c r="B826" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C826" s="3" t="s">
         <v>89</v>
@@ -22549,7 +22549,7 @@
         <v>1009</v>
       </c>
       <c r="B831" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C831" s="3" t="s">
         <v>98</v>
@@ -22558,7 +22558,7 @@
         <v>80</v>
       </c>
       <c r="E831" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F831" s="3" t="s">
         <v>1010</v>
@@ -22567,10 +22567,10 @@
         <v>74</v>
       </c>
       <c r="H831" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="J831" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K831" s="4" t="s">
         <v>100</v>
@@ -22611,7 +22611,7 @@
         <v>89</v>
       </c>
       <c r="E835" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="836" spans="1:11">
@@ -22619,7 +22619,7 @@
         <v>1015</v>
       </c>
       <c r="D836" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="837" spans="1:11">
@@ -22725,7 +22725,7 @@
         <v>90</v>
       </c>
       <c r="F844" s="4" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="845" spans="1:11">
@@ -22890,7 +22890,7 @@
         <v>110</v>
       </c>
       <c r="H853" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J853" s="3" t="s">
         <v>80</v>
@@ -22910,7 +22910,7 @@
         <v>74</v>
       </c>
       <c r="F854" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="855" spans="1:15">
@@ -23013,7 +23013,7 @@
         <v>1042</v>
       </c>
       <c r="D862" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="863" spans="1:15">
@@ -23210,7 +23210,7 @@
         <v>74</v>
       </c>
       <c r="F878" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="879" spans="1:19">
@@ -23235,7 +23235,7 @@
         <v>74</v>
       </c>
       <c r="N880" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="S880" s="4" t="s">
         <v>100</v>
@@ -23502,7 +23502,7 @@
         <v>88</v>
       </c>
       <c r="J901" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K901" s="3" t="s">
         <v>74</v>
@@ -23552,7 +23552,7 @@
         <v>88</v>
       </c>
       <c r="Q902" s="4" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="R902" s="3" t="s">
         <v>90</v>
@@ -23816,7 +23816,7 @@
         <v>88</v>
       </c>
       <c r="F914" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="915" spans="1:21">
@@ -23905,7 +23905,7 @@
         <v>129</v>
       </c>
       <c r="F918" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I918" s="3" t="s">
         <v>78</v>
@@ -24071,7 +24071,7 @@
         <v>74</v>
       </c>
       <c r="D932" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E932" s="3" t="s">
         <v>1115</v>
@@ -24162,7 +24162,7 @@
         <v>1121</v>
       </c>
       <c r="D937" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="938" spans="1:15">
@@ -24510,7 +24510,7 @@
         <v>74</v>
       </c>
       <c r="V952" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="953" spans="1:27">
@@ -24550,7 +24550,7 @@
         <v>74</v>
       </c>
       <c r="F954" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G954" s="4" t="s">
         <v>100</v>
@@ -24636,7 +24636,7 @@
         <v>1142</v>
       </c>
       <c r="B958" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C958" s="3" t="s">
         <v>80</v>
@@ -24711,7 +24711,7 @@
         <v>88</v>
       </c>
       <c r="E961" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F961" s="3" t="s">
         <v>88</v>
@@ -24759,7 +24759,7 @@
         <v>1148</v>
       </c>
       <c r="B964" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C964" s="3" t="s">
         <v>74</v>
@@ -24808,7 +24808,7 @@
         <v>1154</v>
       </c>
       <c r="B969" s="3" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="C969" s="3" t="s">
         <v>74</v>
@@ -25103,7 +25103,7 @@
         <v>1179</v>
       </c>
       <c r="B992" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C992" s="3" t="s">
         <v>74</v>
@@ -25164,7 +25164,7 @@
         <v>1184</v>
       </c>
       <c r="B997" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C997" s="3" t="s">
         <v>74</v>
@@ -25245,7 +25245,7 @@
         <v>74</v>
       </c>
       <c r="F1006" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1007" spans="1:6">
@@ -25782,7 +25782,7 @@
         <v>1259</v>
       </c>
       <c r="D1072" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1073" spans="1:9">
@@ -26036,13 +26036,13 @@
         <v>89</v>
       </c>
       <c r="D1097" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E1097" s="3" t="s">
         <v>90</v>
       </c>
       <c r="G1097" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1098" spans="1:11">
@@ -26097,7 +26097,7 @@
         <v>1291</v>
       </c>
       <c r="B1102" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D1102" s="4" t="s">
         <v>100</v>
@@ -26376,7 +26376,7 @@
         <v>74</v>
       </c>
       <c r="D1123" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E1123" s="3" t="s">
         <v>1313</v>
@@ -26653,7 +26653,7 @@
         <v>89</v>
       </c>
       <c r="E1134" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K1134" s="3" t="s">
         <v>77</v>
@@ -26984,7 +26984,7 @@
         <v>77</v>
       </c>
       <c r="E1151" s="3" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
     </row>
     <row r="1152" spans="1:21">
@@ -27282,7 +27282,7 @@
         <v>1359</v>
       </c>
       <c r="B1168" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="1169" spans="1:9">
@@ -27440,7 +27440,7 @@
         <v>93</v>
       </c>
       <c r="I1184" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="1185" spans="1:11">
@@ -27484,7 +27484,7 @@
         <v>80</v>
       </c>
       <c r="I1188" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1189" spans="1:11">
@@ -27532,7 +27532,7 @@
         <v>1383</v>
       </c>
       <c r="D1191" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1192" spans="1:11">
@@ -27729,7 +27729,7 @@
         <v>91</v>
       </c>
       <c r="K1207" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1208" spans="1:11">
@@ -28438,7 +28438,7 @@
         <v>1460</v>
       </c>
       <c r="B1263" s="3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="1264" spans="1:4">
@@ -28552,7 +28552,7 @@
         <v>1472</v>
       </c>
       <c r="D1275" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="1276" spans="1:6">
@@ -28665,7 +28665,7 @@
         <v>1485</v>
       </c>
       <c r="B1288" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D1288" s="3" t="s">
         <v>89</v>
@@ -28701,7 +28701,7 @@
         <v>80</v>
       </c>
       <c r="D1291" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E1291" s="3" t="s">
         <v>113</v>
@@ -29157,7 +29157,7 @@
         <v>1548</v>
       </c>
       <c r="B1351" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="1352" spans="1:4">
@@ -29468,7 +29468,7 @@
         <v>1580</v>
       </c>
       <c r="B1382" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D1382" s="3" t="s">
         <v>74</v>
@@ -29542,7 +29542,7 @@
         <v>88</v>
       </c>
       <c r="E1389" s="3" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="1390" spans="1:5">
@@ -29588,7 +29588,7 @@
         <v>1592</v>
       </c>
       <c r="B1394" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D1394" s="3" t="s">
         <v>74</v>
@@ -30294,7 +30294,7 @@
         <v>88</v>
       </c>
       <c r="E1474" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="U1474" s="4" t="s">
         <v>100</v>
@@ -30424,7 +30424,7 @@
         <v>88</v>
       </c>
       <c r="C1488" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D1488" s="3" t="s">
         <v>74</v>
@@ -30433,7 +30433,7 @@
         <v>76</v>
       </c>
       <c r="G1488" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K1488" s="3" t="s">
         <v>85</v>
@@ -30538,7 +30538,7 @@
         <v>1696</v>
       </c>
       <c r="D1497" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="1498" spans="1:6">
@@ -30732,7 +30732,7 @@
         <v>80</v>
       </c>
       <c r="E1522" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="1523" spans="1:9">
@@ -31088,7 +31088,7 @@
         <v>1779</v>
       </c>
       <c r="D1580" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1581" spans="1:5">
@@ -31685,7 +31685,7 @@
         <v>1854</v>
       </c>
       <c r="B1655" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D1655" s="3" t="s">
         <v>74</v>
@@ -31708,7 +31708,7 @@
         <v>74</v>
       </c>
       <c r="I1656" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="1657" spans="1:12">
@@ -31738,7 +31738,7 @@
         <v>74</v>
       </c>
       <c r="L1659" s="4" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="1660" spans="1:12">
@@ -31902,10 +31902,10 @@
         <v>1883</v>
       </c>
       <c r="B1684" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E1684" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="1685" spans="1:12">
@@ -32181,7 +32181,7 @@
         <v>74</v>
       </c>
       <c r="J1714" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1715" spans="1:10">
@@ -32355,7 +32355,7 @@
         <v>74</v>
       </c>
       <c r="K1738" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="1739" spans="1:11">
@@ -32446,7 +32446,7 @@
         <v>74</v>
       </c>
       <c r="Q1749" s="4" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="1750" spans="1:17">
@@ -32527,7 +32527,7 @@
         <v>1957</v>
       </c>
       <c r="I1758" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="1759" spans="1:17">
@@ -32563,7 +32563,7 @@
         <v>80</v>
       </c>
       <c r="I1761" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="1762" spans="1:12">
@@ -32788,7 +32788,7 @@
         <v>74</v>
       </c>
       <c r="L1785" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1786" spans="1:22">
@@ -32796,13 +32796,13 @@
         <v>1985</v>
       </c>
       <c r="C1786" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I1786" s="3" t="s">
         <v>79</v>
       </c>
       <c r="L1786" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1787" spans="1:22">
@@ -32862,7 +32862,7 @@
         <v>74</v>
       </c>
       <c r="R1792" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="V1792" s="3" t="s">
         <v>88</v>
@@ -32911,7 +32911,7 @@
         <v>80</v>
       </c>
       <c r="V1794" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1795" spans="1:22">
@@ -32983,7 +32983,7 @@
         <v>1999</v>
       </c>
       <c r="K1800" s="4" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="1801" spans="1:22">
@@ -33200,7 +33200,7 @@
         <v>2035</v>
       </c>
       <c r="C1835" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="1836" spans="1:9">

--- a/groups/old/results.xlsx
+++ b/groups/old/results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7486" uniqueCount="2052">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7490" uniqueCount="2052">
   <si>
     <t>№</t>
   </si>
@@ -6754,76 +6754,76 @@
         <v>306</v>
       </c>
       <c r="G3">
-        <v>4543</v>
+        <v>4554</v>
       </c>
       <c r="H3">
-        <v>4906</v>
+        <v>4919</v>
       </c>
       <c r="I3">
-        <v>7535</v>
+        <v>7550</v>
       </c>
       <c r="J3">
-        <v>14184</v>
+        <v>14231</v>
       </c>
       <c r="K3">
-        <v>15958</v>
+        <v>16003</v>
       </c>
       <c r="L3">
-        <v>24422</v>
+        <v>24501</v>
       </c>
       <c r="M3">
-        <v>34784</v>
+        <v>34924</v>
       </c>
       <c r="N3">
-        <v>38045</v>
+        <v>38210</v>
       </c>
       <c r="O3">
-        <v>39805</v>
+        <v>40000</v>
       </c>
       <c r="P3">
-        <v>45418</v>
+        <v>45692</v>
       </c>
       <c r="Q3">
-        <v>46807</v>
+        <v>47081</v>
       </c>
       <c r="R3">
-        <v>47448</v>
+        <v>47729</v>
       </c>
       <c r="S3">
-        <v>49866</v>
+        <v>50168</v>
       </c>
       <c r="T3">
-        <v>53204</v>
+        <v>53533</v>
       </c>
       <c r="U3">
-        <v>63790</v>
+        <v>64174</v>
       </c>
       <c r="V3">
-        <v>70347</v>
+        <v>70710</v>
       </c>
       <c r="W3">
-        <v>73898</v>
+        <v>74262</v>
       </c>
       <c r="X3">
-        <v>77633</v>
+        <v>78010</v>
       </c>
       <c r="Y3">
-        <v>88494</v>
+        <v>88915</v>
       </c>
       <c r="Z3">
-        <v>105421</v>
+        <v>105917</v>
       </c>
       <c r="AA3">
-        <v>125496</v>
+        <v>126071</v>
       </c>
       <c r="AB3">
-        <v>131067</v>
+        <v>131664</v>
       </c>
       <c r="AC3">
-        <v>157916</v>
+        <v>158569</v>
       </c>
       <c r="AD3">
-        <v>184914</v>
+        <v>185652</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -6974,7 +6974,7 @@
         <v>53</v>
       </c>
       <c r="S5">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="T5">
         <v>31</v>
@@ -7250,7 +7250,7 @@
         <v>14</v>
       </c>
       <c r="S8">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="T8">
         <v>13</v>
@@ -7342,7 +7342,7 @@
         <v>2</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -31873,7 +31873,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="1681" spans="1:12">
+    <row r="1681" spans="1:19">
       <c r="A1681" s="2" t="s">
         <v>1880</v>
       </c>
@@ -31884,12 +31884,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1682" spans="1:12">
+    <row r="1682" spans="1:19">
       <c r="A1682" s="2" t="s">
         <v>1881</v>
       </c>
     </row>
-    <row r="1683" spans="1:12">
+    <row r="1683" spans="1:19">
       <c r="A1683" s="2" t="s">
         <v>1882</v>
       </c>
@@ -31897,7 +31897,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="1684" spans="1:12">
+    <row r="1684" spans="1:19">
       <c r="A1684" s="2" t="s">
         <v>1883</v>
       </c>
@@ -31908,7 +31908,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="1685" spans="1:12">
+    <row r="1685" spans="1:19">
       <c r="A1685" s="2" t="s">
         <v>1884</v>
       </c>
@@ -31916,7 +31916,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="1686" spans="1:12">
+    <row r="1686" spans="1:19">
       <c r="A1686" s="2" t="s">
         <v>1885</v>
       </c>
@@ -31924,12 +31924,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="1687" spans="1:12">
+    <row r="1687" spans="1:19">
       <c r="A1687" s="2" t="s">
         <v>1886</v>
       </c>
     </row>
-    <row r="1688" spans="1:12">
+    <row r="1688" spans="1:19">
       <c r="A1688" s="2" t="s">
         <v>1887</v>
       </c>
@@ -31943,12 +31943,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1689" spans="1:12">
+    <row r="1689" spans="1:19">
       <c r="A1689" s="2" t="s">
         <v>1888</v>
       </c>
     </row>
-    <row r="1690" spans="1:12">
+    <row r="1690" spans="1:19">
       <c r="A1690" s="2" t="s">
         <v>1889</v>
       </c>
@@ -31965,15 +31965,18 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1691" spans="1:12">
+    <row r="1691" spans="1:19">
       <c r="A1691" s="2" t="s">
         <v>1890</v>
       </c>
       <c r="C1691" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="1692" spans="1:12">
+      <c r="S1691" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:19">
       <c r="A1692" s="2" t="s">
         <v>1891</v>
       </c>
@@ -31981,7 +31984,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="1693" spans="1:12">
+    <row r="1693" spans="1:19">
       <c r="A1693" s="2" t="s">
         <v>1892</v>
       </c>
@@ -31992,7 +31995,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1694" spans="1:12">
+    <row r="1694" spans="1:19">
       <c r="A1694" s="2" t="s">
         <v>1893</v>
       </c>
@@ -32002,8 +32005,11 @@
       <c r="C1694" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="1695" spans="1:12">
+      <c r="S1694" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:19">
       <c r="A1695" s="2" t="s">
         <v>1894</v>
       </c>
@@ -32016,8 +32022,11 @@
       <c r="E1695" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="1696" spans="1:12">
+      <c r="S1695" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:19">
       <c r="A1696" s="2" t="s">
         <v>1895</v>
       </c>
@@ -32025,7 +32034,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1697" spans="1:11">
+    <row r="1697" spans="1:19">
       <c r="A1697" s="2" t="s">
         <v>1896</v>
       </c>
@@ -32036,15 +32045,18 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1698" spans="1:11">
+    <row r="1698" spans="1:19">
       <c r="A1698" s="2" t="s">
         <v>1897</v>
       </c>
       <c r="C1698" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="1699" spans="1:11">
+      <c r="S1698" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:19">
       <c r="A1699" s="2" t="s">
         <v>1898</v>
       </c>
@@ -32061,17 +32073,17 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1700" spans="1:11">
+    <row r="1700" spans="1:19">
       <c r="A1700" s="2" t="s">
         <v>1899</v>
       </c>
     </row>
-    <row r="1701" spans="1:11">
+    <row r="1701" spans="1:19">
       <c r="A1701" s="2" t="s">
         <v>1900</v>
       </c>
     </row>
-    <row r="1702" spans="1:11">
+    <row r="1702" spans="1:19">
       <c r="A1702" s="2" t="s">
         <v>1901</v>
       </c>
@@ -32079,7 +32091,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1703" spans="1:11">
+    <row r="1703" spans="1:19">
       <c r="A1703" s="2" t="s">
         <v>1902</v>
       </c>
@@ -32087,7 +32099,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1704" spans="1:11">
+    <row r="1704" spans="1:19">
       <c r="A1704" s="2" t="s">
         <v>1903</v>
       </c>
@@ -32098,7 +32110,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1705" spans="1:11">
+    <row r="1705" spans="1:19">
       <c r="A1705" s="2" t="s">
         <v>1904</v>
       </c>
@@ -32106,7 +32118,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1706" spans="1:11">
+    <row r="1706" spans="1:19">
       <c r="A1706" s="2" t="s">
         <v>1905</v>
       </c>
@@ -32114,7 +32126,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1707" spans="1:11">
+    <row r="1707" spans="1:19">
       <c r="A1707" s="2" t="s">
         <v>1906</v>
       </c>
@@ -32122,7 +32134,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1708" spans="1:11">
+    <row r="1708" spans="1:19">
       <c r="A1708" s="2" t="s">
         <v>1907</v>
       </c>
@@ -32130,7 +32142,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="1709" spans="1:11">
+    <row r="1709" spans="1:19">
       <c r="A1709" s="2" t="s">
         <v>1908</v>
       </c>
@@ -32138,7 +32150,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="1710" spans="1:11">
+    <row r="1710" spans="1:19">
       <c r="A1710" s="2" t="s">
         <v>1909</v>
       </c>
@@ -32146,7 +32158,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1711" spans="1:11">
+    <row r="1711" spans="1:19">
       <c r="A1711" s="2" t="s">
         <v>1910</v>
       </c>
@@ -32160,7 +32172,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1712" spans="1:11">
+    <row r="1712" spans="1:19">
       <c r="A1712" s="2" t="s">
         <v>1911</v>
       </c>

--- a/groups/old/results.xlsx
+++ b/groups/old/results.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$AD$1850</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$AD$1868</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7490" uniqueCount="2052">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7514" uniqueCount="2070">
   <si>
     <t>№</t>
   </si>
@@ -6173,6 +6173,60 @@
   </si>
   <si>
     <t>1841</t>
+  </si>
+  <si>
+    <t>1842</t>
+  </si>
+  <si>
+    <t>1843</t>
+  </si>
+  <si>
+    <t>1844</t>
+  </si>
+  <si>
+    <t>1845</t>
+  </si>
+  <si>
+    <t>1846</t>
+  </si>
+  <si>
+    <t>1847</t>
+  </si>
+  <si>
+    <t>1848</t>
+  </si>
+  <si>
+    <t>1849</t>
+  </si>
+  <si>
+    <t>1850</t>
+  </si>
+  <si>
+    <t>1851</t>
+  </si>
+  <si>
+    <t>1852</t>
+  </si>
+  <si>
+    <t>1853</t>
+  </si>
+  <si>
+    <t>1854</t>
+  </si>
+  <si>
+    <t>1855</t>
+  </si>
+  <si>
+    <t>1856</t>
+  </si>
+  <si>
+    <t>1857</t>
+  </si>
+  <si>
+    <t>1858</t>
+  </si>
+  <si>
+    <t>1859</t>
   </si>
 </sst>
 </file>
@@ -6538,7 +6592,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD1850"/>
+  <dimension ref="A1:AD1868"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -6754,76 +6808,76 @@
         <v>306</v>
       </c>
       <c r="G3">
-        <v>4554</v>
+        <v>4561</v>
       </c>
       <c r="H3">
-        <v>4919</v>
+        <v>4929</v>
       </c>
       <c r="I3">
-        <v>7550</v>
+        <v>7561</v>
       </c>
       <c r="J3">
-        <v>14231</v>
+        <v>14262</v>
       </c>
       <c r="K3">
-        <v>16003</v>
+        <v>16041</v>
       </c>
       <c r="L3">
-        <v>24501</v>
+        <v>24553</v>
       </c>
       <c r="M3">
-        <v>34924</v>
+        <v>35038</v>
       </c>
       <c r="N3">
-        <v>38210</v>
+        <v>38347</v>
       </c>
       <c r="O3">
-        <v>40000</v>
+        <v>40142</v>
       </c>
       <c r="P3">
-        <v>45692</v>
+        <v>45849</v>
       </c>
       <c r="Q3">
-        <v>47081</v>
+        <v>47236</v>
       </c>
       <c r="R3">
-        <v>47729</v>
+        <v>47884</v>
       </c>
       <c r="S3">
-        <v>50168</v>
+        <v>50354</v>
       </c>
       <c r="T3">
-        <v>53533</v>
+        <v>53714</v>
       </c>
       <c r="U3">
-        <v>64174</v>
+        <v>64382</v>
       </c>
       <c r="V3">
-        <v>70710</v>
+        <v>70943</v>
       </c>
       <c r="W3">
-        <v>74262</v>
+        <v>74496</v>
       </c>
       <c r="X3">
-        <v>78010</v>
+        <v>78258</v>
       </c>
       <c r="Y3">
-        <v>88915</v>
+        <v>89212</v>
       </c>
       <c r="Z3">
-        <v>105917</v>
+        <v>106309</v>
       </c>
       <c r="AA3">
-        <v>126071</v>
+        <v>126531</v>
       </c>
       <c r="AB3">
-        <v>131664</v>
+        <v>132144</v>
       </c>
       <c r="AC3">
-        <v>158569</v>
+        <v>159156</v>
       </c>
       <c r="AD3">
-        <v>185652</v>
+        <v>186320</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -6831,7 +6885,7 @@
         <v>61</v>
       </c>
       <c r="B4">
-        <v>25510</v>
+        <v>25572</v>
       </c>
       <c r="C4">
         <v>24238</v>
@@ -6923,10 +6977,10 @@
         <v>62</v>
       </c>
       <c r="B5">
-        <v>3747</v>
+        <v>3750</v>
       </c>
       <c r="C5">
-        <v>1702</v>
+        <v>1707</v>
       </c>
       <c r="D5">
         <v>2941</v>
@@ -7015,7 +7069,7 @@
         <v>63</v>
       </c>
       <c r="B6">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -7199,10 +7253,10 @@
         <v>65</v>
       </c>
       <c r="B8">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="C8">
-        <v>930</v>
+        <v>935</v>
       </c>
       <c r="D8">
         <v>830</v>
@@ -21035,6 +21089,9 @@
       <c r="A736" s="2" t="s">
         <v>912</v>
       </c>
+      <c r="B736" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="D736" s="3" t="s">
         <v>80</v>
       </c>
@@ -33329,8 +33386,113 @@
         <v>74</v>
       </c>
     </row>
+    <row r="1851" spans="1:2">
+      <c r="A1851" s="2" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:2">
+      <c r="A1852" s="2" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:2">
+      <c r="A1853" s="2" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:2">
+      <c r="A1854" s="2" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:2">
+      <c r="A1855" s="2" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:2">
+      <c r="A1856" s="2" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:3">
+      <c r="A1857" s="2" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:3">
+      <c r="A1858" s="2" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:3">
+      <c r="A1859" s="2" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:3">
+      <c r="A1860" s="2" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:3">
+      <c r="A1861" s="2" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:3">
+      <c r="A1862" s="2" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:3">
+      <c r="A1863" s="2" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:3">
+      <c r="A1864" s="2" t="s">
+        <v>2065</v>
+      </c>
+      <c r="C1864" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:3">
+      <c r="A1865" s="2" t="s">
+        <v>2066</v>
+      </c>
+      <c r="C1865" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:3">
+      <c r="A1866" s="2" t="s">
+        <v>2067</v>
+      </c>
+      <c r="C1866" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:3">
+      <c r="A1867" s="2" t="s">
+        <v>2068</v>
+      </c>
+      <c r="C1867" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:3">
+      <c r="A1868" s="2" t="s">
+        <v>2069</v>
+      </c>
+      <c r="C1868" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AD1850"/>
+  <autoFilter ref="A1:AD1868"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
@@ -35202,6 +35364,24 @@
     <hyperlink ref="A1848" r:id="rId1868"/>
     <hyperlink ref="A1849" r:id="rId1869"/>
     <hyperlink ref="A1850" r:id="rId1870"/>
+    <hyperlink ref="A1851" r:id="rId1871"/>
+    <hyperlink ref="A1852" r:id="rId1872"/>
+    <hyperlink ref="A1853" r:id="rId1873"/>
+    <hyperlink ref="A1854" r:id="rId1874"/>
+    <hyperlink ref="A1855" r:id="rId1875"/>
+    <hyperlink ref="A1856" r:id="rId1876"/>
+    <hyperlink ref="A1857" r:id="rId1877"/>
+    <hyperlink ref="A1858" r:id="rId1878"/>
+    <hyperlink ref="A1859" r:id="rId1879"/>
+    <hyperlink ref="A1860" r:id="rId1880"/>
+    <hyperlink ref="A1861" r:id="rId1881"/>
+    <hyperlink ref="A1862" r:id="rId1882"/>
+    <hyperlink ref="A1863" r:id="rId1883"/>
+    <hyperlink ref="A1864" r:id="rId1884"/>
+    <hyperlink ref="A1865" r:id="rId1885"/>
+    <hyperlink ref="A1866" r:id="rId1886"/>
+    <hyperlink ref="A1867" r:id="rId1887"/>
+    <hyperlink ref="A1868" r:id="rId1888"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/groups/old/results.xlsx
+++ b/groups/old/results.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$AD$1868</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$AD$1878</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7514" uniqueCount="2070">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7622" uniqueCount="2081">
   <si>
     <t>№</t>
   </si>
@@ -64,6 +64,12 @@
     <t>Кудрявцев Никита</t>
   </si>
   <si>
+    <t>Пожидаев Денис</t>
+  </si>
+  <si>
+    <t>Трегубович Андрей</t>
+  </si>
+  <si>
     <t>Серебренникова Елена</t>
   </si>
   <si>
@@ -73,9 +79,6 @@
     <t>Кассал Кирилл</t>
   </si>
   <si>
-    <t>Трегубович Андрей</t>
-  </si>
-  <si>
     <t>Фалалеев Святослав</t>
   </si>
   <si>
@@ -91,9 +94,6 @@
     <t>Веревкин Артемий</t>
   </si>
   <si>
-    <t>Пожидаев Денис</t>
-  </si>
-  <si>
     <t>Степанова Дарья</t>
   </si>
   <si>
@@ -154,6 +154,12 @@
     <t>264744</t>
   </si>
   <si>
+    <t>364695</t>
+  </si>
+  <si>
+    <t>321411</t>
+  </si>
+  <si>
     <t>364710</t>
   </si>
   <si>
@@ -163,9 +169,6 @@
     <t>364699</t>
   </si>
   <si>
-    <t>321411</t>
-  </si>
-  <si>
     <t>321434</t>
   </si>
   <si>
@@ -181,9 +184,6 @@
     <t>318036</t>
   </si>
   <si>
-    <t>364695</t>
-  </si>
-  <si>
     <t>261450</t>
   </si>
   <si>
@@ -244,7 +244,7 @@
     <t>1+</t>
   </si>
   <si>
-    <t>19+, 2-</t>
+    <t>29+, 6-</t>
   </si>
   <si>
     <t>2+, 4-</t>
@@ -262,15 +262,15 @@
     <t>1+, 1-</t>
   </si>
   <si>
+    <t>3+, 3-</t>
+  </si>
+  <si>
     <t>3+, 2-</t>
   </si>
   <si>
     <t>4+, 7-</t>
   </si>
   <si>
-    <t>3+, 3-</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -6025,6 +6025,9 @@
     <t>1793</t>
   </si>
   <si>
+    <t>5+, 12-</t>
+  </si>
+  <si>
     <t>1794</t>
   </si>
   <si>
@@ -6227,6 +6230,36 @@
   </si>
   <si>
     <t>1859</t>
+  </si>
+  <si>
+    <t>1860</t>
+  </si>
+  <si>
+    <t>1861</t>
+  </si>
+  <si>
+    <t>1862</t>
+  </si>
+  <si>
+    <t>1863</t>
+  </si>
+  <si>
+    <t>1864</t>
+  </si>
+  <si>
+    <t>1865</t>
+  </si>
+  <si>
+    <t>1866</t>
+  </si>
+  <si>
+    <t>1867</t>
+  </si>
+  <si>
+    <t>1868</t>
+  </si>
+  <si>
+    <t>1869</t>
   </si>
 </sst>
 </file>
@@ -6592,7 +6625,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD1868"/>
+  <dimension ref="A1:AD1878"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -6796,88 +6829,88 @@
         <v>69</v>
       </c>
       <c r="C3">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D3">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E3">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F3">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G3">
-        <v>4561</v>
+        <v>4237</v>
       </c>
       <c r="H3">
-        <v>4929</v>
+        <v>4995</v>
       </c>
       <c r="I3">
-        <v>7561</v>
+        <v>7660</v>
       </c>
       <c r="J3">
-        <v>14262</v>
+        <v>14195</v>
       </c>
       <c r="K3">
-        <v>16041</v>
+        <v>16448</v>
       </c>
       <c r="L3">
-        <v>24553</v>
+        <v>25224</v>
       </c>
       <c r="M3">
-        <v>35038</v>
+        <v>36016</v>
       </c>
       <c r="N3">
-        <v>38347</v>
+        <v>39437</v>
       </c>
       <c r="O3">
-        <v>40142</v>
+        <v>41285</v>
       </c>
       <c r="P3">
-        <v>45849</v>
+        <v>42892</v>
       </c>
       <c r="Q3">
-        <v>47236</v>
+        <v>43561</v>
       </c>
       <c r="R3">
-        <v>47884</v>
+        <v>47247</v>
       </c>
       <c r="S3">
-        <v>50354</v>
+        <v>48673</v>
       </c>
       <c r="T3">
-        <v>53714</v>
+        <v>49330</v>
       </c>
       <c r="U3">
-        <v>64382</v>
+        <v>55300</v>
       </c>
       <c r="V3">
-        <v>70943</v>
+        <v>66259</v>
       </c>
       <c r="W3">
-        <v>74496</v>
+        <v>73022</v>
       </c>
       <c r="X3">
-        <v>78258</v>
+        <v>76729</v>
       </c>
       <c r="Y3">
-        <v>89212</v>
+        <v>80568</v>
       </c>
       <c r="Z3">
-        <v>106309</v>
+        <v>109318</v>
       </c>
       <c r="AA3">
-        <v>126531</v>
+        <v>130231</v>
       </c>
       <c r="AB3">
-        <v>132144</v>
+        <v>136034</v>
       </c>
       <c r="AC3">
-        <v>159156</v>
+        <v>163842</v>
       </c>
       <c r="AD3">
-        <v>186320</v>
+        <v>192027</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -6885,22 +6918,22 @@
         <v>61</v>
       </c>
       <c r="B4">
-        <v>25572</v>
+        <v>25863</v>
       </c>
       <c r="C4">
-        <v>24238</v>
+        <v>24233</v>
       </c>
       <c r="D4">
-        <v>24104</v>
+        <v>24099</v>
       </c>
       <c r="E4">
-        <v>23698</v>
+        <v>23693</v>
       </c>
       <c r="F4">
-        <v>15496</v>
+        <v>15491</v>
       </c>
       <c r="G4">
-        <v>3534</v>
+        <v>3791</v>
       </c>
       <c r="H4">
         <v>3332</v>
@@ -6909,7 +6942,7 @@
         <v>2370</v>
       </c>
       <c r="J4">
-        <v>1266</v>
+        <v>1303</v>
       </c>
       <c r="K4">
         <v>1115</v>
@@ -6927,34 +6960,34 @@
         <v>351</v>
       </c>
       <c r="P4">
+        <v>331</v>
+      </c>
+      <c r="Q4">
+        <v>323</v>
+      </c>
+      <c r="R4">
         <v>284</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>270</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <v>264</v>
       </c>
-      <c r="S4">
-        <v>243</v>
-      </c>
-      <c r="T4">
+      <c r="U4">
         <v>216</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>153</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>126</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>113</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>101</v>
-      </c>
-      <c r="Y4">
-        <v>74</v>
       </c>
       <c r="Z4">
         <v>47</v>
@@ -6977,13 +7010,13 @@
         <v>62</v>
       </c>
       <c r="B5">
-        <v>3750</v>
+        <v>3851</v>
       </c>
       <c r="C5">
-        <v>1707</v>
+        <v>1758</v>
       </c>
       <c r="D5">
-        <v>2941</v>
+        <v>2943</v>
       </c>
       <c r="E5">
         <v>2736</v>
@@ -6992,19 +7025,19 @@
         <v>1282</v>
       </c>
       <c r="G5">
-        <v>605</v>
+        <v>635</v>
       </c>
       <c r="H5">
         <v>392</v>
       </c>
       <c r="I5">
-        <v>813</v>
+        <v>828</v>
       </c>
       <c r="J5">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K5">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="L5">
         <v>188</v>
@@ -7019,34 +7052,34 @@
         <v>182</v>
       </c>
       <c r="P5">
+        <v>55</v>
+      </c>
+      <c r="Q5">
+        <v>42</v>
+      </c>
+      <c r="R5">
         <v>33</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <v>132</v>
       </c>
-      <c r="R5">
+      <c r="T5">
         <v>53</v>
       </c>
-      <c r="S5">
-        <v>30</v>
-      </c>
-      <c r="T5">
+      <c r="U5">
         <v>31</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>111</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>28</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>20</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>38</v>
-      </c>
-      <c r="Y5">
-        <v>14</v>
       </c>
       <c r="Z5">
         <v>18</v>
@@ -7069,7 +7102,7 @@
         <v>63</v>
       </c>
       <c r="B6">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -7084,7 +7117,7 @@
         <v>520</v>
       </c>
       <c r="G6">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="H6">
         <v>169</v>
@@ -7093,7 +7126,7 @@
         <v>80</v>
       </c>
       <c r="J6">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K6">
         <v>82</v>
@@ -7111,34 +7144,34 @@
         <v>31</v>
       </c>
       <c r="P6">
+        <v>18</v>
+      </c>
+      <c r="Q6">
+        <v>13</v>
+      </c>
+      <c r="R6">
         <v>15</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>24</v>
       </c>
-      <c r="R6">
+      <c r="T6">
         <v>14</v>
       </c>
-      <c r="S6">
-        <v>10</v>
-      </c>
-      <c r="T6">
+      <c r="U6">
         <v>11</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>24</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>7</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>14</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>12</v>
-      </c>
-      <c r="Y6">
-        <v>4</v>
       </c>
       <c r="Z6">
         <v>7</v>
@@ -7161,7 +7194,7 @@
         <v>64</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -7176,13 +7209,13 @@
         <v>23</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H7">
         <v>17</v>
       </c>
       <c r="I7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J7">
         <v>3</v>
@@ -7203,34 +7236,34 @@
         <v>14</v>
       </c>
       <c r="P7">
+        <v>4</v>
+      </c>
+      <c r="Q7">
+        <v>4</v>
+      </c>
+      <c r="R7">
         <v>2</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <v>8</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>2</v>
       </c>
       <c r="T7">
         <v>0</v>
       </c>
       <c r="U7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V7">
         <v>2</v>
       </c>
       <c r="W7">
+        <v>2</v>
+      </c>
+      <c r="X7">
         <v>1</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>4</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
       </c>
       <c r="Z7">
         <v>1</v>
@@ -7253,13 +7286,13 @@
         <v>65</v>
       </c>
       <c r="B8">
-        <v>1049</v>
+        <v>1086</v>
       </c>
       <c r="C8">
-        <v>935</v>
+        <v>953</v>
       </c>
       <c r="D8">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="E8">
         <v>871</v>
@@ -7268,7 +7301,7 @@
         <v>539</v>
       </c>
       <c r="G8">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="H8">
         <v>174</v>
@@ -7277,10 +7310,10 @@
         <v>139</v>
       </c>
       <c r="J8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L8">
         <v>56</v>
@@ -7295,34 +7328,34 @@
         <v>45</v>
       </c>
       <c r="P8">
+        <v>21</v>
+      </c>
+      <c r="Q8">
+        <v>16</v>
+      </c>
+      <c r="R8">
         <v>17</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <v>26</v>
       </c>
-      <c r="R8">
+      <c r="T8">
         <v>14</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <v>13</v>
       </c>
-      <c r="T8">
-        <v>13</v>
-      </c>
-      <c r="U8">
+      <c r="V8">
         <v>41</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>8</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>14</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>12</v>
-      </c>
-      <c r="Y8">
-        <v>4</v>
       </c>
       <c r="Z8">
         <v>7</v>
@@ -7345,7 +7378,7 @@
         <v>66</v>
       </c>
       <c r="B9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -7360,13 +7393,13 @@
         <v>25</v>
       </c>
       <c r="G9">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H9">
         <v>17</v>
       </c>
       <c r="I9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J9">
         <v>4</v>
@@ -7387,34 +7420,34 @@
         <v>16</v>
       </c>
       <c r="P9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R9">
         <v>2</v>
       </c>
       <c r="S9">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="T9">
+        <v>2</v>
+      </c>
+      <c r="U9">
         <v>0</v>
-      </c>
-      <c r="U9">
-        <v>3</v>
       </c>
       <c r="V9">
         <v>3</v>
       </c>
       <c r="W9">
+        <v>3</v>
+      </c>
+      <c r="X9">
         <v>1</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>4</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
       </c>
       <c r="Z9">
         <v>1</v>
@@ -7478,26 +7511,26 @@
       <c r="O10" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="R10" s="3" t="s">
+      <c r="P10" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="U10" s="3" t="s">
+      <c r="S10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="T10" s="3" t="s">
         <v>82</v>
       </c>
       <c r="V10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="W10" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="X10" s="3" t="s">
         <v>74</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="Z10" s="3" t="s">
         <v>74</v>
@@ -7555,13 +7588,16 @@
       <c r="M11" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="Q11" s="3" t="s">
+      <c r="P11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="S11" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="U11" s="3" t="s">
+      <c r="V11" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="X11" s="4" t="s">
+      <c r="Y11" s="4" t="s">
         <v>93</v>
       </c>
       <c r="Z11" s="4" t="s">
@@ -7617,13 +7653,16 @@
       <c r="O12" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="Q12" s="3" t="s">
+      <c r="P12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="S12" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="U12" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="X12" s="4" t="s">
+      <c r="V12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y12" s="4" t="s">
         <v>93</v>
       </c>
       <c r="AD12" s="4" t="s">
@@ -7670,7 +7709,10 @@
       <c r="M13" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="U13" s="3" t="s">
+      <c r="P13" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V13" s="3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -7711,7 +7753,10 @@
       <c r="M14" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="P14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="S14" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -7793,6 +7838,9 @@
       <c r="O16" s="4" t="s">
         <v>95</v>
       </c>
+      <c r="P16" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="2" t="s">
@@ -7837,13 +7885,16 @@
       <c r="O17" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="X17" s="3" t="s">
+      <c r="P17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y17" s="3" t="s">
         <v>80</v>
       </c>
     </row>
@@ -7881,7 +7932,10 @@
       <c r="M18" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="Q18" s="3" t="s">
+      <c r="P18" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="S18" s="3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -7919,16 +7973,16 @@
       <c r="L19" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="P19" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="R19" s="3" t="s">
         <v>74</v>
       </c>
       <c r="T19" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="V19" s="4" t="s">
+      <c r="U19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="W19" s="4" t="s">
         <v>93</v>
       </c>
     </row>
@@ -7977,6 +8031,9 @@
       <c r="F21" s="3" t="s">
         <v>85</v>
       </c>
+      <c r="I21" s="4" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="22" spans="1:27">
       <c r="A22" s="2" t="s">
@@ -8012,6 +8069,9 @@
       <c r="M22" s="3" t="s">
         <v>80</v>
       </c>
+      <c r="P22" s="3" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="23" spans="1:27">
       <c r="A23" s="2" t="s">
@@ -8057,9 +8117,12 @@
         <v>89</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q23" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="S23" s="3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -8106,16 +8169,19 @@
       <c r="N24" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>74</v>
+      <c r="P24" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="T24" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="U24" s="3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -8144,7 +8210,7 @@
       <c r="K25" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="X25" s="3" t="s">
+      <c r="Y25" s="3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -8179,7 +8245,7 @@
         <v>80</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>80</v>
@@ -8204,6 +8270,9 @@
       </c>
       <c r="M27" s="4" t="s">
         <v>111</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:27">
@@ -8283,10 +8352,13 @@
       <c r="M30" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="U30" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="X30" s="4" t="s">
+      <c r="P30" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V30" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y30" s="4" t="s">
         <v>138</v>
       </c>
       <c r="AA30" s="3" t="s">
@@ -8327,6 +8399,9 @@
       <c r="L31" s="3" t="s">
         <v>97</v>
       </c>
+      <c r="P31" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="32" spans="1:27">
       <c r="A32" s="2" t="s">
@@ -8365,7 +8440,10 @@
       <c r="O32" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="X32" s="3" t="s">
+      <c r="P32" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y32" s="3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -8429,16 +8507,19 @@
       <c r="O34" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="Q34" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="U34" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="W34" s="3" t="s">
-        <v>88</v>
+      <c r="P34" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="S34" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V34" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="X34" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y34" s="3" t="s">
         <v>80</v>
       </c>
       <c r="Z34" s="3" t="s">
@@ -8482,6 +8563,9 @@
       <c r="O35" s="4" t="s">
         <v>150</v>
       </c>
+      <c r="P35" s="4" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="36" spans="1:29">
       <c r="A36" s="2" t="s">
@@ -8528,6 +8612,9 @@
       <c r="H37" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="P37" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="38" spans="1:29">
       <c r="A38" s="2" t="s">
@@ -8591,6 +8678,9 @@
       <c r="F40" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="P40" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="41" spans="1:29">
       <c r="A41" s="2" t="s">
@@ -8652,16 +8742,16 @@
       <c r="O42" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="Q42" s="3" t="s">
+      <c r="S42" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="W42" s="4" t="s">
+      <c r="V42" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="X42" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="X42" s="3" t="s">
+      <c r="Y42" s="3" t="s">
         <v>88</v>
       </c>
       <c r="AA42" s="3" t="s">
@@ -8965,7 +9055,7 @@
       <c r="N53" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="S53" s="3" t="s">
+      <c r="Q53" s="3" t="s">
         <v>80</v>
       </c>
     </row>
@@ -9150,7 +9240,7 @@
         <v>74</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>74</v>
@@ -9173,7 +9263,7 @@
       <c r="O61" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="Q61" s="3" t="s">
+      <c r="S61" s="3" t="s">
         <v>80</v>
       </c>
     </row>
@@ -9199,7 +9289,7 @@
       <c r="G62" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="S62" s="3" t="s">
+      <c r="Q62" s="3" t="s">
         <v>80</v>
       </c>
     </row>
@@ -9211,7 +9301,7 @@
         <v>74</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>74</v>
@@ -9240,7 +9330,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:21">
+    <row r="65" spans="1:22">
       <c r="A65" s="2" t="s">
         <v>190</v>
       </c>
@@ -9263,7 +9353,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:21">
+    <row r="66" spans="1:22">
       <c r="A66" s="2" t="s">
         <v>191</v>
       </c>
@@ -9280,7 +9370,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:21">
+    <row r="67" spans="1:22">
       <c r="A67" s="2" t="s">
         <v>192</v>
       </c>
@@ -9303,7 +9393,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:21">
+    <row r="68" spans="1:22">
       <c r="A68" s="2" t="s">
         <v>193</v>
       </c>
@@ -9334,11 +9424,11 @@
       <c r="K68" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="P68" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21">
+      <c r="R68" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22">
       <c r="A69" s="2" t="s">
         <v>194</v>
       </c>
@@ -9358,7 +9448,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="70" spans="1:21">
+    <row r="70" spans="1:22">
       <c r="A70" s="2" t="s">
         <v>195</v>
       </c>
@@ -9392,11 +9482,11 @@
       <c r="L70" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="U70" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21">
+      <c r="V70" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22">
       <c r="A71" s="2" t="s">
         <v>196</v>
       </c>
@@ -9430,11 +9520,11 @@
       <c r="O71" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="R71" s="3" t="s">
+      <c r="T71" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="72" spans="1:21">
+    <row r="72" spans="1:22">
       <c r="A72" s="2" t="s">
         <v>197</v>
       </c>
@@ -9463,7 +9553,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:21">
+    <row r="73" spans="1:22">
       <c r="A73" s="2" t="s">
         <v>198</v>
       </c>
@@ -9483,7 +9573,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:21">
+    <row r="74" spans="1:22">
       <c r="A74" s="2" t="s">
         <v>199</v>
       </c>
@@ -9503,7 +9593,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:21">
+    <row r="75" spans="1:22">
       <c r="A75" s="2" t="s">
         <v>200</v>
       </c>
@@ -9535,7 +9625,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:21">
+    <row r="76" spans="1:22">
       <c r="A76" s="2" t="s">
         <v>201</v>
       </c>
@@ -9552,7 +9642,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="77" spans="1:21">
+    <row r="77" spans="1:22">
       <c r="A77" s="2" t="s">
         <v>202</v>
       </c>
@@ -9581,7 +9671,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="78" spans="1:21">
+    <row r="78" spans="1:22">
       <c r="A78" s="2" t="s">
         <v>205</v>
       </c>
@@ -9601,7 +9691,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="79" spans="1:21">
+    <row r="79" spans="1:22">
       <c r="A79" s="2" t="s">
         <v>206</v>
       </c>
@@ -9624,7 +9714,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="80" spans="1:21">
+    <row r="80" spans="1:22">
       <c r="A80" s="2" t="s">
         <v>207</v>
       </c>
@@ -9644,7 +9734,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="81" spans="1:21">
+    <row r="81" spans="1:22">
       <c r="A81" s="2" t="s">
         <v>208</v>
       </c>
@@ -9664,7 +9754,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="82" spans="1:21">
+    <row r="82" spans="1:22">
       <c r="A82" s="2" t="s">
         <v>209</v>
       </c>
@@ -9678,7 +9768,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="83" spans="1:21">
+    <row r="83" spans="1:22">
       <c r="A83" s="2" t="s">
         <v>210</v>
       </c>
@@ -9695,7 +9785,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="84" spans="1:21">
+    <row r="84" spans="1:22">
       <c r="A84" s="2" t="s">
         <v>211</v>
       </c>
@@ -9721,7 +9811,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="85" spans="1:21">
+    <row r="85" spans="1:22">
       <c r="A85" s="2" t="s">
         <v>212</v>
       </c>
@@ -9735,13 +9825,13 @@
         <v>91</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="86" spans="1:21">
+    <row r="86" spans="1:22">
       <c r="A86" s="2" t="s">
         <v>213</v>
       </c>
@@ -9761,7 +9851,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:21">
+    <row r="87" spans="1:22">
       <c r="A87" s="2" t="s">
         <v>214</v>
       </c>
@@ -9778,7 +9868,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="88" spans="1:21">
+    <row r="88" spans="1:22">
       <c r="A88" s="2" t="s">
         <v>215</v>
       </c>
@@ -9810,7 +9900,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="89" spans="1:21">
+    <row r="89" spans="1:22">
       <c r="A89" s="2" t="s">
         <v>216</v>
       </c>
@@ -9827,7 +9917,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="90" spans="1:21">
+    <row r="90" spans="1:22">
       <c r="A90" s="2" t="s">
         <v>217</v>
       </c>
@@ -9864,11 +9954,11 @@
       <c r="O90" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="U90" s="3" t="s">
+      <c r="V90" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="91" spans="1:21">
+    <row r="91" spans="1:22">
       <c r="A91" s="2" t="s">
         <v>218</v>
       </c>
@@ -9897,7 +9987,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="92" spans="1:21">
+    <row r="92" spans="1:22">
       <c r="A92" s="2" t="s">
         <v>219</v>
       </c>
@@ -9911,7 +10001,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="93" spans="1:21">
+    <row r="93" spans="1:22">
       <c r="A93" s="2" t="s">
         <v>220</v>
       </c>
@@ -9931,7 +10021,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="94" spans="1:21">
+    <row r="94" spans="1:22">
       <c r="A94" s="2" t="s">
         <v>221</v>
       </c>
@@ -9942,7 +10032,7 @@
         <v>74</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>148</v>
@@ -9959,11 +10049,11 @@
       <c r="M94" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="Q94" s="4" t="s">
+      <c r="S94" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:21">
+    <row r="95" spans="1:22">
       <c r="A95" s="2" t="s">
         <v>222</v>
       </c>
@@ -9997,11 +10087,11 @@
       <c r="L95" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="Q95" s="4" t="s">
+      <c r="S95" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:21">
+    <row r="96" spans="1:22">
       <c r="A96" s="2" t="s">
         <v>223</v>
       </c>
@@ -10021,7 +10111,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="97" spans="1:21">
+    <row r="97" spans="1:22">
       <c r="A97" s="2" t="s">
         <v>225</v>
       </c>
@@ -10041,7 +10131,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="98" spans="1:21">
+    <row r="98" spans="1:22">
       <c r="A98" s="2" t="s">
         <v>226</v>
       </c>
@@ -10061,7 +10151,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="99" spans="1:21">
+    <row r="99" spans="1:22">
       <c r="A99" s="2" t="s">
         <v>227</v>
       </c>
@@ -10081,7 +10171,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="100" spans="1:21">
+    <row r="100" spans="1:22">
       <c r="A100" s="2" t="s">
         <v>228</v>
       </c>
@@ -10098,7 +10188,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="101" spans="1:21">
+    <row r="101" spans="1:22">
       <c r="A101" s="2" t="s">
         <v>229</v>
       </c>
@@ -10138,11 +10228,11 @@
       <c r="O101" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="102" spans="1:21">
+      <c r="V101" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22">
       <c r="A102" s="2" t="s">
         <v>230</v>
       </c>
@@ -10165,7 +10255,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="103" spans="1:21">
+    <row r="103" spans="1:22">
       <c r="A103" s="2" t="s">
         <v>232</v>
       </c>
@@ -10184,14 +10274,14 @@
       <c r="F103" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="G103" s="4" t="s">
-        <v>149</v>
+      <c r="G103" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="M103" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="104" spans="1:21">
+    <row r="104" spans="1:22">
       <c r="A104" s="2" t="s">
         <v>233</v>
       </c>
@@ -10217,7 +10307,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="105" spans="1:21">
+    <row r="105" spans="1:22">
       <c r="A105" s="2" t="s">
         <v>234</v>
       </c>
@@ -10243,7 +10333,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="106" spans="1:21">
+    <row r="106" spans="1:22">
       <c r="A106" s="2" t="s">
         <v>235</v>
       </c>
@@ -10260,7 +10350,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="107" spans="1:21">
+    <row r="107" spans="1:22">
       <c r="A107" s="2" t="s">
         <v>236</v>
       </c>
@@ -10283,7 +10373,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="108" spans="1:21">
+    <row r="108" spans="1:22">
       <c r="A108" s="2" t="s">
         <v>237</v>
       </c>
@@ -10303,7 +10393,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="109" spans="1:21">
+    <row r="109" spans="1:22">
       <c r="A109" s="2" t="s">
         <v>238</v>
       </c>
@@ -10320,7 +10410,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="110" spans="1:21">
+    <row r="110" spans="1:22">
       <c r="A110" s="2" t="s">
         <v>239</v>
       </c>
@@ -10331,7 +10421,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="111" spans="1:21">
+    <row r="111" spans="1:22">
       <c r="A111" s="2" t="s">
         <v>240</v>
       </c>
@@ -10354,7 +10444,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="112" spans="1:21">
+    <row r="112" spans="1:22">
       <c r="A112" s="2" t="s">
         <v>241</v>
       </c>
@@ -10442,7 +10532,7 @@
       <c r="L115" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="U115" s="4" t="s">
+      <c r="V115" s="4" t="s">
         <v>100</v>
       </c>
     </row>
@@ -10509,19 +10599,19 @@
       <c r="O117" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="P117" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q117" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="U117" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="W117" s="3" t="s">
+      <c r="R117" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="S117" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V117" s="3" t="s">
         <v>74</v>
       </c>
       <c r="X117" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y117" s="3" t="s">
         <v>74</v>
       </c>
       <c r="AA117" s="3" t="s">
@@ -10632,6 +10722,9 @@
       <c r="F123" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="J123" s="3" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="124" spans="1:29">
       <c r="A124" s="2" t="s">
@@ -10655,7 +10748,7 @@
         <v>257</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>74</v>
@@ -10739,7 +10832,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="129" spans="1:20">
+    <row r="129" spans="1:21">
       <c r="A129" s="2" t="s">
         <v>261</v>
       </c>
@@ -10759,7 +10852,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="130" spans="1:20">
+    <row r="130" spans="1:21">
       <c r="A130" s="2" t="s">
         <v>262</v>
       </c>
@@ -10782,7 +10875,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="131" spans="1:20">
+    <row r="131" spans="1:21">
       <c r="A131" s="2" t="s">
         <v>263</v>
       </c>
@@ -10805,7 +10898,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="132" spans="1:20">
+    <row r="132" spans="1:21">
       <c r="A132" s="2" t="s">
         <v>264</v>
       </c>
@@ -10819,7 +10912,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="133" spans="1:20">
+    <row r="133" spans="1:21">
       <c r="A133" s="2" t="s">
         <v>265</v>
       </c>
@@ -10853,17 +10946,17 @@
       <c r="N133" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="R133" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="S133" s="3" t="s">
+      <c r="Q133" s="3" t="s">
         <v>74</v>
       </c>
       <c r="T133" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="U133" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="134" spans="1:20">
+    <row r="134" spans="1:21">
       <c r="A134" s="2" t="s">
         <v>266</v>
       </c>
@@ -10891,17 +10984,17 @@
       <c r="N134" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="P134" s="3" t="s">
+      <c r="Q134" s="3" t="s">
         <v>74</v>
       </c>
       <c r="R134" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="T134" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="S134" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="135" spans="1:20">
+    </row>
+    <row r="135" spans="1:21">
       <c r="A135" s="2" t="s">
         <v>267</v>
       </c>
@@ -10926,14 +11019,14 @@
       <c r="N135" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="P135" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="S135" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="136" spans="1:20">
+      <c r="Q135" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R135" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21">
       <c r="A136" s="2" t="s">
         <v>269</v>
       </c>
@@ -10956,7 +11049,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="137" spans="1:20">
+    <row r="137" spans="1:21">
       <c r="A137" s="2" t="s">
         <v>270</v>
       </c>
@@ -10979,7 +11072,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="138" spans="1:20">
+    <row r="138" spans="1:21">
       <c r="A138" s="2" t="s">
         <v>272</v>
       </c>
@@ -11002,7 +11095,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="139" spans="1:20">
+    <row r="139" spans="1:21">
       <c r="A139" s="2" t="s">
         <v>273</v>
       </c>
@@ -11022,7 +11115,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="140" spans="1:20">
+    <row r="140" spans="1:21">
       <c r="A140" s="2" t="s">
         <v>274</v>
       </c>
@@ -11054,12 +11147,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="141" spans="1:20">
+    <row r="141" spans="1:21">
       <c r="A141" s="2" t="s">
         <v>275</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>80</v>
@@ -11074,7 +11167,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="142" spans="1:20">
+    <row r="142" spans="1:21">
       <c r="A142" s="2" t="s">
         <v>276</v>
       </c>
@@ -11094,7 +11187,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="143" spans="1:20">
+    <row r="143" spans="1:21">
       <c r="A143" s="2" t="s">
         <v>277</v>
       </c>
@@ -11114,12 +11207,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="144" spans="1:20">
+    <row r="144" spans="1:21">
       <c r="A144" s="2" t="s">
         <v>279</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>88</v>
@@ -11137,7 +11230,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="145" spans="1:23">
+    <row r="145" spans="1:24">
       <c r="A145" s="2" t="s">
         <v>280</v>
       </c>
@@ -11157,7 +11250,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="146" spans="1:23">
+    <row r="146" spans="1:24">
       <c r="A146" s="2" t="s">
         <v>281</v>
       </c>
@@ -11177,7 +11270,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="1:23">
+    <row r="147" spans="1:24">
       <c r="A147" s="2" t="s">
         <v>283</v>
       </c>
@@ -11200,7 +11293,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="148" spans="1:23">
+    <row r="148" spans="1:24">
       <c r="A148" s="2" t="s">
         <v>284</v>
       </c>
@@ -11217,7 +11310,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="149" spans="1:23">
+    <row r="149" spans="1:24">
       <c r="A149" s="2" t="s">
         <v>287</v>
       </c>
@@ -11237,7 +11330,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="150" spans="1:23">
+    <row r="150" spans="1:24">
       <c r="A150" s="2" t="s">
         <v>288</v>
       </c>
@@ -11260,7 +11353,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="151" spans="1:23">
+    <row r="151" spans="1:24">
       <c r="A151" s="2" t="s">
         <v>289</v>
       </c>
@@ -11280,7 +11373,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="152" spans="1:23">
+    <row r="152" spans="1:24">
       <c r="A152" s="2" t="s">
         <v>290</v>
       </c>
@@ -11303,7 +11396,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="153" spans="1:23">
+    <row r="153" spans="1:24">
       <c r="A153" s="2" t="s">
         <v>291</v>
       </c>
@@ -11311,7 +11404,7 @@
         <v>74</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>292</v>
@@ -11326,7 +11419,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="154" spans="1:23">
+    <row r="154" spans="1:24">
       <c r="A154" s="2" t="s">
         <v>293</v>
       </c>
@@ -11352,7 +11445,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="155" spans="1:23">
+    <row r="155" spans="1:24">
       <c r="A155" s="2" t="s">
         <v>294</v>
       </c>
@@ -11371,8 +11464,11 @@
       <c r="I155" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="156" spans="1:23">
+      <c r="Q155" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="156" spans="1:24">
       <c r="A156" s="2" t="s">
         <v>295</v>
       </c>
@@ -11409,14 +11505,14 @@
       <c r="O156" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="Q156" s="3" t="s">
+      <c r="S156" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="W156" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="157" spans="1:23">
+      <c r="X156" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="157" spans="1:24">
       <c r="A157" s="2" t="s">
         <v>296</v>
       </c>
@@ -11433,7 +11529,7 @@
         <v>77</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G157" s="3" t="s">
         <v>85</v>
@@ -11453,14 +11549,14 @@
       <c r="N157" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="Q157" s="3" t="s">
+      <c r="S157" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="U157" s="3" t="s">
+      <c r="V157" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="158" spans="1:23">
+    <row r="158" spans="1:24">
       <c r="A158" s="2" t="s">
         <v>299</v>
       </c>
@@ -11498,7 +11594,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="159" spans="1:23">
+    <row r="159" spans="1:24">
       <c r="A159" s="2" t="s">
         <v>300</v>
       </c>
@@ -11521,7 +11617,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="160" spans="1:23">
+    <row r="160" spans="1:24">
       <c r="A160" s="2" t="s">
         <v>301</v>
       </c>
@@ -11544,7 +11640,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="161" spans="1:16">
+    <row r="161" spans="1:18">
       <c r="A161" s="2" t="s">
         <v>302</v>
       </c>
@@ -11564,7 +11660,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="162" spans="1:16">
+    <row r="162" spans="1:18">
       <c r="A162" s="2" t="s">
         <v>303</v>
       </c>
@@ -11584,7 +11680,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="163" spans="1:16">
+    <row r="163" spans="1:18">
       <c r="A163" s="2" t="s">
         <v>304</v>
       </c>
@@ -11601,7 +11697,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="164" spans="1:16">
+    <row r="164" spans="1:18">
       <c r="A164" s="2" t="s">
         <v>306</v>
       </c>
@@ -11609,7 +11705,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="165" spans="1:16">
+    <row r="165" spans="1:18">
       <c r="A165" s="2" t="s">
         <v>308</v>
       </c>
@@ -11629,7 +11725,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="166" spans="1:16">
+    <row r="166" spans="1:18">
       <c r="A166" s="2" t="s">
         <v>309</v>
       </c>
@@ -11648,6 +11744,9 @@
       <c r="F166" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="G166" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="H166" s="4" t="s">
         <v>93</v>
       </c>
@@ -11658,7 +11757,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="167" spans="1:16">
+    <row r="167" spans="1:18">
       <c r="A167" s="2" t="s">
         <v>310</v>
       </c>
@@ -11672,7 +11771,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="168" spans="1:16">
+    <row r="168" spans="1:18">
       <c r="A168" s="2" t="s">
         <v>311</v>
       </c>
@@ -11692,7 +11791,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="169" spans="1:16">
+    <row r="169" spans="1:18">
       <c r="A169" s="2" t="s">
         <v>312</v>
       </c>
@@ -11709,7 +11808,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="170" spans="1:16">
+    <row r="170" spans="1:18">
       <c r="A170" s="2" t="s">
         <v>313</v>
       </c>
@@ -11726,7 +11825,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="171" spans="1:16">
+    <row r="171" spans="1:18">
       <c r="A171" s="2" t="s">
         <v>314</v>
       </c>
@@ -11743,7 +11842,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="172" spans="1:16">
+    <row r="172" spans="1:18">
       <c r="A172" s="2" t="s">
         <v>315</v>
       </c>
@@ -11771,11 +11870,11 @@
       <c r="J172" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="P172" s="4" t="s">
+      <c r="R172" s="4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="173" spans="1:16">
+    <row r="173" spans="1:18">
       <c r="A173" s="2" t="s">
         <v>316</v>
       </c>
@@ -11798,7 +11897,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="174" spans="1:16">
+    <row r="174" spans="1:18">
       <c r="A174" s="2" t="s">
         <v>317</v>
       </c>
@@ -11817,8 +11916,11 @@
       <c r="F174" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="175" spans="1:16">
+      <c r="Q174" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="175" spans="1:18">
       <c r="A175" s="2" t="s">
         <v>318</v>
       </c>
@@ -11832,7 +11934,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="176" spans="1:16">
+    <row r="176" spans="1:18">
       <c r="A176" s="2" t="s">
         <v>319</v>
       </c>
@@ -11868,6 +11970,9 @@
       <c r="F177" s="3" t="s">
         <v>80</v>
       </c>
+      <c r="G177" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="178" spans="1:9">
       <c r="A178" s="2" t="s">
@@ -12372,16 +12477,16 @@
       <c r="O204" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="Q204" s="3" t="s">
+      <c r="S204" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="U204" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="W204" s="3" t="s">
+      <c r="V204" s="3" t="s">
         <v>74</v>
       </c>
       <c r="X204" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y204" s="3" t="s">
         <v>89</v>
       </c>
       <c r="AA204" s="3" t="s">
@@ -12453,7 +12558,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="209" spans="1:19">
+    <row r="209" spans="1:17">
       <c r="A209" s="2" t="s">
         <v>354</v>
       </c>
@@ -12464,7 +12569,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="210" spans="1:19">
+    <row r="210" spans="1:17">
       <c r="A210" s="2" t="s">
         <v>355</v>
       </c>
@@ -12472,7 +12577,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="211" spans="1:19">
+    <row r="211" spans="1:17">
       <c r="A211" s="2" t="s">
         <v>356</v>
       </c>
@@ -12497,11 +12602,11 @@
       <c r="J211" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="S211" s="4" t="s">
+      <c r="Q211" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="212" spans="1:19">
+    <row r="212" spans="1:17">
       <c r="A212" s="2" t="s">
         <v>358</v>
       </c>
@@ -12521,7 +12626,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="213" spans="1:19">
+    <row r="213" spans="1:17">
       <c r="A213" s="2" t="s">
         <v>359</v>
       </c>
@@ -12538,7 +12643,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="214" spans="1:19">
+    <row r="214" spans="1:17">
       <c r="A214" s="2" t="s">
         <v>360</v>
       </c>
@@ -12549,7 +12654,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="215" spans="1:19">
+    <row r="215" spans="1:17">
       <c r="A215" s="2" t="s">
         <v>361</v>
       </c>
@@ -12566,7 +12671,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="216" spans="1:19">
+    <row r="216" spans="1:17">
       <c r="A216" s="2" t="s">
         <v>362</v>
       </c>
@@ -12586,7 +12691,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="217" spans="1:19">
+    <row r="217" spans="1:17">
       <c r="A217" s="2" t="s">
         <v>363</v>
       </c>
@@ -12606,7 +12711,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="218" spans="1:19">
+    <row r="218" spans="1:17">
       <c r="A218" s="2" t="s">
         <v>364</v>
       </c>
@@ -12626,7 +12731,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="219" spans="1:19">
+    <row r="219" spans="1:17">
       <c r="A219" s="2" t="s">
         <v>365</v>
       </c>
@@ -12646,7 +12751,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="220" spans="1:19">
+    <row r="220" spans="1:17">
       <c r="A220" s="2" t="s">
         <v>366</v>
       </c>
@@ -12663,7 +12768,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="221" spans="1:19">
+    <row r="221" spans="1:17">
       <c r="A221" s="2" t="s">
         <v>367</v>
       </c>
@@ -12671,7 +12776,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="222" spans="1:19">
+    <row r="222" spans="1:17">
       <c r="A222" s="2" t="s">
         <v>368</v>
       </c>
@@ -12688,7 +12793,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="223" spans="1:19">
+    <row r="223" spans="1:17">
       <c r="A223" s="2" t="s">
         <v>369</v>
       </c>
@@ -12702,7 +12807,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="224" spans="1:19">
+    <row r="224" spans="1:17">
       <c r="A224" s="2" t="s">
         <v>370</v>
       </c>
@@ -12860,7 +12965,7 @@
         <v>74</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E236" s="3" t="s">
         <v>88</v>
@@ -12916,7 +13021,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="241" spans="1:17">
+    <row r="241" spans="1:19">
       <c r="A241" s="2" t="s">
         <v>390</v>
       </c>
@@ -12924,7 +13029,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="242" spans="1:17">
+    <row r="242" spans="1:19">
       <c r="A242" s="2" t="s">
         <v>391</v>
       </c>
@@ -12961,11 +13066,11 @@
       <c r="O242" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="Q242" s="4" t="s">
+      <c r="S242" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="243" spans="1:17">
+    <row r="243" spans="1:19">
       <c r="A243" s="2" t="s">
         <v>392</v>
       </c>
@@ -12985,7 +13090,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="244" spans="1:17">
+    <row r="244" spans="1:19">
       <c r="A244" s="2" t="s">
         <v>393</v>
       </c>
@@ -13002,7 +13107,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="245" spans="1:17">
+    <row r="245" spans="1:19">
       <c r="A245" s="2" t="s">
         <v>394</v>
       </c>
@@ -13022,7 +13127,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="246" spans="1:17">
+    <row r="246" spans="1:19">
       <c r="A246" s="2" t="s">
         <v>396</v>
       </c>
@@ -13036,7 +13141,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="247" spans="1:17">
+    <row r="247" spans="1:19">
       <c r="A247" s="2" t="s">
         <v>397</v>
       </c>
@@ -13050,7 +13155,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="248" spans="1:17">
+    <row r="248" spans="1:19">
       <c r="A248" s="2" t="s">
         <v>398</v>
       </c>
@@ -13058,12 +13163,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="249" spans="1:17">
+    <row r="249" spans="1:19">
       <c r="A249" s="2" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="250" spans="1:17">
+    <row r="250" spans="1:19">
       <c r="A250" s="2" t="s">
         <v>400</v>
       </c>
@@ -13074,12 +13179,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="251" spans="1:17">
+    <row r="251" spans="1:19">
       <c r="A251" s="2" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="252" spans="1:17">
+    <row r="252" spans="1:19">
       <c r="A252" s="2" t="s">
         <v>402</v>
       </c>
@@ -13093,7 +13198,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="253" spans="1:17">
+    <row r="253" spans="1:19">
       <c r="A253" s="2" t="s">
         <v>403</v>
       </c>
@@ -13104,7 +13209,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="254" spans="1:17">
+    <row r="254" spans="1:19">
       <c r="A254" s="2" t="s">
         <v>404</v>
       </c>
@@ -13121,7 +13226,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="255" spans="1:17">
+    <row r="255" spans="1:19">
       <c r="A255" s="2" t="s">
         <v>405</v>
       </c>
@@ -13144,7 +13249,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="256" spans="1:17">
+    <row r="256" spans="1:19">
       <c r="A256" s="2" t="s">
         <v>406</v>
       </c>
@@ -13418,7 +13523,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="273" spans="1:23">
+    <row r="273" spans="1:24">
       <c r="A273" s="2" t="s">
         <v>427</v>
       </c>
@@ -13452,11 +13557,11 @@
       <c r="O273" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="W273" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="274" spans="1:23">
+      <c r="X273" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="274" spans="1:24">
       <c r="A274" s="2" t="s">
         <v>428</v>
       </c>
@@ -13479,7 +13584,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="275" spans="1:23">
+    <row r="275" spans="1:24">
       <c r="A275" s="2" t="s">
         <v>429</v>
       </c>
@@ -13499,7 +13604,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="276" spans="1:23">
+    <row r="276" spans="1:24">
       <c r="A276" s="2" t="s">
         <v>430</v>
       </c>
@@ -13522,7 +13627,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="277" spans="1:23">
+    <row r="277" spans="1:24">
       <c r="A277" s="2" t="s">
         <v>431</v>
       </c>
@@ -13539,7 +13644,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="278" spans="1:23">
+    <row r="278" spans="1:24">
       <c r="A278" s="2" t="s">
         <v>432</v>
       </c>
@@ -13553,7 +13658,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="279" spans="1:23">
+    <row r="279" spans="1:24">
       <c r="A279" s="2" t="s">
         <v>433</v>
       </c>
@@ -13570,7 +13675,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="280" spans="1:23">
+    <row r="280" spans="1:24">
       <c r="A280" s="2" t="s">
         <v>434</v>
       </c>
@@ -13599,7 +13704,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="281" spans="1:23">
+    <row r="281" spans="1:24">
       <c r="A281" s="2" t="s">
         <v>435</v>
       </c>
@@ -13631,7 +13736,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="282" spans="1:23">
+    <row r="282" spans="1:24">
       <c r="A282" s="2" t="s">
         <v>436</v>
       </c>
@@ -13654,7 +13759,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="283" spans="1:23">
+    <row r="283" spans="1:24">
       <c r="A283" s="2" t="s">
         <v>437</v>
       </c>
@@ -13680,12 +13785,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="284" spans="1:23">
+    <row r="284" spans="1:24">
       <c r="A284" s="2" t="s">
         <v>438</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>80</v>
@@ -13700,7 +13805,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="285" spans="1:23">
+    <row r="285" spans="1:24">
       <c r="A285" s="2" t="s">
         <v>439</v>
       </c>
@@ -13728,11 +13833,11 @@
       <c r="K285" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="R285" s="3" t="s">
+      <c r="T285" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="286" spans="1:23">
+    <row r="286" spans="1:24">
       <c r="A286" s="2" t="s">
         <v>440</v>
       </c>
@@ -13751,8 +13856,11 @@
       <c r="F286" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="287" spans="1:23">
+      <c r="G286" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="287" spans="1:24">
       <c r="A287" s="2" t="s">
         <v>441</v>
       </c>
@@ -13772,7 +13880,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="288" spans="1:23">
+    <row r="288" spans="1:24">
       <c r="A288" s="2" t="s">
         <v>442</v>
       </c>
@@ -13871,6 +13979,9 @@
       <c r="F292" s="3" t="s">
         <v>89</v>
       </c>
+      <c r="G292" s="3" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="293" spans="1:14">
       <c r="A293" s="2" t="s">
@@ -14115,7 +14226,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="305" spans="1:16">
+    <row r="305" spans="1:18">
       <c r="A305" s="2" t="s">
         <v>461</v>
       </c>
@@ -14146,11 +14257,11 @@
       <c r="K305" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="P305" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="306" spans="1:16">
+      <c r="R305" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="306" spans="1:18">
       <c r="A306" s="2" t="s">
         <v>463</v>
       </c>
@@ -14179,7 +14290,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="307" spans="1:16">
+    <row r="307" spans="1:18">
       <c r="A307" s="2" t="s">
         <v>464</v>
       </c>
@@ -14199,7 +14310,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="308" spans="1:16">
+    <row r="308" spans="1:18">
       <c r="A308" s="2" t="s">
         <v>465</v>
       </c>
@@ -14216,7 +14327,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="309" spans="1:16">
+    <row r="309" spans="1:18">
       <c r="A309" s="2" t="s">
         <v>466</v>
       </c>
@@ -14227,7 +14338,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="310" spans="1:16">
+    <row r="310" spans="1:18">
       <c r="A310" s="2" t="s">
         <v>467</v>
       </c>
@@ -14244,7 +14355,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="311" spans="1:16">
+    <row r="311" spans="1:18">
       <c r="A311" s="2" t="s">
         <v>468</v>
       </c>
@@ -14264,7 +14375,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="312" spans="1:16">
+    <row r="312" spans="1:18">
       <c r="A312" s="2" t="s">
         <v>469</v>
       </c>
@@ -14281,7 +14392,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="313" spans="1:16">
+    <row r="313" spans="1:18">
       <c r="A313" s="2" t="s">
         <v>470</v>
       </c>
@@ -14295,7 +14406,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="314" spans="1:16">
+    <row r="314" spans="1:18">
       <c r="A314" s="2" t="s">
         <v>471</v>
       </c>
@@ -14309,7 +14420,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="315" spans="1:16">
+    <row r="315" spans="1:18">
       <c r="A315" s="2" t="s">
         <v>472</v>
       </c>
@@ -14323,7 +14434,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="316" spans="1:16">
+    <row r="316" spans="1:18">
       <c r="A316" s="2" t="s">
         <v>473</v>
       </c>
@@ -14334,12 +14445,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="317" spans="1:16">
+    <row r="317" spans="1:18">
       <c r="A317" s="2" t="s">
         <v>474</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C317" s="3" t="s">
         <v>74</v>
@@ -14351,7 +14462,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="318" spans="1:16">
+    <row r="318" spans="1:18">
       <c r="A318" s="2" t="s">
         <v>475</v>
       </c>
@@ -14368,7 +14479,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="319" spans="1:16">
+    <row r="319" spans="1:18">
       <c r="A319" s="2" t="s">
         <v>476</v>
       </c>
@@ -14385,7 +14496,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="320" spans="1:16">
+    <row r="320" spans="1:18">
       <c r="A320" s="2" t="s">
         <v>477</v>
       </c>
@@ -14408,7 +14519,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="321" spans="1:23">
+    <row r="321" spans="1:24">
       <c r="A321" s="2" t="s">
         <v>478</v>
       </c>
@@ -14448,23 +14559,23 @@
       <c r="O321" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="P321" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q321" s="3" t="s">
+      <c r="R321" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="S321" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="R321" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="T321" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="V321" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="322" spans="1:23">
+      <c r="U321" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="W321" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="322" spans="1:24">
       <c r="A322" s="2" t="s">
         <v>479</v>
       </c>
@@ -14478,10 +14589,10 @@
         <v>74</v>
       </c>
       <c r="F322" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="323" spans="1:23">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="323" spans="1:24">
       <c r="A323" s="2" t="s">
         <v>480</v>
       </c>
@@ -14504,7 +14615,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="324" spans="1:23">
+    <row r="324" spans="1:24">
       <c r="A324" s="2" t="s">
         <v>481</v>
       </c>
@@ -14526,11 +14637,11 @@
       <c r="G324" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="P324" s="3" t="s">
+      <c r="R324" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="325" spans="1:23">
+    <row r="325" spans="1:24">
       <c r="A325" s="2" t="s">
         <v>482</v>
       </c>
@@ -14541,7 +14652,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="326" spans="1:23">
+    <row r="326" spans="1:24">
       <c r="A326" s="2" t="s">
         <v>483</v>
       </c>
@@ -14561,7 +14672,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="327" spans="1:23">
+    <row r="327" spans="1:24">
       <c r="A327" s="2" t="s">
         <v>484</v>
       </c>
@@ -14581,7 +14692,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="328" spans="1:23">
+    <row r="328" spans="1:24">
       <c r="A328" s="2" t="s">
         <v>485</v>
       </c>
@@ -14601,7 +14712,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="329" spans="1:23">
+    <row r="329" spans="1:24">
       <c r="A329" s="2" t="s">
         <v>486</v>
       </c>
@@ -14618,7 +14729,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="330" spans="1:23">
+    <row r="330" spans="1:24">
       <c r="A330" s="2" t="s">
         <v>487</v>
       </c>
@@ -14635,7 +14746,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="331" spans="1:23">
+    <row r="331" spans="1:24">
       <c r="A331" s="2" t="s">
         <v>488</v>
       </c>
@@ -14651,11 +14762,14 @@
       <c r="F331" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="G331" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="L331" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="332" spans="1:23">
+    <row r="332" spans="1:24">
       <c r="A332" s="2" t="s">
         <v>489</v>
       </c>
@@ -14675,7 +14789,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="333" spans="1:23">
+    <row r="333" spans="1:24">
       <c r="A333" s="2" t="s">
         <v>490</v>
       </c>
@@ -14715,11 +14829,11 @@
       <c r="O333" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="W333" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="334" spans="1:23">
+      <c r="X333" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="334" spans="1:24">
       <c r="A334" s="2" t="s">
         <v>491</v>
       </c>
@@ -14739,7 +14853,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="335" spans="1:23">
+    <row r="335" spans="1:24">
       <c r="A335" s="2" t="s">
         <v>492</v>
       </c>
@@ -14759,7 +14873,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="336" spans="1:23">
+    <row r="336" spans="1:24">
       <c r="A336" s="2" t="s">
         <v>494</v>
       </c>
@@ -14793,11 +14907,11 @@
       <c r="O336" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="P336" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="337" spans="1:25">
+      <c r="R336" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="337" spans="1:23">
       <c r="A337" s="2" t="s">
         <v>495</v>
       </c>
@@ -14825,28 +14939,28 @@
       <c r="L337" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="R337" s="3" t="s">
+      <c r="P337" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q337" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="T337" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="S337" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="T337" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="V337" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y337" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="338" spans="1:25">
+      <c r="U337" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="W337" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="338" spans="1:23">
       <c r="A338" s="2" t="s">
         <v>496</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C338" s="3" t="s">
         <v>74</v>
@@ -14861,7 +14975,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="339" spans="1:25">
+    <row r="339" spans="1:23">
       <c r="A339" s="2" t="s">
         <v>497</v>
       </c>
@@ -14878,7 +14992,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="340" spans="1:25">
+    <row r="340" spans="1:23">
       <c r="A340" s="2" t="s">
         <v>498</v>
       </c>
@@ -14913,7 +15027,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="341" spans="1:25">
+    <row r="341" spans="1:23">
       <c r="A341" s="2" t="s">
         <v>499</v>
       </c>
@@ -14930,7 +15044,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="342" spans="1:25">
+    <row r="342" spans="1:23">
       <c r="A342" s="2" t="s">
         <v>500</v>
       </c>
@@ -14950,7 +15064,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="343" spans="1:25">
+    <row r="343" spans="1:23">
       <c r="A343" s="2" t="s">
         <v>501</v>
       </c>
@@ -14967,7 +15081,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="344" spans="1:25">
+    <row r="344" spans="1:23">
       <c r="A344" s="2" t="s">
         <v>502</v>
       </c>
@@ -14981,7 +15095,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="345" spans="1:25">
+    <row r="345" spans="1:23">
       <c r="A345" s="2" t="s">
         <v>503</v>
       </c>
@@ -15012,11 +15126,11 @@
       <c r="O345" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="Q345" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="346" spans="1:25">
+      <c r="S345" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="346" spans="1:23">
       <c r="A346" s="2" t="s">
         <v>504</v>
       </c>
@@ -15030,7 +15144,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="347" spans="1:25">
+    <row r="347" spans="1:23">
       <c r="A347" s="2" t="s">
         <v>505</v>
       </c>
@@ -15050,7 +15164,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="348" spans="1:25">
+    <row r="348" spans="1:23">
       <c r="A348" s="2" t="s">
         <v>506</v>
       </c>
@@ -15067,7 +15181,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="349" spans="1:25">
+    <row r="349" spans="1:23">
       <c r="A349" s="2" t="s">
         <v>507</v>
       </c>
@@ -15102,7 +15216,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="350" spans="1:25">
+    <row r="350" spans="1:23">
       <c r="A350" s="2" t="s">
         <v>508</v>
       </c>
@@ -15119,7 +15233,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="351" spans="1:25">
+    <row r="351" spans="1:23">
       <c r="A351" s="2" t="s">
         <v>509</v>
       </c>
@@ -15130,7 +15244,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="352" spans="1:25">
+    <row r="352" spans="1:23">
       <c r="A352" s="2" t="s">
         <v>510</v>
       </c>
@@ -15147,7 +15261,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="353" spans="1:17">
+    <row r="353" spans="1:19">
       <c r="A353" s="2" t="s">
         <v>512</v>
       </c>
@@ -15167,7 +15281,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="354" spans="1:17">
+    <row r="354" spans="1:19">
       <c r="A354" s="2" t="s">
         <v>513</v>
       </c>
@@ -15184,7 +15298,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="355" spans="1:17">
+    <row r="355" spans="1:19">
       <c r="A355" s="2" t="s">
         <v>514</v>
       </c>
@@ -15204,7 +15318,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="356" spans="1:17">
+    <row r="356" spans="1:19">
       <c r="A356" s="2" t="s">
         <v>515</v>
       </c>
@@ -15224,7 +15338,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="357" spans="1:17">
+    <row r="357" spans="1:19">
       <c r="A357" s="2" t="s">
         <v>516</v>
       </c>
@@ -15244,7 +15358,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="358" spans="1:17">
+    <row r="358" spans="1:19">
       <c r="A358" s="2" t="s">
         <v>517</v>
       </c>
@@ -15263,11 +15377,11 @@
       <c r="F358" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="Q358" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="359" spans="1:17">
+      <c r="S358" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="359" spans="1:19">
       <c r="A359" s="2" t="s">
         <v>518</v>
       </c>
@@ -15287,7 +15401,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="360" spans="1:17">
+    <row r="360" spans="1:19">
       <c r="A360" s="2" t="s">
         <v>519</v>
       </c>
@@ -15307,7 +15421,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="361" spans="1:17">
+    <row r="361" spans="1:19">
       <c r="A361" s="2" t="s">
         <v>520</v>
       </c>
@@ -15327,7 +15441,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="362" spans="1:17">
+    <row r="362" spans="1:19">
       <c r="A362" s="2" t="s">
         <v>522</v>
       </c>
@@ -15344,7 +15458,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="363" spans="1:17">
+    <row r="363" spans="1:19">
       <c r="A363" s="2" t="s">
         <v>523</v>
       </c>
@@ -15364,7 +15478,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="364" spans="1:17">
+    <row r="364" spans="1:19">
       <c r="A364" s="2" t="s">
         <v>524</v>
       </c>
@@ -15384,7 +15498,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="365" spans="1:17">
+    <row r="365" spans="1:19">
       <c r="A365" s="2" t="s">
         <v>525</v>
       </c>
@@ -15398,7 +15512,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="366" spans="1:17">
+    <row r="366" spans="1:19">
       <c r="A366" s="2" t="s">
         <v>526</v>
       </c>
@@ -15429,11 +15543,11 @@
       <c r="O366" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="P366" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="367" spans="1:17">
+      <c r="R366" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="367" spans="1:19">
       <c r="A367" s="2" t="s">
         <v>527</v>
       </c>
@@ -15450,7 +15564,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="368" spans="1:17">
+    <row r="368" spans="1:19">
       <c r="A368" s="2" t="s">
         <v>528</v>
       </c>
@@ -15722,7 +15836,7 @@
         <v>80</v>
       </c>
       <c r="E383" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F383" s="3" t="s">
         <v>74</v>
@@ -16209,6 +16323,9 @@
       <c r="A414" s="2" t="s">
         <v>576</v>
       </c>
+      <c r="B414" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="D414" s="3" t="s">
         <v>80</v>
       </c>
@@ -16269,7 +16386,7 @@
         <v>80</v>
       </c>
       <c r="D418" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E418" s="3" t="s">
         <v>74</v>
@@ -16615,7 +16732,7 @@
         <v>85</v>
       </c>
       <c r="E441" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F441" s="3" t="s">
         <v>89</v>
@@ -16916,7 +17033,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="465" spans="1:17">
+    <row r="465" spans="1:19">
       <c r="A465" s="2" t="s">
         <v>632</v>
       </c>
@@ -16933,7 +17050,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="466" spans="1:17">
+    <row r="466" spans="1:19">
       <c r="A466" s="2" t="s">
         <v>633</v>
       </c>
@@ -16956,7 +17073,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="467" spans="1:17">
+    <row r="467" spans="1:19">
       <c r="A467" s="2" t="s">
         <v>634</v>
       </c>
@@ -16967,7 +17084,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="468" spans="1:17">
+    <row r="468" spans="1:19">
       <c r="A468" s="2" t="s">
         <v>635</v>
       </c>
@@ -16978,7 +17095,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="469" spans="1:17">
+    <row r="469" spans="1:19">
       <c r="A469" s="2" t="s">
         <v>636</v>
       </c>
@@ -16994,11 +17111,11 @@
       <c r="F469" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="Q469" s="4" t="s">
+      <c r="S469" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="470" spans="1:17">
+    <row r="470" spans="1:19">
       <c r="A470" s="2" t="s">
         <v>638</v>
       </c>
@@ -17024,7 +17141,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="471" spans="1:17">
+    <row r="471" spans="1:19">
       <c r="A471" s="2" t="s">
         <v>639</v>
       </c>
@@ -17044,7 +17161,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="472" spans="1:17">
+    <row r="472" spans="1:19">
       <c r="A472" s="2" t="s">
         <v>640</v>
       </c>
@@ -17061,7 +17178,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="473" spans="1:17">
+    <row r="473" spans="1:19">
       <c r="A473" s="2" t="s">
         <v>641</v>
       </c>
@@ -17072,7 +17189,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="474" spans="1:17">
+    <row r="474" spans="1:19">
       <c r="A474" s="2" t="s">
         <v>642</v>
       </c>
@@ -17095,7 +17212,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="475" spans="1:17">
+    <row r="475" spans="1:19">
       <c r="A475" s="2" t="s">
         <v>643</v>
       </c>
@@ -17112,7 +17229,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="476" spans="1:17">
+    <row r="476" spans="1:19">
       <c r="A476" s="2" t="s">
         <v>644</v>
       </c>
@@ -17126,7 +17243,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="477" spans="1:17">
+    <row r="477" spans="1:19">
       <c r="A477" s="2" t="s">
         <v>645</v>
       </c>
@@ -17140,7 +17257,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="478" spans="1:17">
+    <row r="478" spans="1:19">
       <c r="A478" s="2" t="s">
         <v>646</v>
       </c>
@@ -17160,7 +17277,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="479" spans="1:17">
+    <row r="479" spans="1:19">
       <c r="A479" s="2" t="s">
         <v>647</v>
       </c>
@@ -17177,7 +17294,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="480" spans="1:17">
+    <row r="480" spans="1:19">
       <c r="A480" s="2" t="s">
         <v>648</v>
       </c>
@@ -17347,6 +17464,9 @@
       <c r="F491" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="G491" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="492" spans="1:9">
       <c r="A492" s="2" t="s">
@@ -17687,7 +17807,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="513" spans="1:25">
+    <row r="513" spans="1:23">
       <c r="A513" s="2" t="s">
         <v>682</v>
       </c>
@@ -17719,7 +17839,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="514" spans="1:25">
+    <row r="514" spans="1:23">
       <c r="A514" s="2" t="s">
         <v>683</v>
       </c>
@@ -17736,7 +17856,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="515" spans="1:25">
+    <row r="515" spans="1:23">
       <c r="A515" s="2" t="s">
         <v>684</v>
       </c>
@@ -17744,7 +17864,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="516" spans="1:25">
+    <row r="516" spans="1:23">
       <c r="A516" s="2" t="s">
         <v>685</v>
       </c>
@@ -17758,7 +17878,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="517" spans="1:25">
+    <row r="517" spans="1:23">
       <c r="A517" s="2" t="s">
         <v>686</v>
       </c>
@@ -17766,7 +17886,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="518" spans="1:25">
+    <row r="518" spans="1:23">
       <c r="A518" s="2" t="s">
         <v>687</v>
       </c>
@@ -17783,7 +17903,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="519" spans="1:25">
+    <row r="519" spans="1:23">
       <c r="A519" s="2" t="s">
         <v>688</v>
       </c>
@@ -17800,7 +17920,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="520" spans="1:25">
+    <row r="520" spans="1:23">
       <c r="A520" s="2" t="s">
         <v>689</v>
       </c>
@@ -17829,7 +17949,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="521" spans="1:25">
+    <row r="521" spans="1:23">
       <c r="A521" s="2" t="s">
         <v>690</v>
       </c>
@@ -17837,7 +17957,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="522" spans="1:25">
+    <row r="522" spans="1:23">
       <c r="A522" s="2" t="s">
         <v>691</v>
       </c>
@@ -17868,23 +17988,23 @@
       <c r="K522" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="R522" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="S522" s="3" t="s">
+      <c r="P522" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q522" s="3" t="s">
         <v>77</v>
       </c>
       <c r="T522" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="V522" s="3" t="s">
+      <c r="U522" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="W522" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="Y522" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="523" spans="1:25">
+    </row>
+    <row r="523" spans="1:23">
       <c r="A523" s="2" t="s">
         <v>692</v>
       </c>
@@ -17910,7 +18030,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="524" spans="1:25">
+    <row r="524" spans="1:23">
       <c r="A524" s="2" t="s">
         <v>693</v>
       </c>
@@ -17927,7 +18047,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="525" spans="1:25">
+    <row r="525" spans="1:23">
       <c r="A525" s="2" t="s">
         <v>694</v>
       </c>
@@ -17950,7 +18070,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="526" spans="1:25">
+    <row r="526" spans="1:23">
       <c r="A526" s="2" t="s">
         <v>695</v>
       </c>
@@ -17958,7 +18078,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="527" spans="1:25">
+    <row r="527" spans="1:23">
       <c r="A527" s="2" t="s">
         <v>696</v>
       </c>
@@ -17975,7 +18095,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="528" spans="1:25">
+    <row r="528" spans="1:23">
       <c r="A528" s="2" t="s">
         <v>697</v>
       </c>
@@ -17995,7 +18115,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="529" spans="1:17">
+    <row r="529" spans="1:19">
       <c r="A529" s="2" t="s">
         <v>698</v>
       </c>
@@ -18012,7 +18132,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="530" spans="1:17">
+    <row r="530" spans="1:19">
       <c r="A530" s="2" t="s">
         <v>699</v>
       </c>
@@ -18035,7 +18155,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="531" spans="1:17">
+    <row r="531" spans="1:19">
       <c r="A531" s="2" t="s">
         <v>700</v>
       </c>
@@ -18058,7 +18178,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="532" spans="1:17">
+    <row r="532" spans="1:19">
       <c r="A532" s="2" t="s">
         <v>701</v>
       </c>
@@ -18081,7 +18201,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="533" spans="1:17">
+    <row r="533" spans="1:19">
       <c r="A533" s="2" t="s">
         <v>702</v>
       </c>
@@ -18092,7 +18212,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="534" spans="1:17">
+    <row r="534" spans="1:19">
       <c r="A534" s="2" t="s">
         <v>703</v>
       </c>
@@ -18109,7 +18229,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="535" spans="1:17">
+    <row r="535" spans="1:19">
       <c r="A535" s="2" t="s">
         <v>704</v>
       </c>
@@ -18126,7 +18246,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="536" spans="1:17">
+    <row r="536" spans="1:19">
       <c r="A536" s="2" t="s">
         <v>705</v>
       </c>
@@ -18146,7 +18266,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="537" spans="1:17">
+    <row r="537" spans="1:19">
       <c r="A537" s="2" t="s">
         <v>706</v>
       </c>
@@ -18169,7 +18289,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="538" spans="1:17">
+    <row r="538" spans="1:19">
       <c r="A538" s="2" t="s">
         <v>707</v>
       </c>
@@ -18203,11 +18323,11 @@
       <c r="O538" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="Q538" s="3" t="s">
+      <c r="S538" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="539" spans="1:17">
+    <row r="539" spans="1:19">
       <c r="A539" s="2" t="s">
         <v>708</v>
       </c>
@@ -18227,7 +18347,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="540" spans="1:17">
+    <row r="540" spans="1:19">
       <c r="A540" s="2" t="s">
         <v>709</v>
       </c>
@@ -18238,7 +18358,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="541" spans="1:17">
+    <row r="541" spans="1:19">
       <c r="A541" s="2" t="s">
         <v>710</v>
       </c>
@@ -18246,7 +18366,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="542" spans="1:17">
+    <row r="542" spans="1:19">
       <c r="A542" s="2" t="s">
         <v>711</v>
       </c>
@@ -18254,7 +18374,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="543" spans="1:17">
+    <row r="543" spans="1:19">
       <c r="A543" s="2" t="s">
         <v>712</v>
       </c>
@@ -18280,7 +18400,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="544" spans="1:17">
+    <row r="544" spans="1:19">
       <c r="A544" s="2" t="s">
         <v>713</v>
       </c>
@@ -18300,7 +18420,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="545" spans="1:24">
+    <row r="545" spans="1:25">
       <c r="A545" s="2" t="s">
         <v>714</v>
       </c>
@@ -18314,20 +18434,23 @@
         <v>89</v>
       </c>
     </row>
-    <row r="546" spans="1:24">
+    <row r="546" spans="1:25">
       <c r="A546" s="2" t="s">
         <v>715</v>
       </c>
+      <c r="B546" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="D546" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="547" spans="1:24">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="547" spans="1:25">
       <c r="A547" s="2" t="s">
         <v>716</v>
       </c>
       <c r="B547" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D547" s="3" t="s">
         <v>80</v>
@@ -18336,7 +18459,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="548" spans="1:24">
+    <row r="548" spans="1:25">
       <c r="A548" s="2" t="s">
         <v>717</v>
       </c>
@@ -18370,14 +18493,14 @@
       <c r="L548" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="U548" s="3" t="s">
+      <c r="V548" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="X548" s="4" t="s">
+      <c r="Y548" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="549" spans="1:24">
+    <row r="549" spans="1:25">
       <c r="A549" s="2" t="s">
         <v>718</v>
       </c>
@@ -18385,7 +18508,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="550" spans="1:24">
+    <row r="550" spans="1:25">
       <c r="A550" s="2" t="s">
         <v>719</v>
       </c>
@@ -18399,7 +18522,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="551" spans="1:24">
+    <row r="551" spans="1:25">
       <c r="A551" s="2" t="s">
         <v>720</v>
       </c>
@@ -18425,7 +18548,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="552" spans="1:24">
+    <row r="552" spans="1:25">
       <c r="A552" s="2" t="s">
         <v>721</v>
       </c>
@@ -18448,7 +18571,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="553" spans="1:24">
+    <row r="553" spans="1:25">
       <c r="A553" s="2" t="s">
         <v>722</v>
       </c>
@@ -18474,7 +18597,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="554" spans="1:24">
+    <row r="554" spans="1:25">
       <c r="A554" s="2" t="s">
         <v>723</v>
       </c>
@@ -18482,7 +18605,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="555" spans="1:24">
+    <row r="555" spans="1:25">
       <c r="A555" s="2" t="s">
         <v>724</v>
       </c>
@@ -18493,7 +18616,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="556" spans="1:24">
+    <row r="556" spans="1:25">
       <c r="A556" s="2" t="s">
         <v>725</v>
       </c>
@@ -18504,7 +18627,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="557" spans="1:24">
+    <row r="557" spans="1:25">
       <c r="A557" s="2" t="s">
         <v>726</v>
       </c>
@@ -18518,7 +18641,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="558" spans="1:24">
+    <row r="558" spans="1:25">
       <c r="A558" s="2" t="s">
         <v>727</v>
       </c>
@@ -18529,7 +18652,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="559" spans="1:24">
+    <row r="559" spans="1:25">
       <c r="A559" s="2" t="s">
         <v>728</v>
       </c>
@@ -18564,7 +18687,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="560" spans="1:24">
+    <row r="560" spans="1:25">
       <c r="A560" s="2" t="s">
         <v>729</v>
       </c>
@@ -18578,7 +18701,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="561" spans="1:15">
+    <row r="561" spans="1:17">
       <c r="A561" s="2" t="s">
         <v>730</v>
       </c>
@@ -18595,7 +18718,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="562" spans="1:15">
+    <row r="562" spans="1:17">
       <c r="A562" s="2" t="s">
         <v>731</v>
       </c>
@@ -18609,7 +18732,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="563" spans="1:15">
+    <row r="563" spans="1:17">
       <c r="A563" s="2" t="s">
         <v>732</v>
       </c>
@@ -18646,8 +18769,11 @@
       <c r="O563" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="564" spans="1:15">
+      <c r="Q563" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="564" spans="1:17">
       <c r="A564" s="2" t="s">
         <v>733</v>
       </c>
@@ -18655,7 +18781,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="565" spans="1:15">
+    <row r="565" spans="1:17">
       <c r="A565" s="2" t="s">
         <v>734</v>
       </c>
@@ -18666,7 +18792,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="566" spans="1:15">
+    <row r="566" spans="1:17">
       <c r="A566" s="2" t="s">
         <v>735</v>
       </c>
@@ -18677,12 +18803,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="567" spans="1:15">
+    <row r="567" spans="1:17">
       <c r="A567" s="2" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="568" spans="1:15">
+    <row r="568" spans="1:17">
       <c r="A568" s="2" t="s">
         <v>737</v>
       </c>
@@ -18693,7 +18819,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="569" spans="1:15">
+    <row r="569" spans="1:17">
       <c r="A569" s="2" t="s">
         <v>738</v>
       </c>
@@ -18701,7 +18827,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="570" spans="1:15">
+    <row r="570" spans="1:17">
       <c r="A570" s="2" t="s">
         <v>739</v>
       </c>
@@ -18712,7 +18838,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="571" spans="1:15">
+    <row r="571" spans="1:17">
       <c r="A571" s="2" t="s">
         <v>741</v>
       </c>
@@ -18729,7 +18855,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="572" spans="1:15">
+    <row r="572" spans="1:17">
       <c r="A572" s="2" t="s">
         <v>742</v>
       </c>
@@ -18740,7 +18866,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="573" spans="1:15">
+    <row r="573" spans="1:17">
       <c r="A573" s="2" t="s">
         <v>743</v>
       </c>
@@ -18754,12 +18880,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="574" spans="1:15">
+    <row r="574" spans="1:17">
       <c r="A574" s="2" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="575" spans="1:15">
+    <row r="575" spans="1:17">
       <c r="A575" s="2" t="s">
         <v>745</v>
       </c>
@@ -18773,7 +18899,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="576" spans="1:15">
+    <row r="576" spans="1:17">
       <c r="A576" s="2" t="s">
         <v>746</v>
       </c>
@@ -18885,6 +19011,9 @@
       <c r="F585" s="3" t="s">
         <v>79</v>
       </c>
+      <c r="G585" s="3" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="586" spans="1:7">
       <c r="A586" s="2" t="s">
@@ -18902,6 +19031,9 @@
       <c r="F586" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="G586" s="3" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="587" spans="1:7">
       <c r="A587" s="2" t="s">
@@ -19134,7 +19266,7 @@
       <c r="M606" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="W606" s="3" t="s">
+      <c r="X606" s="3" t="s">
         <v>80</v>
       </c>
       <c r="Z606" s="3" t="s">
@@ -19500,12 +19632,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="641" spans="1:22">
+    <row r="641" spans="1:23">
       <c r="A641" s="2" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="642" spans="1:22">
+    <row r="642" spans="1:23">
       <c r="A642" s="2" t="s">
         <v>812</v>
       </c>
@@ -19531,10 +19663,13 @@
         <v>74</v>
       </c>
     </row>
-    <row r="643" spans="1:22">
+    <row r="643" spans="1:23">
       <c r="A643" s="2" t="s">
         <v>813</v>
       </c>
+      <c r="B643" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="D643" s="3" t="s">
         <v>74</v>
       </c>
@@ -19545,7 +19680,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="644" spans="1:22">
+    <row r="644" spans="1:23">
       <c r="A644" s="2" t="s">
         <v>814</v>
       </c>
@@ -19556,12 +19691,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="645" spans="1:22">
+    <row r="645" spans="1:23">
       <c r="A645" s="2" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="646" spans="1:22">
+    <row r="646" spans="1:23">
       <c r="A646" s="2" t="s">
         <v>816</v>
       </c>
@@ -19587,7 +19722,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="647" spans="1:22">
+    <row r="647" spans="1:23">
       <c r="A647" s="2" t="s">
         <v>817</v>
       </c>
@@ -19595,7 +19730,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="648" spans="1:22">
+    <row r="648" spans="1:23">
       <c r="A648" s="2" t="s">
         <v>818</v>
       </c>
@@ -19618,7 +19753,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="649" spans="1:22">
+    <row r="649" spans="1:23">
       <c r="A649" s="2" t="s">
         <v>819</v>
       </c>
@@ -19629,7 +19764,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="650" spans="1:22">
+    <row r="650" spans="1:23">
       <c r="A650" s="2" t="s">
         <v>820</v>
       </c>
@@ -19649,7 +19784,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="651" spans="1:22">
+    <row r="651" spans="1:23">
       <c r="A651" s="2" t="s">
         <v>821</v>
       </c>
@@ -19675,7 +19810,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="652" spans="1:22">
+    <row r="652" spans="1:23">
       <c r="A652" s="2" t="s">
         <v>822</v>
       </c>
@@ -19709,28 +19844,28 @@
       <c r="L652" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="R652" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="T652" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="U652" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="V652" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="653" spans="1:22">
+      <c r="W652" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="653" spans="1:23">
       <c r="A653" s="2" t="s">
         <v>823</v>
       </c>
       <c r="D653" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="Q653" s="4" t="s">
+      <c r="S653" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="654" spans="1:22">
+    <row r="654" spans="1:23">
       <c r="A654" s="2" t="s">
         <v>824</v>
       </c>
@@ -19744,7 +19879,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="655" spans="1:22">
+    <row r="655" spans="1:23">
       <c r="A655" s="2" t="s">
         <v>825</v>
       </c>
@@ -19755,7 +19890,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="656" spans="1:22">
+    <row r="656" spans="1:23">
       <c r="A656" s="2" t="s">
         <v>826</v>
       </c>
@@ -19799,6 +19934,9 @@
       <c r="A658" s="2" t="s">
         <v>828</v>
       </c>
+      <c r="B658" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="C658" s="3" t="s">
         <v>74</v>
       </c>
@@ -20244,7 +20382,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="689" spans="1:21">
+    <row r="689" spans="1:22">
       <c r="A689" s="2" t="s">
         <v>863</v>
       </c>
@@ -20281,8 +20419,11 @@
       <c r="N689" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="690" spans="1:21">
+      <c r="Q689" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="690" spans="1:22">
       <c r="A690" s="2" t="s">
         <v>864</v>
       </c>
@@ -20296,7 +20437,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="691" spans="1:21">
+    <row r="691" spans="1:22">
       <c r="A691" s="2" t="s">
         <v>865</v>
       </c>
@@ -20319,7 +20460,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="692" spans="1:21">
+    <row r="692" spans="1:22">
       <c r="A692" s="2" t="s">
         <v>866</v>
       </c>
@@ -20333,7 +20474,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="693" spans="1:21">
+    <row r="693" spans="1:22">
       <c r="A693" s="2" t="s">
         <v>867</v>
       </c>
@@ -20350,7 +20491,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="694" spans="1:21">
+    <row r="694" spans="1:22">
       <c r="A694" s="2" t="s">
         <v>868</v>
       </c>
@@ -20382,7 +20523,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="695" spans="1:21">
+    <row r="695" spans="1:22">
       <c r="A695" s="2" t="s">
         <v>869</v>
       </c>
@@ -20399,7 +20540,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="696" spans="1:21">
+    <row r="696" spans="1:22">
       <c r="A696" s="2" t="s">
         <v>870</v>
       </c>
@@ -20413,7 +20554,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="697" spans="1:21">
+    <row r="697" spans="1:22">
       <c r="A697" s="2" t="s">
         <v>871</v>
       </c>
@@ -20439,7 +20580,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="698" spans="1:21">
+    <row r="698" spans="1:22">
       <c r="A698" s="2" t="s">
         <v>872</v>
       </c>
@@ -20456,7 +20597,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="699" spans="1:21">
+    <row r="699" spans="1:22">
       <c r="A699" s="2" t="s">
         <v>873</v>
       </c>
@@ -20467,7 +20608,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="700" spans="1:21">
+    <row r="700" spans="1:22">
       <c r="A700" s="2" t="s">
         <v>874</v>
       </c>
@@ -20498,14 +20639,14 @@
       <c r="K700" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="P700" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="T700" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="701" spans="1:21">
+      <c r="R700" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="U700" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="701" spans="1:22">
       <c r="A701" s="2" t="s">
         <v>875</v>
       </c>
@@ -20539,14 +20680,14 @@
       <c r="L701" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="Q701" s="3" t="s">
+      <c r="S701" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="U701" s="4" t="s">
+      <c r="V701" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="702" spans="1:21">
+    <row r="702" spans="1:22">
       <c r="A702" s="2" t="s">
         <v>876</v>
       </c>
@@ -20569,7 +20710,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="703" spans="1:21">
+    <row r="703" spans="1:22">
       <c r="A703" s="2" t="s">
         <v>877</v>
       </c>
@@ -20595,7 +20736,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="704" spans="1:21">
+    <row r="704" spans="1:22">
       <c r="A704" s="2" t="s">
         <v>878</v>
       </c>
@@ -20612,7 +20753,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="705" spans="1:23">
+    <row r="705" spans="1:24">
       <c r="A705" s="2" t="s">
         <v>879</v>
       </c>
@@ -20629,7 +20770,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="706" spans="1:23">
+    <row r="706" spans="1:24">
       <c r="A706" s="2" t="s">
         <v>880</v>
       </c>
@@ -20666,14 +20807,14 @@
       <c r="O706" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="U706" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="W706" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="707" spans="1:23">
+      <c r="V706" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="X706" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="707" spans="1:24">
       <c r="A707" s="2" t="s">
         <v>881</v>
       </c>
@@ -20684,7 +20825,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="708" spans="1:23">
+    <row r="708" spans="1:24">
       <c r="A708" s="2" t="s">
         <v>882</v>
       </c>
@@ -20698,7 +20839,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="709" spans="1:23">
+    <row r="709" spans="1:24">
       <c r="A709" s="2" t="s">
         <v>883</v>
       </c>
@@ -20721,7 +20862,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="710" spans="1:23">
+    <row r="710" spans="1:24">
       <c r="A710" s="2" t="s">
         <v>885</v>
       </c>
@@ -20744,7 +20885,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="711" spans="1:23">
+    <row r="711" spans="1:24">
       <c r="A711" s="2" t="s">
         <v>886</v>
       </c>
@@ -20761,7 +20902,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="712" spans="1:23">
+    <row r="712" spans="1:24">
       <c r="A712" s="2" t="s">
         <v>887</v>
       </c>
@@ -20778,7 +20919,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="713" spans="1:23">
+    <row r="713" spans="1:24">
       <c r="A713" s="2" t="s">
         <v>888</v>
       </c>
@@ -20792,7 +20933,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="714" spans="1:23">
+    <row r="714" spans="1:24">
       <c r="A714" s="2" t="s">
         <v>889</v>
       </c>
@@ -20803,7 +20944,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="715" spans="1:23">
+    <row r="715" spans="1:24">
       <c r="A715" s="2" t="s">
         <v>890</v>
       </c>
@@ -20829,12 +20970,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="716" spans="1:23">
+    <row r="716" spans="1:24">
       <c r="A716" s="2" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="717" spans="1:23">
+    <row r="717" spans="1:24">
       <c r="A717" s="2" t="s">
         <v>892</v>
       </c>
@@ -20842,7 +20983,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="718" spans="1:23">
+    <row r="718" spans="1:24">
       <c r="A718" s="2" t="s">
         <v>893</v>
       </c>
@@ -20856,7 +20997,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="719" spans="1:23">
+    <row r="719" spans="1:24">
       <c r="A719" s="2" t="s">
         <v>894</v>
       </c>
@@ -20867,7 +21008,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="720" spans="1:23">
+    <row r="720" spans="1:24">
       <c r="A720" s="2" t="s">
         <v>895</v>
       </c>
@@ -20890,7 +21031,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="721" spans="1:16">
+    <row r="721" spans="1:18">
       <c r="A721" s="2" t="s">
         <v>896</v>
       </c>
@@ -20909,11 +21050,11 @@
       <c r="F721" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="P721" s="4" t="s">
+      <c r="R721" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="722" spans="1:16">
+    <row r="722" spans="1:18">
       <c r="A722" s="2" t="s">
         <v>897</v>
       </c>
@@ -20921,15 +21062,15 @@
         <v>80</v>
       </c>
       <c r="D722" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="723" spans="1:16">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="723" spans="1:18">
       <c r="A723" s="2" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="724" spans="1:16">
+    <row r="724" spans="1:18">
       <c r="A724" s="2" t="s">
         <v>899</v>
       </c>
@@ -20964,7 +21105,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="725" spans="1:16">
+    <row r="725" spans="1:18">
       <c r="A725" s="2" t="s">
         <v>900</v>
       </c>
@@ -20975,7 +21116,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="726" spans="1:16">
+    <row r="726" spans="1:18">
       <c r="A726" s="2" t="s">
         <v>901</v>
       </c>
@@ -20995,12 +21136,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="727" spans="1:16">
+    <row r="727" spans="1:18">
       <c r="A727" s="2" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="728" spans="1:16">
+    <row r="728" spans="1:18">
       <c r="A728" s="2" t="s">
         <v>903</v>
       </c>
@@ -21017,7 +21158,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="729" spans="1:16">
+    <row r="729" spans="1:18">
       <c r="A729" s="2" t="s">
         <v>905</v>
       </c>
@@ -21028,12 +21169,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="730" spans="1:16">
+    <row r="730" spans="1:18">
       <c r="A730" s="2" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="731" spans="1:16">
+    <row r="731" spans="1:18">
       <c r="A731" s="2" t="s">
         <v>907</v>
       </c>
@@ -21047,7 +21188,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="732" spans="1:16">
+    <row r="732" spans="1:18">
       <c r="A732" s="2" t="s">
         <v>908</v>
       </c>
@@ -21055,7 +21196,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="733" spans="1:16">
+    <row r="733" spans="1:18">
       <c r="A733" s="2" t="s">
         <v>909</v>
       </c>
@@ -21072,12 +21213,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="734" spans="1:16">
+    <row r="734" spans="1:18">
       <c r="A734" s="2" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="735" spans="1:16">
+    <row r="735" spans="1:18">
       <c r="A735" s="2" t="s">
         <v>911</v>
       </c>
@@ -21085,7 +21226,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="736" spans="1:16">
+    <row r="736" spans="1:18">
       <c r="A736" s="2" t="s">
         <v>912</v>
       </c>
@@ -21101,7 +21242,7 @@
         <v>913</v>
       </c>
       <c r="B737" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C737" s="3" t="s">
         <v>74</v>
@@ -21301,6 +21442,9 @@
       <c r="A755" s="2" t="s">
         <v>932</v>
       </c>
+      <c r="B755" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="D755" s="3" t="s">
         <v>88</v>
       </c>
@@ -21358,7 +21502,7 @@
         <v>939</v>
       </c>
       <c r="B762" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D762" s="3" t="s">
         <v>78</v>
@@ -21401,7 +21545,7 @@
       <c r="K763" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="U763" s="3" t="s">
+      <c r="V763" s="3" t="s">
         <v>80</v>
       </c>
     </row>
@@ -21436,13 +21580,13 @@
       <c r="K764" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="Q764" s="3" t="s">
+      <c r="S764" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="U764" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="X764" s="3" t="s">
+      <c r="V764" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y764" s="3" t="s">
         <v>72</v>
       </c>
     </row>
@@ -21512,7 +21656,7 @@
       <c r="O766" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="Q766" s="4" t="s">
+      <c r="S766" s="4" t="s">
         <v>100</v>
       </c>
       <c r="Z766" s="3" t="s">
@@ -21572,6 +21716,9 @@
       <c r="F769" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="G769" s="3" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="770" spans="1:29">
       <c r="A770" s="2" t="s">
@@ -21701,16 +21848,16 @@
       <c r="O775" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="Q775" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="U775" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="W775" s="3" t="s">
-        <v>74</v>
+      <c r="S775" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V775" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="X775" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y775" s="3" t="s">
         <v>74</v>
       </c>
       <c r="AA775" s="3" t="s">
@@ -21724,6 +21871,9 @@
       <c r="A776" s="2" t="s">
         <v>953</v>
       </c>
+      <c r="B776" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="F776" s="4" t="s">
         <v>93</v>
       </c>
@@ -21814,16 +21964,16 @@
       <c r="O782" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="Q782" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="U782" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="W782" s="3" t="s">
+      <c r="S782" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V782" s="3" t="s">
         <v>74</v>
       </c>
       <c r="X782" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y782" s="3" t="s">
         <v>74</v>
       </c>
       <c r="AA782" s="3" t="s">
@@ -21852,7 +22002,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="785" spans="1:19">
+    <row r="785" spans="1:17">
       <c r="A785" s="2" t="s">
         <v>962</v>
       </c>
@@ -21860,7 +22010,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="786" spans="1:19">
+    <row r="786" spans="1:17">
       <c r="A786" s="2" t="s">
         <v>963</v>
       </c>
@@ -21895,7 +22045,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="787" spans="1:19">
+    <row r="787" spans="1:17">
       <c r="A787" s="2" t="s">
         <v>964</v>
       </c>
@@ -21921,7 +22071,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="788" spans="1:19">
+    <row r="788" spans="1:17">
       <c r="A788" s="2" t="s">
         <v>965</v>
       </c>
@@ -21941,7 +22091,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="789" spans="1:19">
+    <row r="789" spans="1:17">
       <c r="A789" s="2" t="s">
         <v>966</v>
       </c>
@@ -21964,7 +22114,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="790" spans="1:19">
+    <row r="790" spans="1:17">
       <c r="A790" s="2" t="s">
         <v>967</v>
       </c>
@@ -21981,12 +22131,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="791" spans="1:19">
+    <row r="791" spans="1:17">
       <c r="A791" s="2" t="s">
         <v>968</v>
       </c>
       <c r="B791" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C791" s="3" t="s">
         <v>74</v>
@@ -21995,7 +22145,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="792" spans="1:19">
+    <row r="792" spans="1:17">
       <c r="A792" s="2" t="s">
         <v>969</v>
       </c>
@@ -22012,7 +22162,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="793" spans="1:19">
+    <row r="793" spans="1:17">
       <c r="A793" s="2" t="s">
         <v>970</v>
       </c>
@@ -22037,11 +22187,11 @@
       <c r="N793" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="S793" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="794" spans="1:19">
+      <c r="Q793" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="794" spans="1:17">
       <c r="A794" s="2" t="s">
         <v>971</v>
       </c>
@@ -22058,7 +22208,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="795" spans="1:19">
+    <row r="795" spans="1:17">
       <c r="A795" s="2" t="s">
         <v>972</v>
       </c>
@@ -22069,7 +22219,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="796" spans="1:19">
+    <row r="796" spans="1:17">
       <c r="A796" s="2" t="s">
         <v>973</v>
       </c>
@@ -22091,13 +22241,16 @@
       <c r="H796" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="797" spans="1:19">
+      <c r="Q796" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="797" spans="1:17">
       <c r="A797" s="2" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="798" spans="1:19">
+    <row r="798" spans="1:17">
       <c r="A798" s="2" t="s">
         <v>975</v>
       </c>
@@ -22114,7 +22267,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="799" spans="1:19">
+    <row r="799" spans="1:17">
       <c r="A799" s="2" t="s">
         <v>976</v>
       </c>
@@ -22137,7 +22290,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="800" spans="1:19">
+    <row r="800" spans="1:17">
       <c r="A800" s="2" t="s">
         <v>977</v>
       </c>
@@ -22496,16 +22649,16 @@
       <c r="L826" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="P826" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="R826" s="3" t="s">
         <v>74</v>
       </c>
       <c r="T826" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="V826" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="U826" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="W826" s="3" t="s">
         <v>80</v>
       </c>
     </row>
@@ -22632,7 +22785,7 @@
       <c r="K831" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="Q831" s="4" t="s">
+      <c r="S831" s="4" t="s">
         <v>100</v>
       </c>
     </row>
@@ -23000,6 +23153,9 @@
       <c r="F856" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="G856" s="3" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="857" spans="1:15">
       <c r="A857" s="2" t="s">
@@ -23116,12 +23272,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="865" spans="1:19">
+    <row r="865" spans="1:17">
       <c r="A865" s="2" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="866" spans="1:19">
+    <row r="866" spans="1:17">
       <c r="A866" s="2" t="s">
         <v>1046</v>
       </c>
@@ -23135,7 +23291,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="867" spans="1:19">
+    <row r="867" spans="1:17">
       <c r="A867" s="2" t="s">
         <v>1047</v>
       </c>
@@ -23152,7 +23308,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="868" spans="1:19">
+    <row r="868" spans="1:17">
       <c r="A868" s="2" t="s">
         <v>1048</v>
       </c>
@@ -23172,18 +23328,18 @@
         <v>74</v>
       </c>
       <c r="H868" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I868" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="869" spans="1:19">
+    <row r="869" spans="1:17">
       <c r="A869" s="2" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="870" spans="1:19">
+    <row r="870" spans="1:17">
       <c r="A870" s="2" t="s">
         <v>1050</v>
       </c>
@@ -23194,7 +23350,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="871" spans="1:19">
+    <row r="871" spans="1:17">
       <c r="A871" s="2" t="s">
         <v>1051</v>
       </c>
@@ -23202,7 +23358,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="872" spans="1:19">
+    <row r="872" spans="1:17">
       <c r="A872" s="2" t="s">
         <v>1052</v>
       </c>
@@ -23213,12 +23369,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="873" spans="1:19">
+    <row r="873" spans="1:17">
       <c r="A873" s="2" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="874" spans="1:19">
+    <row r="874" spans="1:17">
       <c r="A874" s="2" t="s">
         <v>1054</v>
       </c>
@@ -23226,12 +23382,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="875" spans="1:19">
+    <row r="875" spans="1:17">
       <c r="A875" s="2" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="876" spans="1:19">
+    <row r="876" spans="1:17">
       <c r="A876" s="2" t="s">
         <v>1056</v>
       </c>
@@ -23242,7 +23398,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="877" spans="1:19">
+    <row r="877" spans="1:17">
       <c r="A877" s="2" t="s">
         <v>1057</v>
       </c>
@@ -23253,7 +23409,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="878" spans="1:19">
+    <row r="878" spans="1:17">
       <c r="A878" s="2" t="s">
         <v>1058</v>
       </c>
@@ -23270,12 +23426,12 @@
         <v>292</v>
       </c>
     </row>
-    <row r="879" spans="1:19">
+    <row r="879" spans="1:17">
       <c r="A879" s="2" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="880" spans="1:19">
+    <row r="880" spans="1:17">
       <c r="A880" s="2" t="s">
         <v>1060</v>
       </c>
@@ -23294,7 +23450,7 @@
       <c r="N880" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="S880" s="4" t="s">
+      <c r="Q880" s="4" t="s">
         <v>100</v>
       </c>
     </row>
@@ -23398,8 +23554,8 @@
       <c r="F887" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G887" s="4" t="s">
-        <v>100</v>
+      <c r="G887" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="888" spans="1:7">
@@ -23567,7 +23723,7 @@
       <c r="M901" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="W901" s="3" t="s">
+      <c r="X901" s="3" t="s">
         <v>74</v>
       </c>
       <c r="Z901" s="3" t="s">
@@ -23608,25 +23764,25 @@
       <c r="O902" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="Q902" s="4" t="s">
+      <c r="P902" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q902" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="S902" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="R902" s="3" t="s">
+      <c r="T902" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="S902" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="T902" s="3" t="s">
+      <c r="U902" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="V902" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="W902" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y902" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="X902" s="3" t="s">
         <v>80</v>
       </c>
     </row>
@@ -23766,7 +23922,7 @@
       <c r="J909" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="Q909" s="3" t="s">
+      <c r="S909" s="3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -23835,18 +23991,18 @@
       <c r="O912" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="Q912" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="U912" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="W912" s="3" t="s">
-        <v>80</v>
+      <c r="S912" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V912" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="X912" s="3" t="s">
         <v>80</v>
       </c>
+      <c r="Y912" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="Z912" s="3" t="s">
         <v>74</v>
       </c>
@@ -23854,7 +24010,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="913" spans="1:21">
+    <row r="913" spans="1:22">
       <c r="A913" s="2" t="s">
         <v>1094</v>
       </c>
@@ -23865,7 +24021,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="914" spans="1:21">
+    <row r="914" spans="1:22">
       <c r="A914" s="2" t="s">
         <v>1095</v>
       </c>
@@ -23876,7 +24032,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="915" spans="1:21">
+    <row r="915" spans="1:22">
       <c r="A915" s="2" t="s">
         <v>1096</v>
       </c>
@@ -23890,7 +24046,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="916" spans="1:21">
+    <row r="916" spans="1:22">
       <c r="A916" s="2" t="s">
         <v>1097</v>
       </c>
@@ -23921,11 +24077,11 @@
       <c r="K916" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="U916" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="917" spans="1:21">
+      <c r="V916" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="917" spans="1:22">
       <c r="A917" s="2" t="s">
         <v>1098</v>
       </c>
@@ -23945,7 +24101,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="918" spans="1:21">
+    <row r="918" spans="1:22">
       <c r="A918" s="2" t="s">
         <v>1099</v>
       </c>
@@ -23968,7 +24124,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="919" spans="1:21">
+    <row r="919" spans="1:22">
       <c r="A919" s="2" t="s">
         <v>1100</v>
       </c>
@@ -23985,7 +24141,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="920" spans="1:21">
+    <row r="920" spans="1:22">
       <c r="A920" s="2" t="s">
         <v>1101</v>
       </c>
@@ -24005,7 +24161,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="921" spans="1:21">
+    <row r="921" spans="1:22">
       <c r="A921" s="2" t="s">
         <v>1102</v>
       </c>
@@ -24028,7 +24184,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="922" spans="1:21">
+    <row r="922" spans="1:22">
       <c r="A922" s="2" t="s">
         <v>1103</v>
       </c>
@@ -24039,7 +24195,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="923" spans="1:21">
+    <row r="923" spans="1:22">
       <c r="A923" s="2" t="s">
         <v>1104</v>
       </c>
@@ -24047,7 +24203,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="924" spans="1:21">
+    <row r="924" spans="1:22">
       <c r="A924" s="2" t="s">
         <v>1106</v>
       </c>
@@ -24058,7 +24214,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="925" spans="1:21">
+    <row r="925" spans="1:22">
       <c r="A925" s="2" t="s">
         <v>1107</v>
       </c>
@@ -24072,12 +24228,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="926" spans="1:21">
+    <row r="926" spans="1:22">
       <c r="A926" s="2" t="s">
         <v>1108</v>
       </c>
     </row>
-    <row r="927" spans="1:21">
+    <row r="927" spans="1:22">
       <c r="A927" s="2" t="s">
         <v>1109</v>
       </c>
@@ -24085,7 +24241,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="928" spans="1:21">
+    <row r="928" spans="1:22">
       <c r="A928" s="2" t="s">
         <v>1110</v>
       </c>
@@ -24516,7 +24672,7 @@
       <c r="N951" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="U951" s="3" t="s">
+      <c r="V951" s="3" t="s">
         <v>89</v>
       </c>
       <c r="AA951" s="3" t="s">
@@ -24557,16 +24713,16 @@
       <c r="L952" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="P952" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="R952" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="T952" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="V952" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="U952" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="W952" s="4" t="s">
         <v>149</v>
       </c>
     </row>
@@ -24909,6 +25065,9 @@
       <c r="A972" s="2" t="s">
         <v>1157</v>
       </c>
+      <c r="B972" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="973" spans="1:8">
       <c r="A973" s="2" t="s">
@@ -24966,7 +25125,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="977" spans="1:21">
+    <row r="977" spans="1:22">
       <c r="A977" s="2" t="s">
         <v>1162</v>
       </c>
@@ -24983,7 +25142,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="978" spans="1:21">
+    <row r="978" spans="1:22">
       <c r="A978" s="2" t="s">
         <v>1163</v>
       </c>
@@ -25006,7 +25165,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="979" spans="1:21">
+    <row r="979" spans="1:22">
       <c r="A979" s="2" t="s">
         <v>1164</v>
       </c>
@@ -25040,11 +25199,11 @@
       <c r="K979" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="U979" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="980" spans="1:21">
+      <c r="V979" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="980" spans="1:22">
       <c r="A980" s="2" t="s">
         <v>1165</v>
       </c>
@@ -25055,12 +25214,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="981" spans="1:21">
+    <row r="981" spans="1:22">
       <c r="A981" s="2" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="982" spans="1:21">
+    <row r="982" spans="1:22">
       <c r="A982" s="2" t="s">
         <v>1167</v>
       </c>
@@ -25068,12 +25227,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="983" spans="1:21">
+    <row r="983" spans="1:22">
       <c r="A983" s="2" t="s">
         <v>1168</v>
       </c>
     </row>
-    <row r="984" spans="1:21">
+    <row r="984" spans="1:22">
       <c r="A984" s="2" t="s">
         <v>1169</v>
       </c>
@@ -25081,7 +25240,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="985" spans="1:21">
+    <row r="985" spans="1:22">
       <c r="A985" s="2" t="s">
         <v>1170</v>
       </c>
@@ -25092,7 +25251,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="986" spans="1:21">
+    <row r="986" spans="1:22">
       <c r="A986" s="2" t="s">
         <v>1172</v>
       </c>
@@ -25103,7 +25262,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="987" spans="1:21">
+    <row r="987" spans="1:22">
       <c r="A987" s="2" t="s">
         <v>1173</v>
       </c>
@@ -25117,7 +25276,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="988" spans="1:21">
+    <row r="988" spans="1:22">
       <c r="A988" s="2" t="s">
         <v>1174</v>
       </c>
@@ -25128,7 +25287,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="989" spans="1:21">
+    <row r="989" spans="1:22">
       <c r="A989" s="2" t="s">
         <v>1176</v>
       </c>
@@ -25136,7 +25295,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="990" spans="1:21">
+    <row r="990" spans="1:22">
       <c r="A990" s="2" t="s">
         <v>1177</v>
       </c>
@@ -25144,7 +25303,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="991" spans="1:21">
+    <row r="991" spans="1:22">
       <c r="A991" s="2" t="s">
         <v>1178</v>
       </c>
@@ -25155,7 +25314,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="992" spans="1:21">
+    <row r="992" spans="1:22">
       <c r="A992" s="2" t="s">
         <v>1179</v>
       </c>
@@ -25269,7 +25428,7 @@
         <v>1190</v>
       </c>
       <c r="E1003" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="1004" spans="1:6">
@@ -25601,22 +25760,22 @@
         <v>88</v>
       </c>
     </row>
-    <row r="1041" spans="1:21">
+    <row r="1041" spans="1:22">
       <c r="A1041" s="2" t="s">
         <v>1228</v>
       </c>
     </row>
-    <row r="1042" spans="1:21">
+    <row r="1042" spans="1:22">
       <c r="A1042" s="2" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="1043" spans="1:21">
+    <row r="1043" spans="1:22">
       <c r="A1043" s="2" t="s">
         <v>1230</v>
       </c>
     </row>
-    <row r="1044" spans="1:21">
+    <row r="1044" spans="1:22">
       <c r="A1044" s="2" t="s">
         <v>1231</v>
       </c>
@@ -25627,17 +25786,17 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1045" spans="1:21">
+    <row r="1045" spans="1:22">
       <c r="A1045" s="2" t="s">
         <v>1232</v>
       </c>
     </row>
-    <row r="1046" spans="1:21">
+    <row r="1046" spans="1:22">
       <c r="A1046" s="2" t="s">
         <v>1233</v>
       </c>
     </row>
-    <row r="1047" spans="1:21">
+    <row r="1047" spans="1:22">
       <c r="A1047" s="2" t="s">
         <v>1234</v>
       </c>
@@ -25662,11 +25821,11 @@
       <c r="O1047" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="U1047" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="1048" spans="1:21">
+      <c r="V1047" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:22">
       <c r="A1048" s="2" t="s">
         <v>1235</v>
       </c>
@@ -25674,12 +25833,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="1049" spans="1:21">
+    <row r="1049" spans="1:22">
       <c r="A1049" s="2" t="s">
         <v>1236</v>
       </c>
     </row>
-    <row r="1050" spans="1:21">
+    <row r="1050" spans="1:22">
       <c r="A1050" s="2" t="s">
         <v>1237</v>
       </c>
@@ -25690,7 +25849,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1051" spans="1:21">
+    <row r="1051" spans="1:22">
       <c r="A1051" s="2" t="s">
         <v>1238</v>
       </c>
@@ -25701,7 +25860,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="1052" spans="1:21">
+    <row r="1052" spans="1:22">
       <c r="A1052" s="2" t="s">
         <v>1239</v>
       </c>
@@ -25718,12 +25877,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1053" spans="1:21">
+    <row r="1053" spans="1:22">
       <c r="A1053" s="2" t="s">
         <v>1240</v>
       </c>
     </row>
-    <row r="1054" spans="1:21">
+    <row r="1054" spans="1:22">
       <c r="A1054" s="2" t="s">
         <v>1241</v>
       </c>
@@ -25731,12 +25890,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="1055" spans="1:21">
+    <row r="1055" spans="1:22">
       <c r="A1055" s="2" t="s">
         <v>1242</v>
       </c>
     </row>
-    <row r="1056" spans="1:21">
+    <row r="1056" spans="1:22">
       <c r="A1056" s="2" t="s">
         <v>1243</v>
       </c>
@@ -25785,7 +25944,7 @@
         <v>1250</v>
       </c>
       <c r="B1063" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D1063" s="3" t="s">
         <v>77</v>
@@ -26047,6 +26206,9 @@
       <c r="A1094" s="2" t="s">
         <v>1283</v>
       </c>
+      <c r="B1094" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="D1094" s="3" t="s">
         <v>74</v>
       </c>
@@ -26153,8 +26315,8 @@
       <c r="A1102" s="2" t="s">
         <v>1291</v>
       </c>
-      <c r="B1102" s="4" t="s">
-        <v>149</v>
+      <c r="B1102" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="D1102" s="4" t="s">
         <v>100</v>
@@ -26188,7 +26350,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1105" spans="1:21">
+    <row r="1105" spans="1:22">
       <c r="A1105" s="2" t="s">
         <v>1294</v>
       </c>
@@ -26199,7 +26361,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1106" spans="1:21">
+    <row r="1106" spans="1:22">
       <c r="A1106" s="2" t="s">
         <v>1295</v>
       </c>
@@ -26210,7 +26372,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1107" spans="1:21">
+    <row r="1107" spans="1:22">
       <c r="A1107" s="2" t="s">
         <v>1296</v>
       </c>
@@ -26218,37 +26380,37 @@
         <v>113</v>
       </c>
     </row>
-    <row r="1108" spans="1:21">
+    <row r="1108" spans="1:22">
       <c r="A1108" s="2" t="s">
         <v>1297</v>
       </c>
     </row>
-    <row r="1109" spans="1:21">
+    <row r="1109" spans="1:22">
       <c r="A1109" s="2" t="s">
         <v>1298</v>
       </c>
     </row>
-    <row r="1110" spans="1:21">
+    <row r="1110" spans="1:22">
       <c r="A1110" s="2" t="s">
         <v>1299</v>
       </c>
     </row>
-    <row r="1111" spans="1:21">
+    <row r="1111" spans="1:22">
       <c r="A1111" s="2" t="s">
         <v>1300</v>
       </c>
     </row>
-    <row r="1112" spans="1:21">
+    <row r="1112" spans="1:22">
       <c r="A1112" s="2" t="s">
         <v>1301</v>
       </c>
     </row>
-    <row r="1113" spans="1:21">
+    <row r="1113" spans="1:22">
       <c r="A1113" s="2" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="1114" spans="1:21">
+    <row r="1114" spans="1:22">
       <c r="A1114" s="2" t="s">
         <v>1303</v>
       </c>
@@ -26256,22 +26418,22 @@
         <v>80</v>
       </c>
     </row>
-    <row r="1115" spans="1:21">
+    <row r="1115" spans="1:22">
       <c r="A1115" s="2" t="s">
         <v>1304</v>
       </c>
     </row>
-    <row r="1116" spans="1:21">
+    <row r="1116" spans="1:22">
       <c r="A1116" s="2" t="s">
         <v>1305</v>
       </c>
     </row>
-    <row r="1117" spans="1:21">
+    <row r="1117" spans="1:22">
       <c r="A1117" s="2" t="s">
         <v>1306</v>
       </c>
     </row>
-    <row r="1118" spans="1:21">
+    <row r="1118" spans="1:22">
       <c r="A1118" s="2" t="s">
         <v>1307</v>
       </c>
@@ -26302,11 +26464,11 @@
       <c r="O1118" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="U1118" s="3" t="s">
+      <c r="V1118" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="1119" spans="1:21">
+    <row r="1119" spans="1:22">
       <c r="A1119" s="2" t="s">
         <v>1308</v>
       </c>
@@ -26331,11 +26493,11 @@
       <c r="O1119" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="U1119" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="1120" spans="1:21">
+      <c r="V1119" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:22">
       <c r="A1120" s="2" t="s">
         <v>1309</v>
       </c>
@@ -26360,11 +26522,11 @@
       <c r="O1120" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="U1120" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="1121" spans="1:21">
+      <c r="V1120" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:22">
       <c r="A1121" s="2" t="s">
         <v>1310</v>
       </c>
@@ -26389,11 +26551,11 @@
       <c r="O1121" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="U1121" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="1122" spans="1:21">
+      <c r="V1121" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:22">
       <c r="A1122" s="2" t="s">
         <v>1311</v>
       </c>
@@ -26418,11 +26580,11 @@
       <c r="O1122" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="U1122" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="1123" spans="1:21">
+      <c r="V1122" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:22">
       <c r="A1123" s="2" t="s">
         <v>1312</v>
       </c>
@@ -26450,11 +26612,11 @@
       <c r="O1123" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="U1123" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="1124" spans="1:21">
+      <c r="V1123" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:22">
       <c r="A1124" s="2" t="s">
         <v>1314</v>
       </c>
@@ -26479,11 +26641,11 @@
       <c r="O1124" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="U1124" s="3" t="s">
+      <c r="V1124" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="1125" spans="1:21">
+    <row r="1125" spans="1:22">
       <c r="A1125" s="2" t="s">
         <v>1315</v>
       </c>
@@ -26512,7 +26674,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1126" spans="1:21">
+    <row r="1126" spans="1:22">
       <c r="A1126" s="2" t="s">
         <v>1316</v>
       </c>
@@ -26538,7 +26700,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1127" spans="1:21">
+    <row r="1127" spans="1:22">
       <c r="A1127" s="2" t="s">
         <v>1317</v>
       </c>
@@ -26563,11 +26725,11 @@
       <c r="O1127" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="U1127" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="1128" spans="1:21">
+      <c r="V1127" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:22">
       <c r="A1128" s="2" t="s">
         <v>1318</v>
       </c>
@@ -26593,7 +26755,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1129" spans="1:21">
+    <row r="1129" spans="1:22">
       <c r="A1129" s="2" t="s">
         <v>1319</v>
       </c>
@@ -26613,7 +26775,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="1130" spans="1:21">
+    <row r="1130" spans="1:22">
       <c r="A1130" s="2" t="s">
         <v>1320</v>
       </c>
@@ -26633,7 +26795,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1131" spans="1:21">
+    <row r="1131" spans="1:22">
       <c r="A1131" s="2" t="s">
         <v>1321</v>
       </c>
@@ -26653,7 +26815,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="1132" spans="1:21">
+    <row r="1132" spans="1:22">
       <c r="A1132" s="2" t="s">
         <v>1322</v>
       </c>
@@ -26673,7 +26835,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="1133" spans="1:21">
+    <row r="1133" spans="1:22">
       <c r="A1133" s="2" t="s">
         <v>1323</v>
       </c>
@@ -26696,7 +26858,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="1134" spans="1:21">
+    <row r="1134" spans="1:22">
       <c r="A1134" s="2" t="s">
         <v>1324</v>
       </c>
@@ -26715,11 +26877,11 @@
       <c r="K1134" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="U1134" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="1135" spans="1:21">
+      <c r="V1134" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:22">
       <c r="A1135" s="2" t="s">
         <v>1325</v>
       </c>
@@ -26738,11 +26900,11 @@
       <c r="K1135" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="U1135" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="1136" spans="1:21">
+      <c r="V1135" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:22">
       <c r="A1136" s="2" t="s">
         <v>1326</v>
       </c>
@@ -26761,11 +26923,11 @@
       <c r="K1136" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="U1136" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="1137" spans="1:21">
+      <c r="V1136" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:22">
       <c r="A1137" s="2" t="s">
         <v>1327</v>
       </c>
@@ -26788,7 +26950,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="1138" spans="1:21">
+    <row r="1138" spans="1:22">
       <c r="A1138" s="2" t="s">
         <v>1328</v>
       </c>
@@ -26808,7 +26970,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="1139" spans="1:21">
+    <row r="1139" spans="1:22">
       <c r="A1139" s="2" t="s">
         <v>1329</v>
       </c>
@@ -26828,7 +26990,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="1140" spans="1:21">
+    <row r="1140" spans="1:22">
       <c r="A1140" s="2" t="s">
         <v>1330</v>
       </c>
@@ -26845,7 +27007,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="1141" spans="1:21">
+    <row r="1141" spans="1:22">
       <c r="A1141" s="2" t="s">
         <v>1331</v>
       </c>
@@ -26861,11 +27023,11 @@
       <c r="E1141" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="U1141" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="1142" spans="1:21">
+      <c r="V1141" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:22">
       <c r="A1142" s="2" t="s">
         <v>1332</v>
       </c>
@@ -26881,11 +27043,11 @@
       <c r="E1142" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="U1142" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="1143" spans="1:21">
+      <c r="V1142" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:22">
       <c r="A1143" s="2" t="s">
         <v>1333</v>
       </c>
@@ -26901,11 +27063,11 @@
       <c r="E1143" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="U1143" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="1144" spans="1:21">
+      <c r="V1143" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:22">
       <c r="A1144" s="2" t="s">
         <v>1334</v>
       </c>
@@ -26922,7 +27084,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1145" spans="1:21">
+    <row r="1145" spans="1:22">
       <c r="A1145" s="2" t="s">
         <v>1335</v>
       </c>
@@ -26938,11 +27100,11 @@
       <c r="E1145" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="U1145" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="1146" spans="1:21">
+      <c r="V1145" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:22">
       <c r="A1146" s="2" t="s">
         <v>1336</v>
       </c>
@@ -26959,7 +27121,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1147" spans="1:21">
+    <row r="1147" spans="1:22">
       <c r="A1147" s="2" t="s">
         <v>1337</v>
       </c>
@@ -26976,7 +27138,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1148" spans="1:21">
+    <row r="1148" spans="1:22">
       <c r="A1148" s="2" t="s">
         <v>1338</v>
       </c>
@@ -26993,7 +27155,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1149" spans="1:21">
+    <row r="1149" spans="1:22">
       <c r="A1149" s="2" t="s">
         <v>1339</v>
       </c>
@@ -27010,7 +27172,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1150" spans="1:21">
+    <row r="1150" spans="1:22">
       <c r="A1150" s="2" t="s">
         <v>1340</v>
       </c>
@@ -27027,7 +27189,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="1151" spans="1:21">
+    <row r="1151" spans="1:22">
       <c r="A1151" s="2" t="s">
         <v>1341</v>
       </c>
@@ -27044,7 +27206,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="1152" spans="1:21">
+    <row r="1152" spans="1:22">
       <c r="A1152" s="2" t="s">
         <v>1342</v>
       </c>
@@ -27158,7 +27320,7 @@
         <v>88</v>
       </c>
       <c r="E1157" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G1157" s="3" t="s">
         <v>74</v>
@@ -27319,6 +27481,9 @@
       <c r="A1166" s="2" t="s">
         <v>1356</v>
       </c>
+      <c r="B1166" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="D1166" s="3" t="s">
         <v>80</v>
       </c>
@@ -28158,6 +28323,9 @@
       <c r="A1233" s="2" t="s">
         <v>1430</v>
       </c>
+      <c r="B1233" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="C1233" s="3" t="s">
         <v>74</v>
       </c>
@@ -29024,11 +29192,17 @@
       <c r="A1324" s="2" t="s">
         <v>1521</v>
       </c>
+      <c r="B1324" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="1325" spans="1:6">
       <c r="A1325" s="2" t="s">
         <v>1522</v>
       </c>
+      <c r="B1325" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="1326" spans="1:6">
       <c r="A1326" s="2" t="s">
@@ -29713,11 +29887,17 @@
       <c r="A1400" s="2" t="s">
         <v>1598</v>
       </c>
+      <c r="B1400" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="1401" spans="1:9">
       <c r="A1401" s="2" t="s">
         <v>1599</v>
       </c>
+      <c r="B1401" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="E1401" s="3" t="s">
         <v>74</v>
       </c>
@@ -29726,6 +29906,9 @@
       <c r="A1402" s="2" t="s">
         <v>1600</v>
       </c>
+      <c r="B1402" s="3" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="1403" spans="1:9">
       <c r="A1403" s="2" t="s">
@@ -29912,7 +30095,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="1425" spans="1:17">
+    <row r="1425" spans="1:19">
       <c r="A1425" s="2" t="s">
         <v>1623</v>
       </c>
@@ -29929,7 +30112,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1426" spans="1:17">
+    <row r="1426" spans="1:19">
       <c r="A1426" s="2" t="s">
         <v>1624</v>
       </c>
@@ -29945,11 +30128,11 @@
       <c r="I1426" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="Q1426" s="3" t="s">
+      <c r="S1426" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="1427" spans="1:17">
+    <row r="1427" spans="1:19">
       <c r="A1427" s="2" t="s">
         <v>1625</v>
       </c>
@@ -29972,7 +30155,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="1428" spans="1:17">
+    <row r="1428" spans="1:19">
       <c r="A1428" s="2" t="s">
         <v>1626</v>
       </c>
@@ -29989,7 +30172,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1429" spans="1:17">
+    <row r="1429" spans="1:19">
       <c r="A1429" s="2" t="s">
         <v>1627</v>
       </c>
@@ -30000,7 +30183,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="1430" spans="1:17">
+    <row r="1430" spans="1:19">
       <c r="A1430" s="2" t="s">
         <v>1628</v>
       </c>
@@ -30011,7 +30194,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1431" spans="1:17">
+    <row r="1431" spans="1:19">
       <c r="A1431" s="2" t="s">
         <v>1629</v>
       </c>
@@ -30019,12 +30202,12 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="1432" spans="1:17">
+    <row r="1432" spans="1:19">
       <c r="A1432" s="2" t="s">
         <v>1631</v>
       </c>
     </row>
-    <row r="1433" spans="1:17">
+    <row r="1433" spans="1:19">
       <c r="A1433" s="2" t="s">
         <v>1632</v>
       </c>
@@ -30032,7 +30215,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1434" spans="1:17">
+    <row r="1434" spans="1:19">
       <c r="A1434" s="2" t="s">
         <v>1633</v>
       </c>
@@ -30040,7 +30223,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="1435" spans="1:17">
+    <row r="1435" spans="1:19">
       <c r="A1435" s="2" t="s">
         <v>1634</v>
       </c>
@@ -30051,7 +30234,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1436" spans="1:17">
+    <row r="1436" spans="1:19">
       <c r="A1436" s="2" t="s">
         <v>1635</v>
       </c>
@@ -30059,7 +30242,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="1437" spans="1:17">
+    <row r="1437" spans="1:19">
       <c r="A1437" s="2" t="s">
         <v>1636</v>
       </c>
@@ -30067,7 +30250,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="1438" spans="1:17">
+    <row r="1438" spans="1:19">
       <c r="A1438" s="2" t="s">
         <v>1637</v>
       </c>
@@ -30078,7 +30261,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1439" spans="1:17">
+    <row r="1439" spans="1:19">
       <c r="A1439" s="2" t="s">
         <v>1638</v>
       </c>
@@ -30092,7 +30275,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="1440" spans="1:17">
+    <row r="1440" spans="1:19">
       <c r="A1440" s="2" t="s">
         <v>1639</v>
       </c>
@@ -30326,7 +30509,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="1473" spans="1:21">
+    <row r="1473" spans="1:22">
       <c r="A1473" s="2" t="s">
         <v>1672</v>
       </c>
@@ -30337,7 +30520,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1474" spans="1:21">
+    <row r="1474" spans="1:22">
       <c r="A1474" s="2" t="s">
         <v>1673</v>
       </c>
@@ -30353,11 +30536,11 @@
       <c r="E1474" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="U1474" s="4" t="s">
+      <c r="V1474" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="1475" spans="1:21">
+    <row r="1475" spans="1:22">
       <c r="A1475" s="2" t="s">
         <v>1674</v>
       </c>
@@ -30365,12 +30548,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1476" spans="1:21">
+    <row r="1476" spans="1:22">
       <c r="A1476" s="2" t="s">
         <v>1675</v>
       </c>
     </row>
-    <row r="1477" spans="1:21">
+    <row r="1477" spans="1:22">
       <c r="A1477" s="2" t="s">
         <v>1676</v>
       </c>
@@ -30384,10 +30567,13 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1478" spans="1:21">
+    <row r="1478" spans="1:22">
       <c r="A1478" s="2" t="s">
         <v>1677</v>
       </c>
+      <c r="B1478" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="D1478" s="3" t="s">
         <v>91</v>
       </c>
@@ -30395,7 +30581,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="1479" spans="1:21">
+    <row r="1479" spans="1:22">
       <c r="A1479" s="2" t="s">
         <v>1678</v>
       </c>
@@ -30409,17 +30595,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1480" spans="1:21">
+    <row r="1480" spans="1:22">
       <c r="A1480" s="2" t="s">
         <v>1679</v>
       </c>
     </row>
-    <row r="1481" spans="1:21">
+    <row r="1481" spans="1:22">
       <c r="A1481" s="2" t="s">
         <v>1680</v>
       </c>
     </row>
-    <row r="1482" spans="1:21">
+    <row r="1482" spans="1:22">
       <c r="A1482" s="2" t="s">
         <v>1681</v>
       </c>
@@ -30433,12 +30619,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1483" spans="1:21">
+    <row r="1483" spans="1:22">
       <c r="A1483" s="2" t="s">
         <v>1682</v>
       </c>
     </row>
-    <row r="1484" spans="1:21">
+    <row r="1484" spans="1:22">
       <c r="A1484" s="2" t="s">
         <v>1683</v>
       </c>
@@ -30446,7 +30632,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="1485" spans="1:21">
+    <row r="1485" spans="1:22">
       <c r="A1485" s="2" t="s">
         <v>1684</v>
       </c>
@@ -30454,7 +30640,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1486" spans="1:21">
+    <row r="1486" spans="1:22">
       <c r="A1486" s="2" t="s">
         <v>1685</v>
       </c>
@@ -30465,7 +30651,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="1487" spans="1:21">
+    <row r="1487" spans="1:22">
       <c r="A1487" s="2" t="s">
         <v>1686</v>
       </c>
@@ -30473,7 +30659,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="1488" spans="1:21">
+    <row r="1488" spans="1:22">
       <c r="A1488" s="2" t="s">
         <v>1687</v>
       </c>
@@ -30498,7 +30684,7 @@
       <c r="O1488" s="4" t="s">
         <v>1175</v>
       </c>
-      <c r="U1488" s="3" t="s">
+      <c r="V1488" s="3" t="s">
         <v>88</v>
       </c>
     </row>
@@ -31183,7 +31369,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="1585" spans="1:17">
+    <row r="1585" spans="1:19">
       <c r="A1585" s="2" t="s">
         <v>1784</v>
       </c>
@@ -31197,7 +31383,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="1586" spans="1:17">
+    <row r="1586" spans="1:19">
       <c r="A1586" s="2" t="s">
         <v>1785</v>
       </c>
@@ -31216,11 +31402,11 @@
       <c r="I1586" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="Q1586" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="1587" spans="1:17">
+      <c r="S1586" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:19">
       <c r="A1587" s="2" t="s">
         <v>1786</v>
       </c>
@@ -31231,7 +31417,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1588" spans="1:17">
+    <row r="1588" spans="1:19">
       <c r="A1588" s="2" t="s">
         <v>1787</v>
       </c>
@@ -31251,7 +31437,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="1589" spans="1:17">
+    <row r="1589" spans="1:19">
       <c r="A1589" s="2" t="s">
         <v>1788</v>
       </c>
@@ -31259,7 +31445,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1590" spans="1:17">
+    <row r="1590" spans="1:19">
       <c r="A1590" s="2" t="s">
         <v>1789</v>
       </c>
@@ -31273,7 +31459,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="1591" spans="1:17">
+    <row r="1591" spans="1:19">
       <c r="A1591" s="2" t="s">
         <v>1790</v>
       </c>
@@ -31281,7 +31467,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="1592" spans="1:17">
+    <row r="1592" spans="1:19">
       <c r="A1592" s="2" t="s">
         <v>1791</v>
       </c>
@@ -31292,7 +31478,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1593" spans="1:17">
+    <row r="1593" spans="1:19">
       <c r="A1593" s="2" t="s">
         <v>1792</v>
       </c>
@@ -31303,12 +31489,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="1594" spans="1:17">
+    <row r="1594" spans="1:19">
       <c r="A1594" s="2" t="s">
         <v>1793</v>
       </c>
     </row>
-    <row r="1595" spans="1:17">
+    <row r="1595" spans="1:19">
       <c r="A1595" s="2" t="s">
         <v>1794</v>
       </c>
@@ -31316,7 +31502,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="1596" spans="1:17">
+    <row r="1596" spans="1:19">
       <c r="A1596" s="2" t="s">
         <v>1795</v>
       </c>
@@ -31327,7 +31513,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="1597" spans="1:17">
+    <row r="1597" spans="1:19">
       <c r="A1597" s="2" t="s">
         <v>1796</v>
       </c>
@@ -31335,7 +31521,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="1598" spans="1:17">
+    <row r="1598" spans="1:19">
       <c r="A1598" s="2" t="s">
         <v>1797</v>
       </c>
@@ -31343,7 +31529,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1599" spans="1:17">
+    <row r="1599" spans="1:19">
       <c r="A1599" s="2" t="s">
         <v>1798</v>
       </c>
@@ -31351,7 +31537,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1600" spans="1:17">
+    <row r="1600" spans="1:19">
       <c r="A1600" s="2" t="s">
         <v>1799</v>
       </c>
@@ -31475,7 +31661,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1617" spans="1:5">
+    <row r="1617" spans="1:11">
       <c r="A1617" s="2" t="s">
         <v>1816</v>
       </c>
@@ -31489,7 +31675,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="1618" spans="1:5">
+    <row r="1618" spans="1:11">
       <c r="A1618" s="2" t="s">
         <v>1817</v>
       </c>
@@ -31500,17 +31686,17 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1619" spans="1:5">
+    <row r="1619" spans="1:11">
       <c r="A1619" s="2" t="s">
         <v>1818</v>
       </c>
     </row>
-    <row r="1620" spans="1:5">
+    <row r="1620" spans="1:11">
       <c r="A1620" s="2" t="s">
         <v>1819</v>
       </c>
     </row>
-    <row r="1621" spans="1:5">
+    <row r="1621" spans="1:11">
       <c r="A1621" s="2" t="s">
         <v>1820</v>
       </c>
@@ -31527,22 +31713,22 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1622" spans="1:5">
+    <row r="1622" spans="1:11">
       <c r="A1622" s="2" t="s">
         <v>1821</v>
       </c>
     </row>
-    <row r="1623" spans="1:5">
+    <row r="1623" spans="1:11">
       <c r="A1623" s="2" t="s">
         <v>1822</v>
       </c>
     </row>
-    <row r="1624" spans="1:5">
+    <row r="1624" spans="1:11">
       <c r="A1624" s="2" t="s">
         <v>1823</v>
       </c>
     </row>
-    <row r="1625" spans="1:5">
+    <row r="1625" spans="1:11">
       <c r="A1625" s="2" t="s">
         <v>1824</v>
       </c>
@@ -31555,8 +31741,11 @@
       <c r="E1625" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="1626" spans="1:5">
+      <c r="K1625" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:11">
       <c r="A1626" s="2" t="s">
         <v>1825</v>
       </c>
@@ -31567,7 +31756,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="1627" spans="1:5">
+    <row r="1627" spans="1:11">
       <c r="A1627" s="2" t="s">
         <v>1826</v>
       </c>
@@ -31578,12 +31767,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="1628" spans="1:5">
+    <row r="1628" spans="1:11">
       <c r="A1628" s="2" t="s">
         <v>1827</v>
       </c>
     </row>
-    <row r="1629" spans="1:5">
+    <row r="1629" spans="1:11">
       <c r="A1629" s="2" t="s">
         <v>1828</v>
       </c>
@@ -31591,7 +31780,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="1630" spans="1:5">
+    <row r="1630" spans="1:11">
       <c r="A1630" s="2" t="s">
         <v>1829</v>
       </c>
@@ -31602,7 +31791,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="1631" spans="1:5">
+    <row r="1631" spans="1:11">
       <c r="A1631" s="2" t="s">
         <v>1830</v>
       </c>
@@ -31612,10 +31801,16 @@
       <c r="D1631" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="1632" spans="1:5">
+      <c r="K1631" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:11">
       <c r="A1632" s="2" t="s">
         <v>1831</v>
+      </c>
+      <c r="B1632" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="D1632" s="4" t="s">
         <v>93</v>
@@ -31633,6 +31828,9 @@
       <c r="A1634" s="2" t="s">
         <v>1833</v>
       </c>
+      <c r="B1634" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="D1634" s="3" t="s">
         <v>74</v>
       </c>
@@ -31758,6 +31956,9 @@
       <c r="A1656" s="2" t="s">
         <v>1855</v>
       </c>
+      <c r="B1656" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="D1656" s="3" t="s">
         <v>74</v>
       </c>
@@ -31803,7 +32004,7 @@
         <v>1859</v>
       </c>
       <c r="B1660" s="3" t="s">
-        <v>91</v>
+        <v>245</v>
       </c>
       <c r="E1660" s="3" t="s">
         <v>74</v>
@@ -31930,7 +32131,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="1681" spans="1:19">
+    <row r="1681" spans="1:17">
       <c r="A1681" s="2" t="s">
         <v>1880</v>
       </c>
@@ -31941,12 +32142,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1682" spans="1:19">
+    <row r="1682" spans="1:17">
       <c r="A1682" s="2" t="s">
         <v>1881</v>
       </c>
     </row>
-    <row r="1683" spans="1:19">
+    <row r="1683" spans="1:17">
       <c r="A1683" s="2" t="s">
         <v>1882</v>
       </c>
@@ -31954,7 +32155,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="1684" spans="1:19">
+    <row r="1684" spans="1:17">
       <c r="A1684" s="2" t="s">
         <v>1883</v>
       </c>
@@ -31965,7 +32166,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="1685" spans="1:19">
+    <row r="1685" spans="1:17">
       <c r="A1685" s="2" t="s">
         <v>1884</v>
       </c>
@@ -31973,7 +32174,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="1686" spans="1:19">
+    <row r="1686" spans="1:17">
       <c r="A1686" s="2" t="s">
         <v>1885</v>
       </c>
@@ -31981,12 +32182,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="1687" spans="1:19">
+    <row r="1687" spans="1:17">
       <c r="A1687" s="2" t="s">
         <v>1886</v>
       </c>
     </row>
-    <row r="1688" spans="1:19">
+    <row r="1688" spans="1:17">
       <c r="A1688" s="2" t="s">
         <v>1887</v>
       </c>
@@ -32000,12 +32201,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1689" spans="1:19">
+    <row r="1689" spans="1:17">
       <c r="A1689" s="2" t="s">
         <v>1888</v>
       </c>
     </row>
-    <row r="1690" spans="1:19">
+    <row r="1690" spans="1:17">
       <c r="A1690" s="2" t="s">
         <v>1889</v>
       </c>
@@ -32022,18 +32223,18 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1691" spans="1:19">
+    <row r="1691" spans="1:17">
       <c r="A1691" s="2" t="s">
         <v>1890</v>
       </c>
       <c r="C1691" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="S1691" s="4" t="s">
+      <c r="Q1691" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="1692" spans="1:19">
+    <row r="1692" spans="1:17">
       <c r="A1692" s="2" t="s">
         <v>1891</v>
       </c>
@@ -32041,7 +32242,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="1693" spans="1:19">
+    <row r="1693" spans="1:17">
       <c r="A1693" s="2" t="s">
         <v>1892</v>
       </c>
@@ -32052,7 +32253,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1694" spans="1:19">
+    <row r="1694" spans="1:17">
       <c r="A1694" s="2" t="s">
         <v>1893</v>
       </c>
@@ -32062,11 +32263,11 @@
       <c r="C1694" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="S1694" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="1695" spans="1:19">
+      <c r="Q1694" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:17">
       <c r="A1695" s="2" t="s">
         <v>1894</v>
       </c>
@@ -32077,13 +32278,13 @@
         <v>74</v>
       </c>
       <c r="E1695" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="S1695" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="1696" spans="1:19">
+        <v>81</v>
+      </c>
+      <c r="Q1695" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:17">
       <c r="A1696" s="2" t="s">
         <v>1895</v>
       </c>
@@ -32091,7 +32292,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1697" spans="1:19">
+    <row r="1697" spans="1:17">
       <c r="A1697" s="2" t="s">
         <v>1896</v>
       </c>
@@ -32102,18 +32303,18 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1698" spans="1:19">
+    <row r="1698" spans="1:17">
       <c r="A1698" s="2" t="s">
         <v>1897</v>
       </c>
       <c r="C1698" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="S1698" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="1699" spans="1:19">
+      <c r="Q1698" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:17">
       <c r="A1699" s="2" t="s">
         <v>1898</v>
       </c>
@@ -32130,17 +32331,17 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1700" spans="1:19">
+    <row r="1700" spans="1:17">
       <c r="A1700" s="2" t="s">
         <v>1899</v>
       </c>
     </row>
-    <row r="1701" spans="1:19">
+    <row r="1701" spans="1:17">
       <c r="A1701" s="2" t="s">
         <v>1900</v>
       </c>
     </row>
-    <row r="1702" spans="1:19">
+    <row r="1702" spans="1:17">
       <c r="A1702" s="2" t="s">
         <v>1901</v>
       </c>
@@ -32148,7 +32349,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1703" spans="1:19">
+    <row r="1703" spans="1:17">
       <c r="A1703" s="2" t="s">
         <v>1902</v>
       </c>
@@ -32156,7 +32357,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1704" spans="1:19">
+    <row r="1704" spans="1:17">
       <c r="A1704" s="2" t="s">
         <v>1903</v>
       </c>
@@ -32167,7 +32368,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1705" spans="1:19">
+    <row r="1705" spans="1:17">
       <c r="A1705" s="2" t="s">
         <v>1904</v>
       </c>
@@ -32175,7 +32376,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1706" spans="1:19">
+    <row r="1706" spans="1:17">
       <c r="A1706" s="2" t="s">
         <v>1905</v>
       </c>
@@ -32183,7 +32384,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1707" spans="1:19">
+    <row r="1707" spans="1:17">
       <c r="A1707" s="2" t="s">
         <v>1906</v>
       </c>
@@ -32191,7 +32392,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1708" spans="1:19">
+    <row r="1708" spans="1:17">
       <c r="A1708" s="2" t="s">
         <v>1907</v>
       </c>
@@ -32199,7 +32400,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="1709" spans="1:19">
+    <row r="1709" spans="1:17">
       <c r="A1709" s="2" t="s">
         <v>1908</v>
       </c>
@@ -32207,7 +32408,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="1710" spans="1:19">
+    <row r="1710" spans="1:17">
       <c r="A1710" s="2" t="s">
         <v>1909</v>
       </c>
@@ -32215,7 +32416,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1711" spans="1:19">
+    <row r="1711" spans="1:17">
       <c r="A1711" s="2" t="s">
         <v>1910</v>
       </c>
@@ -32229,7 +32430,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1712" spans="1:19">
+    <row r="1712" spans="1:17">
       <c r="A1712" s="2" t="s">
         <v>1911</v>
       </c>
@@ -32475,12 +32676,12 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="1745" spans="1:17">
+    <row r="1745" spans="1:19">
       <c r="A1745" s="2" t="s">
         <v>1944</v>
       </c>
     </row>
-    <row r="1746" spans="1:17">
+    <row r="1746" spans="1:19">
       <c r="A1746" s="2" t="s">
         <v>1945</v>
       </c>
@@ -32494,31 +32695,31 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1747" spans="1:17">
+    <row r="1747" spans="1:19">
       <c r="A1747" s="2" t="s">
         <v>1946</v>
       </c>
     </row>
-    <row r="1748" spans="1:17">
+    <row r="1748" spans="1:19">
       <c r="A1748" s="2" t="s">
         <v>1947</v>
       </c>
     </row>
-    <row r="1749" spans="1:17">
+    <row r="1749" spans="1:19">
       <c r="A1749" s="2" t="s">
         <v>1948</v>
       </c>
-      <c r="B1749" s="4" t="s">
-        <v>1175</v>
+      <c r="B1749" s="3" t="s">
+        <v>305</v>
       </c>
       <c r="H1749" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="Q1749" s="4" t="s">
+      <c r="S1749" s="4" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="1750" spans="1:17">
+    <row r="1750" spans="1:19">
       <c r="A1750" s="2" t="s">
         <v>1949</v>
       </c>
@@ -32526,17 +32727,17 @@
         <v>80</v>
       </c>
     </row>
-    <row r="1751" spans="1:17">
+    <row r="1751" spans="1:19">
       <c r="A1751" s="2" t="s">
         <v>1950</v>
       </c>
     </row>
-    <row r="1752" spans="1:17">
+    <row r="1752" spans="1:19">
       <c r="A1752" s="2" t="s">
         <v>1951</v>
       </c>
     </row>
-    <row r="1753" spans="1:17">
+    <row r="1753" spans="1:19">
       <c r="A1753" s="2" t="s">
         <v>1952</v>
       </c>
@@ -32556,7 +32757,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1754" spans="1:17">
+    <row r="1754" spans="1:19">
       <c r="A1754" s="2" t="s">
         <v>1953</v>
       </c>
@@ -32570,7 +32771,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="1755" spans="1:17">
+    <row r="1755" spans="1:19">
       <c r="A1755" s="2" t="s">
         <v>1954</v>
       </c>
@@ -32581,17 +32782,17 @@
         <v>93</v>
       </c>
     </row>
-    <row r="1756" spans="1:17">
+    <row r="1756" spans="1:19">
       <c r="A1756" s="2" t="s">
         <v>1955</v>
       </c>
     </row>
-    <row r="1757" spans="1:17">
+    <row r="1757" spans="1:19">
       <c r="A1757" s="2" t="s">
         <v>1956</v>
       </c>
     </row>
-    <row r="1758" spans="1:17">
+    <row r="1758" spans="1:19">
       <c r="A1758" s="2" t="s">
         <v>1957</v>
       </c>
@@ -32599,7 +32800,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="1759" spans="1:17">
+    <row r="1759" spans="1:19">
       <c r="A1759" s="2" t="s">
         <v>1958</v>
       </c>
@@ -32610,7 +32811,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="1760" spans="1:17">
+    <row r="1760" spans="1:19">
       <c r="A1760" s="2" t="s">
         <v>1959</v>
       </c>
@@ -32707,6 +32908,9 @@
       <c r="A1769" s="2" t="s">
         <v>1968</v>
       </c>
+      <c r="B1769" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="C1769" s="3" t="s">
         <v>80</v>
       </c>
@@ -32715,6 +32919,9 @@
       <c r="A1770" s="2" t="s">
         <v>1969</v>
       </c>
+      <c r="B1770" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="C1770" s="3" t="s">
         <v>88</v>
       </c>
@@ -32747,6 +32954,9 @@
       <c r="A1774" s="2" t="s">
         <v>1973</v>
       </c>
+      <c r="B1774" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="C1774" s="3" t="s">
         <v>74</v>
       </c>
@@ -32755,6 +32965,9 @@
       <c r="A1775" s="2" t="s">
         <v>1974</v>
       </c>
+      <c r="B1775" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="C1775" s="3" t="s">
         <v>77</v>
       </c>
@@ -32767,7 +32980,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1777" spans="1:22">
+    <row r="1777" spans="1:23">
       <c r="A1777" s="2" t="s">
         <v>1976</v>
       </c>
@@ -32778,7 +32991,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1778" spans="1:22">
+    <row r="1778" spans="1:23">
       <c r="A1778" s="2" t="s">
         <v>1977</v>
       </c>
@@ -32786,7 +32999,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="1779" spans="1:22">
+    <row r="1779" spans="1:23">
       <c r="A1779" s="2" t="s">
         <v>1978</v>
       </c>
@@ -32800,7 +33013,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1780" spans="1:22">
+    <row r="1780" spans="1:23">
       <c r="A1780" s="2" t="s">
         <v>1979</v>
       </c>
@@ -32814,7 +33027,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="1781" spans="1:22">
+    <row r="1781" spans="1:23">
       <c r="A1781" s="2" t="s">
         <v>1980</v>
       </c>
@@ -32825,17 +33038,17 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1782" spans="1:22">
+    <row r="1782" spans="1:23">
       <c r="A1782" s="2" t="s">
         <v>1981</v>
       </c>
     </row>
-    <row r="1783" spans="1:22">
+    <row r="1783" spans="1:23">
       <c r="A1783" s="2" t="s">
         <v>1982</v>
       </c>
     </row>
-    <row r="1784" spans="1:22">
+    <row r="1784" spans="1:23">
       <c r="A1784" s="2" t="s">
         <v>1983</v>
       </c>
@@ -32846,7 +33059,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1785" spans="1:22">
+    <row r="1785" spans="1:23">
       <c r="A1785" s="2" t="s">
         <v>1984</v>
       </c>
@@ -32860,12 +33073,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="1786" spans="1:22">
+    <row r="1786" spans="1:23">
       <c r="A1786" s="2" t="s">
         <v>1985</v>
       </c>
-      <c r="C1786" s="4" t="s">
-        <v>149</v>
+      <c r="C1786" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="I1786" s="3" t="s">
         <v>79</v>
@@ -32874,27 +33087,27 @@
         <v>149</v>
       </c>
     </row>
-    <row r="1787" spans="1:22">
+    <row r="1787" spans="1:23">
       <c r="A1787" s="2" t="s">
         <v>1986</v>
       </c>
     </row>
-    <row r="1788" spans="1:22">
+    <row r="1788" spans="1:23">
       <c r="A1788" s="2" t="s">
         <v>1987</v>
       </c>
     </row>
-    <row r="1789" spans="1:22">
+    <row r="1789" spans="1:23">
       <c r="A1789" s="2" t="s">
         <v>1988</v>
       </c>
     </row>
-    <row r="1790" spans="1:22">
+    <row r="1790" spans="1:23">
       <c r="A1790" s="2" t="s">
         <v>1989</v>
       </c>
     </row>
-    <row r="1791" spans="1:22">
+    <row r="1791" spans="1:23">
       <c r="A1791" s="2" t="s">
         <v>1990</v>
       </c>
@@ -32910,14 +33123,14 @@
       <c r="L1791" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="R1791" s="4" t="s">
+      <c r="T1791" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="T1791" s="3" t="s">
+      <c r="U1791" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="1792" spans="1:22">
+    <row r="1792" spans="1:23">
       <c r="A1792" s="2" t="s">
         <v>1991</v>
       </c>
@@ -32930,14 +33143,14 @@
       <c r="K1792" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="R1792" s="4" t="s">
+      <c r="T1792" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="V1792" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="1793" spans="1:22">
+      <c r="W1792" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:23">
       <c r="A1793" s="2" t="s">
         <v>1992</v>
       </c>
@@ -32956,19 +33169,19 @@
       <c r="L1793" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="P1793" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="T1793" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="1794" spans="1:22">
+      <c r="R1793" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="U1793" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:23">
       <c r="A1794" s="2" t="s">
         <v>1993</v>
       </c>
       <c r="B1794" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C1794" s="3" t="s">
         <v>88</v>
@@ -32979,11 +33192,11 @@
       <c r="L1794" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="V1794" s="4" t="s">
+      <c r="W1794" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="1795" spans="1:22">
+    <row r="1795" spans="1:23">
       <c r="A1795" s="2" t="s">
         <v>1994</v>
       </c>
@@ -32991,7 +33204,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1796" spans="1:22">
+    <row r="1796" spans="1:23">
       <c r="A1796" s="2" t="s">
         <v>1995</v>
       </c>
@@ -33002,7 +33215,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1797" spans="1:22">
+    <row r="1797" spans="1:23">
       <c r="A1797" s="2" t="s">
         <v>1996</v>
       </c>
@@ -33015,11 +33228,11 @@
       <c r="K1797" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="P1797" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="1798" spans="1:22">
+      <c r="R1797" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:23">
       <c r="A1798" s="2" t="s">
         <v>1997</v>
       </c>
@@ -33033,12 +33246,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="1799" spans="1:22">
+    <row r="1799" spans="1:23">
       <c r="A1799" s="2" t="s">
         <v>1998</v>
       </c>
       <c r="B1799" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C1799" s="3" t="s">
         <v>77</v>
@@ -33047,7 +33260,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="1800" spans="1:22">
+    <row r="1800" spans="1:23">
       <c r="A1800" s="2" t="s">
         <v>1999</v>
       </c>
@@ -33055,7 +33268,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="1801" spans="1:22">
+    <row r="1801" spans="1:23">
       <c r="A1801" s="2" t="s">
         <v>2000</v>
       </c>
@@ -33063,436 +33276,600 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1802" spans="1:22">
+    <row r="1802" spans="1:23">
       <c r="A1802" s="2" t="s">
         <v>2001</v>
       </c>
       <c r="B1802" s="3" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="1803" spans="1:22">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:23">
       <c r="A1803" s="2" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B1803" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="1804" spans="1:22">
+    <row r="1804" spans="1:23">
       <c r="A1804" s="2" t="s">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="1805" spans="1:22">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:23">
       <c r="A1805" s="2" t="s">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="1806" spans="1:22">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:23">
       <c r="A1806" s="2" t="s">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="1807" spans="1:22">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:23">
       <c r="A1807" s="2" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B1807" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="1808" spans="1:22">
+    <row r="1808" spans="1:23">
       <c r="A1808" s="2" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B1808" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="1809" spans="1:2">
+    <row r="1809" spans="1:16">
       <c r="A1809" s="2" t="s">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="1810" spans="1:2">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:16">
       <c r="A1810" s="2" t="s">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="1811" spans="1:2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:16">
       <c r="A1811" s="2" t="s">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="1812" spans="1:2">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:16">
       <c r="A1812" s="2" t="s">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="1813" spans="1:2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:16">
       <c r="A1813" s="2" t="s">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="1814" spans="1:2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:16">
       <c r="A1814" s="2" t="s">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="1815" spans="1:2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:16">
       <c r="A1815" s="2" t="s">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="1816" spans="1:2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:16">
       <c r="A1816" s="2" t="s">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="1817" spans="1:2">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:16">
       <c r="A1817" s="2" t="s">
-        <v>2016</v>
-      </c>
-    </row>
-    <row r="1818" spans="1:2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:16">
       <c r="A1818" s="2" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B1818" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="1819" spans="1:2">
+      <c r="P1818" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:16">
       <c r="A1819" s="2" t="s">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="1820" spans="1:2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:16">
       <c r="A1820" s="2" t="s">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="1821" spans="1:2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:16">
       <c r="A1821" s="2" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B1821" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="1822" spans="1:2">
+    <row r="1822" spans="1:16">
       <c r="A1822" s="2" t="s">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="1823" spans="1:2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:16">
       <c r="A1823" s="2" t="s">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="1824" spans="1:2">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:16">
       <c r="A1824" s="2" t="s">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="1825" spans="1:9">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:16">
       <c r="A1825" s="2" t="s">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="1826" spans="1:9">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:16">
       <c r="A1826" s="2" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B1826" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="1827" spans="1:9">
+    <row r="1827" spans="1:16">
       <c r="A1827" s="2" t="s">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="1828" spans="1:9">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:16">
       <c r="A1828" s="2" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="B1828" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="1829" spans="1:9">
+    <row r="1829" spans="1:16">
       <c r="A1829" s="2" t="s">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="B1829" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="1830" spans="1:9">
+      <c r="P1829" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:16">
       <c r="A1830" s="2" t="s">
-        <v>2029</v>
-      </c>
-    </row>
-    <row r="1831" spans="1:9">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:16">
       <c r="A1831" s="2" t="s">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="1832" spans="1:9">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:16">
       <c r="A1832" s="2" t="s">
-        <v>2031</v>
-      </c>
-    </row>
-    <row r="1833" spans="1:9">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:16">
       <c r="A1833" s="2" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="B1833" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C1833" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="1834" spans="1:9">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:16">
       <c r="A1834" s="2" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="B1834" s="3" t="s">
-        <v>2034</v>
-      </c>
-    </row>
-    <row r="1835" spans="1:9">
+        <v>2035</v>
+      </c>
+      <c r="C1834" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:16">
       <c r="A1835" s="2" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="C1835" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="1836" spans="1:9">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:16">
       <c r="A1836" s="2" t="s">
-        <v>2036</v>
-      </c>
-    </row>
-    <row r="1837" spans="1:9">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:16">
       <c r="A1837" s="2" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="I1837" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="1838" spans="1:9">
+    <row r="1838" spans="1:16">
       <c r="A1838" s="2" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="B1838" s="3" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="I1838" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="1839" spans="1:9">
+    <row r="1839" spans="1:16">
       <c r="A1839" s="2" t="s">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="I1839" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="1840" spans="1:9">
+    <row r="1840" spans="1:16">
       <c r="A1840" s="2" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="I1840" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="1841" spans="1:2">
+    <row r="1841" spans="1:4">
       <c r="A1841" s="2" t="s">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="B1841" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="1842" spans="1:2">
+    <row r="1842" spans="1:4">
       <c r="A1842" s="2" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="B1842" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="1843" spans="1:2">
+    <row r="1843" spans="1:4">
       <c r="A1843" s="2" t="s">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="B1843" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="1844" spans="1:2">
+    <row r="1844" spans="1:4">
       <c r="A1844" s="2" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="B1844" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="1845" spans="1:2">
+    <row r="1845" spans="1:4">
       <c r="A1845" s="2" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="B1845" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="1846" spans="1:2">
+    <row r="1846" spans="1:4">
       <c r="A1846" s="2" t="s">
-        <v>2047</v>
-      </c>
-    </row>
-    <row r="1847" spans="1:2">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:4">
       <c r="A1847" s="2" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="B1847" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="1848" spans="1:2">
+    <row r="1848" spans="1:4">
       <c r="A1848" s="2" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B1848" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="1849" spans="1:2">
+    <row r="1849" spans="1:4">
       <c r="A1849" s="2" t="s">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="1850" spans="1:2">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:4">
       <c r="A1850" s="2" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="B1850" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="1851" spans="1:2">
+    <row r="1851" spans="1:4">
       <c r="A1851" s="2" t="s">
-        <v>2052</v>
-      </c>
-    </row>
-    <row r="1852" spans="1:2">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:4">
       <c r="A1852" s="2" t="s">
-        <v>2053</v>
-      </c>
-    </row>
-    <row r="1853" spans="1:2">
+        <v>2054</v>
+      </c>
+      <c r="B1852" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1852" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:4">
       <c r="A1853" s="2" t="s">
-        <v>2054</v>
-      </c>
-    </row>
-    <row r="1854" spans="1:2">
+        <v>2055</v>
+      </c>
+      <c r="C1853" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:4">
       <c r="A1854" s="2" t="s">
-        <v>2055</v>
-      </c>
-    </row>
-    <row r="1855" spans="1:2">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:4">
       <c r="A1855" s="2" t="s">
-        <v>2056</v>
-      </c>
-    </row>
-    <row r="1856" spans="1:2">
+        <v>2057</v>
+      </c>
+      <c r="B1855" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1855" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1855" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:4">
       <c r="A1856" s="2" t="s">
-        <v>2057</v>
-      </c>
-    </row>
-    <row r="1857" spans="1:3">
+        <v>2058</v>
+      </c>
+      <c r="C1856" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:16">
       <c r="A1857" s="2" t="s">
-        <v>2058</v>
-      </c>
-    </row>
-    <row r="1858" spans="1:3">
+        <v>2059</v>
+      </c>
+      <c r="B1857" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1857" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:16">
       <c r="A1858" s="2" t="s">
-        <v>2059</v>
-      </c>
-    </row>
-    <row r="1859" spans="1:3">
+        <v>2060</v>
+      </c>
+      <c r="C1858" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:16">
       <c r="A1859" s="2" t="s">
-        <v>2060</v>
-      </c>
-    </row>
-    <row r="1860" spans="1:3">
+        <v>2061</v>
+      </c>
+      <c r="B1859" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1859" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:16">
       <c r="A1860" s="2" t="s">
-        <v>2061</v>
-      </c>
-    </row>
-    <row r="1861" spans="1:3">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:16">
       <c r="A1861" s="2" t="s">
-        <v>2062</v>
-      </c>
-    </row>
-    <row r="1862" spans="1:3">
+        <v>2063</v>
+      </c>
+      <c r="C1861" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:16">
       <c r="A1862" s="2" t="s">
-        <v>2063</v>
-      </c>
-    </row>
-    <row r="1863" spans="1:3">
+        <v>2064</v>
+      </c>
+      <c r="B1862" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="C1862" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:16">
       <c r="A1863" s="2" t="s">
-        <v>2064</v>
-      </c>
-    </row>
-    <row r="1864" spans="1:3">
+        <v>2065</v>
+      </c>
+      <c r="C1863" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:16">
       <c r="A1864" s="2" t="s">
-        <v>2065</v>
+        <v>2066</v>
+      </c>
+      <c r="B1864" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="C1864" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="1865" spans="1:3">
+    <row r="1865" spans="1:16">
       <c r="A1865" s="2" t="s">
-        <v>2066</v>
+        <v>2067</v>
+      </c>
+      <c r="B1865" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="C1865" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="1866" spans="1:3">
+    <row r="1866" spans="1:16">
       <c r="A1866" s="2" t="s">
-        <v>2067</v>
+        <v>2068</v>
+      </c>
+      <c r="B1866" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="C1866" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="1867" spans="1:3">
+    <row r="1867" spans="1:16">
       <c r="A1867" s="2" t="s">
-        <v>2068</v>
+        <v>2069</v>
+      </c>
+      <c r="B1867" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="C1867" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="1868" spans="1:3">
+    <row r="1868" spans="1:16">
       <c r="A1868" s="2" t="s">
-        <v>2069</v>
+        <v>2070</v>
+      </c>
+      <c r="B1868" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="C1868" s="3" t="s">
         <v>74</v>
       </c>
     </row>
+    <row r="1869" spans="1:16">
+      <c r="A1869" s="2" t="s">
+        <v>2071</v>
+      </c>
+      <c r="B1869" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1869" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="P1869" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:16">
+      <c r="A1870" s="2" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B1870" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1870" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:16">
+      <c r="A1871" s="2" t="s">
+        <v>2073</v>
+      </c>
+      <c r="C1871" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:16">
+      <c r="A1872" s="2" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B1872" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1872" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:3">
+      <c r="A1873" s="2" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:3">
+      <c r="A1874" s="2" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B1874" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1874" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:3">
+      <c r="A1875" s="2" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:3">
+      <c r="A1876" s="2" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B1876" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1876" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:3">
+      <c r="A1877" s="2" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:3">
+      <c r="A1878" s="2" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B1878" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1878" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AD1868"/>
+  <autoFilter ref="A1:AD1878"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
@@ -35382,6 +35759,16 @@
     <hyperlink ref="A1866" r:id="rId1886"/>
     <hyperlink ref="A1867" r:id="rId1887"/>
     <hyperlink ref="A1868" r:id="rId1888"/>
+    <hyperlink ref="A1869" r:id="rId1889"/>
+    <hyperlink ref="A1870" r:id="rId1890"/>
+    <hyperlink ref="A1871" r:id="rId1891"/>
+    <hyperlink ref="A1872" r:id="rId1892"/>
+    <hyperlink ref="A1873" r:id="rId1893"/>
+    <hyperlink ref="A1874" r:id="rId1894"/>
+    <hyperlink ref="A1875" r:id="rId1895"/>
+    <hyperlink ref="A1876" r:id="rId1896"/>
+    <hyperlink ref="A1877" r:id="rId1897"/>
+    <hyperlink ref="A1878" r:id="rId1898"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/groups/old/results.xlsx
+++ b/groups/old/results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7622" uniqueCount="2081">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7634" uniqueCount="2082">
   <si>
     <t>№</t>
   </si>
@@ -58,6 +58,9 @@
     <t>Поликарпова Ирина</t>
   </si>
   <si>
+    <t>Трегубович Андрей</t>
+  </si>
+  <si>
     <t>Москвин Михаил</t>
   </si>
   <si>
@@ -67,9 +70,6 @@
     <t>Пожидаев Денис</t>
   </si>
   <si>
-    <t>Трегубович Андрей</t>
-  </si>
-  <si>
     <t>Серебренникова Елена</t>
   </si>
   <si>
@@ -148,6 +148,9 @@
     <t>273909</t>
   </si>
   <si>
+    <t>321411</t>
+  </si>
+  <si>
     <t>319464</t>
   </si>
   <si>
@@ -157,9 +160,6 @@
     <t>364695</t>
   </si>
   <si>
-    <t>321411</t>
-  </si>
-  <si>
     <t>364710</t>
   </si>
   <si>
@@ -6128,6 +6128,9 @@
   </si>
   <si>
     <t>1826</t>
+  </si>
+  <si>
+    <t>3+, 13-</t>
   </si>
   <si>
     <t>1827</t>
@@ -6841,76 +6844,76 @@
         <v>309</v>
       </c>
       <c r="G3">
-        <v>4237</v>
+        <v>4203</v>
       </c>
       <c r="H3">
-        <v>4995</v>
+        <v>4996</v>
       </c>
       <c r="I3">
-        <v>7660</v>
+        <v>7667</v>
       </c>
       <c r="J3">
-        <v>14195</v>
+        <v>14209</v>
       </c>
       <c r="K3">
-        <v>16448</v>
+        <v>16455</v>
       </c>
       <c r="L3">
-        <v>25224</v>
+        <v>25236</v>
       </c>
       <c r="M3">
-        <v>36016</v>
+        <v>36031</v>
       </c>
       <c r="N3">
-        <v>39437</v>
+        <v>36860</v>
       </c>
       <c r="O3">
-        <v>41285</v>
+        <v>39457</v>
       </c>
       <c r="P3">
-        <v>42892</v>
+        <v>41302</v>
       </c>
       <c r="Q3">
-        <v>43561</v>
+        <v>42569</v>
       </c>
       <c r="R3">
-        <v>47247</v>
+        <v>47265</v>
       </c>
       <c r="S3">
-        <v>48673</v>
+        <v>48692</v>
       </c>
       <c r="T3">
-        <v>49330</v>
+        <v>49347</v>
       </c>
       <c r="U3">
-        <v>55300</v>
+        <v>55307</v>
       </c>
       <c r="V3">
-        <v>66259</v>
+        <v>66276</v>
       </c>
       <c r="W3">
-        <v>73022</v>
+        <v>73036</v>
       </c>
       <c r="X3">
-        <v>76729</v>
+        <v>76744</v>
       </c>
       <c r="Y3">
-        <v>80568</v>
+        <v>80582</v>
       </c>
       <c r="Z3">
-        <v>109318</v>
+        <v>109354</v>
       </c>
       <c r="AA3">
-        <v>130231</v>
+        <v>130273</v>
       </c>
       <c r="AB3">
-        <v>136034</v>
+        <v>136080</v>
       </c>
       <c r="AC3">
-        <v>163842</v>
+        <v>163894</v>
       </c>
       <c r="AD3">
-        <v>192027</v>
+        <v>192094</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -6918,7 +6921,7 @@
         <v>61</v>
       </c>
       <c r="B4">
-        <v>25863</v>
+        <v>26024</v>
       </c>
       <c r="C4">
         <v>24233</v>
@@ -6933,7 +6936,7 @@
         <v>15491</v>
       </c>
       <c r="G4">
-        <v>3791</v>
+        <v>3816</v>
       </c>
       <c r="H4">
         <v>3332</v>
@@ -6954,16 +6957,16 @@
         <v>429</v>
       </c>
       <c r="N4">
+        <v>416</v>
+      </c>
+      <c r="O4">
         <v>376</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>351</v>
       </c>
-      <c r="P4">
-        <v>331</v>
-      </c>
       <c r="Q4">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="R4">
         <v>284</v>
@@ -7010,10 +7013,10 @@
         <v>62</v>
       </c>
       <c r="B5">
-        <v>3851</v>
+        <v>3855</v>
       </c>
       <c r="C5">
-        <v>1758</v>
+        <v>1777</v>
       </c>
       <c r="D5">
         <v>2943</v>
@@ -7025,7 +7028,7 @@
         <v>1282</v>
       </c>
       <c r="G5">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H5">
         <v>392</v>
@@ -7046,16 +7049,16 @@
         <v>104</v>
       </c>
       <c r="N5">
+        <v>48</v>
+      </c>
+      <c r="O5">
         <v>61</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>182</v>
       </c>
-      <c r="P5">
-        <v>55</v>
-      </c>
       <c r="Q5">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="R5">
         <v>33</v>
@@ -7102,7 +7105,7 @@
         <v>63</v>
       </c>
       <c r="B6">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="C6">
         <v>725</v>
@@ -7117,7 +7120,7 @@
         <v>520</v>
       </c>
       <c r="G6">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H6">
         <v>169</v>
@@ -7138,16 +7141,16 @@
         <v>27</v>
       </c>
       <c r="N6">
+        <v>17</v>
+      </c>
+      <c r="O6">
         <v>21</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>31</v>
       </c>
-      <c r="P6">
-        <v>18</v>
-      </c>
       <c r="Q6">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="R6">
         <v>15</v>
@@ -7209,7 +7212,7 @@
         <v>23</v>
       </c>
       <c r="G7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7">
         <v>17</v>
@@ -7230,16 +7233,16 @@
         <v>14</v>
       </c>
       <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7">
         <v>9</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>14</v>
       </c>
-      <c r="P7">
-        <v>4</v>
-      </c>
       <c r="Q7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R7">
         <v>2</v>
@@ -7286,10 +7289,10 @@
         <v>65</v>
       </c>
       <c r="B8">
-        <v>1086</v>
+        <v>1090</v>
       </c>
       <c r="C8">
-        <v>953</v>
+        <v>958</v>
       </c>
       <c r="D8">
         <v>831</v>
@@ -7301,7 +7304,7 @@
         <v>539</v>
       </c>
       <c r="G8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H8">
         <v>174</v>
@@ -7322,16 +7325,16 @@
         <v>28</v>
       </c>
       <c r="N8">
+        <v>20</v>
+      </c>
+      <c r="O8">
         <v>21</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>45</v>
       </c>
-      <c r="P8">
-        <v>21</v>
-      </c>
       <c r="Q8">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="R8">
         <v>17</v>
@@ -7378,10 +7381,10 @@
         <v>66</v>
       </c>
       <c r="B9">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <v>44</v>
@@ -7393,7 +7396,7 @@
         <v>25</v>
       </c>
       <c r="G9">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H9">
         <v>17</v>
@@ -7414,13 +7417,13 @@
         <v>14</v>
       </c>
       <c r="N9">
+        <v>4</v>
+      </c>
+      <c r="O9">
         <v>10</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>16</v>
-      </c>
-      <c r="P9">
-        <v>4</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -7505,13 +7508,13 @@
       <c r="M10" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="O10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P10" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="Q10" s="3" t="s">
         <v>81</v>
       </c>
       <c r="S10" s="3" t="s">
@@ -7588,7 +7591,7 @@
       <c r="M11" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="Q11" s="3" t="s">
         <v>85</v>
       </c>
       <c r="S11" s="3" t="s">
@@ -7650,10 +7653,10 @@
       <c r="M12" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="P12" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="Q12" s="3" t="s">
         <v>80</v>
       </c>
       <c r="S12" s="3" t="s">
@@ -7709,7 +7712,7 @@
       <c r="M13" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="Q13" s="3" t="s">
         <v>74</v>
       </c>
       <c r="V13" s="3" t="s">
@@ -7753,7 +7756,7 @@
       <c r="M14" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>72</v>
       </c>
       <c r="S14" s="3" t="s">
@@ -7835,10 +7838,10 @@
       <c r="M16" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="O16" s="4" t="s">
+      <c r="P16" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="3" t="s">
+      <c r="Q16" s="3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -7882,10 +7885,10 @@
       <c r="M17" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="P17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q17" s="3" t="s">
         <v>74</v>
       </c>
       <c r="S17" s="3" t="s">
@@ -7932,7 +7935,7 @@
       <c r="M18" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="P18" s="4" t="s">
+      <c r="Q18" s="4" t="s">
         <v>100</v>
       </c>
       <c r="S18" s="3" t="s">
@@ -8069,7 +8072,7 @@
       <c r="M22" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="Q22" s="3" t="s">
         <v>80</v>
       </c>
     </row>
@@ -8110,13 +8113,13 @@
       <c r="M23" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="O23" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="P23" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="P23" s="3" t="s">
+      <c r="Q23" s="3" t="s">
         <v>89</v>
       </c>
       <c r="R23" s="3" t="s">
@@ -8167,13 +8170,13 @@
         <v>74</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="P24" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q24" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>74</v>
@@ -8271,7 +8274,7 @@
       <c r="M27" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="P27" s="3" t="s">
+      <c r="Q27" s="3" t="s">
         <v>80</v>
       </c>
     </row>
@@ -8352,7 +8355,7 @@
       <c r="M30" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="P30" s="3" t="s">
+      <c r="Q30" s="3" t="s">
         <v>74</v>
       </c>
       <c r="V30" s="3" t="s">
@@ -8399,7 +8402,7 @@
       <c r="L31" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="P31" s="3" t="s">
+      <c r="Q31" s="3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -8437,10 +8440,10 @@
       <c r="L32" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="P32" s="4" t="s">
+      <c r="P32" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q32" s="4" t="s">
         <v>93</v>
       </c>
       <c r="Y32" s="3" t="s">
@@ -8504,10 +8507,10 @@
       <c r="L34" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="O34" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="P34" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q34" s="3" t="s">
         <v>80</v>
       </c>
       <c r="S34" s="3" t="s">
@@ -8560,10 +8563,10 @@
       <c r="M35" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="O35" s="4" t="s">
+      <c r="P35" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="P35" s="4" t="s">
+      <c r="Q35" s="4" t="s">
         <v>100</v>
       </c>
     </row>
@@ -8612,7 +8615,7 @@
       <c r="H37" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="P37" s="3" t="s">
+      <c r="Q37" s="3" t="s">
         <v>77</v>
       </c>
     </row>
@@ -8678,7 +8681,7 @@
       <c r="F40" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="P40" s="3" t="s">
+      <c r="Q40" s="3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -8739,8 +8742,11 @@
       <c r="L42" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="O42" s="3" t="s">
+      <c r="P42" s="3" t="s">
         <v>89</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="S42" s="3" t="s">
         <v>89</v>
@@ -8841,6 +8847,9 @@
       <c r="I45" s="3" t="s">
         <v>78</v>
       </c>
+      <c r="Q45" s="4" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="46" spans="1:29">
       <c r="A46" s="2" t="s">
@@ -9014,7 +9023,7 @@
       <c r="M52" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="O52" s="3" t="s">
+      <c r="P52" s="3" t="s">
         <v>77</v>
       </c>
     </row>
@@ -9052,11 +9061,11 @@
       <c r="M53" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="N53" s="4" t="s">
+      <c r="N53" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O53" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="Q53" s="3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:19">
@@ -9222,7 +9231,7 @@
       <c r="F60" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="O60" s="3" t="s">
+      <c r="P60" s="3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -9260,7 +9269,7 @@
       <c r="K61" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="O61" s="3" t="s">
+      <c r="P61" s="3" t="s">
         <v>74</v>
       </c>
       <c r="S61" s="3" t="s">
@@ -9289,7 +9298,7 @@
       <c r="G62" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="Q62" s="3" t="s">
+      <c r="N62" s="3" t="s">
         <v>80</v>
       </c>
     </row>
@@ -9389,7 +9398,7 @@
       <c r="F67" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="N67" s="4" t="s">
+      <c r="O67" s="4" t="s">
         <v>100</v>
       </c>
     </row>
@@ -9517,7 +9526,7 @@
       <c r="K71" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="O71" s="3" t="s">
+      <c r="P71" s="3" t="s">
         <v>74</v>
       </c>
       <c r="T71" s="3" t="s">
@@ -9667,7 +9676,7 @@
       <c r="H77" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="O77" s="4" t="s">
+      <c r="P77" s="4" t="s">
         <v>204</v>
       </c>
     </row>
@@ -9896,7 +9905,7 @@
       <c r="J88" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="O88" s="4" t="s">
+      <c r="P88" s="4" t="s">
         <v>149</v>
       </c>
     </row>
@@ -9951,7 +9960,7 @@
       <c r="L90" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="O90" s="3" t="s">
+      <c r="P90" s="3" t="s">
         <v>110</v>
       </c>
       <c r="V90" s="3" t="s">
@@ -10147,7 +10156,7 @@
       <c r="F98" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="N98" s="4" t="s">
+      <c r="O98" s="4" t="s">
         <v>204</v>
       </c>
     </row>
@@ -10225,7 +10234,7 @@
       <c r="L101" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="O101" s="3" t="s">
+      <c r="P101" s="3" t="s">
         <v>74</v>
       </c>
       <c r="V101" s="3" t="s">
@@ -10593,10 +10602,10 @@
       <c r="L117" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="N117" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="O117" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="P117" s="3" t="s">
         <v>74</v>
       </c>
       <c r="R117" s="3" t="s">
@@ -10874,6 +10883,9 @@
       <c r="H130" s="4" t="s">
         <v>93</v>
       </c>
+      <c r="N130" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="131" spans="1:21">
       <c r="A131" s="2" t="s">
@@ -10946,7 +10958,7 @@
       <c r="N133" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="Q133" s="3" t="s">
+      <c r="O133" s="3" t="s">
         <v>74</v>
       </c>
       <c r="T133" s="3" t="s">
@@ -10984,7 +10996,7 @@
       <c r="N134" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="Q134" s="3" t="s">
+      <c r="O134" s="3" t="s">
         <v>74</v>
       </c>
       <c r="R134" s="3" t="s">
@@ -11019,7 +11031,7 @@
       <c r="N135" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="Q135" s="3" t="s">
+      <c r="O135" s="3" t="s">
         <v>80</v>
       </c>
       <c r="R135" s="3" t="s">
@@ -11464,7 +11476,7 @@
       <c r="I155" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="Q155" s="4" t="s">
+      <c r="N155" s="4" t="s">
         <v>100</v>
       </c>
     </row>
@@ -11502,7 +11514,10 @@
       <c r="M156" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="O156" s="3" t="s">
+      <c r="N156" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="P156" s="3" t="s">
         <v>80</v>
       </c>
       <c r="S156" s="3" t="s">
@@ -11546,7 +11561,7 @@
       <c r="M157" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="N157" s="3" t="s">
+      <c r="O157" s="3" t="s">
         <v>74</v>
       </c>
       <c r="S157" s="3" t="s">
@@ -11753,7 +11768,7 @@
       <c r="L166" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="O166" s="4" t="s">
+      <c r="P166" s="4" t="s">
         <v>149</v>
       </c>
     </row>
@@ -11916,8 +11931,8 @@
       <c r="F174" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="Q174" s="3" t="s">
-        <v>80</v>
+      <c r="N174" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -12474,7 +12489,7 @@
       <c r="L204" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="O204" s="3" t="s">
+      <c r="P204" s="3" t="s">
         <v>74</v>
       </c>
       <c r="S204" s="3" t="s">
@@ -12558,7 +12573,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="209" spans="1:17">
+    <row r="209" spans="1:14">
       <c r="A209" s="2" t="s">
         <v>354</v>
       </c>
@@ -12569,7 +12584,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="210" spans="1:17">
+    <row r="210" spans="1:14">
       <c r="A210" s="2" t="s">
         <v>355</v>
       </c>
@@ -12577,7 +12592,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="211" spans="1:17">
+    <row r="211" spans="1:14">
       <c r="A211" s="2" t="s">
         <v>356</v>
       </c>
@@ -12602,11 +12617,11 @@
       <c r="J211" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="Q211" s="4" t="s">
+      <c r="N211" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="212" spans="1:17">
+    <row r="212" spans="1:14">
       <c r="A212" s="2" t="s">
         <v>358</v>
       </c>
@@ -12626,7 +12641,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="213" spans="1:17">
+    <row r="213" spans="1:14">
       <c r="A213" s="2" t="s">
         <v>359</v>
       </c>
@@ -12643,7 +12658,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="214" spans="1:17">
+    <row r="214" spans="1:14">
       <c r="A214" s="2" t="s">
         <v>360</v>
       </c>
@@ -12654,7 +12669,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="215" spans="1:17">
+    <row r="215" spans="1:14">
       <c r="A215" s="2" t="s">
         <v>361</v>
       </c>
@@ -12671,7 +12686,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="216" spans="1:17">
+    <row r="216" spans="1:14">
       <c r="A216" s="2" t="s">
         <v>362</v>
       </c>
@@ -12691,7 +12706,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="217" spans="1:17">
+    <row r="217" spans="1:14">
       <c r="A217" s="2" t="s">
         <v>363</v>
       </c>
@@ -12711,7 +12726,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="218" spans="1:17">
+    <row r="218" spans="1:14">
       <c r="A218" s="2" t="s">
         <v>364</v>
       </c>
@@ -12731,7 +12746,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="219" spans="1:17">
+    <row r="219" spans="1:14">
       <c r="A219" s="2" t="s">
         <v>365</v>
       </c>
@@ -12751,10 +12766,13 @@
         <v>113</v>
       </c>
     </row>
-    <row r="220" spans="1:17">
+    <row r="220" spans="1:14">
       <c r="A220" s="2" t="s">
         <v>366</v>
       </c>
+      <c r="B220" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="C220" s="3" t="s">
         <v>74</v>
       </c>
@@ -12768,7 +12786,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="221" spans="1:17">
+    <row r="221" spans="1:14">
       <c r="A221" s="2" t="s">
         <v>367</v>
       </c>
@@ -12776,7 +12794,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="222" spans="1:17">
+    <row r="222" spans="1:14">
       <c r="A222" s="2" t="s">
         <v>368</v>
       </c>
@@ -12793,7 +12811,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="223" spans="1:17">
+    <row r="223" spans="1:14">
       <c r="A223" s="2" t="s">
         <v>369</v>
       </c>
@@ -12807,7 +12825,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="224" spans="1:17">
+    <row r="224" spans="1:14">
       <c r="A224" s="2" t="s">
         <v>370</v>
       </c>
@@ -13063,7 +13081,7 @@
       <c r="L242" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="O242" s="3" t="s">
+      <c r="P242" s="3" t="s">
         <v>77</v>
       </c>
       <c r="S242" s="4" t="s">
@@ -13554,7 +13572,7 @@
       <c r="K273" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="O273" s="3" t="s">
+      <c r="P273" s="3" t="s">
         <v>72</v>
       </c>
       <c r="X273" s="3" t="s">
@@ -13580,7 +13598,7 @@
       <c r="F274" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="N274" s="3" t="s">
+      <c r="O274" s="3" t="s">
         <v>80</v>
       </c>
     </row>
@@ -13623,7 +13641,7 @@
       <c r="F276" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="N276" s="4" t="s">
+      <c r="O276" s="4" t="s">
         <v>100</v>
       </c>
     </row>
@@ -13897,7 +13915,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="289" spans="1:14">
+    <row r="289" spans="1:15">
       <c r="A289" s="2" t="s">
         <v>444</v>
       </c>
@@ -13917,7 +13935,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="290" spans="1:14">
+    <row r="290" spans="1:15">
       <c r="A290" s="2" t="s">
         <v>445</v>
       </c>
@@ -13940,7 +13958,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="291" spans="1:14">
+    <row r="291" spans="1:15">
       <c r="A291" s="2" t="s">
         <v>446</v>
       </c>
@@ -13960,7 +13978,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="292" spans="1:14">
+    <row r="292" spans="1:15">
       <c r="A292" s="2" t="s">
         <v>447</v>
       </c>
@@ -13983,7 +14001,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="293" spans="1:14">
+    <row r="293" spans="1:15">
       <c r="A293" s="2" t="s">
         <v>448</v>
       </c>
@@ -14012,7 +14030,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="294" spans="1:14">
+    <row r="294" spans="1:15">
       <c r="A294" s="2" t="s">
         <v>449</v>
       </c>
@@ -14032,7 +14050,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="295" spans="1:14">
+    <row r="295" spans="1:15">
       <c r="A295" s="2" t="s">
         <v>450</v>
       </c>
@@ -14052,7 +14070,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="296" spans="1:14">
+    <row r="296" spans="1:15">
       <c r="A296" s="2" t="s">
         <v>452</v>
       </c>
@@ -14072,7 +14090,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="297" spans="1:14">
+    <row r="297" spans="1:15">
       <c r="A297" s="2" t="s">
         <v>453</v>
       </c>
@@ -14080,7 +14098,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="298" spans="1:14">
+    <row r="298" spans="1:15">
       <c r="A298" s="2" t="s">
         <v>454</v>
       </c>
@@ -14094,7 +14112,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="299" spans="1:14">
+    <row r="299" spans="1:15">
       <c r="A299" s="2" t="s">
         <v>455</v>
       </c>
@@ -14111,7 +14129,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="300" spans="1:14">
+    <row r="300" spans="1:15">
       <c r="A300" s="2" t="s">
         <v>456</v>
       </c>
@@ -14131,7 +14149,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="301" spans="1:14">
+    <row r="301" spans="1:15">
       <c r="A301" s="2" t="s">
         <v>457</v>
       </c>
@@ -14148,7 +14166,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="302" spans="1:14">
+    <row r="302" spans="1:15">
       <c r="A302" s="2" t="s">
         <v>458</v>
       </c>
@@ -14176,11 +14194,11 @@
       <c r="I302" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="N302" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="303" spans="1:14">
+      <c r="O302" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="303" spans="1:15">
       <c r="A303" s="2" t="s">
         <v>459</v>
       </c>
@@ -14206,7 +14224,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="304" spans="1:14">
+    <row r="304" spans="1:15">
       <c r="A304" s="2" t="s">
         <v>460</v>
       </c>
@@ -14553,10 +14571,10 @@
       <c r="L321" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="N321" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="O321" s="4" t="s">
+      <c r="O321" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="P321" s="4" t="s">
         <v>111</v>
       </c>
       <c r="R321" s="3" t="s">
@@ -14826,7 +14844,7 @@
       <c r="M333" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="O333" s="3" t="s">
+      <c r="P333" s="3" t="s">
         <v>97</v>
       </c>
       <c r="X333" s="3" t="s">
@@ -14904,7 +14922,7 @@
       <c r="M336" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="O336" s="4" t="s">
+      <c r="P336" s="4" t="s">
         <v>100</v>
       </c>
       <c r="R336" s="3" t="s">
@@ -14939,11 +14957,11 @@
       <c r="L337" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="P337" s="3" t="s">
+      <c r="N337" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q337" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="Q337" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="T337" s="3" t="s">
         <v>110</v>
@@ -15023,7 +15041,7 @@
       <c r="K340" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="O340" s="4" t="s">
+      <c r="P340" s="4" t="s">
         <v>100</v>
       </c>
     </row>
@@ -15120,10 +15138,10 @@
       <c r="H345" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="N345" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="O345" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="P345" s="3" t="s">
         <v>74</v>
       </c>
       <c r="S345" s="3" t="s">
@@ -15212,7 +15230,7 @@
       <c r="K349" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="O349" s="4" t="s">
+      <c r="P349" s="4" t="s">
         <v>149</v>
       </c>
     </row>
@@ -15540,7 +15558,7 @@
       <c r="J366" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="O366" s="4" t="s">
+      <c r="P366" s="4" t="s">
         <v>111</v>
       </c>
       <c r="R366" s="3" t="s">
@@ -15856,7 +15874,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="385" spans="1:14">
+    <row r="385" spans="1:15">
       <c r="A385" s="2" t="s">
         <v>546</v>
       </c>
@@ -15870,7 +15888,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="386" spans="1:14">
+    <row r="386" spans="1:15">
       <c r="A386" s="2" t="s">
         <v>547</v>
       </c>
@@ -15884,7 +15902,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="387" spans="1:14">
+    <row r="387" spans="1:15">
       <c r="A387" s="2" t="s">
         <v>548</v>
       </c>
@@ -15898,7 +15916,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="388" spans="1:14">
+    <row r="388" spans="1:15">
       <c r="A388" s="2" t="s">
         <v>549</v>
       </c>
@@ -15909,7 +15927,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="389" spans="1:14">
+    <row r="389" spans="1:15">
       <c r="A389" s="2" t="s">
         <v>550</v>
       </c>
@@ -15923,7 +15941,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="390" spans="1:14">
+    <row r="390" spans="1:15">
       <c r="A390" s="2" t="s">
         <v>551</v>
       </c>
@@ -15940,7 +15958,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="391" spans="1:14">
+    <row r="391" spans="1:15">
       <c r="A391" s="2" t="s">
         <v>552</v>
       </c>
@@ -15960,7 +15978,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="392" spans="1:14">
+    <row r="392" spans="1:15">
       <c r="A392" s="2" t="s">
         <v>553</v>
       </c>
@@ -15980,7 +15998,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="393" spans="1:14">
+    <row r="393" spans="1:15">
       <c r="A393" s="2" t="s">
         <v>554</v>
       </c>
@@ -16003,7 +16021,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="394" spans="1:14">
+    <row r="394" spans="1:15">
       <c r="A394" s="2" t="s">
         <v>555</v>
       </c>
@@ -16020,7 +16038,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="395" spans="1:14">
+    <row r="395" spans="1:15">
       <c r="A395" s="2" t="s">
         <v>556</v>
       </c>
@@ -16028,7 +16046,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="396" spans="1:14">
+    <row r="396" spans="1:15">
       <c r="A396" s="2" t="s">
         <v>557</v>
       </c>
@@ -16050,11 +16068,11 @@
       <c r="H396" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="N396" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="397" spans="1:14">
+      <c r="O396" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="397" spans="1:15">
       <c r="A397" s="2" t="s">
         <v>558</v>
       </c>
@@ -16071,7 +16089,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="398" spans="1:14">
+    <row r="398" spans="1:15">
       <c r="A398" s="2" t="s">
         <v>559</v>
       </c>
@@ -16079,7 +16097,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="399" spans="1:14">
+    <row r="399" spans="1:15">
       <c r="A399" s="2" t="s">
         <v>560</v>
       </c>
@@ -16096,7 +16114,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="400" spans="1:14">
+    <row r="400" spans="1:15">
       <c r="A400" s="2" t="s">
         <v>561</v>
       </c>
@@ -16107,7 +16125,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="401" spans="1:14">
+    <row r="401" spans="1:15">
       <c r="A401" s="2" t="s">
         <v>562</v>
       </c>
@@ -16127,7 +16145,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="402" spans="1:14">
+    <row r="402" spans="1:15">
       <c r="A402" s="2" t="s">
         <v>563</v>
       </c>
@@ -16138,7 +16156,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="403" spans="1:14">
+    <row r="403" spans="1:15">
       <c r="A403" s="2" t="s">
         <v>564</v>
       </c>
@@ -16164,7 +16182,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="404" spans="1:14">
+    <row r="404" spans="1:15">
       <c r="A404" s="2" t="s">
         <v>565</v>
       </c>
@@ -16184,7 +16202,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="405" spans="1:14">
+    <row r="405" spans="1:15">
       <c r="A405" s="2" t="s">
         <v>566</v>
       </c>
@@ -16204,7 +16222,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="406" spans="1:14">
+    <row r="406" spans="1:15">
       <c r="A406" s="2" t="s">
         <v>567</v>
       </c>
@@ -16218,7 +16236,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="407" spans="1:14">
+    <row r="407" spans="1:15">
       <c r="A407" s="2" t="s">
         <v>568</v>
       </c>
@@ -16240,11 +16258,11 @@
       <c r="L407" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="N407" s="4" t="s">
+      <c r="O407" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="408" spans="1:14">
+    <row r="408" spans="1:15">
       <c r="A408" s="2" t="s">
         <v>569</v>
       </c>
@@ -16258,7 +16276,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="409" spans="1:14">
+    <row r="409" spans="1:15">
       <c r="A409" s="2" t="s">
         <v>571</v>
       </c>
@@ -16275,7 +16293,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="410" spans="1:14">
+    <row r="410" spans="1:15">
       <c r="A410" s="2" t="s">
         <v>572</v>
       </c>
@@ -16292,7 +16310,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="411" spans="1:14">
+    <row r="411" spans="1:15">
       <c r="A411" s="2" t="s">
         <v>573</v>
       </c>
@@ -16300,7 +16318,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="412" spans="1:14">
+    <row r="412" spans="1:15">
       <c r="A412" s="2" t="s">
         <v>574</v>
       </c>
@@ -16308,7 +16326,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="413" spans="1:14">
+    <row r="413" spans="1:15">
       <c r="A413" s="2" t="s">
         <v>575</v>
       </c>
@@ -16319,7 +16337,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="414" spans="1:14">
+    <row r="414" spans="1:15">
       <c r="A414" s="2" t="s">
         <v>576</v>
       </c>
@@ -16333,7 +16351,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="415" spans="1:14">
+    <row r="415" spans="1:15">
       <c r="A415" s="2" t="s">
         <v>577</v>
       </c>
@@ -16341,7 +16359,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="416" spans="1:14">
+    <row r="416" spans="1:15">
       <c r="A416" s="2" t="s">
         <v>578</v>
       </c>
@@ -17542,6 +17560,9 @@
       <c r="A497" s="2" t="s">
         <v>666</v>
       </c>
+      <c r="B497" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="E497" s="4" t="s">
         <v>150</v>
       </c>
@@ -17945,7 +17966,7 @@
       <c r="K520" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="N520" s="3" t="s">
+      <c r="O520" s="3" t="s">
         <v>88</v>
       </c>
     </row>
@@ -17988,11 +18009,11 @@
       <c r="K522" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="P522" s="3" t="s">
-        <v>74</v>
+      <c r="N522" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="Q522" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="T522" s="3" t="s">
         <v>74</v>
@@ -18066,7 +18087,7 @@
       <c r="F525" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="N525" s="4" t="s">
+      <c r="O525" s="4" t="s">
         <v>100</v>
       </c>
     </row>
@@ -18171,8 +18192,8 @@
       <c r="F531" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="G531" s="4" t="s">
-        <v>94</v>
+      <c r="G531" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="H531" s="3" t="s">
         <v>74</v>
@@ -18197,7 +18218,7 @@
       <c r="F532" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="N532" s="4" t="s">
+      <c r="O532" s="4" t="s">
         <v>100</v>
       </c>
     </row>
@@ -18320,7 +18341,7 @@
       <c r="K538" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="O538" s="4" t="s">
+      <c r="P538" s="4" t="s">
         <v>95</v>
       </c>
       <c r="S538" s="3" t="s">
@@ -18701,7 +18722,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="561" spans="1:17">
+    <row r="561" spans="1:16">
       <c r="A561" s="2" t="s">
         <v>730</v>
       </c>
@@ -18718,7 +18739,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="562" spans="1:17">
+    <row r="562" spans="1:16">
       <c r="A562" s="2" t="s">
         <v>731</v>
       </c>
@@ -18732,7 +18753,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="563" spans="1:17">
+    <row r="563" spans="1:16">
       <c r="A563" s="2" t="s">
         <v>732</v>
       </c>
@@ -18764,16 +18785,16 @@
         <v>77</v>
       </c>
       <c r="N563" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="O563" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q563" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="564" spans="1:17">
+        <v>80</v>
+      </c>
+      <c r="P563" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="564" spans="1:16">
       <c r="A564" s="2" t="s">
         <v>733</v>
       </c>
@@ -18781,7 +18802,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="565" spans="1:17">
+    <row r="565" spans="1:16">
       <c r="A565" s="2" t="s">
         <v>734</v>
       </c>
@@ -18792,7 +18813,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="566" spans="1:17">
+    <row r="566" spans="1:16">
       <c r="A566" s="2" t="s">
         <v>735</v>
       </c>
@@ -18803,12 +18824,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="567" spans="1:17">
+    <row r="567" spans="1:16">
       <c r="A567" s="2" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="568" spans="1:17">
+    <row r="568" spans="1:16">
       <c r="A568" s="2" t="s">
         <v>737</v>
       </c>
@@ -18819,7 +18840,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="569" spans="1:17">
+    <row r="569" spans="1:16">
       <c r="A569" s="2" t="s">
         <v>738</v>
       </c>
@@ -18827,7 +18848,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="570" spans="1:17">
+    <row r="570" spans="1:16">
       <c r="A570" s="2" t="s">
         <v>739</v>
       </c>
@@ -18838,7 +18859,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="571" spans="1:17">
+    <row r="571" spans="1:16">
       <c r="A571" s="2" t="s">
         <v>741</v>
       </c>
@@ -18855,7 +18876,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="572" spans="1:17">
+    <row r="572" spans="1:16">
       <c r="A572" s="2" t="s">
         <v>742</v>
       </c>
@@ -18866,7 +18887,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="573" spans="1:17">
+    <row r="573" spans="1:16">
       <c r="A573" s="2" t="s">
         <v>743</v>
       </c>
@@ -18880,12 +18901,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="574" spans="1:17">
+    <row r="574" spans="1:16">
       <c r="A574" s="2" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="575" spans="1:17">
+    <row r="575" spans="1:16">
       <c r="A575" s="2" t="s">
         <v>745</v>
       </c>
@@ -18899,7 +18920,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="576" spans="1:17">
+    <row r="576" spans="1:16">
       <c r="A576" s="2" t="s">
         <v>746</v>
       </c>
@@ -20074,7 +20095,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="673" spans="1:15">
+    <row r="673" spans="1:16">
       <c r="A673" s="2" t="s">
         <v>845</v>
       </c>
@@ -20097,7 +20118,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="674" spans="1:15">
+    <row r="674" spans="1:16">
       <c r="A674" s="2" t="s">
         <v>846</v>
       </c>
@@ -20114,7 +20135,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="675" spans="1:15">
+    <row r="675" spans="1:16">
       <c r="A675" s="2" t="s">
         <v>847</v>
       </c>
@@ -20131,7 +20152,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="676" spans="1:15">
+    <row r="676" spans="1:16">
       <c r="A676" s="2" t="s">
         <v>848</v>
       </c>
@@ -20150,11 +20171,11 @@
       <c r="G676" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="N676" s="4" t="s">
+      <c r="O676" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="677" spans="1:15">
+    <row r="677" spans="1:16">
       <c r="A677" s="2" t="s">
         <v>849</v>
       </c>
@@ -20168,7 +20189,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="678" spans="1:15">
+    <row r="678" spans="1:16">
       <c r="A678" s="2" t="s">
         <v>850</v>
       </c>
@@ -20185,7 +20206,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="679" spans="1:15">
+    <row r="679" spans="1:16">
       <c r="A679" s="2" t="s">
         <v>851</v>
       </c>
@@ -20205,7 +20226,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="680" spans="1:15">
+    <row r="680" spans="1:16">
       <c r="A680" s="2" t="s">
         <v>852</v>
       </c>
@@ -20219,7 +20240,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="681" spans="1:15">
+    <row r="681" spans="1:16">
       <c r="A681" s="2" t="s">
         <v>853</v>
       </c>
@@ -20233,7 +20254,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="682" spans="1:15">
+    <row r="682" spans="1:16">
       <c r="A682" s="2" t="s">
         <v>855</v>
       </c>
@@ -20250,7 +20271,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="683" spans="1:15">
+    <row r="683" spans="1:16">
       <c r="A683" s="2" t="s">
         <v>856</v>
       </c>
@@ -20267,7 +20288,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="684" spans="1:15">
+    <row r="684" spans="1:16">
       <c r="A684" s="2" t="s">
         <v>857</v>
       </c>
@@ -20296,7 +20317,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="685" spans="1:15">
+    <row r="685" spans="1:16">
       <c r="A685" s="2" t="s">
         <v>858</v>
       </c>
@@ -20313,7 +20334,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="686" spans="1:15">
+    <row r="686" spans="1:16">
       <c r="A686" s="2" t="s">
         <v>859</v>
       </c>
@@ -20332,11 +20353,11 @@
       <c r="K686" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="O686" s="4" t="s">
+      <c r="P686" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="687" spans="1:15">
+    <row r="687" spans="1:16">
       <c r="A687" s="2" t="s">
         <v>860</v>
       </c>
@@ -20368,7 +20389,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="688" spans="1:15">
+    <row r="688" spans="1:16">
       <c r="A688" s="2" t="s">
         <v>862</v>
       </c>
@@ -20417,10 +20438,10 @@
         <v>80</v>
       </c>
       <c r="N689" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q689" s="3" t="s">
-        <v>80</v>
+        <v>80</v>
+      </c>
+      <c r="O689" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="690" spans="1:22">
@@ -20804,7 +20825,7 @@
       <c r="M706" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="O706" s="3" t="s">
+      <c r="P706" s="3" t="s">
         <v>74</v>
       </c>
       <c r="V706" s="3" t="s">
@@ -21101,7 +21122,7 @@
       <c r="M724" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="N724" s="3" t="s">
+      <c r="O724" s="3" t="s">
         <v>88</v>
       </c>
     </row>
@@ -21653,7 +21674,7 @@
       <c r="M766" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="O766" s="4" t="s">
+      <c r="P766" s="4" t="s">
         <v>138</v>
       </c>
       <c r="S766" s="4" t="s">
@@ -21699,7 +21720,7 @@
       <c r="H768" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="O768" s="4" t="s">
+      <c r="P768" s="4" t="s">
         <v>100</v>
       </c>
     </row>
@@ -21845,7 +21866,7 @@
       <c r="M775" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="O775" s="3" t="s">
+      <c r="P775" s="3" t="s">
         <v>74</v>
       </c>
       <c r="S775" s="3" t="s">
@@ -21961,7 +21982,7 @@
       <c r="L782" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="O782" s="3" t="s">
+      <c r="P782" s="3" t="s">
         <v>74</v>
       </c>
       <c r="S782" s="3" t="s">
@@ -22002,7 +22023,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="785" spans="1:17">
+    <row r="785" spans="1:16">
       <c r="A785" s="2" t="s">
         <v>962</v>
       </c>
@@ -22010,7 +22031,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="786" spans="1:17">
+    <row r="786" spans="1:16">
       <c r="A786" s="2" t="s">
         <v>963</v>
       </c>
@@ -22041,11 +22062,14 @@
       <c r="M786" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="O786" s="3" t="s">
+      <c r="N786" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P786" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="787" spans="1:17">
+    <row r="787" spans="1:16">
       <c r="A787" s="2" t="s">
         <v>964</v>
       </c>
@@ -22071,7 +22095,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="788" spans="1:17">
+    <row r="788" spans="1:16">
       <c r="A788" s="2" t="s">
         <v>965</v>
       </c>
@@ -22091,7 +22115,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="789" spans="1:17">
+    <row r="789" spans="1:16">
       <c r="A789" s="2" t="s">
         <v>966</v>
       </c>
@@ -22114,7 +22138,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="790" spans="1:17">
+    <row r="790" spans="1:16">
       <c r="A790" s="2" t="s">
         <v>967</v>
       </c>
@@ -22131,7 +22155,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="791" spans="1:17">
+    <row r="791" spans="1:16">
       <c r="A791" s="2" t="s">
         <v>968</v>
       </c>
@@ -22145,7 +22169,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="792" spans="1:17">
+    <row r="792" spans="1:16">
       <c r="A792" s="2" t="s">
         <v>969</v>
       </c>
@@ -22162,7 +22186,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="793" spans="1:17">
+    <row r="793" spans="1:16">
       <c r="A793" s="2" t="s">
         <v>970</v>
       </c>
@@ -22185,13 +22209,13 @@
         <v>69</v>
       </c>
       <c r="N793" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="O793" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="Q793" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="794" spans="1:17">
+    </row>
+    <row r="794" spans="1:16">
       <c r="A794" s="2" t="s">
         <v>971</v>
       </c>
@@ -22208,7 +22232,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="795" spans="1:17">
+    <row r="795" spans="1:16">
       <c r="A795" s="2" t="s">
         <v>972</v>
       </c>
@@ -22219,7 +22243,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="796" spans="1:17">
+    <row r="796" spans="1:16">
       <c r="A796" s="2" t="s">
         <v>973</v>
       </c>
@@ -22241,16 +22265,16 @@
       <c r="H796" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="Q796" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="797" spans="1:17">
+      <c r="N796" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="797" spans="1:16">
       <c r="A797" s="2" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="798" spans="1:17">
+    <row r="798" spans="1:16">
       <c r="A798" s="2" t="s">
         <v>975</v>
       </c>
@@ -22267,7 +22291,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="799" spans="1:17">
+    <row r="799" spans="1:16">
       <c r="A799" s="2" t="s">
         <v>976</v>
       </c>
@@ -22290,7 +22314,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="800" spans="1:17">
+    <row r="800" spans="1:16">
       <c r="A800" s="2" t="s">
         <v>977</v>
       </c>
@@ -23015,7 +23039,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="849" spans="1:15">
+    <row r="849" spans="1:16">
       <c r="A849" s="2" t="s">
         <v>1028</v>
       </c>
@@ -23026,7 +23050,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="850" spans="1:15">
+    <row r="850" spans="1:16">
       <c r="A850" s="2" t="s">
         <v>1030</v>
       </c>
@@ -23043,7 +23067,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="851" spans="1:15">
+    <row r="851" spans="1:16">
       <c r="A851" s="2" t="s">
         <v>1031</v>
       </c>
@@ -23057,7 +23081,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="852" spans="1:15">
+    <row r="852" spans="1:16">
       <c r="A852" s="2" t="s">
         <v>1032</v>
       </c>
@@ -23080,7 +23104,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="853" spans="1:15">
+    <row r="853" spans="1:16">
       <c r="A853" s="2" t="s">
         <v>1033</v>
       </c>
@@ -23106,7 +23130,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="854" spans="1:15">
+    <row r="854" spans="1:16">
       <c r="A854" s="2" t="s">
         <v>1034</v>
       </c>
@@ -23123,7 +23147,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="855" spans="1:15">
+    <row r="855" spans="1:16">
       <c r="A855" s="2" t="s">
         <v>1035</v>
       </c>
@@ -23140,7 +23164,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="856" spans="1:15">
+    <row r="856" spans="1:16">
       <c r="A856" s="2" t="s">
         <v>1036</v>
       </c>
@@ -23157,7 +23181,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="857" spans="1:15">
+    <row r="857" spans="1:16">
       <c r="A857" s="2" t="s">
         <v>1037</v>
       </c>
@@ -23171,12 +23195,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="858" spans="1:15">
+    <row r="858" spans="1:16">
       <c r="A858" s="2" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="859" spans="1:15">
+    <row r="859" spans="1:16">
       <c r="A859" s="2" t="s">
         <v>1039</v>
       </c>
@@ -23208,7 +23232,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="860" spans="1:15">
+    <row r="860" spans="1:16">
       <c r="A860" s="2" t="s">
         <v>1040</v>
       </c>
@@ -23216,12 +23240,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="861" spans="1:15">
+    <row r="861" spans="1:16">
       <c r="A861" s="2" t="s">
         <v>1041</v>
       </c>
     </row>
-    <row r="862" spans="1:15">
+    <row r="862" spans="1:16">
       <c r="A862" s="2" t="s">
         <v>1042</v>
       </c>
@@ -23229,7 +23253,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="863" spans="1:15">
+    <row r="863" spans="1:16">
       <c r="A863" s="2" t="s">
         <v>1043</v>
       </c>
@@ -23260,11 +23284,11 @@
       <c r="M863" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="O863" s="3" t="s">
+      <c r="P863" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="864" spans="1:15">
+    <row r="864" spans="1:16">
       <c r="A864" s="2" t="s">
         <v>1044</v>
       </c>
@@ -23272,12 +23296,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="865" spans="1:17">
+    <row r="865" spans="1:15">
       <c r="A865" s="2" t="s">
         <v>1045</v>
       </c>
     </row>
-    <row r="866" spans="1:17">
+    <row r="866" spans="1:15">
       <c r="A866" s="2" t="s">
         <v>1046</v>
       </c>
@@ -23291,7 +23315,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="867" spans="1:17">
+    <row r="867" spans="1:15">
       <c r="A867" s="2" t="s">
         <v>1047</v>
       </c>
@@ -23308,7 +23332,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="868" spans="1:17">
+    <row r="868" spans="1:15">
       <c r="A868" s="2" t="s">
         <v>1048</v>
       </c>
@@ -23334,12 +23358,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="869" spans="1:17">
+    <row r="869" spans="1:15">
       <c r="A869" s="2" t="s">
         <v>1049</v>
       </c>
     </row>
-    <row r="870" spans="1:17">
+    <row r="870" spans="1:15">
       <c r="A870" s="2" t="s">
         <v>1050</v>
       </c>
@@ -23350,7 +23374,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="871" spans="1:17">
+    <row r="871" spans="1:15">
       <c r="A871" s="2" t="s">
         <v>1051</v>
       </c>
@@ -23358,7 +23382,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="872" spans="1:17">
+    <row r="872" spans="1:15">
       <c r="A872" s="2" t="s">
         <v>1052</v>
       </c>
@@ -23369,12 +23393,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="873" spans="1:17">
+    <row r="873" spans="1:15">
       <c r="A873" s="2" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="874" spans="1:17">
+    <row r="874" spans="1:15">
       <c r="A874" s="2" t="s">
         <v>1054</v>
       </c>
@@ -23382,12 +23406,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="875" spans="1:17">
+    <row r="875" spans="1:15">
       <c r="A875" s="2" t="s">
         <v>1055</v>
       </c>
     </row>
-    <row r="876" spans="1:17">
+    <row r="876" spans="1:15">
       <c r="A876" s="2" t="s">
         <v>1056</v>
       </c>
@@ -23398,7 +23422,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="877" spans="1:17">
+    <row r="877" spans="1:15">
       <c r="A877" s="2" t="s">
         <v>1057</v>
       </c>
@@ -23409,7 +23433,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="878" spans="1:17">
+    <row r="878" spans="1:15">
       <c r="A878" s="2" t="s">
         <v>1058</v>
       </c>
@@ -23426,12 +23450,12 @@
         <v>292</v>
       </c>
     </row>
-    <row r="879" spans="1:17">
+    <row r="879" spans="1:15">
       <c r="A879" s="2" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="880" spans="1:17">
+    <row r="880" spans="1:15">
       <c r="A880" s="2" t="s">
         <v>1060</v>
       </c>
@@ -23448,10 +23472,10 @@
         <v>74</v>
       </c>
       <c r="N880" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="O880" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="Q880" s="4" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="881" spans="1:7">
@@ -23761,14 +23785,14 @@
       <c r="L902" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="O902" s="3" t="s">
+      <c r="N902" s="3" t="s">
         <v>88</v>
       </c>
       <c r="P902" s="3" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="Q902" s="3" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="S902" s="4" t="s">
         <v>417</v>
@@ -23985,10 +24009,10 @@
       <c r="L912" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="N912" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="O912" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="P912" s="3" t="s">
         <v>80</v>
       </c>
       <c r="S912" s="3" t="s">
@@ -24237,6 +24261,9 @@
       <c r="A927" s="2" t="s">
         <v>1109</v>
       </c>
+      <c r="B927" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="E927" s="3" t="s">
         <v>74</v>
       </c>
@@ -24246,7 +24273,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="929" spans="1:15">
+    <row r="929" spans="1:16">
       <c r="A929" s="2" t="s">
         <v>1111</v>
       </c>
@@ -24254,12 +24281,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="930" spans="1:15">
+    <row r="930" spans="1:16">
       <c r="A930" s="2" t="s">
         <v>1112</v>
       </c>
     </row>
-    <row r="931" spans="1:15">
+    <row r="931" spans="1:16">
       <c r="A931" s="2" t="s">
         <v>1113</v>
       </c>
@@ -24273,7 +24300,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="932" spans="1:15">
+    <row r="932" spans="1:16">
       <c r="A932" s="2" t="s">
         <v>1114</v>
       </c>
@@ -24293,7 +24320,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="933" spans="1:15">
+    <row r="933" spans="1:16">
       <c r="A933" s="2" t="s">
         <v>1117</v>
       </c>
@@ -24318,11 +24345,11 @@
       <c r="M933" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="N933" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="934" spans="1:15">
+      <c r="O933" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="934" spans="1:16">
       <c r="A934" s="2" t="s">
         <v>1118</v>
       </c>
@@ -24345,7 +24372,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="935" spans="1:15">
+    <row r="935" spans="1:16">
       <c r="A935" s="2" t="s">
         <v>1119</v>
       </c>
@@ -24365,12 +24392,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="936" spans="1:15">
+    <row r="936" spans="1:16">
       <c r="A936" s="2" t="s">
         <v>1120</v>
       </c>
     </row>
-    <row r="937" spans="1:15">
+    <row r="937" spans="1:16">
       <c r="A937" s="2" t="s">
         <v>1121</v>
       </c>
@@ -24378,7 +24405,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="938" spans="1:15">
+    <row r="938" spans="1:16">
       <c r="A938" s="2" t="s">
         <v>1122</v>
       </c>
@@ -24410,7 +24437,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="939" spans="1:15">
+    <row r="939" spans="1:16">
       <c r="A939" s="2" t="s">
         <v>1123</v>
       </c>
@@ -24421,7 +24448,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="940" spans="1:15">
+    <row r="940" spans="1:16">
       <c r="A940" s="2" t="s">
         <v>1124</v>
       </c>
@@ -24429,7 +24456,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="941" spans="1:15">
+    <row r="941" spans="1:16">
       <c r="A941" s="2" t="s">
         <v>1125</v>
       </c>
@@ -24440,7 +24467,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="942" spans="1:15">
+    <row r="942" spans="1:16">
       <c r="A942" s="2" t="s">
         <v>1126</v>
       </c>
@@ -24471,11 +24498,11 @@
       <c r="K942" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="O942" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="943" spans="1:15">
+      <c r="P942" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="943" spans="1:16">
       <c r="A943" s="2" t="s">
         <v>1127</v>
       </c>
@@ -24486,7 +24513,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="944" spans="1:15">
+    <row r="944" spans="1:16">
       <c r="A944" s="2" t="s">
         <v>1128</v>
       </c>
@@ -24511,7 +24538,7 @@
       <c r="H944" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="O944" s="3" t="s">
+      <c r="P944" s="3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -24605,7 +24632,7 @@
       <c r="K949" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="O949" s="3" t="s">
+      <c r="P949" s="3" t="s">
         <v>88</v>
       </c>
     </row>
@@ -24669,7 +24696,7 @@
       <c r="L951" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="N951" s="3" t="s">
+      <c r="O951" s="3" t="s">
         <v>74</v>
       </c>
       <c r="V951" s="3" t="s">
@@ -25477,22 +25504,22 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1009" spans="1:15">
+    <row r="1009" spans="1:16">
       <c r="A1009" s="2" t="s">
         <v>1196</v>
       </c>
     </row>
-    <row r="1010" spans="1:15">
+    <row r="1010" spans="1:16">
       <c r="A1010" s="2" t="s">
         <v>1197</v>
       </c>
     </row>
-    <row r="1011" spans="1:15">
+    <row r="1011" spans="1:16">
       <c r="A1011" s="2" t="s">
         <v>1198</v>
       </c>
     </row>
-    <row r="1012" spans="1:15">
+    <row r="1012" spans="1:16">
       <c r="A1012" s="2" t="s">
         <v>1199</v>
       </c>
@@ -25517,11 +25544,11 @@
       <c r="K1012" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="O1012" s="3" t="s">
+      <c r="P1012" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="1013" spans="1:15">
+    <row r="1013" spans="1:16">
       <c r="A1013" s="2" t="s">
         <v>1200</v>
       </c>
@@ -25532,7 +25559,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1014" spans="1:15">
+    <row r="1014" spans="1:16">
       <c r="A1014" s="2" t="s">
         <v>1201</v>
       </c>
@@ -25540,7 +25567,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="1015" spans="1:15">
+    <row r="1015" spans="1:16">
       <c r="A1015" s="2" t="s">
         <v>1202</v>
       </c>
@@ -25560,7 +25587,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1016" spans="1:15">
+    <row r="1016" spans="1:16">
       <c r="A1016" s="2" t="s">
         <v>1203</v>
       </c>
@@ -25568,7 +25595,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1017" spans="1:15">
+    <row r="1017" spans="1:16">
       <c r="A1017" s="2" t="s">
         <v>1204</v>
       </c>
@@ -25585,7 +25612,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="1018" spans="1:15">
+    <row r="1018" spans="1:16">
       <c r="A1018" s="2" t="s">
         <v>1205</v>
       </c>
@@ -25602,7 +25629,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1019" spans="1:15">
+    <row r="1019" spans="1:16">
       <c r="A1019" s="2" t="s">
         <v>1206</v>
       </c>
@@ -25610,7 +25637,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1020" spans="1:15">
+    <row r="1020" spans="1:16">
       <c r="A1020" s="2" t="s">
         <v>1207</v>
       </c>
@@ -25618,17 +25645,17 @@
         <v>89</v>
       </c>
     </row>
-    <row r="1021" spans="1:15">
+    <row r="1021" spans="1:16">
       <c r="A1021" s="2" t="s">
         <v>1208</v>
       </c>
     </row>
-    <row r="1022" spans="1:15">
+    <row r="1022" spans="1:16">
       <c r="A1022" s="2" t="s">
         <v>1209</v>
       </c>
     </row>
-    <row r="1023" spans="1:15">
+    <row r="1023" spans="1:16">
       <c r="A1023" s="2" t="s">
         <v>1210</v>
       </c>
@@ -25636,7 +25663,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="1024" spans="1:15">
+    <row r="1024" spans="1:16">
       <c r="A1024" s="2" t="s">
         <v>1211</v>
       </c>
@@ -25818,7 +25845,7 @@
       <c r="K1047" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="O1047" s="3" t="s">
+      <c r="P1047" s="3" t="s">
         <v>74</v>
       </c>
       <c r="V1047" s="3" t="s">
@@ -26461,7 +26488,7 @@
       <c r="L1118" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="O1118" s="3" t="s">
+      <c r="P1118" s="3" t="s">
         <v>80</v>
       </c>
       <c r="V1118" s="3" t="s">
@@ -26490,7 +26517,7 @@
       <c r="K1119" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="O1119" s="3" t="s">
+      <c r="P1119" s="3" t="s">
         <v>74</v>
       </c>
       <c r="V1119" s="3" t="s">
@@ -26519,7 +26546,7 @@
       <c r="K1120" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="O1120" s="3" t="s">
+      <c r="P1120" s="3" t="s">
         <v>74</v>
       </c>
       <c r="V1120" s="3" t="s">
@@ -26548,7 +26575,7 @@
       <c r="K1121" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="O1121" s="3" t="s">
+      <c r="P1121" s="3" t="s">
         <v>80</v>
       </c>
       <c r="V1121" s="3" t="s">
@@ -26577,7 +26604,7 @@
       <c r="K1122" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="O1122" s="3" t="s">
+      <c r="P1122" s="3" t="s">
         <v>74</v>
       </c>
       <c r="V1122" s="3" t="s">
@@ -26609,7 +26636,7 @@
       <c r="M1123" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="O1123" s="3" t="s">
+      <c r="P1123" s="3" t="s">
         <v>80</v>
       </c>
       <c r="V1123" s="3" t="s">
@@ -26638,7 +26665,7 @@
       <c r="K1124" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="O1124" s="3" t="s">
+      <c r="P1124" s="3" t="s">
         <v>78</v>
       </c>
       <c r="V1124" s="3" t="s">
@@ -26670,7 +26697,7 @@
       <c r="L1125" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="O1125" s="3" t="s">
+      <c r="P1125" s="3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -26696,7 +26723,7 @@
       <c r="K1126" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="O1126" s="3" t="s">
+      <c r="P1126" s="3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -26722,7 +26749,7 @@
       <c r="K1127" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="O1127" s="3" t="s">
+      <c r="P1127" s="3" t="s">
         <v>80</v>
       </c>
       <c r="V1127" s="3" t="s">
@@ -26751,7 +26778,7 @@
       <c r="K1128" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="O1128" s="3" t="s">
+      <c r="P1128" s="3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -27226,7 +27253,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1153" spans="1:15">
+    <row r="1153" spans="1:16">
       <c r="A1153" s="2" t="s">
         <v>1343</v>
       </c>
@@ -27243,7 +27270,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="1154" spans="1:15">
+    <row r="1154" spans="1:16">
       <c r="A1154" s="2" t="s">
         <v>1344</v>
       </c>
@@ -27260,7 +27287,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1155" spans="1:15">
+    <row r="1155" spans="1:16">
       <c r="A1155" s="2" t="s">
         <v>1345</v>
       </c>
@@ -27283,7 +27310,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="1156" spans="1:15">
+    <row r="1156" spans="1:16">
       <c r="A1156" s="2" t="s">
         <v>1346</v>
       </c>
@@ -27306,7 +27333,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1157" spans="1:15">
+    <row r="1157" spans="1:16">
       <c r="A1157" s="2" t="s">
         <v>1347</v>
       </c>
@@ -27329,7 +27356,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="1158" spans="1:15">
+    <row r="1158" spans="1:16">
       <c r="A1158" s="2" t="s">
         <v>1348</v>
       </c>
@@ -27351,11 +27378,11 @@
       <c r="K1158" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="O1158" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="1159" spans="1:15">
+      <c r="P1158" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:16">
       <c r="A1159" s="2" t="s">
         <v>1349</v>
       </c>
@@ -27377,11 +27404,11 @@
       <c r="K1159" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="O1159" s="4" t="s">
+      <c r="P1159" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="1160" spans="1:15">
+    <row r="1160" spans="1:16">
       <c r="A1160" s="2" t="s">
         <v>1350</v>
       </c>
@@ -27401,7 +27428,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="1161" spans="1:15">
+    <row r="1161" spans="1:16">
       <c r="A1161" s="2" t="s">
         <v>1351</v>
       </c>
@@ -27424,7 +27451,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="1162" spans="1:15">
+    <row r="1162" spans="1:16">
       <c r="A1162" s="2" t="s">
         <v>1352</v>
       </c>
@@ -27441,7 +27468,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="1163" spans="1:15">
+    <row r="1163" spans="1:16">
       <c r="A1163" s="2" t="s">
         <v>1353</v>
       </c>
@@ -27461,12 +27488,12 @@
         <v>77</v>
       </c>
     </row>
-    <row r="1164" spans="1:15">
+    <row r="1164" spans="1:16">
       <c r="A1164" s="2" t="s">
         <v>1354</v>
       </c>
     </row>
-    <row r="1165" spans="1:15">
+    <row r="1165" spans="1:16">
       <c r="A1165" s="2" t="s">
         <v>1355</v>
       </c>
@@ -27477,7 +27504,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="1166" spans="1:15">
+    <row r="1166" spans="1:16">
       <c r="A1166" s="2" t="s">
         <v>1356</v>
       </c>
@@ -27488,7 +27515,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="1167" spans="1:15">
+    <row r="1167" spans="1:16">
       <c r="A1167" s="2" t="s">
         <v>1357</v>
       </c>
@@ -27499,7 +27526,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="1168" spans="1:15">
+    <row r="1168" spans="1:16">
       <c r="A1168" s="2" t="s">
         <v>1359</v>
       </c>
@@ -30681,7 +30708,7 @@
       <c r="K1488" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="O1488" s="4" t="s">
+      <c r="P1488" s="4" t="s">
         <v>1175</v>
       </c>
       <c r="V1488" s="3" t="s">
@@ -31956,8 +31983,8 @@
       <c r="A1656" s="2" t="s">
         <v>1855</v>
       </c>
-      <c r="B1656" s="4" t="s">
-        <v>204</v>
+      <c r="B1656" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="D1656" s="3" t="s">
         <v>74</v>
@@ -32131,7 +32158,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="1681" spans="1:17">
+    <row r="1681" spans="1:14">
       <c r="A1681" s="2" t="s">
         <v>1880</v>
       </c>
@@ -32142,12 +32169,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1682" spans="1:17">
+    <row r="1682" spans="1:14">
       <c r="A1682" s="2" t="s">
         <v>1881</v>
       </c>
     </row>
-    <row r="1683" spans="1:17">
+    <row r="1683" spans="1:14">
       <c r="A1683" s="2" t="s">
         <v>1882</v>
       </c>
@@ -32155,7 +32182,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="1684" spans="1:17">
+    <row r="1684" spans="1:14">
       <c r="A1684" s="2" t="s">
         <v>1883</v>
       </c>
@@ -32166,7 +32193,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="1685" spans="1:17">
+    <row r="1685" spans="1:14">
       <c r="A1685" s="2" t="s">
         <v>1884</v>
       </c>
@@ -32174,7 +32201,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="1686" spans="1:17">
+    <row r="1686" spans="1:14">
       <c r="A1686" s="2" t="s">
         <v>1885</v>
       </c>
@@ -32182,12 +32209,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="1687" spans="1:17">
+    <row r="1687" spans="1:14">
       <c r="A1687" s="2" t="s">
         <v>1886</v>
       </c>
     </row>
-    <row r="1688" spans="1:17">
+    <row r="1688" spans="1:14">
       <c r="A1688" s="2" t="s">
         <v>1887</v>
       </c>
@@ -32201,12 +32228,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1689" spans="1:17">
+    <row r="1689" spans="1:14">
       <c r="A1689" s="2" t="s">
         <v>1888</v>
       </c>
     </row>
-    <row r="1690" spans="1:17">
+    <row r="1690" spans="1:14">
       <c r="A1690" s="2" t="s">
         <v>1889</v>
       </c>
@@ -32223,18 +32250,18 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1691" spans="1:17">
+    <row r="1691" spans="1:14">
       <c r="A1691" s="2" t="s">
         <v>1890</v>
       </c>
       <c r="C1691" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="Q1691" s="4" t="s">
+      <c r="N1691" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="1692" spans="1:17">
+    <row r="1692" spans="1:14">
       <c r="A1692" s="2" t="s">
         <v>1891</v>
       </c>
@@ -32242,7 +32269,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="1693" spans="1:17">
+    <row r="1693" spans="1:14">
       <c r="A1693" s="2" t="s">
         <v>1892</v>
       </c>
@@ -32253,7 +32280,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1694" spans="1:17">
+    <row r="1694" spans="1:14">
       <c r="A1694" s="2" t="s">
         <v>1893</v>
       </c>
@@ -32263,11 +32290,11 @@
       <c r="C1694" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="Q1694" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="1695" spans="1:17">
+      <c r="N1694" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:14">
       <c r="A1695" s="2" t="s">
         <v>1894</v>
       </c>
@@ -32280,11 +32307,11 @@
       <c r="E1695" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="Q1695" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="1696" spans="1:17">
+      <c r="N1695" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:14">
       <c r="A1696" s="2" t="s">
         <v>1895</v>
       </c>
@@ -32292,7 +32319,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1697" spans="1:17">
+    <row r="1697" spans="1:14">
       <c r="A1697" s="2" t="s">
         <v>1896</v>
       </c>
@@ -32303,18 +32330,18 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1698" spans="1:17">
+    <row r="1698" spans="1:14">
       <c r="A1698" s="2" t="s">
         <v>1897</v>
       </c>
       <c r="C1698" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="Q1698" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="1699" spans="1:17">
+      <c r="N1698" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:14">
       <c r="A1699" s="2" t="s">
         <v>1898</v>
       </c>
@@ -32331,17 +32358,17 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1700" spans="1:17">
+    <row r="1700" spans="1:14">
       <c r="A1700" s="2" t="s">
         <v>1899</v>
       </c>
     </row>
-    <row r="1701" spans="1:17">
+    <row r="1701" spans="1:14">
       <c r="A1701" s="2" t="s">
         <v>1900</v>
       </c>
     </row>
-    <row r="1702" spans="1:17">
+    <row r="1702" spans="1:14">
       <c r="A1702" s="2" t="s">
         <v>1901</v>
       </c>
@@ -32349,7 +32376,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1703" spans="1:17">
+    <row r="1703" spans="1:14">
       <c r="A1703" s="2" t="s">
         <v>1902</v>
       </c>
@@ -32357,7 +32384,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1704" spans="1:17">
+    <row r="1704" spans="1:14">
       <c r="A1704" s="2" t="s">
         <v>1903</v>
       </c>
@@ -32368,7 +32395,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1705" spans="1:17">
+    <row r="1705" spans="1:14">
       <c r="A1705" s="2" t="s">
         <v>1904</v>
       </c>
@@ -32376,7 +32403,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1706" spans="1:17">
+    <row r="1706" spans="1:14">
       <c r="A1706" s="2" t="s">
         <v>1905</v>
       </c>
@@ -32384,7 +32411,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1707" spans="1:17">
+    <row r="1707" spans="1:14">
       <c r="A1707" s="2" t="s">
         <v>1906</v>
       </c>
@@ -32392,7 +32419,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1708" spans="1:17">
+    <row r="1708" spans="1:14">
       <c r="A1708" s="2" t="s">
         <v>1907</v>
       </c>
@@ -32400,7 +32427,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="1709" spans="1:17">
+    <row r="1709" spans="1:14">
       <c r="A1709" s="2" t="s">
         <v>1908</v>
       </c>
@@ -32408,7 +32435,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="1710" spans="1:17">
+    <row r="1710" spans="1:14">
       <c r="A1710" s="2" t="s">
         <v>1909</v>
       </c>
@@ -32416,7 +32443,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1711" spans="1:17">
+    <row r="1711" spans="1:14">
       <c r="A1711" s="2" t="s">
         <v>1910</v>
       </c>
@@ -32430,7 +32457,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1712" spans="1:17">
+    <row r="1712" spans="1:14">
       <c r="A1712" s="2" t="s">
         <v>1911</v>
       </c>
@@ -33009,7 +33036,7 @@
       <c r="C1779" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="N1779" s="4" t="s">
+      <c r="O1779" s="4" t="s">
         <v>100</v>
       </c>
     </row>
@@ -33323,73 +33350,73 @@
         <v>97</v>
       </c>
     </row>
-    <row r="1809" spans="1:16">
+    <row r="1809" spans="1:17">
       <c r="A1809" s="2" t="s">
         <v>2009</v>
       </c>
     </row>
-    <row r="1810" spans="1:16">
+    <row r="1810" spans="1:17">
       <c r="A1810" s="2" t="s">
         <v>2010</v>
       </c>
     </row>
-    <row r="1811" spans="1:16">
+    <row r="1811" spans="1:17">
       <c r="A1811" s="2" t="s">
         <v>2011</v>
       </c>
     </row>
-    <row r="1812" spans="1:16">
+    <row r="1812" spans="1:17">
       <c r="A1812" s="2" t="s">
         <v>2012</v>
       </c>
     </row>
-    <row r="1813" spans="1:16">
+    <row r="1813" spans="1:17">
       <c r="A1813" s="2" t="s">
         <v>2013</v>
       </c>
     </row>
-    <row r="1814" spans="1:16">
+    <row r="1814" spans="1:17">
       <c r="A1814" s="2" t="s">
         <v>2014</v>
       </c>
     </row>
-    <row r="1815" spans="1:16">
+    <row r="1815" spans="1:17">
       <c r="A1815" s="2" t="s">
         <v>2015</v>
       </c>
     </row>
-    <row r="1816" spans="1:16">
+    <row r="1816" spans="1:17">
       <c r="A1816" s="2" t="s">
         <v>2016</v>
       </c>
     </row>
-    <row r="1817" spans="1:16">
+    <row r="1817" spans="1:17">
       <c r="A1817" s="2" t="s">
         <v>2017</v>
       </c>
     </row>
-    <row r="1818" spans="1:16">
+    <row r="1818" spans="1:17">
       <c r="A1818" s="2" t="s">
         <v>2018</v>
       </c>
       <c r="B1818" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="P1818" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="1819" spans="1:16">
+      <c r="Q1818" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:17">
       <c r="A1819" s="2" t="s">
         <v>2019</v>
       </c>
     </row>
-    <row r="1820" spans="1:16">
+    <row r="1820" spans="1:17">
       <c r="A1820" s="2" t="s">
         <v>2020</v>
       </c>
     </row>
-    <row r="1821" spans="1:16">
+    <row r="1821" spans="1:17">
       <c r="A1821" s="2" t="s">
         <v>2021</v>
       </c>
@@ -33397,27 +33424,27 @@
         <v>94</v>
       </c>
     </row>
-    <row r="1822" spans="1:16">
+    <row r="1822" spans="1:17">
       <c r="A1822" s="2" t="s">
         <v>2022</v>
       </c>
     </row>
-    <row r="1823" spans="1:16">
+    <row r="1823" spans="1:17">
       <c r="A1823" s="2" t="s">
         <v>2023</v>
       </c>
     </row>
-    <row r="1824" spans="1:16">
+    <row r="1824" spans="1:17">
       <c r="A1824" s="2" t="s">
         <v>2024</v>
       </c>
     </row>
-    <row r="1825" spans="1:16">
+    <row r="1825" spans="1:17">
       <c r="A1825" s="2" t="s">
         <v>2025</v>
       </c>
     </row>
-    <row r="1826" spans="1:16">
+    <row r="1826" spans="1:17">
       <c r="A1826" s="2" t="s">
         <v>2026</v>
       </c>
@@ -33425,12 +33452,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="1827" spans="1:16">
+    <row r="1827" spans="1:17">
       <c r="A1827" s="2" t="s">
         <v>2027</v>
       </c>
     </row>
-    <row r="1828" spans="1:16">
+    <row r="1828" spans="1:17">
       <c r="A1828" s="2" t="s">
         <v>2028</v>
       </c>
@@ -33438,33 +33465,33 @@
         <v>89</v>
       </c>
     </row>
-    <row r="1829" spans="1:16">
+    <row r="1829" spans="1:17">
       <c r="A1829" s="2" t="s">
         <v>2029</v>
       </c>
       <c r="B1829" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="P1829" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="1830" spans="1:16">
+      <c r="Q1829" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:17">
       <c r="A1830" s="2" t="s">
         <v>2030</v>
       </c>
     </row>
-    <row r="1831" spans="1:16">
+    <row r="1831" spans="1:17">
       <c r="A1831" s="2" t="s">
         <v>2031</v>
       </c>
     </row>
-    <row r="1832" spans="1:16">
+    <row r="1832" spans="1:17">
       <c r="A1832" s="2" t="s">
         <v>2032</v>
       </c>
     </row>
-    <row r="1833" spans="1:16">
+    <row r="1833" spans="1:17">
       <c r="A1833" s="2" t="s">
         <v>2033</v>
       </c>
@@ -33475,7 +33502,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="1834" spans="1:16">
+    <row r="1834" spans="1:17">
       <c r="A1834" s="2" t="s">
         <v>2034</v>
       </c>
@@ -33486,49 +33513,61 @@
         <v>76</v>
       </c>
     </row>
-    <row r="1835" spans="1:16">
+    <row r="1835" spans="1:17">
       <c r="A1835" s="2" t="s">
         <v>2036</v>
       </c>
-      <c r="C1835" s="4" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="1836" spans="1:16">
+      <c r="C1835" s="3" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:17">
       <c r="A1836" s="2" t="s">
-        <v>2037</v>
-      </c>
-    </row>
-    <row r="1837" spans="1:16">
+        <v>2038</v>
+      </c>
+      <c r="C1836" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:17">
       <c r="A1837" s="2" t="s">
-        <v>2038</v>
+        <v>2039</v>
+      </c>
+      <c r="C1837" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I1837" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="1838" spans="1:16">
+    <row r="1838" spans="1:17">
       <c r="A1838" s="2" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="B1838" s="3" t="s">
-        <v>2040</v>
+        <v>2041</v>
+      </c>
+      <c r="C1838" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="I1838" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="1839" spans="1:16">
+    <row r="1839" spans="1:17">
       <c r="A1839" s="2" t="s">
-        <v>2041</v>
+        <v>2042</v>
+      </c>
+      <c r="C1839" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="I1839" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="1840" spans="1:16">
+    <row r="1840" spans="1:17">
       <c r="A1840" s="2" t="s">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="I1840" s="3" t="s">
         <v>74</v>
@@ -33536,7 +33575,7 @@
     </row>
     <row r="1841" spans="1:4">
       <c r="A1841" s="2" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="B1841" s="3" t="s">
         <v>74</v>
@@ -33544,7 +33583,7 @@
     </row>
     <row r="1842" spans="1:4">
       <c r="A1842" s="2" t="s">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="B1842" s="3" t="s">
         <v>74</v>
@@ -33552,7 +33591,7 @@
     </row>
     <row r="1843" spans="1:4">
       <c r="A1843" s="2" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="B1843" s="3" t="s">
         <v>74</v>
@@ -33560,7 +33599,7 @@
     </row>
     <row r="1844" spans="1:4">
       <c r="A1844" s="2" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="B1844" s="3" t="s">
         <v>74</v>
@@ -33568,7 +33607,7 @@
     </row>
     <row r="1845" spans="1:4">
       <c r="A1845" s="2" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="B1845" s="3" t="s">
         <v>74</v>
@@ -33576,12 +33615,12 @@
     </row>
     <row r="1846" spans="1:4">
       <c r="A1846" s="2" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="1847" spans="1:4">
       <c r="A1847" s="2" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="B1847" s="3" t="s">
         <v>74</v>
@@ -33589,7 +33628,7 @@
     </row>
     <row r="1848" spans="1:4">
       <c r="A1848" s="2" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="B1848" s="3" t="s">
         <v>74</v>
@@ -33597,12 +33636,12 @@
     </row>
     <row r="1849" spans="1:4">
       <c r="A1849" s="2" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="1850" spans="1:4">
       <c r="A1850" s="2" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="B1850" s="3" t="s">
         <v>74</v>
@@ -33610,12 +33649,12 @@
     </row>
     <row r="1851" spans="1:4">
       <c r="A1851" s="2" t="s">
-        <v>2053</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="1852" spans="1:4">
       <c r="A1852" s="2" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="B1852" s="3" t="s">
         <v>74</v>
@@ -33626,7 +33665,7 @@
     </row>
     <row r="1853" spans="1:4">
       <c r="A1853" s="2" t="s">
-        <v>2055</v>
+        <v>2056</v>
       </c>
       <c r="C1853" s="3" t="s">
         <v>74</v>
@@ -33634,12 +33673,12 @@
     </row>
     <row r="1854" spans="1:4">
       <c r="A1854" s="2" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="1855" spans="1:4">
       <c r="A1855" s="2" t="s">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="B1855" s="3" t="s">
         <v>90</v>
@@ -33653,15 +33692,15 @@
     </row>
     <row r="1856" spans="1:4">
       <c r="A1856" s="2" t="s">
-        <v>2058</v>
+        <v>2059</v>
       </c>
       <c r="C1856" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="1857" spans="1:16">
+    <row r="1857" spans="1:17">
       <c r="A1857" s="2" t="s">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="B1857" s="3" t="s">
         <v>74</v>
@@ -33670,17 +33709,17 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1858" spans="1:16">
+    <row r="1858" spans="1:17">
       <c r="A1858" s="2" t="s">
-        <v>2060</v>
+        <v>2061</v>
       </c>
       <c r="C1858" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="1859" spans="1:16">
+    <row r="1859" spans="1:17">
       <c r="A1859" s="2" t="s">
-        <v>2061</v>
+        <v>2062</v>
       </c>
       <c r="B1859" s="3" t="s">
         <v>80</v>
@@ -33689,22 +33728,22 @@
         <v>97</v>
       </c>
     </row>
-    <row r="1860" spans="1:16">
+    <row r="1860" spans="1:17">
       <c r="A1860" s="2" t="s">
-        <v>2062</v>
-      </c>
-    </row>
-    <row r="1861" spans="1:16">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:17">
       <c r="A1861" s="2" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="C1861" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="1862" spans="1:16">
+    <row r="1862" spans="1:17">
       <c r="A1862" s="2" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
       <c r="B1862" s="4" t="s">
         <v>417</v>
@@ -33713,17 +33752,17 @@
         <v>97</v>
       </c>
     </row>
-    <row r="1863" spans="1:16">
+    <row r="1863" spans="1:17">
       <c r="A1863" s="2" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="C1863" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="1864" spans="1:16">
+    <row r="1864" spans="1:17">
       <c r="A1864" s="2" t="s">
-        <v>2066</v>
+        <v>2067</v>
       </c>
       <c r="B1864" s="3" t="s">
         <v>74</v>
@@ -33732,9 +33771,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1865" spans="1:16">
+    <row r="1865" spans="1:17">
       <c r="A1865" s="2" t="s">
-        <v>2067</v>
+        <v>2068</v>
       </c>
       <c r="B1865" s="3" t="s">
         <v>74</v>
@@ -33743,9 +33782,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1866" spans="1:16">
+    <row r="1866" spans="1:17">
       <c r="A1866" s="2" t="s">
-        <v>2068</v>
+        <v>2069</v>
       </c>
       <c r="B1866" s="3" t="s">
         <v>74</v>
@@ -33754,9 +33793,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1867" spans="1:16">
+    <row r="1867" spans="1:17">
       <c r="A1867" s="2" t="s">
-        <v>2069</v>
+        <v>2070</v>
       </c>
       <c r="B1867" s="3" t="s">
         <v>74</v>
@@ -33765,9 +33804,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1868" spans="1:16">
+    <row r="1868" spans="1:17">
       <c r="A1868" s="2" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
       <c r="B1868" s="3" t="s">
         <v>74</v>
@@ -33776,9 +33815,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1869" spans="1:16">
+    <row r="1869" spans="1:17">
       <c r="A1869" s="2" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="B1869" s="3" t="s">
         <v>74</v>
@@ -33786,13 +33825,13 @@
       <c r="C1869" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="P1869" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="1870" spans="1:16">
+      <c r="Q1869" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:17">
       <c r="A1870" s="2" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
       <c r="B1870" s="3" t="s">
         <v>74</v>
@@ -33801,17 +33840,17 @@
         <v>80</v>
       </c>
     </row>
-    <row r="1871" spans="1:16">
+    <row r="1871" spans="1:17">
       <c r="A1871" s="2" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="C1871" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="1872" spans="1:16">
+    <row r="1872" spans="1:17">
       <c r="A1872" s="2" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="B1872" s="3" t="s">
         <v>74</v>
@@ -33822,12 +33861,12 @@
     </row>
     <row r="1873" spans="1:3">
       <c r="A1873" s="2" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="1874" spans="1:3">
       <c r="A1874" s="2" t="s">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="B1874" s="3" t="s">
         <v>74</v>
@@ -33838,12 +33877,12 @@
     </row>
     <row r="1875" spans="1:3">
       <c r="A1875" s="2" t="s">
-        <v>2077</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="1876" spans="1:3">
       <c r="A1876" s="2" t="s">
-        <v>2078</v>
+        <v>2079</v>
       </c>
       <c r="B1876" s="3" t="s">
         <v>74</v>
@@ -33854,12 +33893,12 @@
     </row>
     <row r="1877" spans="1:3">
       <c r="A1877" s="2" t="s">
-        <v>2079</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="1878" spans="1:3">
       <c r="A1878" s="2" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="B1878" s="3" t="s">
         <v>74</v>

--- a/groups/old/results.xlsx
+++ b/groups/old/results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7665" uniqueCount="2082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7721" uniqueCount="2082">
   <si>
     <t>№</t>
   </si>
@@ -55,12 +55,12 @@
     <t>Тимошков Александр</t>
   </si>
   <si>
+    <t>Пожидаев Денис</t>
+  </si>
+  <si>
     <t>Трегубович Андрей</t>
   </si>
   <si>
-    <t>Пожидаев Денис</t>
-  </si>
-  <si>
     <t>Поликарпова Ирина</t>
   </si>
   <si>
@@ -145,10 +145,10 @@
     <t>272170</t>
   </si>
   <si>
+    <t>364695</t>
+  </si>
+  <si>
     <t>321411</t>
-  </si>
-  <si>
-    <t>364695</t>
   </si>
   <si>
     <t>273909</t>
@@ -6829,10 +6829,10 @@
         <v>60</v>
       </c>
       <c r="B3">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D3">
         <v>83</v>
@@ -6844,76 +6844,76 @@
         <v>309</v>
       </c>
       <c r="G3">
-        <v>3980</v>
+        <v>3986</v>
       </c>
       <c r="H3">
-        <v>5003</v>
+        <v>5010</v>
       </c>
       <c r="I3">
-        <v>7670</v>
+        <v>7686</v>
       </c>
       <c r="J3">
-        <v>14224</v>
+        <v>14270</v>
       </c>
       <c r="K3">
-        <v>16485</v>
+        <v>16537</v>
       </c>
       <c r="L3">
-        <v>25264</v>
+        <v>25330</v>
       </c>
       <c r="M3">
-        <v>33678</v>
+        <v>25586</v>
       </c>
       <c r="N3">
-        <v>34852</v>
+        <v>33748</v>
       </c>
       <c r="O3">
-        <v>36062</v>
+        <v>36139</v>
       </c>
       <c r="P3">
-        <v>39495</v>
+        <v>39583</v>
       </c>
       <c r="Q3">
-        <v>41347</v>
+        <v>41458</v>
       </c>
       <c r="R3">
-        <v>47312</v>
+        <v>47424</v>
       </c>
       <c r="S3">
-        <v>48741</v>
+        <v>48855</v>
       </c>
       <c r="T3">
-        <v>49395</v>
+        <v>49510</v>
       </c>
       <c r="U3">
-        <v>55355</v>
+        <v>55478</v>
       </c>
       <c r="V3">
-        <v>66340</v>
+        <v>66473</v>
       </c>
       <c r="W3">
-        <v>73091</v>
+        <v>73232</v>
       </c>
       <c r="X3">
-        <v>76809</v>
+        <v>76947</v>
       </c>
       <c r="Y3">
-        <v>80651</v>
+        <v>80789</v>
       </c>
       <c r="Z3">
-        <v>109435</v>
+        <v>109620</v>
       </c>
       <c r="AA3">
-        <v>130375</v>
+        <v>130615</v>
       </c>
       <c r="AB3">
-        <v>136187</v>
+        <v>136446</v>
       </c>
       <c r="AC3">
-        <v>164039</v>
+        <v>164360</v>
       </c>
       <c r="AD3">
-        <v>192259</v>
+        <v>192686</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -6921,10 +6921,10 @@
         <v>61</v>
       </c>
       <c r="B4">
-        <v>26284</v>
+        <v>26415</v>
       </c>
       <c r="C4">
-        <v>24233</v>
+        <v>24838</v>
       </c>
       <c r="D4">
         <v>24099</v>
@@ -6954,10 +6954,10 @@
         <v>681</v>
       </c>
       <c r="M4">
+        <v>673</v>
+      </c>
+      <c r="N4">
         <v>472</v>
-      </c>
-      <c r="N4">
-        <v>450</v>
       </c>
       <c r="O4">
         <v>429</v>
@@ -7013,10 +7013,10 @@
         <v>62</v>
       </c>
       <c r="B5">
-        <v>3882</v>
+        <v>3903</v>
       </c>
       <c r="C5">
-        <v>1788</v>
+        <v>1823</v>
       </c>
       <c r="D5">
         <v>2943</v>
@@ -7028,7 +7028,7 @@
         <v>1282</v>
       </c>
       <c r="G5">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="H5">
         <v>392</v>
@@ -7046,10 +7046,10 @@
         <v>188</v>
       </c>
       <c r="M5">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="N5">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="O5">
         <v>104</v>
@@ -7105,10 +7105,10 @@
         <v>63</v>
       </c>
       <c r="B6">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="C6">
-        <v>725</v>
+        <v>736</v>
       </c>
       <c r="D6">
         <v>585</v>
@@ -7138,10 +7138,10 @@
         <v>48</v>
       </c>
       <c r="M6">
+        <v>51</v>
+      </c>
+      <c r="N6">
         <v>19</v>
-      </c>
-      <c r="N6">
-        <v>23</v>
       </c>
       <c r="O6">
         <v>27</v>
@@ -7197,7 +7197,7 @@
         <v>64</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -7212,7 +7212,7 @@
         <v>23</v>
       </c>
       <c r="G7">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H7">
         <v>17</v>
@@ -7230,10 +7230,10 @@
         <v>3</v>
       </c>
       <c r="M7">
+        <v>13</v>
+      </c>
+      <c r="N7">
         <v>4</v>
-      </c>
-      <c r="N7">
-        <v>10</v>
       </c>
       <c r="O7">
         <v>14</v>
@@ -7289,10 +7289,10 @@
         <v>65</v>
       </c>
       <c r="B8">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="C8">
-        <v>960</v>
+        <v>975</v>
       </c>
       <c r="D8">
         <v>831</v>
@@ -7322,10 +7322,10 @@
         <v>56</v>
       </c>
       <c r="M8">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="N8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O8">
         <v>28</v>
@@ -7381,10 +7381,10 @@
         <v>66</v>
       </c>
       <c r="B9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9">
         <v>44</v>
@@ -7396,7 +7396,7 @@
         <v>25</v>
       </c>
       <c r="G9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H9">
         <v>17</v>
@@ -7414,10 +7414,10 @@
         <v>6</v>
       </c>
       <c r="M9">
+        <v>13</v>
+      </c>
+      <c r="N9">
         <v>5</v>
-      </c>
-      <c r="N9">
-        <v>10</v>
       </c>
       <c r="O9">
         <v>14</v>
@@ -7505,7 +7505,7 @@
       <c r="L10" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>79</v>
       </c>
       <c r="O10" s="3" t="s">
@@ -7588,7 +7588,7 @@
       <c r="L11" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>85</v>
       </c>
       <c r="O11" s="3" t="s">
@@ -7650,8 +7650,8 @@
       <c r="L12" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>81</v>
+      <c r="M12" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>81</v>
@@ -7709,7 +7709,7 @@
       <c r="L13" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="M13" s="3" t="s">
         <v>74</v>
       </c>
       <c r="O13" s="3" t="s">
@@ -7753,7 +7753,7 @@
       <c r="L14" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>72</v>
       </c>
       <c r="O14" s="3" t="s">
@@ -7835,7 +7835,7 @@
       <c r="L16" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="N16" s="3" t="s">
+      <c r="M16" s="3" t="s">
         <v>74</v>
       </c>
       <c r="O16" s="3" t="s">
@@ -7882,7 +7882,7 @@
       <c r="L17" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="M17" s="3" t="s">
         <v>74</v>
       </c>
       <c r="O17" s="3" t="s">
@@ -7932,7 +7932,7 @@
       <c r="J18" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="N18" s="4" t="s">
+      <c r="M18" s="4" t="s">
         <v>100</v>
       </c>
       <c r="O18" s="3" t="s">
@@ -8069,7 +8069,7 @@
       <c r="L22" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>81</v>
       </c>
       <c r="O22" s="3" t="s">
@@ -8110,7 +8110,7 @@
       <c r="L23" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="N23" s="3" t="s">
+      <c r="M23" s="3" t="s">
         <v>89</v>
       </c>
       <c r="O23" s="3" t="s">
@@ -8166,11 +8166,11 @@
       <c r="L24" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="N24" s="4" t="s">
+      <c r="M24" s="4" t="s">
         <v>100</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>74</v>
@@ -8271,7 +8271,7 @@
       <c r="L27" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="N27" s="3" t="s">
+      <c r="M27" s="3" t="s">
         <v>81</v>
       </c>
       <c r="O27" s="4" t="s">
@@ -8352,7 +8352,7 @@
       <c r="L30" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="N30" s="3" t="s">
+      <c r="M30" s="3" t="s">
         <v>74</v>
       </c>
       <c r="O30" s="4" t="s">
@@ -8402,7 +8402,7 @@
       <c r="L31" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="N31" s="3" t="s">
+      <c r="M31" s="3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -8440,8 +8440,8 @@
       <c r="L32" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="N32" s="4" t="s">
-        <v>93</v>
+      <c r="M32" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>74</v>
@@ -8507,7 +8507,7 @@
       <c r="L34" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="N34" s="3" t="s">
+      <c r="M34" s="3" t="s">
         <v>81</v>
       </c>
       <c r="Q34" s="3" t="s">
@@ -8560,7 +8560,7 @@
       <c r="H35" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="N35" s="4" t="s">
+      <c r="M35" s="4" t="s">
         <v>100</v>
       </c>
       <c r="O35" s="4" t="s">
@@ -8615,7 +8615,7 @@
       <c r="H37" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="N37" s="3" t="s">
+      <c r="M37" s="3" t="s">
         <v>77</v>
       </c>
     </row>
@@ -8681,7 +8681,7 @@
       <c r="F40" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="N40" s="3" t="s">
+      <c r="M40" s="3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -8742,7 +8742,7 @@
       <c r="L42" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="N42" s="3" t="s">
+      <c r="M42" s="3" t="s">
         <v>81</v>
       </c>
       <c r="Q42" s="3" t="s">
@@ -8847,7 +8847,7 @@
       <c r="I45" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="N45" s="4" t="s">
+      <c r="M45" s="4" t="s">
         <v>100</v>
       </c>
     </row>
@@ -8887,7 +8887,7 @@
       <c r="H47" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="N47" s="4" t="s">
+      <c r="M47" s="4" t="s">
         <v>100</v>
       </c>
     </row>
@@ -8913,7 +8913,7 @@
       <c r="I48" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="N48" s="4" t="s">
+      <c r="M48" s="4" t="s">
         <v>100</v>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       <c r="J49" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="N49" s="3" t="s">
+      <c r="M49" s="3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -8974,7 +8974,7 @@
       <c r="I50" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="N50" s="3" t="s">
+      <c r="M50" s="3" t="s">
         <v>88</v>
       </c>
     </row>
@@ -8997,8 +8997,8 @@
       <c r="F51" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="N51" s="3" t="s">
-        <v>74</v>
+      <c r="M51" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:19">
@@ -9035,7 +9035,7 @@
       <c r="L52" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="N52" s="3" t="s">
+      <c r="M52" s="3" t="s">
         <v>81</v>
       </c>
       <c r="O52" s="3" t="s">
@@ -9076,11 +9076,11 @@
       <c r="J53" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="M53" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="N53" s="4" t="s">
-        <v>100</v>
+      <c r="M53" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N53" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="O53" s="3" t="s">
         <v>81</v>
@@ -9108,10 +9108,13 @@
       <c r="F54" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="G54" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="H54" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="N54" s="4" t="s">
+      <c r="M54" s="4" t="s">
         <v>93</v>
       </c>
     </row>
@@ -9143,7 +9146,7 @@
       <c r="K55" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="N55" s="4" t="s">
+      <c r="M55" s="4" t="s">
         <v>94</v>
       </c>
     </row>
@@ -9296,6 +9299,9 @@
       <c r="K61" s="3" t="s">
         <v>81</v>
       </c>
+      <c r="M61" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="Q61" s="3" t="s">
         <v>74</v>
       </c>
@@ -9325,7 +9331,7 @@
       <c r="G62" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="M62" s="3" t="s">
+      <c r="N62" s="3" t="s">
         <v>81</v>
       </c>
     </row>
@@ -9518,6 +9524,9 @@
       <c r="L70" s="3" t="s">
         <v>89</v>
       </c>
+      <c r="M70" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="V70" s="3" t="s">
         <v>81</v>
       </c>
@@ -9660,6 +9669,9 @@
       <c r="K75" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="M75" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="76" spans="1:22">
       <c r="A76" s="2" t="s">
@@ -10264,6 +10276,9 @@
       <c r="L101" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="M101" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="Q101" s="3" t="s">
         <v>74</v>
       </c>
@@ -10571,6 +10586,9 @@
       <c r="L115" s="3" t="s">
         <v>81</v>
       </c>
+      <c r="M115" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="V115" s="4" t="s">
         <v>100</v>
       </c>
@@ -10632,6 +10650,9 @@
       <c r="L117" s="3" t="s">
         <v>78</v>
       </c>
+      <c r="M117" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="P117" s="3" t="s">
         <v>74</v>
       </c>
@@ -10913,7 +10934,7 @@
       <c r="H130" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="M130" s="3" t="s">
+      <c r="N130" s="3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -10985,7 +11006,7 @@
       <c r="L133" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="M133" s="3" t="s">
+      <c r="N133" s="3" t="s">
         <v>74</v>
       </c>
       <c r="P133" s="3" t="s">
@@ -11023,7 +11044,7 @@
       <c r="I134" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="M134" s="3" t="s">
+      <c r="N134" s="3" t="s">
         <v>74</v>
       </c>
       <c r="P134" s="3" t="s">
@@ -11058,7 +11079,7 @@
       <c r="I135" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="M135" s="3" t="s">
+      <c r="N135" s="3" t="s">
         <v>81</v>
       </c>
       <c r="P135" s="3" t="s">
@@ -11506,7 +11527,7 @@
       <c r="I155" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="M155" s="4" t="s">
+      <c r="N155" s="4" t="s">
         <v>100</v>
       </c>
     </row>
@@ -11515,7 +11536,7 @@
         <v>295</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>88</v>
@@ -11541,7 +11562,7 @@
       <c r="K156" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="M156" s="3" t="s">
+      <c r="N156" s="3" t="s">
         <v>74</v>
       </c>
       <c r="O156" s="3" t="s">
@@ -11638,6 +11659,9 @@
       <c r="L158" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="M158" s="3" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="159" spans="1:24">
       <c r="A159" s="2" t="s">
@@ -11961,7 +11985,7 @@
       <c r="F174" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="M174" s="3" t="s">
+      <c r="N174" s="3" t="s">
         <v>97</v>
       </c>
     </row>
@@ -12522,6 +12546,9 @@
       <c r="L204" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="M204" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="Q204" s="3" t="s">
         <v>74</v>
       </c>
@@ -12606,7 +12633,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="209" spans="1:13">
+    <row r="209" spans="1:14">
       <c r="A209" s="2" t="s">
         <v>354</v>
       </c>
@@ -12617,7 +12644,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="210" spans="1:13">
+    <row r="210" spans="1:14">
       <c r="A210" s="2" t="s">
         <v>355</v>
       </c>
@@ -12625,7 +12652,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="211" spans="1:13">
+    <row r="211" spans="1:14">
       <c r="A211" s="2" t="s">
         <v>356</v>
       </c>
@@ -12645,16 +12672,16 @@
         <v>88</v>
       </c>
       <c r="G211" s="4" t="s">
-        <v>100</v>
+        <v>149</v>
       </c>
       <c r="J211" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="M211" s="4" t="s">
+      <c r="N211" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="212" spans="1:13">
+    <row r="212" spans="1:14">
       <c r="A212" s="2" t="s">
         <v>358</v>
       </c>
@@ -12674,7 +12701,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="213" spans="1:13">
+    <row r="213" spans="1:14">
       <c r="A213" s="2" t="s">
         <v>359</v>
       </c>
@@ -12691,7 +12718,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="214" spans="1:13">
+    <row r="214" spans="1:14">
       <c r="A214" s="2" t="s">
         <v>360</v>
       </c>
@@ -12702,7 +12729,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="215" spans="1:13">
+    <row r="215" spans="1:14">
       <c r="A215" s="2" t="s">
         <v>361</v>
       </c>
@@ -12719,7 +12746,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="216" spans="1:13">
+    <row r="216" spans="1:14">
       <c r="A216" s="2" t="s">
         <v>362</v>
       </c>
@@ -12739,7 +12766,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="217" spans="1:13">
+    <row r="217" spans="1:14">
       <c r="A217" s="2" t="s">
         <v>363</v>
       </c>
@@ -12762,7 +12789,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="218" spans="1:13">
+    <row r="218" spans="1:14">
       <c r="A218" s="2" t="s">
         <v>364</v>
       </c>
@@ -12782,7 +12809,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="219" spans="1:13">
+    <row r="219" spans="1:14">
       <c r="A219" s="2" t="s">
         <v>365</v>
       </c>
@@ -12802,7 +12829,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="220" spans="1:13">
+    <row r="220" spans="1:14">
       <c r="A220" s="2" t="s">
         <v>366</v>
       </c>
@@ -12822,7 +12849,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="221" spans="1:13">
+    <row r="221" spans="1:14">
       <c r="A221" s="2" t="s">
         <v>367</v>
       </c>
@@ -12830,7 +12857,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="222" spans="1:13">
+    <row r="222" spans="1:14">
       <c r="A222" s="2" t="s">
         <v>368</v>
       </c>
@@ -12847,7 +12874,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="223" spans="1:13">
+    <row r="223" spans="1:14">
       <c r="A223" s="2" t="s">
         <v>369</v>
       </c>
@@ -12861,7 +12888,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="224" spans="1:13">
+    <row r="224" spans="1:14">
       <c r="A224" s="2" t="s">
         <v>370</v>
       </c>
@@ -13317,7 +13344,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="257" spans="1:13">
+    <row r="257" spans="1:14">
       <c r="A257" s="2" t="s">
         <v>407</v>
       </c>
@@ -13328,7 +13355,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="258" spans="1:13">
+    <row r="258" spans="1:14">
       <c r="A258" s="2" t="s">
         <v>408</v>
       </c>
@@ -13345,7 +13372,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="259" spans="1:13">
+    <row r="259" spans="1:14">
       <c r="A259" s="2" t="s">
         <v>409</v>
       </c>
@@ -13365,7 +13392,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="260" spans="1:13">
+    <row r="260" spans="1:14">
       <c r="A260" s="2" t="s">
         <v>410</v>
       </c>
@@ -13373,7 +13400,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="261" spans="1:13">
+    <row r="261" spans="1:14">
       <c r="A261" s="2" t="s">
         <v>412</v>
       </c>
@@ -13390,7 +13417,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="262" spans="1:13">
+    <row r="262" spans="1:14">
       <c r="A262" s="2" t="s">
         <v>413</v>
       </c>
@@ -13410,7 +13437,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="263" spans="1:13">
+    <row r="263" spans="1:14">
       <c r="A263" s="2" t="s">
         <v>414</v>
       </c>
@@ -13432,11 +13459,11 @@
       <c r="G263" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="M263" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="264" spans="1:13">
+      <c r="N263" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14">
       <c r="A264" s="2" t="s">
         <v>415</v>
       </c>
@@ -13453,7 +13480,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="265" spans="1:13">
+    <row r="265" spans="1:14">
       <c r="A265" s="2" t="s">
         <v>416</v>
       </c>
@@ -13470,7 +13497,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="266" spans="1:13">
+    <row r="266" spans="1:14">
       <c r="A266" s="2" t="s">
         <v>418</v>
       </c>
@@ -13487,7 +13514,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="267" spans="1:13">
+    <row r="267" spans="1:14">
       <c r="A267" s="2" t="s">
         <v>420</v>
       </c>
@@ -13495,7 +13522,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="268" spans="1:13">
+    <row r="268" spans="1:14">
       <c r="A268" s="2" t="s">
         <v>421</v>
       </c>
@@ -13509,7 +13536,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="269" spans="1:13">
+    <row r="269" spans="1:14">
       <c r="A269" s="2" t="s">
         <v>422</v>
       </c>
@@ -13529,7 +13556,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="270" spans="1:13">
+    <row r="270" spans="1:14">
       <c r="A270" s="2" t="s">
         <v>423</v>
       </c>
@@ -13540,7 +13567,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="271" spans="1:13">
+    <row r="271" spans="1:14">
       <c r="A271" s="2" t="s">
         <v>425</v>
       </c>
@@ -13557,7 +13584,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="272" spans="1:13">
+    <row r="272" spans="1:14">
       <c r="A272" s="2" t="s">
         <v>426</v>
       </c>
@@ -14091,6 +14118,9 @@
       <c r="F294" s="3" t="s">
         <v>81</v>
       </c>
+      <c r="G294" s="4" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="295" spans="1:16">
       <c r="A295" s="2" t="s">
@@ -14473,6 +14503,9 @@
       <c r="B314" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="C314" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="D314" s="3" t="s">
         <v>74</v>
       </c>
@@ -14498,6 +14531,9 @@
       <c r="A316" s="2" t="s">
         <v>473</v>
       </c>
+      <c r="C316" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="D316" s="3" t="s">
         <v>74</v>
       </c>
@@ -14886,6 +14922,9 @@
       <c r="L333" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="M333" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="O333" s="3" t="s">
         <v>74</v>
       </c>
@@ -15003,10 +15042,10 @@
         <v>81</v>
       </c>
       <c r="M337" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="N337" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="T337" s="3" t="s">
         <v>110</v>
@@ -15303,6 +15342,9 @@
       <c r="B351" s="3" t="s">
         <v>89</v>
       </c>
+      <c r="C351" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="E351" s="4" t="s">
         <v>94</v>
       </c>
@@ -15568,6 +15610,9 @@
       <c r="B365" s="3" t="s">
         <v>77</v>
       </c>
+      <c r="C365" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="D365" s="3" t="s">
         <v>74</v>
       </c>
@@ -15982,6 +16027,9 @@
       <c r="B389" s="3" t="s">
         <v>88</v>
       </c>
+      <c r="C389" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="D389" s="3" t="s">
         <v>74</v>
       </c>
@@ -17503,6 +17551,9 @@
       <c r="A488" s="2" t="s">
         <v>656</v>
       </c>
+      <c r="B488" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="E488" s="3" t="s">
         <v>657</v>
       </c>
@@ -17626,6 +17677,9 @@
       <c r="B497" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="C497" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="E497" s="4" t="s">
         <v>150</v>
       </c>
@@ -17922,6 +17976,9 @@
       <c r="K513" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="M513" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="514" spans="1:23">
       <c r="A514" s="2" t="s">
@@ -18073,10 +18130,10 @@
         <v>74</v>
       </c>
       <c r="M522" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="N522" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="N522" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="T522" s="3" t="s">
         <v>74</v>
@@ -18454,6 +18511,9 @@
       <c r="A542" s="2" t="s">
         <v>711</v>
       </c>
+      <c r="C542" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="E542" s="3" t="s">
         <v>77</v>
       </c>
@@ -18577,6 +18637,9 @@
       <c r="L548" s="3" t="s">
         <v>88</v>
       </c>
+      <c r="M548" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="V548" s="3" t="s">
         <v>77</v>
       </c>
@@ -18770,6 +18833,9 @@
       <c r="L559" s="3" t="s">
         <v>89</v>
       </c>
+      <c r="M559" s="4" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="560" spans="1:25">
       <c r="A560" s="2" t="s">
@@ -18847,7 +18913,7 @@
       <c r="J563" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="M563" s="3" t="s">
+      <c r="N563" s="3" t="s">
         <v>74</v>
       </c>
       <c r="P563" s="3" t="s">
@@ -19234,6 +19300,9 @@
       <c r="A596" s="2" t="s">
         <v>766</v>
       </c>
+      <c r="C596" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="597" spans="1:26">
       <c r="A597" s="2" t="s">
@@ -19353,6 +19422,9 @@
       <c r="K606" s="3" t="s">
         <v>88</v>
       </c>
+      <c r="M606" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="O606" s="4" t="s">
         <v>149</v>
       </c>
@@ -19388,7 +19460,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="609" spans="1:11">
+    <row r="609" spans="1:13">
       <c r="A609" s="2" t="s">
         <v>779</v>
       </c>
@@ -19411,7 +19483,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="610" spans="1:11">
+    <row r="610" spans="1:13">
       <c r="A610" s="2" t="s">
         <v>780</v>
       </c>
@@ -19428,7 +19500,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="611" spans="1:11">
+    <row r="611" spans="1:13">
       <c r="A611" s="2" t="s">
         <v>781</v>
       </c>
@@ -19442,7 +19514,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="612" spans="1:11">
+    <row r="612" spans="1:13">
       <c r="A612" s="2" t="s">
         <v>782</v>
       </c>
@@ -19450,7 +19522,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="613" spans="1:11">
+    <row r="613" spans="1:13">
       <c r="A613" s="2" t="s">
         <v>783</v>
       </c>
@@ -19461,7 +19533,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="614" spans="1:11">
+    <row r="614" spans="1:13">
       <c r="A614" s="2" t="s">
         <v>784</v>
       </c>
@@ -19469,7 +19541,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="615" spans="1:11">
+    <row r="615" spans="1:13">
       <c r="A615" s="2" t="s">
         <v>785</v>
       </c>
@@ -19500,23 +19572,26 @@
       <c r="K615" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="616" spans="1:11">
+      <c r="M615" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="616" spans="1:13">
       <c r="A616" s="2" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="617" spans="1:11">
+    <row r="617" spans="1:13">
       <c r="A617" s="2" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="618" spans="1:11">
+    <row r="618" spans="1:13">
       <c r="A618" s="2" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="619" spans="1:11">
+    <row r="619" spans="1:13">
       <c r="A619" s="2" t="s">
         <v>789</v>
       </c>
@@ -19524,7 +19599,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="620" spans="1:11">
+    <row r="620" spans="1:13">
       <c r="A620" s="2" t="s">
         <v>790</v>
       </c>
@@ -19532,17 +19607,17 @@
         <v>88</v>
       </c>
     </row>
-    <row r="621" spans="1:11">
+    <row r="621" spans="1:13">
       <c r="A621" s="2" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="622" spans="1:11">
+    <row r="622" spans="1:13">
       <c r="A622" s="2" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="623" spans="1:11">
+    <row r="623" spans="1:13">
       <c r="A623" s="2" t="s">
         <v>793</v>
       </c>
@@ -19553,7 +19628,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="624" spans="1:11">
+    <row r="624" spans="1:13">
       <c r="A624" s="2" t="s">
         <v>794</v>
       </c>
@@ -19613,6 +19688,9 @@
       <c r="A631" s="2" t="s">
         <v>801</v>
       </c>
+      <c r="B631" s="3" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="632" spans="1:7">
       <c r="A632" s="2" t="s">
@@ -20041,6 +20119,9 @@
       <c r="A659" s="2" t="s">
         <v>829</v>
       </c>
+      <c r="B659" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="E659" s="3" t="s">
         <v>88</v>
       </c>
@@ -20503,7 +20584,7 @@
       <c r="L689" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="M689" s="3" t="s">
+      <c r="N689" s="3" t="s">
         <v>81</v>
       </c>
       <c r="O689" s="3" t="s">
@@ -20612,6 +20693,9 @@
       <c r="K694" s="3" t="s">
         <v>110</v>
       </c>
+      <c r="M694" s="3" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="695" spans="1:22">
       <c r="A695" s="2" t="s">
@@ -20770,6 +20854,9 @@
       <c r="L701" s="3" t="s">
         <v>77</v>
       </c>
+      <c r="M701" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="S701" s="3" t="s">
         <v>113</v>
       </c>
@@ -20891,6 +20978,9 @@
       <c r="K706" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="M706" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="O706" s="3" t="s">
         <v>81</v>
       </c>
@@ -21069,6 +21159,9 @@
       <c r="A717" s="2" t="s">
         <v>892</v>
       </c>
+      <c r="C717" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="D717" s="3" t="s">
         <v>74</v>
       </c>
@@ -21140,7 +21233,7 @@
       <c r="F721" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="M721" s="3" t="s">
+      <c r="N721" s="3" t="s">
         <v>89</v>
       </c>
       <c r="R721" s="4" t="s">
@@ -21638,6 +21731,9 @@
       <c r="K763" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="M763" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="V763" s="3" t="s">
         <v>81</v>
       </c>
@@ -21673,6 +21769,9 @@
       <c r="K764" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="M764" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="S764" s="3" t="s">
         <v>89</v>
       </c>
@@ -21711,6 +21810,9 @@
       <c r="K765" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="M765" s="4" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="766" spans="1:26">
       <c r="A766" s="2" t="s">
@@ -21743,6 +21845,9 @@
       <c r="K766" s="3" t="s">
         <v>113</v>
       </c>
+      <c r="M766" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="O766" s="4" t="s">
         <v>95</v>
       </c>
@@ -21935,6 +22040,9 @@
       <c r="L775" s="3" t="s">
         <v>81</v>
       </c>
+      <c r="M775" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="O775" s="3" t="s">
         <v>88</v>
       </c>
@@ -22054,6 +22162,9 @@
       <c r="L782" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="M782" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="Q782" s="3" t="s">
         <v>74</v>
       </c>
@@ -22132,6 +22243,9 @@
         <v>74</v>
       </c>
       <c r="M786" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="N786" s="3" t="s">
         <v>81</v>
       </c>
       <c r="O786" s="3" t="s">
@@ -22280,7 +22394,7 @@
       <c r="I793" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="M793" s="3" t="s">
+      <c r="N793" s="3" t="s">
         <v>74</v>
       </c>
       <c r="P793" s="3" t="s">
@@ -22337,7 +22451,7 @@
       <c r="H796" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="M796" s="3" t="s">
+      <c r="N796" s="3" t="s">
         <v>91</v>
       </c>
     </row>
@@ -22713,7 +22827,7 @@
       <c r="F825" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="M825" s="4" t="s">
+      <c r="N825" s="4" t="s">
         <v>93</v>
       </c>
     </row>
@@ -22821,6 +22935,9 @@
       <c r="K828" s="3" t="s">
         <v>88</v>
       </c>
+      <c r="M828" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="Z828" s="3" t="s">
         <v>85</v>
       </c>
@@ -23266,6 +23383,9 @@
       <c r="B857" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="C857" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="D857" s="3" t="s">
         <v>72</v>
       </c>
@@ -23549,7 +23669,7 @@
       <c r="F880" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="M880" s="4" t="s">
+      <c r="N880" s="4" t="s">
         <v>100</v>
       </c>
       <c r="P880" s="4" t="s">
@@ -23822,6 +23942,9 @@
       <c r="K901" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="M901" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="O901" s="3" t="s">
         <v>88</v>
       </c>
@@ -23864,10 +23987,10 @@
         <v>113</v>
       </c>
       <c r="M902" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="N902" s="3" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="Q902" s="3" t="s">
         <v>88</v>
@@ -24087,6 +24210,9 @@
       <c r="L912" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="M912" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="P912" s="3" t="s">
         <v>74</v>
       </c>
@@ -24179,6 +24305,9 @@
       <c r="K916" s="3" t="s">
         <v>89</v>
       </c>
+      <c r="M916" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="V916" s="3" t="s">
         <v>81</v>
       </c>
@@ -24474,6 +24603,9 @@
       <c r="A936" s="2" t="s">
         <v>1120</v>
       </c>
+      <c r="C936" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="937" spans="1:17">
       <c r="A937" s="2" t="s">
@@ -24710,6 +24842,9 @@
       <c r="K949" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="M949" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="Q949" s="3" t="s">
         <v>88</v>
       </c>
@@ -24774,6 +24909,9 @@
       <c r="L951" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="M951" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="P951" s="3" t="s">
         <v>74</v>
       </c>
@@ -25304,6 +25442,9 @@
       <c r="K979" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="M979" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="V979" s="3" t="s">
         <v>88</v>
       </c>
@@ -25433,7 +25574,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="993" spans="1:6">
+    <row r="993" spans="1:7">
       <c r="A993" s="2" t="s">
         <v>1180</v>
       </c>
@@ -25441,7 +25582,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="994" spans="1:6">
+    <row r="994" spans="1:7">
       <c r="A994" s="2" t="s">
         <v>1181</v>
       </c>
@@ -25452,7 +25593,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="995" spans="1:6">
+    <row r="995" spans="1:7">
       <c r="A995" s="2" t="s">
         <v>1182</v>
       </c>
@@ -25466,7 +25607,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="996" spans="1:6">
+    <row r="996" spans="1:7">
       <c r="A996" s="2" t="s">
         <v>1183</v>
       </c>
@@ -25480,7 +25621,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="997" spans="1:6">
+    <row r="997" spans="1:7">
       <c r="A997" s="2" t="s">
         <v>1184</v>
       </c>
@@ -25491,12 +25632,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="998" spans="1:6">
+    <row r="998" spans="1:7">
       <c r="A998" s="2" t="s">
         <v>1185</v>
       </c>
     </row>
-    <row r="999" spans="1:6">
+    <row r="999" spans="1:7">
       <c r="A999" s="2" t="s">
         <v>1186</v>
       </c>
@@ -25504,7 +25645,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1000" spans="1:6">
+    <row r="1000" spans="1:7">
       <c r="A1000" s="2" t="s">
         <v>1187</v>
       </c>
@@ -25512,12 +25653,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1001" spans="1:6">
+    <row r="1001" spans="1:7">
       <c r="A1001" s="2" t="s">
         <v>1188</v>
       </c>
     </row>
-    <row r="1002" spans="1:6">
+    <row r="1002" spans="1:7">
       <c r="A1002" s="2" t="s">
         <v>1189</v>
       </c>
@@ -25528,7 +25669,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1003" spans="1:6">
+    <row r="1003" spans="1:7">
       <c r="A1003" s="2" t="s">
         <v>1190</v>
       </c>
@@ -25536,12 +25677,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="1004" spans="1:6">
+    <row r="1004" spans="1:7">
       <c r="A1004" s="2" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="1005" spans="1:6">
+    <row r="1005" spans="1:7">
       <c r="A1005" s="2" t="s">
         <v>1192</v>
       </c>
@@ -25554,8 +25695,11 @@
       <c r="F1005" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="1006" spans="1:6">
+      <c r="G1005" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:7">
       <c r="A1006" s="2" t="s">
         <v>1193</v>
       </c>
@@ -25569,12 +25713,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="1007" spans="1:6">
+    <row r="1007" spans="1:7">
       <c r="A1007" s="2" t="s">
         <v>1194</v>
       </c>
     </row>
-    <row r="1008" spans="1:6">
+    <row r="1008" spans="1:7">
       <c r="A1008" s="2" t="s">
         <v>1195</v>
       </c>
@@ -27773,7 +27917,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="1185" spans="1:11">
+    <row r="1185" spans="1:14">
       <c r="A1185" s="2" t="s">
         <v>1377</v>
       </c>
@@ -27781,12 +27925,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="1186" spans="1:11">
+    <row r="1186" spans="1:14">
       <c r="A1186" s="2" t="s">
         <v>1378</v>
       </c>
     </row>
-    <row r="1187" spans="1:11">
+    <row r="1187" spans="1:14">
       <c r="A1187" s="2" t="s">
         <v>1379</v>
       </c>
@@ -27800,7 +27944,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="1188" spans="1:11">
+    <row r="1188" spans="1:14">
       <c r="A1188" s="2" t="s">
         <v>1380</v>
       </c>
@@ -27816,8 +27960,11 @@
       <c r="I1188" s="4" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="1189" spans="1:11">
+      <c r="N1188" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:14">
       <c r="A1189" s="2" t="s">
         <v>1381</v>
       </c>
@@ -27836,8 +27983,11 @@
       <c r="I1189" s="3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="1190" spans="1:11">
+      <c r="N1189" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:14">
       <c r="A1190" s="2" t="s">
         <v>1382</v>
       </c>
@@ -27856,8 +28006,11 @@
       <c r="I1190" s="3" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="1191" spans="1:11">
+      <c r="N1190" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:14">
       <c r="A1191" s="2" t="s">
         <v>1383</v>
       </c>
@@ -27865,7 +28018,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="1192" spans="1:11">
+    <row r="1192" spans="1:14">
       <c r="A1192" s="2" t="s">
         <v>1384</v>
       </c>
@@ -27888,7 +28041,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="1193" spans="1:11">
+    <row r="1193" spans="1:14">
       <c r="A1193" s="2" t="s">
         <v>1386</v>
       </c>
@@ -27905,7 +28058,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="1194" spans="1:11">
+    <row r="1194" spans="1:14">
       <c r="A1194" s="2" t="s">
         <v>1388</v>
       </c>
@@ -27925,7 +28078,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="1195" spans="1:11">
+    <row r="1195" spans="1:14">
       <c r="A1195" s="2" t="s">
         <v>1391</v>
       </c>
@@ -27945,7 +28098,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1196" spans="1:11">
+    <row r="1196" spans="1:14">
       <c r="A1196" s="2" t="s">
         <v>1392</v>
       </c>
@@ -27962,7 +28115,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="1197" spans="1:11">
+    <row r="1197" spans="1:14">
       <c r="A1197" s="2" t="s">
         <v>1393</v>
       </c>
@@ -27982,17 +28135,17 @@
         <v>88</v>
       </c>
     </row>
-    <row r="1198" spans="1:11">
+    <row r="1198" spans="1:14">
       <c r="A1198" s="2" t="s">
         <v>1394</v>
       </c>
     </row>
-    <row r="1199" spans="1:11">
+    <row r="1199" spans="1:14">
       <c r="A1199" s="2" t="s">
         <v>1395</v>
       </c>
     </row>
-    <row r="1200" spans="1:11">
+    <row r="1200" spans="1:14">
       <c r="A1200" s="2" t="s">
         <v>1396</v>
       </c>
@@ -30398,6 +30551,9 @@
       <c r="A1441" s="2" t="s">
         <v>1640</v>
       </c>
+      <c r="C1441" s="3" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="1442" spans="1:9">
       <c r="A1442" s="2" t="s">
@@ -30408,6 +30564,9 @@
       <c r="A1443" s="2" t="s">
         <v>1642</v>
       </c>
+      <c r="C1443" s="4" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="1444" spans="1:9">
       <c r="A1444" s="2" t="s">
@@ -32245,7 +32404,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="1681" spans="1:13">
+    <row r="1681" spans="1:14">
       <c r="A1681" s="2" t="s">
         <v>1880</v>
       </c>
@@ -32256,12 +32415,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1682" spans="1:13">
+    <row r="1682" spans="1:14">
       <c r="A1682" s="2" t="s">
         <v>1881</v>
       </c>
     </row>
-    <row r="1683" spans="1:13">
+    <row r="1683" spans="1:14">
       <c r="A1683" s="2" t="s">
         <v>1882</v>
       </c>
@@ -32269,7 +32428,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="1684" spans="1:13">
+    <row r="1684" spans="1:14">
       <c r="A1684" s="2" t="s">
         <v>1883</v>
       </c>
@@ -32280,7 +32439,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="1685" spans="1:13">
+    <row r="1685" spans="1:14">
       <c r="A1685" s="2" t="s">
         <v>1884</v>
       </c>
@@ -32288,7 +32447,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="1686" spans="1:13">
+    <row r="1686" spans="1:14">
       <c r="A1686" s="2" t="s">
         <v>1885</v>
       </c>
@@ -32296,12 +32455,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="1687" spans="1:13">
+    <row r="1687" spans="1:14">
       <c r="A1687" s="2" t="s">
         <v>1886</v>
       </c>
     </row>
-    <row r="1688" spans="1:13">
+    <row r="1688" spans="1:14">
       <c r="A1688" s="2" t="s">
         <v>1887</v>
       </c>
@@ -32315,12 +32474,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1689" spans="1:13">
+    <row r="1689" spans="1:14">
       <c r="A1689" s="2" t="s">
         <v>1888</v>
       </c>
     </row>
-    <row r="1690" spans="1:13">
+    <row r="1690" spans="1:14">
       <c r="A1690" s="2" t="s">
         <v>1889</v>
       </c>
@@ -32337,18 +32496,18 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1691" spans="1:13">
+    <row r="1691" spans="1:14">
       <c r="A1691" s="2" t="s">
         <v>1890</v>
       </c>
       <c r="C1691" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="M1691" s="4" t="s">
+      <c r="N1691" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="1692" spans="1:13">
+    <row r="1692" spans="1:14">
       <c r="A1692" s="2" t="s">
         <v>1891</v>
       </c>
@@ -32356,7 +32515,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="1693" spans="1:13">
+    <row r="1693" spans="1:14">
       <c r="A1693" s="2" t="s">
         <v>1892</v>
       </c>
@@ -32367,7 +32526,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1694" spans="1:13">
+    <row r="1694" spans="1:14">
       <c r="A1694" s="2" t="s">
         <v>1893</v>
       </c>
@@ -32377,11 +32536,11 @@
       <c r="C1694" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="M1694" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="1695" spans="1:13">
+      <c r="N1694" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:14">
       <c r="A1695" s="2" t="s">
         <v>1894</v>
       </c>
@@ -32394,11 +32553,11 @@
       <c r="E1695" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="M1695" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="1696" spans="1:13">
+      <c r="N1695" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:14">
       <c r="A1696" s="2" t="s">
         <v>1895</v>
       </c>
@@ -32406,7 +32565,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1697" spans="1:13">
+    <row r="1697" spans="1:14">
       <c r="A1697" s="2" t="s">
         <v>1896</v>
       </c>
@@ -32417,18 +32576,18 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1698" spans="1:13">
+    <row r="1698" spans="1:14">
       <c r="A1698" s="2" t="s">
         <v>1897</v>
       </c>
       <c r="C1698" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="M1698" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="1699" spans="1:13">
+      <c r="N1698" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:14">
       <c r="A1699" s="2" t="s">
         <v>1898</v>
       </c>
@@ -32445,17 +32604,17 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1700" spans="1:13">
+    <row r="1700" spans="1:14">
       <c r="A1700" s="2" t="s">
         <v>1899</v>
       </c>
     </row>
-    <row r="1701" spans="1:13">
+    <row r="1701" spans="1:14">
       <c r="A1701" s="2" t="s">
         <v>1900</v>
       </c>
     </row>
-    <row r="1702" spans="1:13">
+    <row r="1702" spans="1:14">
       <c r="A1702" s="2" t="s">
         <v>1901</v>
       </c>
@@ -32463,7 +32622,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1703" spans="1:13">
+    <row r="1703" spans="1:14">
       <c r="A1703" s="2" t="s">
         <v>1902</v>
       </c>
@@ -32471,7 +32630,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1704" spans="1:13">
+    <row r="1704" spans="1:14">
       <c r="A1704" s="2" t="s">
         <v>1903</v>
       </c>
@@ -32482,7 +32641,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1705" spans="1:13">
+    <row r="1705" spans="1:14">
       <c r="A1705" s="2" t="s">
         <v>1904</v>
       </c>
@@ -32490,7 +32649,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1706" spans="1:13">
+    <row r="1706" spans="1:14">
       <c r="A1706" s="2" t="s">
         <v>1905</v>
       </c>
@@ -32498,7 +32657,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1707" spans="1:13">
+    <row r="1707" spans="1:14">
       <c r="A1707" s="2" t="s">
         <v>1906</v>
       </c>
@@ -32506,7 +32665,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1708" spans="1:13">
+    <row r="1708" spans="1:14">
       <c r="A1708" s="2" t="s">
         <v>1907</v>
       </c>
@@ -32514,7 +32673,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="1709" spans="1:13">
+    <row r="1709" spans="1:14">
       <c r="A1709" s="2" t="s">
         <v>1908</v>
       </c>
@@ -32522,7 +32681,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="1710" spans="1:13">
+    <row r="1710" spans="1:14">
       <c r="A1710" s="2" t="s">
         <v>1909</v>
       </c>
@@ -32530,7 +32689,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1711" spans="1:13">
+    <row r="1711" spans="1:14">
       <c r="A1711" s="2" t="s">
         <v>1910</v>
       </c>
@@ -32544,7 +32703,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1712" spans="1:13">
+    <row r="1712" spans="1:14">
       <c r="A1712" s="2" t="s">
         <v>1911</v>
       </c>
@@ -32826,6 +32985,9 @@
       <c r="B1749" s="3" t="s">
         <v>305</v>
       </c>
+      <c r="C1749" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="H1749" s="3" t="s">
         <v>74</v>
       </c>
@@ -32837,6 +32999,9 @@
       <c r="A1750" s="2" t="s">
         <v>1949</v>
       </c>
+      <c r="C1750" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="H1750" s="3" t="s">
         <v>81</v>
       </c>
@@ -32875,6 +33040,9 @@
       <c r="A1754" s="2" t="s">
         <v>1953</v>
       </c>
+      <c r="C1754" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="E1754" s="3" t="s">
         <v>74</v>
       </c>
@@ -33443,73 +33611,73 @@
         <v>97</v>
       </c>
     </row>
-    <row r="1809" spans="1:14">
+    <row r="1809" spans="1:13">
       <c r="A1809" s="2" t="s">
         <v>2009</v>
       </c>
     </row>
-    <row r="1810" spans="1:14">
+    <row r="1810" spans="1:13">
       <c r="A1810" s="2" t="s">
         <v>2010</v>
       </c>
     </row>
-    <row r="1811" spans="1:14">
+    <row r="1811" spans="1:13">
       <c r="A1811" s="2" t="s">
         <v>2011</v>
       </c>
     </row>
-    <row r="1812" spans="1:14">
+    <row r="1812" spans="1:13">
       <c r="A1812" s="2" t="s">
         <v>2012</v>
       </c>
     </row>
-    <row r="1813" spans="1:14">
+    <row r="1813" spans="1:13">
       <c r="A1813" s="2" t="s">
         <v>2013</v>
       </c>
     </row>
-    <row r="1814" spans="1:14">
+    <row r="1814" spans="1:13">
       <c r="A1814" s="2" t="s">
         <v>2014</v>
       </c>
     </row>
-    <row r="1815" spans="1:14">
+    <row r="1815" spans="1:13">
       <c r="A1815" s="2" t="s">
         <v>2015</v>
       </c>
     </row>
-    <row r="1816" spans="1:14">
+    <row r="1816" spans="1:13">
       <c r="A1816" s="2" t="s">
         <v>2016</v>
       </c>
     </row>
-    <row r="1817" spans="1:14">
+    <row r="1817" spans="1:13">
       <c r="A1817" s="2" t="s">
         <v>2017</v>
       </c>
     </row>
-    <row r="1818" spans="1:14">
+    <row r="1818" spans="1:13">
       <c r="A1818" s="2" t="s">
         <v>2018</v>
       </c>
       <c r="B1818" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="N1818" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="1819" spans="1:14">
+      <c r="M1818" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:13">
       <c r="A1819" s="2" t="s">
         <v>2019</v>
       </c>
     </row>
-    <row r="1820" spans="1:14">
+    <row r="1820" spans="1:13">
       <c r="A1820" s="2" t="s">
         <v>2020</v>
       </c>
     </row>
-    <row r="1821" spans="1:14">
+    <row r="1821" spans="1:13">
       <c r="A1821" s="2" t="s">
         <v>2021</v>
       </c>
@@ -33517,27 +33685,27 @@
         <v>94</v>
       </c>
     </row>
-    <row r="1822" spans="1:14">
+    <row r="1822" spans="1:13">
       <c r="A1822" s="2" t="s">
         <v>2022</v>
       </c>
     </row>
-    <row r="1823" spans="1:14">
+    <row r="1823" spans="1:13">
       <c r="A1823" s="2" t="s">
         <v>2023</v>
       </c>
     </row>
-    <row r="1824" spans="1:14">
+    <row r="1824" spans="1:13">
       <c r="A1824" s="2" t="s">
         <v>2024</v>
       </c>
     </row>
-    <row r="1825" spans="1:14">
+    <row r="1825" spans="1:13">
       <c r="A1825" s="2" t="s">
         <v>2025</v>
       </c>
     </row>
-    <row r="1826" spans="1:14">
+    <row r="1826" spans="1:13">
       <c r="A1826" s="2" t="s">
         <v>2026</v>
       </c>
@@ -33545,12 +33713,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="1827" spans="1:14">
+    <row r="1827" spans="1:13">
       <c r="A1827" s="2" t="s">
         <v>2027</v>
       </c>
     </row>
-    <row r="1828" spans="1:14">
+    <row r="1828" spans="1:13">
       <c r="A1828" s="2" t="s">
         <v>2028</v>
       </c>
@@ -33558,33 +33726,33 @@
         <v>89</v>
       </c>
     </row>
-    <row r="1829" spans="1:14">
+    <row r="1829" spans="1:13">
       <c r="A1829" s="2" t="s">
         <v>2029</v>
       </c>
       <c r="B1829" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="N1829" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="1830" spans="1:14">
+      <c r="M1829" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:13">
       <c r="A1830" s="2" t="s">
         <v>2030</v>
       </c>
     </row>
-    <row r="1831" spans="1:14">
+    <row r="1831" spans="1:13">
       <c r="A1831" s="2" t="s">
         <v>2031</v>
       </c>
     </row>
-    <row r="1832" spans="1:14">
+    <row r="1832" spans="1:13">
       <c r="A1832" s="2" t="s">
         <v>2032</v>
       </c>
     </row>
-    <row r="1833" spans="1:14">
+    <row r="1833" spans="1:13">
       <c r="A1833" s="2" t="s">
         <v>2033</v>
       </c>
@@ -33595,7 +33763,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="1834" spans="1:14">
+    <row r="1834" spans="1:13">
       <c r="A1834" s="2" t="s">
         <v>2034</v>
       </c>
@@ -33606,7 +33774,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="1835" spans="1:14">
+    <row r="1835" spans="1:13">
       <c r="A1835" s="2" t="s">
         <v>2036</v>
       </c>
@@ -33614,7 +33782,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="1836" spans="1:14">
+    <row r="1836" spans="1:13">
       <c r="A1836" s="2" t="s">
         <v>2038</v>
       </c>
@@ -33622,7 +33790,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="1837" spans="1:14">
+    <row r="1837" spans="1:13">
       <c r="A1837" s="2" t="s">
         <v>2039</v>
       </c>
@@ -33633,7 +33801,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1838" spans="1:14">
+    <row r="1838" spans="1:13">
       <c r="A1838" s="2" t="s">
         <v>2040</v>
       </c>
@@ -33647,7 +33815,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1839" spans="1:14">
+    <row r="1839" spans="1:13">
       <c r="A1839" s="2" t="s">
         <v>2042</v>
       </c>
@@ -33658,7 +33826,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1840" spans="1:14">
+    <row r="1840" spans="1:13">
       <c r="A1840" s="2" t="s">
         <v>2043</v>
       </c>
@@ -33791,7 +33959,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1857" spans="1:14">
+    <row r="1857" spans="1:13">
       <c r="A1857" s="2" t="s">
         <v>2060</v>
       </c>
@@ -33802,7 +33970,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1858" spans="1:14">
+    <row r="1858" spans="1:13">
       <c r="A1858" s="2" t="s">
         <v>2061</v>
       </c>
@@ -33810,7 +33978,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1859" spans="1:14">
+    <row r="1859" spans="1:13">
       <c r="A1859" s="2" t="s">
         <v>2062</v>
       </c>
@@ -33821,12 +33989,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="1860" spans="1:14">
+    <row r="1860" spans="1:13">
       <c r="A1860" s="2" t="s">
         <v>2063</v>
       </c>
     </row>
-    <row r="1861" spans="1:14">
+    <row r="1861" spans="1:13">
       <c r="A1861" s="2" t="s">
         <v>2064</v>
       </c>
@@ -33834,7 +34002,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1862" spans="1:14">
+    <row r="1862" spans="1:13">
       <c r="A1862" s="2" t="s">
         <v>2065</v>
       </c>
@@ -33845,7 +34013,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="1863" spans="1:14">
+    <row r="1863" spans="1:13">
       <c r="A1863" s="2" t="s">
         <v>2066</v>
       </c>
@@ -33853,7 +34021,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="1864" spans="1:14">
+    <row r="1864" spans="1:13">
       <c r="A1864" s="2" t="s">
         <v>2067</v>
       </c>
@@ -33864,7 +34032,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1865" spans="1:14">
+    <row r="1865" spans="1:13">
       <c r="A1865" s="2" t="s">
         <v>2068</v>
       </c>
@@ -33875,7 +34043,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1866" spans="1:14">
+    <row r="1866" spans="1:13">
       <c r="A1866" s="2" t="s">
         <v>2069</v>
       </c>
@@ -33886,7 +34054,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1867" spans="1:14">
+    <row r="1867" spans="1:13">
       <c r="A1867" s="2" t="s">
         <v>2070</v>
       </c>
@@ -33897,7 +34065,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1868" spans="1:14">
+    <row r="1868" spans="1:13">
       <c r="A1868" s="2" t="s">
         <v>2071</v>
       </c>
@@ -33908,7 +34076,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1869" spans="1:14">
+    <row r="1869" spans="1:13">
       <c r="A1869" s="2" t="s">
         <v>2072</v>
       </c>
@@ -33918,11 +34086,11 @@
       <c r="C1869" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="N1869" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="1870" spans="1:14">
+      <c r="M1869" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:13">
       <c r="A1870" s="2" t="s">
         <v>2073</v>
       </c>
@@ -33933,7 +34101,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="1871" spans="1:14">
+    <row r="1871" spans="1:13">
       <c r="A1871" s="2" t="s">
         <v>2074</v>
       </c>
@@ -33941,7 +34109,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1872" spans="1:14">
+    <row r="1872" spans="1:13">
       <c r="A1872" s="2" t="s">
         <v>2075</v>
       </c>

--- a/groups/old/results.xlsx
+++ b/groups/old/results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7721" uniqueCount="2082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7735" uniqueCount="2082">
   <si>
     <t>№</t>
   </si>
@@ -52,12 +52,12 @@
     <t>Колупаева Софья</t>
   </si>
   <si>
+    <t>Пожидаев Денис</t>
+  </si>
+  <si>
     <t>Тимошков Александр</t>
   </si>
   <si>
-    <t>Пожидаев Денис</t>
-  </si>
-  <si>
     <t>Трегубович Андрей</t>
   </si>
   <si>
@@ -142,12 +142,12 @@
     <t>272164</t>
   </si>
   <si>
+    <t>364695</t>
+  </si>
+  <si>
     <t>272170</t>
   </si>
   <si>
-    <t>364695</t>
-  </si>
-  <si>
     <t>321411</t>
   </si>
   <si>
@@ -253,10 +253,10 @@
     <t>1+, 4-</t>
   </si>
   <si>
+    <t>3+, 3-</t>
+  </si>
+  <si>
     <t>2+</t>
-  </si>
-  <si>
-    <t>3+, 3-</t>
   </si>
   <si>
     <t>3+</t>
@@ -6832,7 +6832,7 @@
         <v>65</v>
       </c>
       <c r="C3">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D3">
         <v>83</v>
@@ -6844,76 +6844,76 @@
         <v>309</v>
       </c>
       <c r="G3">
-        <v>3986</v>
+        <v>3988</v>
       </c>
       <c r="H3">
-        <v>5010</v>
+        <v>5011</v>
       </c>
       <c r="I3">
-        <v>7686</v>
+        <v>7693</v>
       </c>
       <c r="J3">
-        <v>14270</v>
+        <v>14283</v>
       </c>
       <c r="K3">
-        <v>16537</v>
+        <v>16548</v>
       </c>
       <c r="L3">
-        <v>25330</v>
+        <v>24854</v>
       </c>
       <c r="M3">
-        <v>25586</v>
+        <v>25355</v>
       </c>
       <c r="N3">
-        <v>33748</v>
+        <v>33786</v>
       </c>
       <c r="O3">
-        <v>36139</v>
+        <v>36186</v>
       </c>
       <c r="P3">
-        <v>39583</v>
+        <v>39636</v>
       </c>
       <c r="Q3">
-        <v>41458</v>
+        <v>41506</v>
       </c>
       <c r="R3">
-        <v>47424</v>
+        <v>47483</v>
       </c>
       <c r="S3">
-        <v>48855</v>
+        <v>48911</v>
       </c>
       <c r="T3">
-        <v>49510</v>
+        <v>49568</v>
       </c>
       <c r="U3">
-        <v>55478</v>
+        <v>55514</v>
       </c>
       <c r="V3">
-        <v>66473</v>
+        <v>66532</v>
       </c>
       <c r="W3">
-        <v>73232</v>
+        <v>73304</v>
       </c>
       <c r="X3">
-        <v>76947</v>
+        <v>77029</v>
       </c>
       <c r="Y3">
-        <v>80789</v>
+        <v>80874</v>
       </c>
       <c r="Z3">
-        <v>109620</v>
+        <v>109735</v>
       </c>
       <c r="AA3">
-        <v>130615</v>
+        <v>130751</v>
       </c>
       <c r="AB3">
-        <v>136446</v>
+        <v>136595</v>
       </c>
       <c r="AC3">
-        <v>164360</v>
+        <v>164542</v>
       </c>
       <c r="AD3">
-        <v>192686</v>
+        <v>192923</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -6924,7 +6924,7 @@
         <v>26415</v>
       </c>
       <c r="C4">
-        <v>24838</v>
+        <v>25046</v>
       </c>
       <c r="D4">
         <v>24099</v>
@@ -6951,10 +6951,10 @@
         <v>1115</v>
       </c>
       <c r="L4">
+        <v>699</v>
+      </c>
+      <c r="M4">
         <v>681</v>
-      </c>
-      <c r="M4">
-        <v>673</v>
       </c>
       <c r="N4">
         <v>472</v>
@@ -7013,10 +7013,10 @@
         <v>62</v>
       </c>
       <c r="B5">
-        <v>3903</v>
+        <v>3907</v>
       </c>
       <c r="C5">
-        <v>1823</v>
+        <v>1845</v>
       </c>
       <c r="D5">
         <v>2943</v>
@@ -7028,7 +7028,7 @@
         <v>1282</v>
       </c>
       <c r="G5">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H5">
         <v>392</v>
@@ -7043,10 +7043,10 @@
         <v>360</v>
       </c>
       <c r="L5">
+        <v>149</v>
+      </c>
+      <c r="M5">
         <v>188</v>
-      </c>
-      <c r="M5">
-        <v>145</v>
       </c>
       <c r="N5">
         <v>62</v>
@@ -7108,7 +7108,7 @@
         <v>735</v>
       </c>
       <c r="C6">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="D6">
         <v>585</v>
@@ -7135,10 +7135,10 @@
         <v>82</v>
       </c>
       <c r="L6">
+        <v>52</v>
+      </c>
+      <c r="M6">
         <v>48</v>
-      </c>
-      <c r="M6">
-        <v>51</v>
       </c>
       <c r="N6">
         <v>19</v>
@@ -7227,10 +7227,10 @@
         <v>11</v>
       </c>
       <c r="L7">
+        <v>15</v>
+      </c>
+      <c r="M7">
         <v>3</v>
-      </c>
-      <c r="M7">
-        <v>13</v>
       </c>
       <c r="N7">
         <v>4</v>
@@ -7289,10 +7289,10 @@
         <v>65</v>
       </c>
       <c r="B8">
-        <v>1100</v>
+        <v>1103</v>
       </c>
       <c r="C8">
-        <v>975</v>
+        <v>985</v>
       </c>
       <c r="D8">
         <v>831</v>
@@ -7319,10 +7319,10 @@
         <v>124</v>
       </c>
       <c r="L8">
+        <v>55</v>
+      </c>
+      <c r="M8">
         <v>56</v>
-      </c>
-      <c r="M8">
-        <v>54</v>
       </c>
       <c r="N8">
         <v>25</v>
@@ -7384,7 +7384,7 @@
         <v>24</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>44</v>
@@ -7411,10 +7411,10 @@
         <v>18</v>
       </c>
       <c r="L9">
+        <v>15</v>
+      </c>
+      <c r="M9">
         <v>6</v>
-      </c>
-      <c r="M9">
-        <v>13</v>
       </c>
       <c r="N9">
         <v>5</v>
@@ -7515,7 +7515,7 @@
         <v>81</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>74</v>
@@ -7545,7 +7545,7 @@
         <v>74</v>
       </c>
       <c r="AC10" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD10" s="3" t="s">
         <v>74</v>
@@ -7586,10 +7586,10 @@
         <v>88</v>
       </c>
       <c r="L11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M11" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="O11" s="3" t="s">
         <v>85</v>
@@ -7642,16 +7642,16 @@
         <v>81</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>88</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>81</v>
@@ -7751,10 +7751,10 @@
         <v>81</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>74</v>
@@ -7791,7 +7791,7 @@
       <c r="J15" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="M15" s="3" t="s">
         <v>77</v>
       </c>
       <c r="O15" s="4" t="s">
@@ -7833,10 +7833,10 @@
         <v>95</v>
       </c>
       <c r="L16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="M16" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="O16" s="3" t="s">
         <v>113</v>
@@ -7871,7 +7871,7 @@
         <v>74</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>74</v>
@@ -7880,10 +7880,10 @@
         <v>74</v>
       </c>
       <c r="L17" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="M17" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>74</v>
@@ -7932,7 +7932,7 @@
       <c r="J18" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="M18" s="4" t="s">
+      <c r="L18" s="4" t="s">
         <v>100</v>
       </c>
       <c r="O18" s="3" t="s">
@@ -7973,7 +7973,7 @@
       <c r="K19" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="M19" s="3" t="s">
         <v>85</v>
       </c>
       <c r="R19" s="3" t="s">
@@ -8067,10 +8067,10 @@
         <v>74</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>81</v>
@@ -8108,10 +8108,10 @@
         <v>74</v>
       </c>
       <c r="L23" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="M23" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>74</v>
@@ -8143,7 +8143,7 @@
         <v>97</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>74</v>
@@ -8163,11 +8163,11 @@
       <c r="K24" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="M24" s="4" t="s">
+      <c r="L24" s="4" t="s">
         <v>100</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>81</v>
@@ -8269,10 +8269,10 @@
         <v>74</v>
       </c>
       <c r="L27" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M27" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="O27" s="4" t="s">
         <v>111</v>
@@ -8289,7 +8289,7 @@
         <v>74</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>77</v>
@@ -8394,16 +8394,16 @@
         <v>74</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>74</v>
       </c>
       <c r="L31" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="M31" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:27">
@@ -8438,10 +8438,10 @@
         <v>74</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>74</v>
@@ -8505,10 +8505,10 @@
         <v>74</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="Q34" s="3" t="s">
         <v>74</v>
@@ -8540,7 +8540,7 @@
         <v>146</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>147</v>
@@ -8560,7 +8560,7 @@
       <c r="H35" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="M35" s="4" t="s">
+      <c r="L35" s="4" t="s">
         <v>100</v>
       </c>
       <c r="O35" s="4" t="s">
@@ -8601,7 +8601,7 @@
         <v>97</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>81</v>
@@ -8615,7 +8615,7 @@
       <c r="H37" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="M37" s="3" t="s">
+      <c r="L37" s="3" t="s">
         <v>77</v>
       </c>
     </row>
@@ -8667,7 +8667,7 @@
         <v>156</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>74</v>
@@ -8681,7 +8681,7 @@
       <c r="F40" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="M40" s="3" t="s">
+      <c r="L40" s="3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -8740,10 +8740,10 @@
         <v>89</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q42" s="3" t="s">
         <v>89</v>
@@ -8781,7 +8781,7 @@
         <v>85</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>74</v>
@@ -8804,7 +8804,7 @@
         <v>88</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>74</v>
@@ -8827,7 +8827,7 @@
         <v>161</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>74</v>
@@ -8845,9 +8845,9 @@
         <v>149</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="M45" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L45" s="4" t="s">
         <v>100</v>
       </c>
     </row>
@@ -8887,7 +8887,7 @@
       <c r="H47" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="M47" s="4" t="s">
+      <c r="L47" s="4" t="s">
         <v>100</v>
       </c>
     </row>
@@ -8896,10 +8896,10 @@
         <v>166</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>97</v>
@@ -8913,7 +8913,7 @@
       <c r="I48" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="M48" s="4" t="s">
+      <c r="L48" s="4" t="s">
         <v>100</v>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       <c r="J49" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="M49" s="3" t="s">
+      <c r="L49" s="3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -8974,7 +8974,7 @@
       <c r="I50" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="M50" s="3" t="s">
+      <c r="L50" s="3" t="s">
         <v>88</v>
       </c>
     </row>
@@ -8983,7 +8983,7 @@
         <v>173</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>81</v>
@@ -8997,7 +8997,7 @@
       <c r="F51" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="M51" s="3" t="s">
+      <c r="L51" s="3" t="s">
         <v>80</v>
       </c>
     </row>
@@ -9056,7 +9056,7 @@
         <v>88</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>74</v>
@@ -9076,7 +9076,7 @@
       <c r="J53" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="M53" s="4" t="s">
+      <c r="L53" s="4" t="s">
         <v>138</v>
       </c>
       <c r="N53" s="3" t="s">
@@ -9114,7 +9114,7 @@
       <c r="H54" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="M54" s="4" t="s">
+      <c r="L54" s="4" t="s">
         <v>93</v>
       </c>
     </row>
@@ -9146,7 +9146,7 @@
       <c r="K55" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="M55" s="4" t="s">
+      <c r="L55" s="4" t="s">
         <v>94</v>
       </c>
     </row>
@@ -9161,7 +9161,7 @@
         <v>81</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>74</v>
@@ -9171,6 +9171,9 @@
       </c>
       <c r="H56" s="3" t="s">
         <v>74</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="1:19">
@@ -9190,7 +9193,7 @@
         <v>77</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>81</v>
@@ -9261,6 +9264,9 @@
       <c r="F60" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="L60" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="Q60" s="3" t="s">
         <v>74</v>
       </c>
@@ -9299,7 +9305,7 @@
       <c r="K61" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="M61" s="3" t="s">
+      <c r="L61" s="3" t="s">
         <v>97</v>
       </c>
       <c r="Q61" s="3" t="s">
@@ -9320,7 +9326,7 @@
         <v>74</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>81</v>
@@ -9504,7 +9510,7 @@
         <v>81</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>74</v>
@@ -9516,16 +9522,16 @@
         <v>88</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K70" s="3" t="s">
         <v>74</v>
       </c>
       <c r="L70" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M70" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="M70" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="V70" s="3" t="s">
         <v>81</v>
@@ -9649,7 +9655,7 @@
         <v>74</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>74</v>
@@ -9669,7 +9675,7 @@
       <c r="K75" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="M75" s="3" t="s">
+      <c r="L75" s="3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -9681,7 +9687,7 @@
         <v>74</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>74</v>
@@ -9890,7 +9896,7 @@
         <v>72</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>81</v>
@@ -9982,7 +9988,7 @@
         <v>74</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>81</v>
@@ -9999,7 +10005,7 @@
       <c r="K90" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L90" s="3" t="s">
+      <c r="M90" s="3" t="s">
         <v>88</v>
       </c>
       <c r="Q90" s="3" t="s">
@@ -10083,7 +10089,7 @@
         <v>74</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>148</v>
@@ -10115,7 +10121,7 @@
         <v>74</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>88</v>
@@ -10135,7 +10141,7 @@
       <c r="K95" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L95" s="4" t="s">
+      <c r="M95" s="4" t="s">
         <v>93</v>
       </c>
       <c r="S95" s="4" t="s">
@@ -10380,7 +10386,7 @@
       <c r="F105" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L105" s="4" t="s">
+      <c r="M105" s="4" t="s">
         <v>100</v>
       </c>
       <c r="O105" s="4" t="s">
@@ -10444,7 +10450,7 @@
         <v>91</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="109" spans="1:22">
@@ -10472,7 +10478,7 @@
         <v>74</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="111" spans="1:22">
@@ -10563,7 +10569,7 @@
         <v>74</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>80</v>
@@ -10584,10 +10590,10 @@
         <v>81</v>
       </c>
       <c r="L115" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M115" s="3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="V115" s="4" t="s">
         <v>100</v>
@@ -10621,7 +10627,7 @@
         <v>104</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>88</v>
@@ -10630,7 +10636,7 @@
         <v>249</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G117" s="3" t="s">
         <v>74</v>
@@ -10648,10 +10654,10 @@
         <v>74</v>
       </c>
       <c r="L117" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="M117" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P117" s="3" t="s">
         <v>74</v>
@@ -10791,7 +10797,7 @@
         <v>256</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>81</v>
@@ -10808,7 +10814,7 @@
         <v>257</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>74</v>
@@ -10968,6 +10974,9 @@
       <c r="B132" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="C132" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="D132" s="3" t="s">
         <v>74</v>
       </c>
@@ -10992,7 +11001,7 @@
         <v>74</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G133" s="3" t="s">
         <v>74</v>
@@ -11003,7 +11012,7 @@
       <c r="I133" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L133" s="3" t="s">
+      <c r="M133" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N133" s="3" t="s">
@@ -11077,7 +11086,7 @@
         <v>74</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N135" s="3" t="s">
         <v>81</v>
@@ -11149,7 +11158,7 @@
         <v>81</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F138" s="3" t="s">
         <v>74</v>
@@ -11290,7 +11299,7 @@
         <v>74</v>
       </c>
       <c r="I144" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="145" spans="1:24">
@@ -11353,7 +11362,7 @@
         <v>88</v>
       </c>
       <c r="I147" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="148" spans="1:24">
@@ -11505,7 +11514,7 @@
         <v>74</v>
       </c>
       <c r="I154" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="155" spans="1:24">
@@ -11525,7 +11534,7 @@
         <v>93</v>
       </c>
       <c r="I155" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N155" s="4" t="s">
         <v>100</v>
@@ -11657,10 +11666,10 @@
         <v>74</v>
       </c>
       <c r="L158" s="3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="M158" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="159" spans="1:24">
@@ -11680,7 +11689,7 @@
         <v>72</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I159" s="3" t="s">
         <v>74</v>
@@ -11691,7 +11700,7 @@
         <v>301</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>74</v>
@@ -11714,7 +11723,7 @@
         <v>302</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>74</v>
@@ -11819,7 +11828,7 @@
       <c r="H166" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="L166" s="3" t="s">
+      <c r="M166" s="3" t="s">
         <v>110</v>
       </c>
       <c r="Q166" s="4" t="s">
@@ -12094,7 +12103,7 @@
         <v>74</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E180" s="3" t="s">
         <v>74</v>
@@ -12111,7 +12120,7 @@
         <v>74</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D181" s="3" t="s">
         <v>81</v>
@@ -12359,7 +12368,7 @@
         <v>81</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I194" s="3" t="s">
         <v>74</v>
@@ -12389,8 +12398,11 @@
       <c r="B196" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="C196" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="D196" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E196" s="3" t="s">
         <v>74</v>
@@ -12404,7 +12416,7 @@
         <v>341</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D197" s="3" t="s">
         <v>74</v>
@@ -12418,7 +12430,7 @@
         <v>342</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>74</v>
@@ -12449,7 +12461,7 @@
         <v>344</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D200" s="3" t="s">
         <v>81</v>
@@ -12544,10 +12556,10 @@
         <v>74</v>
       </c>
       <c r="L204" s="3" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="M204" s="3" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="Q204" s="3" t="s">
         <v>74</v>
@@ -12624,7 +12636,7 @@
         <v>353</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>88</v>
@@ -12672,7 +12684,7 @@
         <v>88</v>
       </c>
       <c r="G211" s="4" t="s">
-        <v>149</v>
+        <v>94</v>
       </c>
       <c r="J211" s="4" t="s">
         <v>149</v>
@@ -12814,7 +12826,7 @@
         <v>365</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C219" s="3" t="s">
         <v>85</v>
@@ -13046,7 +13058,7 @@
         <v>74</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E236" s="3" t="s">
         <v>88</v>
@@ -13144,7 +13156,7 @@
       <c r="K242" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="L242" s="3" t="s">
+      <c r="M242" s="3" t="s">
         <v>89</v>
       </c>
       <c r="Q242" s="3" t="s">
@@ -13219,7 +13231,7 @@
         <v>74</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F246" s="3" t="s">
         <v>74</v>
@@ -13405,7 +13417,7 @@
         <v>412</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>74</v>
@@ -13572,7 +13584,7 @@
         <v>425</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>81</v>
@@ -13676,7 +13688,7 @@
         <v>429</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>81</v>
@@ -13840,10 +13852,10 @@
         <v>74</v>
       </c>
       <c r="F282" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I282" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="283" spans="1:24">
@@ -13877,7 +13889,7 @@
         <v>438</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>81</v>
@@ -13961,10 +13973,13 @@
         <v>74</v>
       </c>
       <c r="F287" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G287" s="3" t="s">
         <v>88</v>
+      </c>
+      <c r="L287" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="288" spans="1:24">
@@ -14087,7 +14102,7 @@
         <v>74</v>
       </c>
       <c r="F293" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G293" s="3" t="s">
         <v>74</v>
@@ -14371,7 +14386,7 @@
         <v>74</v>
       </c>
       <c r="G306" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H306" s="3" t="s">
         <v>74</v>
@@ -14385,7 +14400,7 @@
         <v>464</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C307" s="3" t="s">
         <v>74</v>
@@ -14546,7 +14561,7 @@
         <v>474</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C317" s="3" t="s">
         <v>74</v>
@@ -14580,7 +14595,7 @@
         <v>476</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>74</v>
@@ -14606,7 +14621,7 @@
         <v>81</v>
       </c>
       <c r="E320" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F320" s="3" t="s">
         <v>74</v>
@@ -14620,7 +14635,7 @@
         <v>478</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>74</v>
@@ -14632,7 +14647,7 @@
         <v>74</v>
       </c>
       <c r="F321" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G321" s="3" t="s">
         <v>88</v>
@@ -14644,9 +14659,9 @@
         <v>74</v>
       </c>
       <c r="K321" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="L321" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="M321" s="3" t="s">
         <v>74</v>
       </c>
       <c r="P321" s="3" t="s">
@@ -14699,7 +14714,7 @@
         <v>74</v>
       </c>
       <c r="D323" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E323" s="3" t="s">
         <v>74</v>
@@ -14805,7 +14820,7 @@
         <v>104</v>
       </c>
       <c r="F328" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="329" spans="1:24">
@@ -14864,7 +14879,7 @@
       <c r="G331" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L331" s="3" t="s">
+      <c r="M331" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -14902,7 +14917,7 @@
         <v>97</v>
       </c>
       <c r="E333" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F333" s="3" t="s">
         <v>74</v>
@@ -15036,13 +15051,13 @@
         <v>81</v>
       </c>
       <c r="K337" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L337" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M337" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="N337" s="3" t="s">
         <v>74</v>
@@ -15105,7 +15120,7 @@
         <v>74</v>
       </c>
       <c r="D340" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E340" s="3" t="s">
         <v>74</v>
@@ -15239,7 +15254,7 @@
       <c r="D346" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L346" s="4" t="s">
+      <c r="M346" s="4" t="s">
         <v>149</v>
       </c>
       <c r="O346" s="4" t="s">
@@ -15260,7 +15275,7 @@
         <v>74</v>
       </c>
       <c r="F347" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I347" s="3" t="s">
         <v>74</v>
@@ -15480,7 +15495,7 @@
         <v>110</v>
       </c>
       <c r="F358" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S358" s="3" t="s">
         <v>88</v>
@@ -15816,7 +15831,7 @@
         <v>74</v>
       </c>
       <c r="C376" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D376" s="3" t="s">
         <v>88</v>
@@ -15947,7 +15962,7 @@
         <v>81</v>
       </c>
       <c r="E383" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F383" s="3" t="s">
         <v>74</v>
@@ -16114,7 +16129,7 @@
         <v>74</v>
       </c>
       <c r="I393" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="394" spans="1:16">
@@ -16335,7 +16350,7 @@
         <v>74</v>
       </c>
       <c r="E406" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="407" spans="1:16">
@@ -16352,12 +16367,12 @@
         <v>74</v>
       </c>
       <c r="E407" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F407" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L407" s="3" t="s">
+      <c r="M407" s="3" t="s">
         <v>72</v>
       </c>
       <c r="P407" s="4" t="s">
@@ -16492,7 +16507,7 @@
         <v>77</v>
       </c>
       <c r="F417" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="418" spans="1:9">
@@ -16700,7 +16715,7 @@
         <v>593</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C431" s="3" t="s">
         <v>74</v>
@@ -16804,7 +16819,7 @@
         <v>604</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C438" s="3" t="s">
         <v>74</v>
@@ -16855,7 +16870,7 @@
         <v>85</v>
       </c>
       <c r="E441" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F441" s="3" t="s">
         <v>89</v>
@@ -16871,6 +16886,9 @@
       <c r="B442" s="3" t="s">
         <v>81</v>
       </c>
+      <c r="C442" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="D442" s="3" t="s">
         <v>97</v>
       </c>
@@ -17052,10 +17070,10 @@
         <v>623</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D457" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E457" s="3" t="s">
         <v>74</v>
@@ -17232,7 +17250,7 @@
         <v>637</v>
       </c>
       <c r="F469" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S469" s="4" t="s">
         <v>100</v>
@@ -17343,7 +17361,7 @@
         <v>643</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C475" s="3" t="s">
         <v>74</v>
@@ -17388,7 +17406,7 @@
         <v>646</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C478" s="3" t="s">
         <v>74</v>
@@ -17576,6 +17594,9 @@
       <c r="B490" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="C490" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="D490" s="3" t="s">
         <v>74</v>
       </c>
@@ -17976,7 +17997,7 @@
       <c r="K513" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="M513" s="3" t="s">
+      <c r="L513" s="3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -18013,7 +18034,7 @@
         <v>88</v>
       </c>
       <c r="D516" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E516" s="3" t="s">
         <v>74</v>
@@ -18129,7 +18150,7 @@
       <c r="K522" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="M522" s="3" t="s">
+      <c r="L522" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N522" s="3" t="s">
@@ -18156,7 +18177,7 @@
         <v>74</v>
       </c>
       <c r="E523" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F523" s="3" t="s">
         <v>74</v>
@@ -18168,7 +18189,7 @@
         <v>74</v>
       </c>
       <c r="J523" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="524" spans="1:23">
@@ -18333,7 +18354,7 @@
         <v>85</v>
       </c>
       <c r="E532" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F532" s="3" t="s">
         <v>81</v>
@@ -18435,7 +18456,7 @@
         <v>707</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C538" s="3" t="s">
         <v>97</v>
@@ -18535,7 +18556,7 @@
         <v>74</v>
       </c>
       <c r="F543" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G543" s="3" t="s">
         <v>74</v>
@@ -18586,7 +18607,7 @@
         <v>93</v>
       </c>
       <c r="D546" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="547" spans="1:25">
@@ -18830,11 +18851,11 @@
       <c r="K559" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="L559" s="3" t="s">
+      <c r="L559" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="M559" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="M559" s="4" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="560" spans="1:25">
@@ -18899,7 +18920,7 @@
         <v>81</v>
       </c>
       <c r="F563" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G563" s="3" t="s">
         <v>81</v>
@@ -18908,7 +18929,7 @@
         <v>74</v>
       </c>
       <c r="I563" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J563" s="3" t="s">
         <v>77</v>
@@ -19065,7 +19086,7 @@
         <v>81</v>
       </c>
       <c r="C577" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D577" s="3" t="s">
         <v>77</v>
@@ -19301,7 +19322,7 @@
         <v>766</v>
       </c>
       <c r="C596" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="597" spans="1:26">
@@ -19422,7 +19443,7 @@
       <c r="K606" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="M606" s="3" t="s">
+      <c r="L606" s="3" t="s">
         <v>74</v>
       </c>
       <c r="O606" s="4" t="s">
@@ -19460,7 +19481,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="609" spans="1:13">
+    <row r="609" spans="1:12">
       <c r="A609" s="2" t="s">
         <v>779</v>
       </c>
@@ -19483,7 +19504,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="610" spans="1:13">
+    <row r="610" spans="1:12">
       <c r="A610" s="2" t="s">
         <v>780</v>
       </c>
@@ -19500,7 +19521,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="611" spans="1:13">
+    <row r="611" spans="1:12">
       <c r="A611" s="2" t="s">
         <v>781</v>
       </c>
@@ -19514,7 +19535,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="612" spans="1:13">
+    <row r="612" spans="1:12">
       <c r="A612" s="2" t="s">
         <v>782</v>
       </c>
@@ -19522,7 +19543,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="613" spans="1:13">
+    <row r="613" spans="1:12">
       <c r="A613" s="2" t="s">
         <v>783</v>
       </c>
@@ -19533,7 +19554,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="614" spans="1:13">
+    <row r="614" spans="1:12">
       <c r="A614" s="2" t="s">
         <v>784</v>
       </c>
@@ -19541,7 +19562,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="615" spans="1:13">
+    <row r="615" spans="1:12">
       <c r="A615" s="2" t="s">
         <v>785</v>
       </c>
@@ -19572,26 +19593,26 @@
       <c r="K615" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="M615" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="616" spans="1:13">
+      <c r="L615" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="616" spans="1:12">
       <c r="A616" s="2" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="617" spans="1:13">
+    <row r="617" spans="1:12">
       <c r="A617" s="2" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="618" spans="1:13">
+    <row r="618" spans="1:12">
       <c r="A618" s="2" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="619" spans="1:13">
+    <row r="619" spans="1:12">
       <c r="A619" s="2" t="s">
         <v>789</v>
       </c>
@@ -19599,7 +19620,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="620" spans="1:13">
+    <row r="620" spans="1:12">
       <c r="A620" s="2" t="s">
         <v>790</v>
       </c>
@@ -19607,17 +19628,17 @@
         <v>88</v>
       </c>
     </row>
-    <row r="621" spans="1:13">
+    <row r="621" spans="1:12">
       <c r="A621" s="2" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="622" spans="1:13">
+    <row r="622" spans="1:12">
       <c r="A622" s="2" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="623" spans="1:13">
+    <row r="623" spans="1:12">
       <c r="A623" s="2" t="s">
         <v>793</v>
       </c>
@@ -19628,7 +19649,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="624" spans="1:13">
+    <row r="624" spans="1:12">
       <c r="A624" s="2" t="s">
         <v>794</v>
       </c>
@@ -20007,16 +20028,16 @@
         <v>74</v>
       </c>
       <c r="K652" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="L652" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="M652" s="3" t="s">
         <v>81</v>
       </c>
       <c r="T652" s="3" t="s">
         <v>74</v>
       </c>
       <c r="U652" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W652" s="3" t="s">
         <v>74</v>
@@ -20069,7 +20090,7 @@
         <v>90</v>
       </c>
       <c r="E656" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -20218,7 +20239,7 @@
         <v>839</v>
       </c>
       <c r="B669" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -20415,7 +20436,7 @@
         <v>74</v>
       </c>
       <c r="D682" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E682" s="3" t="s">
         <v>224</v>
@@ -20558,7 +20579,7 @@
         <v>863</v>
       </c>
       <c r="B689" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C689" s="3" t="s">
         <v>74</v>
@@ -20581,7 +20602,7 @@
       <c r="K689" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L689" s="3" t="s">
+      <c r="M689" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N689" s="3" t="s">
@@ -20616,7 +20637,7 @@
         <v>81</v>
       </c>
       <c r="C691" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E691" s="3" t="s">
         <v>74</v>
@@ -20676,7 +20697,7 @@
         <v>114</v>
       </c>
       <c r="E694" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F694" s="3" t="s">
         <v>74</v>
@@ -20693,7 +20714,7 @@
       <c r="K694" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="M694" s="3" t="s">
+      <c r="L694" s="3" t="s">
         <v>81</v>
       </c>
     </row>
@@ -20834,7 +20855,7 @@
         <v>245</v>
       </c>
       <c r="E701" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F701" s="3" t="s">
         <v>88</v>
@@ -20852,10 +20873,10 @@
         <v>305</v>
       </c>
       <c r="L701" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M701" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="M701" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="S701" s="3" t="s">
         <v>113</v>
@@ -20978,7 +20999,7 @@
       <c r="K706" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="M706" s="3" t="s">
+      <c r="L706" s="3" t="s">
         <v>77</v>
       </c>
       <c r="O706" s="3" t="s">
@@ -21248,7 +21269,7 @@
         <v>81</v>
       </c>
       <c r="D722" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="723" spans="1:18">
@@ -21273,7 +21294,7 @@
         <v>74</v>
       </c>
       <c r="F724" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G724" s="3" t="s">
         <v>74</v>
@@ -21281,7 +21302,7 @@
       <c r="H724" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L724" s="3" t="s">
+      <c r="M724" s="3" t="s">
         <v>81</v>
       </c>
       <c r="O724" s="3" t="s">
@@ -21442,7 +21463,7 @@
         <v>914</v>
       </c>
       <c r="B738" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C738" s="3" t="s">
         <v>89</v>
@@ -21691,7 +21712,7 @@
         <v>82</v>
       </c>
       <c r="D762" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E762" s="3" t="s">
         <v>89</v>
@@ -21731,7 +21752,7 @@
       <c r="K763" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="M763" s="3" t="s">
+      <c r="L763" s="3" t="s">
         <v>74</v>
       </c>
       <c r="V763" s="3" t="s">
@@ -21769,7 +21790,7 @@
       <c r="K764" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="M764" s="3" t="s">
+      <c r="L764" s="3" t="s">
         <v>74</v>
       </c>
       <c r="S764" s="3" t="s">
@@ -21810,7 +21831,7 @@
       <c r="K765" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="M765" s="4" t="s">
+      <c r="L765" s="4" t="s">
         <v>93</v>
       </c>
     </row>
@@ -21845,7 +21866,7 @@
       <c r="K766" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M766" s="3" t="s">
+      <c r="L766" s="3" t="s">
         <v>81</v>
       </c>
       <c r="O766" s="4" t="s">
@@ -22038,10 +22059,10 @@
         <v>74</v>
       </c>
       <c r="L775" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="M775" s="3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="O775" s="3" t="s">
         <v>88</v>
@@ -22160,10 +22181,10 @@
         <v>74</v>
       </c>
       <c r="L782" s="3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="M782" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="Q782" s="3" t="s">
         <v>74</v>
@@ -22242,7 +22263,7 @@
       <c r="K786" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="M786" s="3" t="s">
+      <c r="L786" s="3" t="s">
         <v>88</v>
       </c>
       <c r="N786" s="3" t="s">
@@ -22329,7 +22350,7 @@
         <v>967</v>
       </c>
       <c r="B790" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C790" s="3" t="s">
         <v>74</v>
@@ -22360,7 +22381,7 @@
         <v>969</v>
       </c>
       <c r="B792" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C792" s="3" t="s">
         <v>74</v>
@@ -22494,7 +22515,7 @@
         <v>74</v>
       </c>
       <c r="F799" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G799" s="3" t="s">
         <v>81</v>
@@ -22551,7 +22572,7 @@
         <v>81</v>
       </c>
       <c r="C802" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D802" s="3" t="s">
         <v>74</v>
@@ -22859,7 +22880,7 @@
       <c r="K826" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L826" s="3" t="s">
+      <c r="M826" s="3" t="s">
         <v>74</v>
       </c>
       <c r="R826" s="3" t="s">
@@ -22935,7 +22956,7 @@
       <c r="K828" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="M828" s="3" t="s">
+      <c r="L828" s="3" t="s">
         <v>81</v>
       </c>
       <c r="Z828" s="3" t="s">
@@ -22950,7 +22971,7 @@
         <v>85</v>
       </c>
       <c r="D829" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="830" spans="1:26">
@@ -23168,7 +23189,7 @@
         <v>81</v>
       </c>
       <c r="F845" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G845" s="3" t="s">
         <v>88</v>
@@ -23196,7 +23217,7 @@
         <v>1026</v>
       </c>
       <c r="C847" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F847" s="3" t="s">
         <v>74</v>
@@ -23213,7 +23234,7 @@
         <v>74</v>
       </c>
       <c r="D848" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E848" s="3" t="s">
         <v>74</v>
@@ -23267,7 +23288,7 @@
         <v>1031</v>
       </c>
       <c r="B851" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C851" s="3" t="s">
         <v>81</v>
@@ -23424,7 +23445,7 @@
         <v>74</v>
       </c>
       <c r="J859" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K859" s="4" t="s">
         <v>93</v>
@@ -23456,7 +23477,7 @@
         <v>1043</v>
       </c>
       <c r="B863" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C863" s="3" t="s">
         <v>74</v>
@@ -23518,7 +23539,7 @@
         <v>1047</v>
       </c>
       <c r="B867" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C867" s="3" t="s">
         <v>74</v>
@@ -23538,7 +23559,7 @@
         <v>77</v>
       </c>
       <c r="C868" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D868" s="3" t="s">
         <v>74</v>
@@ -23550,7 +23571,7 @@
         <v>74</v>
       </c>
       <c r="H868" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I868" s="3" t="s">
         <v>74</v>
@@ -23726,7 +23747,7 @@
         <v>74</v>
       </c>
       <c r="F884" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="885" spans="1:7">
@@ -23942,7 +23963,7 @@
       <c r="K901" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="M901" s="3" t="s">
+      <c r="L901" s="3" t="s">
         <v>81</v>
       </c>
       <c r="O901" s="3" t="s">
@@ -23984,10 +24005,10 @@
         <v>72</v>
       </c>
       <c r="L902" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M902" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="M902" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="N902" s="3" t="s">
         <v>88</v>
@@ -24019,7 +24040,7 @@
         <v>74</v>
       </c>
       <c r="C903" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D903" s="3" t="s">
         <v>74</v>
@@ -24036,7 +24057,7 @@
       <c r="H903" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L903" s="3" t="s">
+      <c r="M903" s="3" t="s">
         <v>74</v>
       </c>
       <c r="O903" s="4" t="s">
@@ -24077,7 +24098,7 @@
         <v>74</v>
       </c>
       <c r="C905" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="906" spans="1:27">
@@ -24181,7 +24202,7 @@
         <v>74</v>
       </c>
       <c r="C912" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D912" s="3" t="s">
         <v>74</v>
@@ -24305,7 +24326,7 @@
       <c r="K916" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="M916" s="3" t="s">
+      <c r="L916" s="3" t="s">
         <v>74</v>
       </c>
       <c r="V916" s="3" t="s">
@@ -24352,7 +24373,7 @@
         <v>142</v>
       </c>
       <c r="I918" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="919" spans="1:22">
@@ -24674,7 +24695,7 @@
         <v>90</v>
       </c>
       <c r="I941" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="942" spans="1:17">
@@ -24757,7 +24778,7 @@
         <v>1129</v>
       </c>
       <c r="B945" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C945" s="3" t="s">
         <v>74</v>
@@ -24808,7 +24829,7 @@
         <v>68</v>
       </c>
       <c r="E948" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="949" spans="1:27">
@@ -24837,12 +24858,12 @@
         <v>74</v>
       </c>
       <c r="J949" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K949" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="M949" s="4" t="s">
+      <c r="L949" s="4" t="s">
         <v>149</v>
       </c>
       <c r="Q949" s="3" t="s">
@@ -24886,7 +24907,7 @@
         <v>99</v>
       </c>
       <c r="E951" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F951" s="3" t="s">
         <v>99</v>
@@ -24953,7 +24974,7 @@
       <c r="K952" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="L952" s="3" t="s">
+      <c r="M952" s="3" t="s">
         <v>77</v>
       </c>
       <c r="R952" s="3" t="s">
@@ -25376,7 +25397,7 @@
         <v>89</v>
       </c>
       <c r="C977" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D977" s="3" t="s">
         <v>74</v>
@@ -25425,7 +25446,7 @@
         <v>74</v>
       </c>
       <c r="F979" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G979" s="3" t="s">
         <v>74</v>
@@ -25442,7 +25463,7 @@
       <c r="K979" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="M979" s="4" t="s">
+      <c r="L979" s="4" t="s">
         <v>149</v>
       </c>
       <c r="V979" s="3" t="s">
@@ -25674,7 +25695,7 @@
         <v>1190</v>
       </c>
       <c r="E1003" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="1004" spans="1:7">
@@ -26029,7 +26050,7 @@
         <v>1231</v>
       </c>
       <c r="B1044" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E1044" s="3" t="s">
         <v>74</v>
@@ -26059,7 +26080,7 @@
         <v>74</v>
       </c>
       <c r="E1047" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G1047" s="3" t="s">
         <v>74</v>
@@ -26520,6 +26541,9 @@
       <c r="B1098" s="3" t="s">
         <v>81</v>
       </c>
+      <c r="C1098" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="D1098" s="3" t="s">
         <v>85</v>
       </c>
@@ -26534,6 +26558,9 @@
       <c r="B1099" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="C1099" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="D1099" s="3" t="s">
         <v>81</v>
       </c>
@@ -26542,6 +26569,9 @@
       <c r="A1100" s="2" t="s">
         <v>1289</v>
       </c>
+      <c r="C1100" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="D1100" s="3" t="s">
         <v>74</v>
       </c>
@@ -26567,6 +26597,9 @@
       <c r="B1102" s="3" t="s">
         <v>77</v>
       </c>
+      <c r="C1102" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="D1102" s="4" t="s">
         <v>100</v>
       </c>
@@ -26707,7 +26740,7 @@
       <c r="K1118" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="L1118" s="3" t="s">
+      <c r="M1118" s="3" t="s">
         <v>74</v>
       </c>
       <c r="Q1118" s="3" t="s">
@@ -26731,7 +26764,7 @@
         <v>74</v>
       </c>
       <c r="E1119" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G1119" s="3" t="s">
         <v>74</v>
@@ -26760,7 +26793,7 @@
         <v>89</v>
       </c>
       <c r="E1120" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G1120" s="3" t="s">
         <v>74</v>
@@ -26789,7 +26822,7 @@
         <v>74</v>
       </c>
       <c r="E1121" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G1121" s="3" t="s">
         <v>74</v>
@@ -26809,22 +26842,22 @@
         <v>1311</v>
       </c>
       <c r="B1122" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C1122" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D1122" s="3" t="s">
         <v>88</v>
       </c>
       <c r="E1122" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G1122" s="3" t="s">
         <v>88</v>
       </c>
       <c r="K1122" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q1122" s="3" t="s">
         <v>74</v>
@@ -26879,7 +26912,7 @@
         <v>77</v>
       </c>
       <c r="E1124" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G1124" s="3" t="s">
         <v>88</v>
@@ -26888,7 +26921,7 @@
         <v>74</v>
       </c>
       <c r="Q1124" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="V1124" s="3" t="s">
         <v>113</v>
@@ -26916,7 +26949,7 @@
       <c r="K1125" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L1125" s="3" t="s">
+      <c r="M1125" s="3" t="s">
         <v>74</v>
       </c>
       <c r="Q1125" s="3" t="s">
@@ -26992,7 +27025,7 @@
         <v>74</v>
       </c>
       <c r="E1128" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G1128" s="3" t="s">
         <v>74</v>
@@ -27018,7 +27051,7 @@
         <v>74</v>
       </c>
       <c r="E1129" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G1129" s="3" t="s">
         <v>81</v>
@@ -27038,7 +27071,7 @@
         <v>74</v>
       </c>
       <c r="E1130" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G1130" s="3" t="s">
         <v>74</v>
@@ -27327,7 +27360,7 @@
         <v>74</v>
       </c>
       <c r="D1144" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E1144" s="3" t="s">
         <v>74</v>
@@ -27569,7 +27602,7 @@
         <v>88</v>
       </c>
       <c r="E1157" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G1157" s="3" t="s">
         <v>74</v>
@@ -27723,7 +27756,7 @@
         <v>1355</v>
       </c>
       <c r="B1165" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D1165" s="3" t="s">
         <v>116</v>
@@ -27767,7 +27800,7 @@
         <v>85</v>
       </c>
       <c r="D1169" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E1169" s="3" t="s">
         <v>74</v>
@@ -27826,7 +27859,7 @@
         <v>74</v>
       </c>
       <c r="E1176" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="1177" spans="1:9">
@@ -27922,7 +27955,7 @@
         <v>1377</v>
       </c>
       <c r="B1185" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="1186" spans="1:14">
@@ -28023,7 +28056,7 @@
         <v>1384</v>
       </c>
       <c r="B1192" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C1192" s="3" t="s">
         <v>74</v>
@@ -28035,7 +28068,7 @@
         <v>74</v>
       </c>
       <c r="I1192" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K1192" s="3" t="s">
         <v>88</v>
@@ -28112,7 +28145,7 @@
         <v>89</v>
       </c>
       <c r="I1196" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="1197" spans="1:14">
@@ -28225,7 +28258,7 @@
         <v>1406</v>
       </c>
       <c r="B1209" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C1209" s="3" t="s">
         <v>74</v>
@@ -28506,7 +28539,7 @@
         <v>74</v>
       </c>
       <c r="E1228" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I1228" s="3" t="s">
         <v>74</v>
@@ -28996,7 +29029,7 @@
         <v>1469</v>
       </c>
       <c r="B1272" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C1272" s="3" t="s">
         <v>74</v>
@@ -29835,7 +29868,7 @@
         <v>1570</v>
       </c>
       <c r="B1372" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C1372" s="3" t="s">
         <v>74</v>
@@ -29938,7 +29971,7 @@
         <v>74</v>
       </c>
       <c r="E1380" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="1381" spans="1:5">
@@ -30053,7 +30086,7 @@
         <v>1589</v>
       </c>
       <c r="B1391" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E1391" s="3" t="s">
         <v>72</v>
@@ -30168,7 +30201,7 @@
         <v>1600</v>
       </c>
       <c r="B1402" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="1403" spans="1:9">
@@ -30230,7 +30263,7 @@
         <v>1607</v>
       </c>
       <c r="B1409" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="1410" spans="1:11">
@@ -30564,8 +30597,8 @@
       <c r="A1443" s="2" t="s">
         <v>1642</v>
       </c>
-      <c r="C1443" s="4" t="s">
-        <v>100</v>
+      <c r="C1443" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="1444" spans="1:9">
@@ -30606,7 +30639,7 @@
         <v>1646</v>
       </c>
       <c r="E1447" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="1448" spans="1:9">
@@ -30731,7 +30764,7 @@
         <v>1665</v>
       </c>
       <c r="B1466" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D1466" s="3" t="s">
         <v>88</v>
@@ -31226,7 +31259,7 @@
         <v>81</v>
       </c>
       <c r="D1520" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="1521" spans="1:9">
@@ -31633,7 +31666,7 @@
         <v>1783</v>
       </c>
       <c r="B1584" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D1584" s="3" t="s">
         <v>74</v>
@@ -31647,7 +31680,7 @@
         <v>1784</v>
       </c>
       <c r="B1585" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C1585" s="3" t="s">
         <v>81</v>
@@ -31707,7 +31740,7 @@
         <v>81</v>
       </c>
       <c r="I1588" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="1589" spans="1:19">
@@ -31953,7 +31986,7 @@
         <v>1817</v>
       </c>
       <c r="C1618" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D1618" s="3" t="s">
         <v>74</v>
@@ -32178,37 +32211,37 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="1649" spans="1:12">
+    <row r="1649" spans="1:13">
       <c r="A1649" s="2" t="s">
         <v>1848</v>
       </c>
     </row>
-    <row r="1650" spans="1:12">
+    <row r="1650" spans="1:13">
       <c r="A1650" s="2" t="s">
         <v>1849</v>
       </c>
     </row>
-    <row r="1651" spans="1:12">
+    <row r="1651" spans="1:13">
       <c r="A1651" s="2" t="s">
         <v>1850</v>
       </c>
     </row>
-    <row r="1652" spans="1:12">
+    <row r="1652" spans="1:13">
       <c r="A1652" s="2" t="s">
         <v>1851</v>
       </c>
     </row>
-    <row r="1653" spans="1:12">
+    <row r="1653" spans="1:13">
       <c r="A1653" s="2" t="s">
         <v>1852</v>
       </c>
     </row>
-    <row r="1654" spans="1:12">
+    <row r="1654" spans="1:13">
       <c r="A1654" s="2" t="s">
         <v>1853</v>
       </c>
     </row>
-    <row r="1655" spans="1:12">
+    <row r="1655" spans="1:13">
       <c r="A1655" s="2" t="s">
         <v>1854</v>
       </c>
@@ -32225,7 +32258,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="1656" spans="1:12">
+    <row r="1656" spans="1:13">
       <c r="A1656" s="2" t="s">
         <v>1855</v>
       </c>
@@ -32242,7 +32275,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="1657" spans="1:12">
+    <row r="1657" spans="1:13">
       <c r="A1657" s="2" t="s">
         <v>1856</v>
       </c>
@@ -32253,7 +32286,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="1658" spans="1:12">
+    <row r="1658" spans="1:13">
       <c r="A1658" s="2" t="s">
         <v>1857</v>
       </c>
@@ -32261,18 +32294,18 @@
         <v>111</v>
       </c>
     </row>
-    <row r="1659" spans="1:12">
+    <row r="1659" spans="1:13">
       <c r="A1659" s="2" t="s">
         <v>1858</v>
       </c>
       <c r="E1659" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L1659" s="4" t="s">
+      <c r="M1659" s="4" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="1660" spans="1:12">
+    <row r="1660" spans="1:13">
       <c r="A1660" s="2" t="s">
         <v>1859</v>
       </c>
@@ -32283,7 +32316,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1661" spans="1:12">
+    <row r="1661" spans="1:13">
       <c r="A1661" s="2" t="s">
         <v>1860</v>
       </c>
@@ -32294,7 +32327,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1662" spans="1:12">
+    <row r="1662" spans="1:13">
       <c r="A1662" s="2" t="s">
         <v>1861</v>
       </c>
@@ -32302,12 +32335,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="1663" spans="1:12">
+    <row r="1663" spans="1:13">
       <c r="A1663" s="2" t="s">
         <v>1862</v>
       </c>
     </row>
-    <row r="1664" spans="1:12">
+    <row r="1664" spans="1:13">
       <c r="A1664" s="2" t="s">
         <v>1863</v>
       </c>
@@ -32425,7 +32458,7 @@
         <v>1882</v>
       </c>
       <c r="B1683" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="1684" spans="1:14">
@@ -32492,7 +32525,7 @@
       <c r="I1690" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="L1690" s="3" t="s">
+      <c r="M1690" s="3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -32551,7 +32584,7 @@
         <v>74</v>
       </c>
       <c r="E1695" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N1695" s="3" t="s">
         <v>81</v>
@@ -32678,7 +32711,7 @@
         <v>1908</v>
       </c>
       <c r="B1709" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="1710" spans="1:14">
@@ -32803,7 +32836,7 @@
         <v>1924</v>
       </c>
       <c r="B1725" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="1726" spans="1:10">
@@ -32986,7 +33019,7 @@
         <v>305</v>
       </c>
       <c r="C1749" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H1749" s="3" t="s">
         <v>74</v>
@@ -33010,6 +33043,9 @@
       <c r="A1751" s="2" t="s">
         <v>1950</v>
       </c>
+      <c r="B1751" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="1752" spans="1:19">
       <c r="A1752" s="2" t="s">
@@ -33040,6 +33076,9 @@
       <c r="A1754" s="2" t="s">
         <v>1953</v>
       </c>
+      <c r="B1754" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="C1754" s="3" t="s">
         <v>74</v>
       </c>
@@ -33057,6 +33096,9 @@
       <c r="A1755" s="2" t="s">
         <v>1954</v>
       </c>
+      <c r="B1755" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="E1755" s="4" t="s">
         <v>111</v>
       </c>
@@ -33104,12 +33146,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="1761" spans="1:12">
+    <row r="1761" spans="1:13">
       <c r="A1761" s="2" t="s">
         <v>1960</v>
       </c>
       <c r="C1761" s="4" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="D1761" s="3" t="s">
         <v>81</v>
@@ -33118,12 +33160,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="1762" spans="1:12">
+    <row r="1762" spans="1:13">
       <c r="A1762" s="2" t="s">
         <v>1961</v>
       </c>
     </row>
-    <row r="1763" spans="1:12">
+    <row r="1763" spans="1:13">
       <c r="A1763" s="2" t="s">
         <v>1962</v>
       </c>
@@ -33134,7 +33176,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1764" spans="1:12">
+    <row r="1764" spans="1:13">
       <c r="A1764" s="2" t="s">
         <v>1963</v>
       </c>
@@ -33145,7 +33187,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="1765" spans="1:12">
+    <row r="1765" spans="1:13">
       <c r="A1765" s="2" t="s">
         <v>1964</v>
       </c>
@@ -33158,11 +33200,11 @@
       <c r="I1765" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L1765" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="1766" spans="1:12">
+      <c r="M1765" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:13">
       <c r="A1766" s="2" t="s">
         <v>1965</v>
       </c>
@@ -33173,20 +33215,20 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1767" spans="1:12">
+    <row r="1767" spans="1:13">
       <c r="A1767" s="2" t="s">
         <v>1966</v>
       </c>
-      <c r="C1767" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="1768" spans="1:12">
+      <c r="C1767" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:13">
       <c r="A1768" s="2" t="s">
         <v>1967</v>
       </c>
     </row>
-    <row r="1769" spans="1:12">
+    <row r="1769" spans="1:13">
       <c r="A1769" s="2" t="s">
         <v>1968</v>
       </c>
@@ -33197,7 +33239,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="1770" spans="1:12">
+    <row r="1770" spans="1:13">
       <c r="A1770" s="2" t="s">
         <v>1969</v>
       </c>
@@ -33208,7 +33250,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="1771" spans="1:12">
+    <row r="1771" spans="1:13">
       <c r="A1771" s="2" t="s">
         <v>1970</v>
       </c>
@@ -33216,7 +33258,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="1772" spans="1:12">
+    <row r="1772" spans="1:13">
       <c r="A1772" s="2" t="s">
         <v>1971</v>
       </c>
@@ -33227,12 +33269,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1773" spans="1:12">
+    <row r="1773" spans="1:13">
       <c r="A1773" s="2" t="s">
         <v>1972</v>
       </c>
     </row>
-    <row r="1774" spans="1:12">
+    <row r="1774" spans="1:13">
       <c r="A1774" s="2" t="s">
         <v>1973</v>
       </c>
@@ -33243,7 +33285,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1775" spans="1:12">
+    <row r="1775" spans="1:13">
       <c r="A1775" s="2" t="s">
         <v>1974</v>
       </c>
@@ -33254,7 +33296,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="1776" spans="1:12">
+    <row r="1776" spans="1:13">
       <c r="A1776" s="2" t="s">
         <v>1975</v>
       </c>
@@ -33305,7 +33347,7 @@
       <c r="C1780" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L1780" s="3" t="s">
+      <c r="M1780" s="3" t="s">
         <v>113</v>
       </c>
     </row>
@@ -33354,7 +33396,7 @@
       <c r="C1785" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L1785" s="4" t="s">
+      <c r="M1785" s="4" t="s">
         <v>149</v>
       </c>
     </row>
@@ -33368,7 +33410,7 @@
       <c r="I1786" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="L1786" s="4" t="s">
+      <c r="M1786" s="4" t="s">
         <v>149</v>
       </c>
     </row>
@@ -33408,7 +33450,7 @@
       <c r="J1791" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="L1791" s="3" t="s">
+      <c r="M1791" s="3" t="s">
         <v>88</v>
       </c>
       <c r="T1791" s="4" t="s">
@@ -33423,7 +33465,7 @@
         <v>1991</v>
       </c>
       <c r="B1792" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C1792" s="3" t="s">
         <v>74</v>
@@ -33454,7 +33496,7 @@
       <c r="K1793" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="L1793" s="3" t="s">
+      <c r="M1793" s="3" t="s">
         <v>74</v>
       </c>
       <c r="R1793" s="3" t="s">
@@ -33477,7 +33519,7 @@
       <c r="K1794" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L1794" s="3" t="s">
+      <c r="M1794" s="3" t="s">
         <v>81</v>
       </c>
       <c r="W1794" s="4" t="s">
@@ -33539,7 +33581,7 @@
         <v>1998</v>
       </c>
       <c r="B1799" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C1799" s="3" t="s">
         <v>77</v>
@@ -33611,73 +33653,73 @@
         <v>97</v>
       </c>
     </row>
-    <row r="1809" spans="1:13">
+    <row r="1809" spans="1:12">
       <c r="A1809" s="2" t="s">
         <v>2009</v>
       </c>
     </row>
-    <row r="1810" spans="1:13">
+    <row r="1810" spans="1:12">
       <c r="A1810" s="2" t="s">
         <v>2010</v>
       </c>
     </row>
-    <row r="1811" spans="1:13">
+    <row r="1811" spans="1:12">
       <c r="A1811" s="2" t="s">
         <v>2011</v>
       </c>
     </row>
-    <row r="1812" spans="1:13">
+    <row r="1812" spans="1:12">
       <c r="A1812" s="2" t="s">
         <v>2012</v>
       </c>
     </row>
-    <row r="1813" spans="1:13">
+    <row r="1813" spans="1:12">
       <c r="A1813" s="2" t="s">
         <v>2013</v>
       </c>
     </row>
-    <row r="1814" spans="1:13">
+    <row r="1814" spans="1:12">
       <c r="A1814" s="2" t="s">
         <v>2014</v>
       </c>
     </row>
-    <row r="1815" spans="1:13">
+    <row r="1815" spans="1:12">
       <c r="A1815" s="2" t="s">
         <v>2015</v>
       </c>
     </row>
-    <row r="1816" spans="1:13">
+    <row r="1816" spans="1:12">
       <c r="A1816" s="2" t="s">
         <v>2016</v>
       </c>
     </row>
-    <row r="1817" spans="1:13">
+    <row r="1817" spans="1:12">
       <c r="A1817" s="2" t="s">
         <v>2017</v>
       </c>
     </row>
-    <row r="1818" spans="1:13">
+    <row r="1818" spans="1:12">
       <c r="A1818" s="2" t="s">
         <v>2018</v>
       </c>
       <c r="B1818" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="M1818" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="1819" spans="1:13">
+      <c r="L1818" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:12">
       <c r="A1819" s="2" t="s">
         <v>2019</v>
       </c>
     </row>
-    <row r="1820" spans="1:13">
+    <row r="1820" spans="1:12">
       <c r="A1820" s="2" t="s">
         <v>2020</v>
       </c>
     </row>
-    <row r="1821" spans="1:13">
+    <row r="1821" spans="1:12">
       <c r="A1821" s="2" t="s">
         <v>2021</v>
       </c>
@@ -33685,27 +33727,27 @@
         <v>94</v>
       </c>
     </row>
-    <row r="1822" spans="1:13">
+    <row r="1822" spans="1:12">
       <c r="A1822" s="2" t="s">
         <v>2022</v>
       </c>
     </row>
-    <row r="1823" spans="1:13">
+    <row r="1823" spans="1:12">
       <c r="A1823" s="2" t="s">
         <v>2023</v>
       </c>
     </row>
-    <row r="1824" spans="1:13">
+    <row r="1824" spans="1:12">
       <c r="A1824" s="2" t="s">
         <v>2024</v>
       </c>
     </row>
-    <row r="1825" spans="1:13">
+    <row r="1825" spans="1:12">
       <c r="A1825" s="2" t="s">
         <v>2025</v>
       </c>
     </row>
-    <row r="1826" spans="1:13">
+    <row r="1826" spans="1:12">
       <c r="A1826" s="2" t="s">
         <v>2026</v>
       </c>
@@ -33713,12 +33755,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="1827" spans="1:13">
+    <row r="1827" spans="1:12">
       <c r="A1827" s="2" t="s">
         <v>2027</v>
       </c>
     </row>
-    <row r="1828" spans="1:13">
+    <row r="1828" spans="1:12">
       <c r="A1828" s="2" t="s">
         <v>2028</v>
       </c>
@@ -33726,44 +33768,44 @@
         <v>89</v>
       </c>
     </row>
-    <row r="1829" spans="1:13">
+    <row r="1829" spans="1:12">
       <c r="A1829" s="2" t="s">
         <v>2029</v>
       </c>
       <c r="B1829" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="M1829" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="1830" spans="1:13">
+      <c r="L1829" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:12">
       <c r="A1830" s="2" t="s">
         <v>2030</v>
       </c>
     </row>
-    <row r="1831" spans="1:13">
+    <row r="1831" spans="1:12">
       <c r="A1831" s="2" t="s">
         <v>2031</v>
       </c>
     </row>
-    <row r="1832" spans="1:13">
+    <row r="1832" spans="1:12">
       <c r="A1832" s="2" t="s">
         <v>2032</v>
       </c>
     </row>
-    <row r="1833" spans="1:13">
+    <row r="1833" spans="1:12">
       <c r="A1833" s="2" t="s">
         <v>2033</v>
       </c>
       <c r="B1833" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C1833" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="1834" spans="1:13">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:12">
       <c r="A1834" s="2" t="s">
         <v>2034</v>
       </c>
@@ -33774,7 +33816,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="1835" spans="1:13">
+    <row r="1835" spans="1:12">
       <c r="A1835" s="2" t="s">
         <v>2036</v>
       </c>
@@ -33782,7 +33824,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="1836" spans="1:13">
+    <row r="1836" spans="1:12">
       <c r="A1836" s="2" t="s">
         <v>2038</v>
       </c>
@@ -33790,7 +33832,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="1837" spans="1:13">
+    <row r="1837" spans="1:12">
       <c r="A1837" s="2" t="s">
         <v>2039</v>
       </c>
@@ -33801,7 +33843,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1838" spans="1:13">
+    <row r="1838" spans="1:12">
       <c r="A1838" s="2" t="s">
         <v>2040</v>
       </c>
@@ -33815,7 +33857,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1839" spans="1:13">
+    <row r="1839" spans="1:12">
       <c r="A1839" s="2" t="s">
         <v>2042</v>
       </c>
@@ -33826,7 +33868,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1840" spans="1:13">
+    <row r="1840" spans="1:12">
       <c r="A1840" s="2" t="s">
         <v>2043</v>
       </c>
@@ -33959,7 +34001,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1857" spans="1:13">
+    <row r="1857" spans="1:12">
       <c r="A1857" s="2" t="s">
         <v>2060</v>
       </c>
@@ -33970,7 +34012,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1858" spans="1:13">
+    <row r="1858" spans="1:12">
       <c r="A1858" s="2" t="s">
         <v>2061</v>
       </c>
@@ -33978,7 +34020,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1859" spans="1:13">
+    <row r="1859" spans="1:12">
       <c r="A1859" s="2" t="s">
         <v>2062</v>
       </c>
@@ -33989,12 +34031,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="1860" spans="1:13">
+    <row r="1860" spans="1:12">
       <c r="A1860" s="2" t="s">
         <v>2063</v>
       </c>
     </row>
-    <row r="1861" spans="1:13">
+    <row r="1861" spans="1:12">
       <c r="A1861" s="2" t="s">
         <v>2064</v>
       </c>
@@ -34002,7 +34044,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1862" spans="1:13">
+    <row r="1862" spans="1:12">
       <c r="A1862" s="2" t="s">
         <v>2065</v>
       </c>
@@ -34013,7 +34055,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="1863" spans="1:13">
+    <row r="1863" spans="1:12">
       <c r="A1863" s="2" t="s">
         <v>2066</v>
       </c>
@@ -34021,7 +34063,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="1864" spans="1:13">
+    <row r="1864" spans="1:12">
       <c r="A1864" s="2" t="s">
         <v>2067</v>
       </c>
@@ -34032,7 +34074,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1865" spans="1:13">
+    <row r="1865" spans="1:12">
       <c r="A1865" s="2" t="s">
         <v>2068</v>
       </c>
@@ -34043,7 +34085,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1866" spans="1:13">
+    <row r="1866" spans="1:12">
       <c r="A1866" s="2" t="s">
         <v>2069</v>
       </c>
@@ -34054,7 +34096,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1867" spans="1:13">
+    <row r="1867" spans="1:12">
       <c r="A1867" s="2" t="s">
         <v>2070</v>
       </c>
@@ -34065,7 +34107,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1868" spans="1:13">
+    <row r="1868" spans="1:12">
       <c r="A1868" s="2" t="s">
         <v>2071</v>
       </c>
@@ -34076,7 +34118,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1869" spans="1:13">
+    <row r="1869" spans="1:12">
       <c r="A1869" s="2" t="s">
         <v>2072</v>
       </c>
@@ -34086,11 +34128,11 @@
       <c r="C1869" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="M1869" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="1870" spans="1:13">
+      <c r="L1869" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:12">
       <c r="A1870" s="2" t="s">
         <v>2073</v>
       </c>
@@ -34101,7 +34143,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="1871" spans="1:13">
+    <row r="1871" spans="1:12">
       <c r="A1871" s="2" t="s">
         <v>2074</v>
       </c>
@@ -34109,15 +34151,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1872" spans="1:13">
+    <row r="1872" spans="1:12">
       <c r="A1872" s="2" t="s">
         <v>2075</v>
       </c>
       <c r="B1872" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C1872" s="4" t="s">
-        <v>100</v>
+      <c r="C1872" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="1873" spans="1:3">

--- a/groups/old/results.xlsx
+++ b/groups/old/results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7735" uniqueCount="2082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7746" uniqueCount="2082">
   <si>
     <t>№</t>
   </si>
@@ -6832,7 +6832,7 @@
         <v>65</v>
       </c>
       <c r="C3">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D3">
         <v>83</v>
@@ -6844,76 +6844,76 @@
         <v>309</v>
       </c>
       <c r="G3">
-        <v>3988</v>
+        <v>3990</v>
       </c>
       <c r="H3">
-        <v>5011</v>
+        <v>5012</v>
       </c>
       <c r="I3">
-        <v>7693</v>
+        <v>7695</v>
       </c>
       <c r="J3">
-        <v>14283</v>
+        <v>14289</v>
       </c>
       <c r="K3">
-        <v>16548</v>
+        <v>16557</v>
       </c>
       <c r="L3">
-        <v>24854</v>
+        <v>24866</v>
       </c>
       <c r="M3">
-        <v>25355</v>
+        <v>25370</v>
       </c>
       <c r="N3">
-        <v>33786</v>
+        <v>33809</v>
       </c>
       <c r="O3">
-        <v>36186</v>
+        <v>36207</v>
       </c>
       <c r="P3">
-        <v>39636</v>
+        <v>39653</v>
       </c>
       <c r="Q3">
-        <v>41506</v>
+        <v>41526</v>
       </c>
       <c r="R3">
-        <v>47483</v>
+        <v>47504</v>
       </c>
       <c r="S3">
-        <v>48911</v>
+        <v>48932</v>
       </c>
       <c r="T3">
-        <v>49568</v>
+        <v>49591</v>
       </c>
       <c r="U3">
-        <v>55514</v>
+        <v>55542</v>
       </c>
       <c r="V3">
-        <v>66532</v>
+        <v>66579</v>
       </c>
       <c r="W3">
-        <v>73304</v>
+        <v>73343</v>
       </c>
       <c r="X3">
-        <v>77029</v>
+        <v>77063</v>
       </c>
       <c r="Y3">
-        <v>80874</v>
+        <v>80915</v>
       </c>
       <c r="Z3">
-        <v>109735</v>
+        <v>109787</v>
       </c>
       <c r="AA3">
-        <v>130751</v>
+        <v>130815</v>
       </c>
       <c r="AB3">
-        <v>136595</v>
+        <v>136658</v>
       </c>
       <c r="AC3">
-        <v>164542</v>
+        <v>164606</v>
       </c>
       <c r="AD3">
-        <v>192923</v>
+        <v>193006</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -6924,7 +6924,7 @@
         <v>26415</v>
       </c>
       <c r="C4">
-        <v>25046</v>
+        <v>25635</v>
       </c>
       <c r="D4">
         <v>24099</v>
@@ -7013,10 +7013,10 @@
         <v>62</v>
       </c>
       <c r="B5">
-        <v>3907</v>
+        <v>3916</v>
       </c>
       <c r="C5">
-        <v>1845</v>
+        <v>1861</v>
       </c>
       <c r="D5">
         <v>2943</v>
@@ -7108,7 +7108,7 @@
         <v>735</v>
       </c>
       <c r="C6">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="D6">
         <v>585</v>
@@ -7289,10 +7289,10 @@
         <v>65</v>
       </c>
       <c r="B8">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="C8">
-        <v>985</v>
+        <v>995</v>
       </c>
       <c r="D8">
         <v>831</v>
@@ -9895,6 +9895,9 @@
       <c r="B86" s="3" t="s">
         <v>72</v>
       </c>
+      <c r="C86" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="D86" s="3" t="s">
         <v>79</v>
       </c>
@@ -10051,6 +10054,9 @@
       <c r="B92" s="3" t="s">
         <v>81</v>
       </c>
+      <c r="C92" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="D92" s="3" t="s">
         <v>74</v>
       </c>
@@ -10477,6 +10483,9 @@
       <c r="B110" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="C110" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="D110" s="3" t="s">
         <v>79</v>
       </c>
@@ -11372,6 +11381,9 @@
       <c r="B148" s="3" t="s">
         <v>285</v>
       </c>
+      <c r="C148" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="D148" s="3" t="s">
         <v>89</v>
       </c>
@@ -11842,6 +11854,9 @@
       <c r="B167" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="C167" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="D167" s="3" t="s">
         <v>81</v>
       </c>
@@ -12449,6 +12464,9 @@
       <c r="B199" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="C199" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="D199" s="3" t="s">
         <v>74</v>
       </c>
@@ -12463,6 +12481,9 @@
       <c r="B200" s="3" t="s">
         <v>79</v>
       </c>
+      <c r="C200" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="D200" s="3" t="s">
         <v>81</v>
       </c>
@@ -12514,6 +12535,9 @@
       <c r="B203" s="3" t="s">
         <v>97</v>
       </c>
+      <c r="C203" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="D203" s="3" t="s">
         <v>74</v>
       </c>
@@ -19789,6 +19813,9 @@
       <c r="B638" s="3" t="s">
         <v>99</v>
       </c>
+      <c r="C638" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="D638" s="3" t="s">
         <v>81</v>
       </c>
@@ -23600,6 +23627,9 @@
       <c r="B871" s="3" t="s">
         <v>98</v>
       </c>
+      <c r="C871" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="872" spans="1:16">
       <c r="A872" s="2" t="s">
@@ -33031,6 +33061,9 @@
     <row r="1750" spans="1:19">
       <c r="A1750" s="2" t="s">
         <v>1949</v>
+      </c>
+      <c r="B1750" s="3" t="s">
+        <v>110</v>
       </c>
       <c r="C1750" s="3" t="s">
         <v>81</v>

--- a/groups/old/results.xlsx
+++ b/groups/old/results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7746" uniqueCount="2082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7774" uniqueCount="2082">
   <si>
     <t>№</t>
   </si>
@@ -6844,76 +6844,76 @@
         <v>309</v>
       </c>
       <c r="G3">
-        <v>3990</v>
+        <v>3919</v>
       </c>
       <c r="H3">
-        <v>5012</v>
+        <v>5016</v>
       </c>
       <c r="I3">
-        <v>7695</v>
+        <v>7701</v>
       </c>
       <c r="J3">
-        <v>14289</v>
+        <v>14306</v>
       </c>
       <c r="K3">
-        <v>16557</v>
+        <v>16581</v>
       </c>
       <c r="L3">
-        <v>24866</v>
+        <v>19985</v>
       </c>
       <c r="M3">
-        <v>25370</v>
+        <v>21608</v>
       </c>
       <c r="N3">
-        <v>33809</v>
+        <v>33852</v>
       </c>
       <c r="O3">
-        <v>36207</v>
+        <v>36255</v>
       </c>
       <c r="P3">
-        <v>39653</v>
+        <v>39715</v>
       </c>
       <c r="Q3">
-        <v>41526</v>
+        <v>41595</v>
       </c>
       <c r="R3">
-        <v>47504</v>
+        <v>47556</v>
       </c>
       <c r="S3">
-        <v>48932</v>
+        <v>48982</v>
       </c>
       <c r="T3">
-        <v>49591</v>
+        <v>49642</v>
       </c>
       <c r="U3">
-        <v>55542</v>
+        <v>55627</v>
       </c>
       <c r="V3">
-        <v>66579</v>
+        <v>66654</v>
       </c>
       <c r="W3">
-        <v>73343</v>
+        <v>73418</v>
       </c>
       <c r="X3">
-        <v>77063</v>
+        <v>77154</v>
       </c>
       <c r="Y3">
-        <v>80915</v>
+        <v>81016</v>
       </c>
       <c r="Z3">
-        <v>109787</v>
+        <v>109914</v>
       </c>
       <c r="AA3">
-        <v>130815</v>
+        <v>130962</v>
       </c>
       <c r="AB3">
-        <v>136658</v>
+        <v>136807</v>
       </c>
       <c r="AC3">
-        <v>164606</v>
+        <v>164808</v>
       </c>
       <c r="AD3">
-        <v>193006</v>
+        <v>193310</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -6921,7 +6921,7 @@
         <v>61</v>
       </c>
       <c r="B4">
-        <v>26415</v>
+        <v>26622</v>
       </c>
       <c r="C4">
         <v>25635</v>
@@ -6936,7 +6936,7 @@
         <v>15491</v>
       </c>
       <c r="G4">
-        <v>3973</v>
+        <v>4009</v>
       </c>
       <c r="H4">
         <v>3332</v>
@@ -6951,10 +6951,10 @@
         <v>1115</v>
       </c>
       <c r="L4">
-        <v>699</v>
+        <v>906</v>
       </c>
       <c r="M4">
-        <v>681</v>
+        <v>823</v>
       </c>
       <c r="N4">
         <v>472</v>
@@ -7013,7 +7013,7 @@
         <v>62</v>
       </c>
       <c r="B5">
-        <v>3916</v>
+        <v>3940</v>
       </c>
       <c r="C5">
         <v>1861</v>
@@ -7028,7 +7028,7 @@
         <v>1282</v>
       </c>
       <c r="G5">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="H5">
         <v>392</v>
@@ -7043,10 +7043,10 @@
         <v>360</v>
       </c>
       <c r="L5">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="M5">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="N5">
         <v>62</v>
@@ -7105,7 +7105,7 @@
         <v>63</v>
       </c>
       <c r="B6">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="C6">
         <v>750</v>
@@ -7120,7 +7120,7 @@
         <v>520</v>
       </c>
       <c r="G6">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H6">
         <v>169</v>
@@ -7135,10 +7135,10 @@
         <v>82</v>
       </c>
       <c r="L6">
+        <v>58</v>
+      </c>
+      <c r="M6">
         <v>52</v>
-      </c>
-      <c r="M6">
-        <v>48</v>
       </c>
       <c r="N6">
         <v>19</v>
@@ -7197,7 +7197,7 @@
         <v>64</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -7227,10 +7227,10 @@
         <v>11</v>
       </c>
       <c r="L7">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N7">
         <v>4</v>
@@ -7289,7 +7289,7 @@
         <v>65</v>
       </c>
       <c r="B8">
-        <v>1104</v>
+        <v>1112</v>
       </c>
       <c r="C8">
         <v>995</v>
@@ -7304,7 +7304,7 @@
         <v>539</v>
       </c>
       <c r="G8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H8">
         <v>174</v>
@@ -7319,10 +7319,10 @@
         <v>124</v>
       </c>
       <c r="L8">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="M8">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="N8">
         <v>25</v>
@@ -7381,7 +7381,7 @@
         <v>66</v>
       </c>
       <c r="B9">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -7411,10 +7411,10 @@
         <v>18</v>
       </c>
       <c r="L9">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M9">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N9">
         <v>5</v>
@@ -7935,6 +7935,9 @@
       <c r="L18" s="4" t="s">
         <v>100</v>
       </c>
+      <c r="M18" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="O18" s="3" t="s">
         <v>74</v>
       </c>
@@ -8014,6 +8017,12 @@
       <c r="I20" s="3" t="s">
         <v>97</v>
       </c>
+      <c r="L20" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="2" t="s">
@@ -8037,6 +8046,9 @@
       <c r="I21" s="4" t="s">
         <v>100</v>
       </c>
+      <c r="M21" s="4" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="22" spans="1:27">
       <c r="A22" s="2" t="s">
@@ -8638,6 +8650,9 @@
       <c r="F38" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="L38" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="O38" s="4" t="s">
         <v>93</v>
       </c>
@@ -8661,6 +8676,9 @@
       <c r="F39" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="M39" s="4" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="40" spans="1:29">
       <c r="A40" s="2" t="s">
@@ -9744,6 +9762,9 @@
       <c r="F78" s="3" t="s">
         <v>81</v>
       </c>
+      <c r="L78" s="3" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="79" spans="1:22">
       <c r="A79" s="2" t="s">
@@ -9767,6 +9788,9 @@
       <c r="G79" s="4" t="s">
         <v>95</v>
       </c>
+      <c r="M79" s="3" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="80" spans="1:22">
       <c r="A80" s="2" t="s">
@@ -10320,6 +10344,9 @@
       <c r="I102" s="3" t="s">
         <v>231</v>
       </c>
+      <c r="L102" s="4" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="103" spans="1:22">
       <c r="A103" s="2" t="s">
@@ -10343,6 +10370,9 @@
       <c r="G103" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="L103" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="O103" s="3" t="s">
         <v>74</v>
       </c>
@@ -10538,6 +10568,9 @@
       <c r="H112" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="L112" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="113" spans="1:29">
       <c r="A113" s="2" t="s">
@@ -11227,6 +11260,9 @@
       <c r="K140" s="3" t="s">
         <v>91</v>
       </c>
+      <c r="L140" s="4" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="141" spans="1:21">
       <c r="A141" s="2" t="s">
@@ -11630,6 +11666,9 @@
       <c r="K157" s="3" t="s">
         <v>110</v>
       </c>
+      <c r="L157" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="O157" s="4" t="s">
         <v>149</v>
       </c>
@@ -16407,6 +16446,9 @@
       <c r="A408" s="2" t="s">
         <v>569</v>
       </c>
+      <c r="B408" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="C408" s="3" t="s">
         <v>74</v>
       </c>
@@ -20678,6 +20720,9 @@
       <c r="H691" s="4" t="s">
         <v>100</v>
       </c>
+      <c r="M691" s="4" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="692" spans="1:22">
       <c r="A692" s="2" t="s">
@@ -22211,7 +22256,7 @@
         <v>81</v>
       </c>
       <c r="M782" s="3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="Q782" s="3" t="s">
         <v>74</v>
@@ -22688,6 +22733,9 @@
       <c r="A808" s="2" t="s">
         <v>985</v>
       </c>
+      <c r="B808" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="C808" s="3" t="s">
         <v>74</v>
       </c>
@@ -22825,6 +22873,9 @@
       <c r="A821" s="2" t="s">
         <v>999</v>
       </c>
+      <c r="B821" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="D821" s="3" t="s">
         <v>74</v>
       </c>
@@ -23482,6 +23533,9 @@
       <c r="A860" s="2" t="s">
         <v>1040</v>
       </c>
+      <c r="B860" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="C860" s="3" t="s">
         <v>114</v>
       </c>
@@ -23538,6 +23592,9 @@
       <c r="A864" s="2" t="s">
         <v>1044</v>
       </c>
+      <c r="B864" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="C864" s="3" t="s">
         <v>74</v>
       </c>
@@ -23546,6 +23603,9 @@
       <c r="A865" s="2" t="s">
         <v>1045</v>
       </c>
+      <c r="B865" s="4" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="866" spans="1:16">
       <c r="A866" s="2" t="s">
@@ -25458,6 +25518,9 @@
       <c r="H978" s="4" t="s">
         <v>100</v>
       </c>
+      <c r="M978" s="3" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="979" spans="1:22">
       <c r="A979" s="2" t="s">
@@ -25625,15 +25688,21 @@
         <v>88</v>
       </c>
     </row>
-    <row r="993" spans="1:7">
+    <row r="993" spans="1:12">
       <c r="A993" s="2" t="s">
         <v>1180</v>
       </c>
       <c r="C993" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="994" spans="1:7">
+      <c r="G993" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L993" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="994" spans="1:12">
       <c r="A994" s="2" t="s">
         <v>1181</v>
       </c>
@@ -25644,7 +25713,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="995" spans="1:7">
+    <row r="995" spans="1:12">
       <c r="A995" s="2" t="s">
         <v>1182</v>
       </c>
@@ -25658,7 +25727,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="996" spans="1:7">
+    <row r="996" spans="1:12">
       <c r="A996" s="2" t="s">
         <v>1183</v>
       </c>
@@ -25672,7 +25741,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="997" spans="1:7">
+    <row r="997" spans="1:12">
       <c r="A997" s="2" t="s">
         <v>1184</v>
       </c>
@@ -25683,12 +25752,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="998" spans="1:7">
+    <row r="998" spans="1:12">
       <c r="A998" s="2" t="s">
         <v>1185</v>
       </c>
     </row>
-    <row r="999" spans="1:7">
+    <row r="999" spans="1:12">
       <c r="A999" s="2" t="s">
         <v>1186</v>
       </c>
@@ -25696,7 +25765,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1000" spans="1:7">
+    <row r="1000" spans="1:12">
       <c r="A1000" s="2" t="s">
         <v>1187</v>
       </c>
@@ -25704,12 +25773,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1001" spans="1:7">
+    <row r="1001" spans="1:12">
       <c r="A1001" s="2" t="s">
         <v>1188</v>
       </c>
     </row>
-    <row r="1002" spans="1:7">
+    <row r="1002" spans="1:12">
       <c r="A1002" s="2" t="s">
         <v>1189</v>
       </c>
@@ -25720,7 +25789,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1003" spans="1:7">
+    <row r="1003" spans="1:12">
       <c r="A1003" s="2" t="s">
         <v>1190</v>
       </c>
@@ -25728,12 +25797,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="1004" spans="1:7">
+    <row r="1004" spans="1:12">
       <c r="A1004" s="2" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="1005" spans="1:7">
+    <row r="1005" spans="1:12">
       <c r="A1005" s="2" t="s">
         <v>1192</v>
       </c>
@@ -25750,7 +25819,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="1006" spans="1:7">
+    <row r="1006" spans="1:12">
       <c r="A1006" s="2" t="s">
         <v>1193</v>
       </c>
@@ -25764,12 +25833,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="1007" spans="1:7">
+    <row r="1007" spans="1:12">
       <c r="A1007" s="2" t="s">
         <v>1194</v>
       </c>
     </row>
-    <row r="1008" spans="1:7">
+    <row r="1008" spans="1:12">
       <c r="A1008" s="2" t="s">
         <v>1195</v>
       </c>
@@ -28449,6 +28518,9 @@
       <c r="A1221" s="2" t="s">
         <v>1418</v>
       </c>
+      <c r="B1221" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="E1221" s="3" t="s">
         <v>74</v>
       </c>
@@ -30610,7 +30682,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1441" spans="1:9">
+    <row r="1441" spans="1:13">
       <c r="A1441" s="2" t="s">
         <v>1640</v>
       </c>
@@ -30618,12 +30690,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="1442" spans="1:9">
+    <row r="1442" spans="1:13">
       <c r="A1442" s="2" t="s">
         <v>1641</v>
       </c>
     </row>
-    <row r="1443" spans="1:9">
+    <row r="1443" spans="1:13">
       <c r="A1443" s="2" t="s">
         <v>1642</v>
       </c>
@@ -30631,15 +30703,18 @@
         <v>85</v>
       </c>
     </row>
-    <row r="1444" spans="1:9">
+    <row r="1444" spans="1:13">
       <c r="A1444" s="2" t="s">
         <v>1643</v>
       </c>
       <c r="B1444" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="1445" spans="1:9">
+      <c r="M1444" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:13">
       <c r="A1445" s="2" t="s">
         <v>1644</v>
       </c>
@@ -30647,7 +30722,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1446" spans="1:9">
+    <row r="1446" spans="1:13">
       <c r="A1446" s="2" t="s">
         <v>1645</v>
       </c>
@@ -30664,7 +30739,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1447" spans="1:9">
+    <row r="1447" spans="1:13">
       <c r="A1447" s="2" t="s">
         <v>1646</v>
       </c>
@@ -30672,7 +30747,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="1448" spans="1:9">
+    <row r="1448" spans="1:13">
       <c r="A1448" s="2" t="s">
         <v>1647</v>
       </c>
@@ -30680,17 +30755,17 @@
         <v>81</v>
       </c>
     </row>
-    <row r="1449" spans="1:9">
+    <row r="1449" spans="1:13">
       <c r="A1449" s="2" t="s">
         <v>1648</v>
       </c>
     </row>
-    <row r="1450" spans="1:9">
+    <row r="1450" spans="1:13">
       <c r="A1450" s="2" t="s">
         <v>1649</v>
       </c>
     </row>
-    <row r="1451" spans="1:9">
+    <row r="1451" spans="1:13">
       <c r="A1451" s="2" t="s">
         <v>1650</v>
       </c>
@@ -30698,7 +30773,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1452" spans="1:9">
+    <row r="1452" spans="1:13">
       <c r="A1452" s="2" t="s">
         <v>1651</v>
       </c>
@@ -30706,12 +30781,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1453" spans="1:9">
+    <row r="1453" spans="1:13">
       <c r="A1453" s="2" t="s">
         <v>1652</v>
       </c>
-    </row>
-    <row r="1454" spans="1:9">
+      <c r="B1453" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:13">
       <c r="A1454" s="2" t="s">
         <v>1653</v>
       </c>
@@ -30719,7 +30797,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="1455" spans="1:9">
+    <row r="1455" spans="1:13">
       <c r="A1455" s="2" t="s">
         <v>1654</v>
       </c>
@@ -30733,7 +30811,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1456" spans="1:9">
+    <row r="1456" spans="1:13">
       <c r="A1456" s="2" t="s">
         <v>1655</v>
       </c>
@@ -31173,6 +31251,9 @@
       <c r="A1503" s="2" t="s">
         <v>1702</v>
       </c>
+      <c r="B1503" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="C1503" s="3" t="s">
         <v>74</v>
       </c>
@@ -33739,7 +33820,7 @@
         <v>74</v>
       </c>
       <c r="L1818" s="3" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
     </row>
     <row r="1819" spans="1:12">
@@ -33809,7 +33890,7 @@
         <v>74</v>
       </c>
       <c r="L1829" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="1830" spans="1:12">
@@ -34034,7 +34115,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1857" spans="1:12">
+    <row r="1857" spans="1:13">
       <c r="A1857" s="2" t="s">
         <v>2060</v>
       </c>
@@ -34045,7 +34126,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1858" spans="1:12">
+    <row r="1858" spans="1:13">
       <c r="A1858" s="2" t="s">
         <v>2061</v>
       </c>
@@ -34053,7 +34134,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1859" spans="1:12">
+    <row r="1859" spans="1:13">
       <c r="A1859" s="2" t="s">
         <v>2062</v>
       </c>
@@ -34064,12 +34145,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="1860" spans="1:12">
+    <row r="1860" spans="1:13">
       <c r="A1860" s="2" t="s">
         <v>2063</v>
       </c>
     </row>
-    <row r="1861" spans="1:12">
+    <row r="1861" spans="1:13">
       <c r="A1861" s="2" t="s">
         <v>2064</v>
       </c>
@@ -34077,7 +34158,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1862" spans="1:12">
+    <row r="1862" spans="1:13">
       <c r="A1862" s="2" t="s">
         <v>2065</v>
       </c>
@@ -34088,7 +34169,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="1863" spans="1:12">
+    <row r="1863" spans="1:13">
       <c r="A1863" s="2" t="s">
         <v>2066</v>
       </c>
@@ -34096,7 +34177,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="1864" spans="1:12">
+    <row r="1864" spans="1:13">
       <c r="A1864" s="2" t="s">
         <v>2067</v>
       </c>
@@ -34107,7 +34188,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1865" spans="1:12">
+    <row r="1865" spans="1:13">
       <c r="A1865" s="2" t="s">
         <v>2068</v>
       </c>
@@ -34118,7 +34199,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1866" spans="1:12">
+    <row r="1866" spans="1:13">
       <c r="A1866" s="2" t="s">
         <v>2069</v>
       </c>
@@ -34129,7 +34210,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1867" spans="1:12">
+    <row r="1867" spans="1:13">
       <c r="A1867" s="2" t="s">
         <v>2070</v>
       </c>
@@ -34140,7 +34221,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1868" spans="1:12">
+    <row r="1868" spans="1:13">
       <c r="A1868" s="2" t="s">
         <v>2071</v>
       </c>
@@ -34151,7 +34232,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1869" spans="1:12">
+    <row r="1869" spans="1:13">
       <c r="A1869" s="2" t="s">
         <v>2072</v>
       </c>
@@ -34164,8 +34245,11 @@
       <c r="L1869" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="1870" spans="1:12">
+      <c r="M1869" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:13">
       <c r="A1870" s="2" t="s">
         <v>2073</v>
       </c>
@@ -34176,7 +34260,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="1871" spans="1:12">
+    <row r="1871" spans="1:13">
       <c r="A1871" s="2" t="s">
         <v>2074</v>
       </c>
@@ -34184,7 +34268,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1872" spans="1:12">
+    <row r="1872" spans="1:13">
       <c r="A1872" s="2" t="s">
         <v>2075</v>
       </c>

--- a/groups/old/results.xlsx
+++ b/groups/old/results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7774" uniqueCount="2082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7783" uniqueCount="2082">
   <si>
     <t>№</t>
   </si>
@@ -6844,76 +6844,76 @@
         <v>309</v>
       </c>
       <c r="G3">
-        <v>3919</v>
+        <v>3920</v>
       </c>
       <c r="H3">
-        <v>5016</v>
+        <v>5017</v>
       </c>
       <c r="I3">
-        <v>7701</v>
+        <v>7706</v>
       </c>
       <c r="J3">
-        <v>14306</v>
+        <v>14311</v>
       </c>
       <c r="K3">
-        <v>16581</v>
+        <v>16591</v>
       </c>
       <c r="L3">
-        <v>19985</v>
+        <v>19208</v>
       </c>
       <c r="M3">
-        <v>21608</v>
+        <v>21619</v>
       </c>
       <c r="N3">
-        <v>33852</v>
+        <v>33869</v>
       </c>
       <c r="O3">
-        <v>36255</v>
+        <v>36272</v>
       </c>
       <c r="P3">
-        <v>39715</v>
+        <v>39735</v>
       </c>
       <c r="Q3">
-        <v>41595</v>
+        <v>41615</v>
       </c>
       <c r="R3">
-        <v>47556</v>
+        <v>47577</v>
       </c>
       <c r="S3">
-        <v>48982</v>
+        <v>49003</v>
       </c>
       <c r="T3">
-        <v>49642</v>
+        <v>49664</v>
       </c>
       <c r="U3">
-        <v>55627</v>
+        <v>55652</v>
       </c>
       <c r="V3">
-        <v>66654</v>
+        <v>66688</v>
       </c>
       <c r="W3">
-        <v>73418</v>
+        <v>73459</v>
       </c>
       <c r="X3">
-        <v>77154</v>
+        <v>77197</v>
       </c>
       <c r="Y3">
-        <v>81016</v>
+        <v>81055</v>
       </c>
       <c r="Z3">
-        <v>109914</v>
+        <v>109959</v>
       </c>
       <c r="AA3">
-        <v>130962</v>
+        <v>131024</v>
       </c>
       <c r="AB3">
-        <v>136807</v>
+        <v>136863</v>
       </c>
       <c r="AC3">
-        <v>164808</v>
+        <v>164909</v>
       </c>
       <c r="AD3">
-        <v>193310</v>
+        <v>193451</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -6951,7 +6951,7 @@
         <v>1115</v>
       </c>
       <c r="L4">
-        <v>906</v>
+        <v>947</v>
       </c>
       <c r="M4">
         <v>823</v>
@@ -7013,7 +7013,7 @@
         <v>62</v>
       </c>
       <c r="B5">
-        <v>3940</v>
+        <v>3953</v>
       </c>
       <c r="C5">
         <v>1861</v>
@@ -7043,7 +7043,7 @@
         <v>360</v>
       </c>
       <c r="L5">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="M5">
         <v>210</v>
@@ -7135,7 +7135,7 @@
         <v>82</v>
       </c>
       <c r="L6">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M6">
         <v>52</v>
@@ -7227,7 +7227,7 @@
         <v>11</v>
       </c>
       <c r="L7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M7">
         <v>6</v>
@@ -7289,7 +7289,7 @@
         <v>65</v>
       </c>
       <c r="B8">
-        <v>1112</v>
+        <v>1117</v>
       </c>
       <c r="C8">
         <v>995</v>
@@ -7319,7 +7319,7 @@
         <v>124</v>
       </c>
       <c r="L8">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M8">
         <v>61</v>
@@ -7381,7 +7381,7 @@
         <v>66</v>
       </c>
       <c r="B9">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -7411,7 +7411,7 @@
         <v>18</v>
       </c>
       <c r="L9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M9">
         <v>10</v>
@@ -10032,6 +10032,9 @@
       <c r="K90" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="L90" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="M90" s="3" t="s">
         <v>88</v>
       </c>
@@ -11593,7 +11596,7 @@
         <v>295</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>88</v>
@@ -13219,6 +13222,9 @@
       <c r="K242" s="3" t="s">
         <v>91</v>
       </c>
+      <c r="L242" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="M242" s="3" t="s">
         <v>89</v>
       </c>
@@ -23005,6 +23011,9 @@
       <c r="K827" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="L827" s="4" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="828" spans="1:26">
       <c r="A828" s="2" t="s">
@@ -23118,17 +23127,17 @@
         <v>74</v>
       </c>
     </row>
-    <row r="833" spans="1:11">
+    <row r="833" spans="1:12">
       <c r="A833" s="2" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="834" spans="1:11">
+    <row r="834" spans="1:12">
       <c r="A834" s="2" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="835" spans="1:11">
+    <row r="835" spans="1:12">
       <c r="A835" s="2" t="s">
         <v>1014</v>
       </c>
@@ -23139,7 +23148,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="836" spans="1:11">
+    <row r="836" spans="1:12">
       <c r="A836" s="2" t="s">
         <v>1015</v>
       </c>
@@ -23147,7 +23156,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="837" spans="1:11">
+    <row r="837" spans="1:12">
       <c r="A837" s="2" t="s">
         <v>1016</v>
       </c>
@@ -23158,7 +23167,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="838" spans="1:11">
+    <row r="838" spans="1:12">
       <c r="A838" s="2" t="s">
         <v>1017</v>
       </c>
@@ -23172,7 +23181,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="839" spans="1:11">
+    <row r="839" spans="1:12">
       <c r="A839" s="2" t="s">
         <v>1018</v>
       </c>
@@ -23180,7 +23189,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="840" spans="1:11">
+    <row r="840" spans="1:12">
       <c r="A840" s="2" t="s">
         <v>1019</v>
       </c>
@@ -23197,7 +23206,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="841" spans="1:11">
+    <row r="841" spans="1:12">
       <c r="A841" s="2" t="s">
         <v>1020</v>
       </c>
@@ -23208,7 +23217,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="842" spans="1:11">
+    <row r="842" spans="1:12">
       <c r="A842" s="2" t="s">
         <v>1021</v>
       </c>
@@ -23219,7 +23228,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="843" spans="1:11">
+    <row r="843" spans="1:12">
       <c r="A843" s="2" t="s">
         <v>1022</v>
       </c>
@@ -23233,7 +23242,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="844" spans="1:11">
+    <row r="844" spans="1:12">
       <c r="A844" s="2" t="s">
         <v>1023</v>
       </c>
@@ -23253,7 +23262,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="845" spans="1:11">
+    <row r="845" spans="1:12">
       <c r="A845" s="2" t="s">
         <v>1024</v>
       </c>
@@ -23273,7 +23282,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="846" spans="1:11">
+    <row r="846" spans="1:12">
       <c r="A846" s="2" t="s">
         <v>1025</v>
       </c>
@@ -23290,7 +23299,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="847" spans="1:11">
+    <row r="847" spans="1:12">
       <c r="A847" s="2" t="s">
         <v>1026</v>
       </c>
@@ -23301,7 +23310,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="848" spans="1:11">
+    <row r="848" spans="1:12">
       <c r="A848" s="2" t="s">
         <v>1027</v>
       </c>
@@ -23331,6 +23340,9 @@
       </c>
       <c r="K848" s="3" t="s">
         <v>74</v>
+      </c>
+      <c r="L848" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="849" spans="1:17">
@@ -25194,6 +25206,9 @@
       <c r="K957" s="3" t="s">
         <v>89</v>
       </c>
+      <c r="L957" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="O957" s="3" t="s">
         <v>74</v>
       </c>
@@ -31760,14 +31775,17 @@
       <c r="A1582" s="2" t="s">
         <v>1781</v>
       </c>
-      <c r="B1582" s="4" t="s">
-        <v>94</v>
+      <c r="B1582" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="1583" spans="1:5">
       <c r="A1583" s="2" t="s">
         <v>1782</v>
       </c>
+      <c r="B1583" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="D1583" s="3" t="s">
         <v>74</v>
       </c>
@@ -31910,6 +31928,9 @@
       <c r="A1594" s="2" t="s">
         <v>1793</v>
       </c>
+      <c r="B1594" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="1595" spans="1:19">
       <c r="A1595" s="2" t="s">
@@ -33005,6 +33026,9 @@
       <c r="A1735" s="2" t="s">
         <v>1934</v>
       </c>
+      <c r="B1735" s="3" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="1736" spans="1:11">
       <c r="A1736" s="2" t="s">
@@ -33544,6 +33568,9 @@
     <row r="1789" spans="1:23">
       <c r="A1789" s="2" t="s">
         <v>1988</v>
+      </c>
+      <c r="B1789" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="1790" spans="1:23">

--- a/groups/old/results.xlsx
+++ b/groups/old/results.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$AD$1878</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$AD$1882</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7783" uniqueCount="2082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7795" uniqueCount="2086">
   <si>
     <t>№</t>
   </si>
@@ -6263,6 +6263,18 @@
   </si>
   <si>
     <t>1869</t>
+  </si>
+  <si>
+    <t>1870</t>
+  </si>
+  <si>
+    <t>1871</t>
+  </si>
+  <si>
+    <t>1872</t>
+  </si>
+  <si>
+    <t>1873</t>
   </si>
 </sst>
 </file>
@@ -6628,7 +6640,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD1878"/>
+  <dimension ref="A1:AD1882"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -6829,7 +6841,7 @@
         <v>60</v>
       </c>
       <c r="B3">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C3">
         <v>71</v>
@@ -6844,76 +6856,76 @@
         <v>309</v>
       </c>
       <c r="G3">
-        <v>3920</v>
+        <v>3867</v>
       </c>
       <c r="H3">
         <v>5017</v>
       </c>
       <c r="I3">
-        <v>7706</v>
+        <v>7713</v>
       </c>
       <c r="J3">
-        <v>14311</v>
+        <v>14323</v>
       </c>
       <c r="K3">
-        <v>16591</v>
+        <v>16603</v>
       </c>
       <c r="L3">
-        <v>19208</v>
+        <v>19225</v>
       </c>
       <c r="M3">
-        <v>21619</v>
+        <v>21638</v>
       </c>
       <c r="N3">
-        <v>33869</v>
+        <v>33903</v>
       </c>
       <c r="O3">
-        <v>36272</v>
+        <v>36305</v>
       </c>
       <c r="P3">
-        <v>39735</v>
+        <v>39773</v>
       </c>
       <c r="Q3">
-        <v>41615</v>
+        <v>41652</v>
       </c>
       <c r="R3">
-        <v>47577</v>
+        <v>47619</v>
       </c>
       <c r="S3">
-        <v>49003</v>
+        <v>49047</v>
       </c>
       <c r="T3">
-        <v>49664</v>
+        <v>49714</v>
       </c>
       <c r="U3">
-        <v>55652</v>
+        <v>55711</v>
       </c>
       <c r="V3">
-        <v>66688</v>
+        <v>66749</v>
       </c>
       <c r="W3">
-        <v>73459</v>
+        <v>73535</v>
       </c>
       <c r="X3">
-        <v>77197</v>
+        <v>77282</v>
       </c>
       <c r="Y3">
-        <v>81055</v>
+        <v>81132</v>
       </c>
       <c r="Z3">
-        <v>109959</v>
+        <v>110066</v>
       </c>
       <c r="AA3">
-        <v>131024</v>
+        <v>131174</v>
       </c>
       <c r="AB3">
-        <v>136863</v>
+        <v>137016</v>
       </c>
       <c r="AC3">
-        <v>164909</v>
+        <v>165118</v>
       </c>
       <c r="AD3">
-        <v>193451</v>
+        <v>193740</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -6921,7 +6933,7 @@
         <v>61</v>
       </c>
       <c r="B4">
-        <v>26622</v>
+        <v>26683</v>
       </c>
       <c r="C4">
         <v>25635</v>
@@ -6936,7 +6948,7 @@
         <v>15491</v>
       </c>
       <c r="G4">
-        <v>4009</v>
+        <v>4047</v>
       </c>
       <c r="H4">
         <v>3332</v>
@@ -7013,10 +7025,10 @@
         <v>62</v>
       </c>
       <c r="B5">
-        <v>3953</v>
+        <v>3963</v>
       </c>
       <c r="C5">
-        <v>1861</v>
+        <v>1873</v>
       </c>
       <c r="D5">
         <v>2943</v>
@@ -7028,7 +7040,7 @@
         <v>1282</v>
       </c>
       <c r="G5">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="H5">
         <v>392</v>
@@ -7049,7 +7061,7 @@
         <v>210</v>
       </c>
       <c r="N5">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O5">
         <v>104</v>
@@ -7105,7 +7117,7 @@
         <v>63</v>
       </c>
       <c r="B6">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C6">
         <v>750</v>
@@ -7120,7 +7132,7 @@
         <v>520</v>
       </c>
       <c r="G6">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H6">
         <v>169</v>
@@ -7197,7 +7209,7 @@
         <v>64</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -7289,10 +7301,10 @@
         <v>65</v>
       </c>
       <c r="B8">
-        <v>1117</v>
+        <v>1120</v>
       </c>
       <c r="C8">
-        <v>995</v>
+        <v>999</v>
       </c>
       <c r="D8">
         <v>831</v>
@@ -7304,7 +7316,7 @@
         <v>539</v>
       </c>
       <c r="G8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H8">
         <v>174</v>
@@ -7381,7 +7393,7 @@
         <v>66</v>
       </c>
       <c r="B9">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -7417,7 +7429,7 @@
         <v>10</v>
       </c>
       <c r="N9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O9">
         <v>14</v>
@@ -11797,7 +11809,7 @@
         <v>303</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>81</v>
@@ -13791,6 +13803,9 @@
       <c r="F276" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="G276" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="P276" s="4" t="s">
         <v>100</v>
       </c>
@@ -19132,8 +19147,8 @@
       <c r="A575" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="B575" s="4" t="s">
-        <v>149</v>
+      <c r="B575" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="D575" s="3" t="s">
         <v>74</v>
@@ -26579,6 +26594,9 @@
       <c r="B1093" s="3" t="s">
         <v>81</v>
       </c>
+      <c r="C1093" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="D1093" s="3" t="s">
         <v>81</v>
       </c>
@@ -26593,6 +26611,9 @@
       <c r="B1094" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="C1094" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="D1094" s="3" t="s">
         <v>74</v>
       </c>
@@ -28084,6 +28105,9 @@
       <c r="B1187" s="3" t="s">
         <v>89</v>
       </c>
+      <c r="C1187" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="D1187" s="3" t="s">
         <v>81</v>
       </c>
@@ -28161,6 +28185,9 @@
       <c r="A1191" s="2" t="s">
         <v>1383</v>
       </c>
+      <c r="C1191" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="D1191" s="4" t="s">
         <v>149</v>
       </c>
@@ -29320,7 +29347,7 @@
         <v>1487</v>
       </c>
       <c r="B1290" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D1290" s="3" t="s">
         <v>85</v>
@@ -34306,12 +34333,12 @@
         <v>88</v>
       </c>
     </row>
-    <row r="1873" spans="1:3">
+    <row r="1873" spans="1:14">
       <c r="A1873" s="2" t="s">
         <v>2076</v>
       </c>
     </row>
-    <row r="1874" spans="1:3">
+    <row r="1874" spans="1:14">
       <c r="A1874" s="2" t="s">
         <v>2077</v>
       </c>
@@ -34322,12 +34349,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="1875" spans="1:3">
+    <row r="1875" spans="1:14">
       <c r="A1875" s="2" t="s">
         <v>2078</v>
       </c>
     </row>
-    <row r="1876" spans="1:3">
+    <row r="1876" spans="1:14">
       <c r="A1876" s="2" t="s">
         <v>2079</v>
       </c>
@@ -34338,12 +34365,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="1877" spans="1:3">
+    <row r="1877" spans="1:14">
       <c r="A1877" s="2" t="s">
         <v>2080</v>
       </c>
     </row>
-    <row r="1878" spans="1:3">
+    <row r="1878" spans="1:14">
       <c r="A1878" s="2" t="s">
         <v>2081</v>
       </c>
@@ -34354,8 +34381,37 @@
         <v>74</v>
       </c>
     </row>
+    <row r="1879" spans="1:14">
+      <c r="A1879" s="2" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:14">
+      <c r="A1880" s="2" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:14">
+      <c r="A1881" s="2" t="s">
+        <v>2084</v>
+      </c>
+      <c r="B1881" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="N1881" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:14">
+      <c r="A1882" s="2" t="s">
+        <v>2085</v>
+      </c>
+      <c r="B1882" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AD1878"/>
+  <autoFilter ref="A1:AD1882"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
@@ -36255,6 +36311,10 @@
     <hyperlink ref="A1876" r:id="rId1896"/>
     <hyperlink ref="A1877" r:id="rId1897"/>
     <hyperlink ref="A1878" r:id="rId1898"/>
+    <hyperlink ref="A1879" r:id="rId1899"/>
+    <hyperlink ref="A1880" r:id="rId1900"/>
+    <hyperlink ref="A1881" r:id="rId1901"/>
+    <hyperlink ref="A1882" r:id="rId1902"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/groups/old/results.xlsx
+++ b/groups/old/results.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$AD$1882</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Результаты!$A$1:$AD$1885</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7795" uniqueCount="2086">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7819" uniqueCount="2089">
   <si>
     <t>№</t>
   </si>
@@ -6275,6 +6275,15 @@
   </si>
   <si>
     <t>1873</t>
+  </si>
+  <si>
+    <t>1874</t>
+  </si>
+  <si>
+    <t>1875</t>
+  </si>
+  <si>
+    <t>1876</t>
   </si>
 </sst>
 </file>
@@ -6640,7 +6649,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD1882"/>
+  <dimension ref="A1:AD1885"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -6853,79 +6862,79 @@
         <v>87</v>
       </c>
       <c r="F3">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G3">
-        <v>3867</v>
+        <v>3834</v>
       </c>
       <c r="H3">
-        <v>5017</v>
+        <v>5021</v>
       </c>
       <c r="I3">
-        <v>7713</v>
+        <v>7732</v>
       </c>
       <c r="J3">
-        <v>14323</v>
+        <v>14360</v>
       </c>
       <c r="K3">
-        <v>16603</v>
+        <v>16644</v>
       </c>
       <c r="L3">
-        <v>19225</v>
+        <v>19270</v>
       </c>
       <c r="M3">
-        <v>21638</v>
+        <v>21704</v>
       </c>
       <c r="N3">
-        <v>33903</v>
+        <v>30203</v>
       </c>
       <c r="O3">
-        <v>36305</v>
+        <v>36399</v>
       </c>
       <c r="P3">
-        <v>39773</v>
+        <v>39888</v>
       </c>
       <c r="Q3">
-        <v>41652</v>
+        <v>41772</v>
       </c>
       <c r="R3">
-        <v>47619</v>
+        <v>47753</v>
       </c>
       <c r="S3">
-        <v>49047</v>
+        <v>49184</v>
       </c>
       <c r="T3">
-        <v>49714</v>
+        <v>49847</v>
       </c>
       <c r="U3">
-        <v>55711</v>
+        <v>55878</v>
       </c>
       <c r="V3">
-        <v>66749</v>
+        <v>66949</v>
       </c>
       <c r="W3">
-        <v>73535</v>
+        <v>73747</v>
       </c>
       <c r="X3">
-        <v>77282</v>
+        <v>77499</v>
       </c>
       <c r="Y3">
-        <v>81132</v>
+        <v>81364</v>
       </c>
       <c r="Z3">
-        <v>110066</v>
+        <v>110389</v>
       </c>
       <c r="AA3">
-        <v>131174</v>
+        <v>131572</v>
       </c>
       <c r="AB3">
-        <v>137016</v>
+        <v>137446</v>
       </c>
       <c r="AC3">
-        <v>165118</v>
+        <v>165640</v>
       </c>
       <c r="AD3">
-        <v>193740</v>
+        <v>194412</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -6933,10 +6942,10 @@
         <v>61</v>
       </c>
       <c r="B4">
-        <v>26683</v>
+        <v>26693</v>
       </c>
       <c r="C4">
-        <v>25635</v>
+        <v>25645</v>
       </c>
       <c r="D4">
         <v>24099</v>
@@ -6948,7 +6957,7 @@
         <v>15491</v>
       </c>
       <c r="G4">
-        <v>4047</v>
+        <v>4075</v>
       </c>
       <c r="H4">
         <v>3332</v>
@@ -6969,7 +6978,7 @@
         <v>823</v>
       </c>
       <c r="N4">
-        <v>472</v>
+        <v>554</v>
       </c>
       <c r="O4">
         <v>429</v>
@@ -7025,13 +7034,13 @@
         <v>62</v>
       </c>
       <c r="B5">
-        <v>3963</v>
+        <v>3976</v>
       </c>
       <c r="C5">
-        <v>1873</v>
+        <v>1901</v>
       </c>
       <c r="D5">
-        <v>2943</v>
+        <v>2945</v>
       </c>
       <c r="E5">
         <v>2736</v>
@@ -7040,7 +7049,7 @@
         <v>1282</v>
       </c>
       <c r="G5">
-        <v>692</v>
+        <v>704</v>
       </c>
       <c r="H5">
         <v>392</v>
@@ -7061,7 +7070,7 @@
         <v>210</v>
       </c>
       <c r="N5">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="O5">
         <v>104</v>
@@ -7132,7 +7141,7 @@
         <v>520</v>
       </c>
       <c r="G6">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H6">
         <v>169</v>
@@ -7153,7 +7162,7 @@
         <v>52</v>
       </c>
       <c r="N6">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O6">
         <v>27</v>
@@ -7301,13 +7310,13 @@
         <v>65</v>
       </c>
       <c r="B8">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="C8">
-        <v>999</v>
+        <v>1012</v>
       </c>
       <c r="D8">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="E8">
         <v>871</v>
@@ -7316,7 +7325,7 @@
         <v>539</v>
       </c>
       <c r="G8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H8">
         <v>174</v>
@@ -7337,7 +7346,7 @@
         <v>61</v>
       </c>
       <c r="N8">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="O8">
         <v>28</v>
@@ -8194,7 +8203,7 @@
         <v>81</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>74</v>
@@ -11073,7 +11082,7 @@
         <v>74</v>
       </c>
       <c r="N133" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P133" s="3" t="s">
         <v>74</v>
@@ -11093,7 +11102,7 @@
         <v>74</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>74</v>
@@ -11111,7 +11120,7 @@
         <v>74</v>
       </c>
       <c r="N134" s="3" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="P134" s="3" t="s">
         <v>74</v>
@@ -11487,6 +11496,9 @@
       <c r="I150" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="N150" s="4" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="151" spans="1:24">
       <c r="A151" s="2" t="s">
@@ -17542,7 +17554,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="481" spans="1:9">
+    <row r="481" spans="1:14">
       <c r="A481" s="2" t="s">
         <v>649</v>
       </c>
@@ -17553,7 +17565,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="482" spans="1:9">
+    <row r="482" spans="1:14">
       <c r="A482" s="2" t="s">
         <v>650</v>
       </c>
@@ -17573,7 +17585,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="483" spans="1:9">
+    <row r="483" spans="1:14">
       <c r="A483" s="2" t="s">
         <v>651</v>
       </c>
@@ -17587,7 +17599,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="484" spans="1:9">
+    <row r="484" spans="1:14">
       <c r="A484" s="2" t="s">
         <v>652</v>
       </c>
@@ -17607,7 +17619,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="485" spans="1:9">
+    <row r="485" spans="1:14">
       <c r="A485" s="2" t="s">
         <v>653</v>
       </c>
@@ -17627,7 +17639,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="486" spans="1:9">
+    <row r="486" spans="1:14">
       <c r="A486" s="2" t="s">
         <v>654</v>
       </c>
@@ -17647,12 +17659,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="487" spans="1:9">
+    <row r="487" spans="1:14">
       <c r="A487" s="2" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="488" spans="1:9">
+    <row r="488" spans="1:14">
       <c r="A488" s="2" t="s">
         <v>656</v>
       </c>
@@ -17663,7 +17675,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="489" spans="1:9">
+    <row r="489" spans="1:14">
       <c r="A489" s="2" t="s">
         <v>658</v>
       </c>
@@ -17673,8 +17685,11 @@
       <c r="C489" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="490" spans="1:9">
+      <c r="N489" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="490" spans="1:14">
       <c r="A490" s="2" t="s">
         <v>659</v>
       </c>
@@ -17688,7 +17703,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="491" spans="1:9">
+    <row r="491" spans="1:14">
       <c r="A491" s="2" t="s">
         <v>660</v>
       </c>
@@ -17708,7 +17723,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="492" spans="1:9">
+    <row r="492" spans="1:14">
       <c r="A492" s="2" t="s">
         <v>661</v>
       </c>
@@ -17722,12 +17737,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="493" spans="1:9">
+    <row r="493" spans="1:14">
       <c r="A493" s="2" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="494" spans="1:9">
+    <row r="494" spans="1:14">
       <c r="A494" s="2" t="s">
         <v>663</v>
       </c>
@@ -17744,7 +17759,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="495" spans="1:9">
+    <row r="495" spans="1:14">
       <c r="A495" s="2" t="s">
         <v>664</v>
       </c>
@@ -17758,7 +17773,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="496" spans="1:9">
+    <row r="496" spans="1:14">
       <c r="A496" s="2" t="s">
         <v>665</v>
       </c>
@@ -21347,6 +21362,9 @@
       <c r="F721" s="4" t="s">
         <v>204</v>
       </c>
+      <c r="G721" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="N721" s="3" t="s">
         <v>89</v>
       </c>
@@ -23807,8 +23825,8 @@
       <c r="F880" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="N880" s="4" t="s">
-        <v>100</v>
+      <c r="N880" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="P880" s="4" t="s">
         <v>149</v>
@@ -28438,6 +28456,9 @@
       <c r="B1211" s="3" t="s">
         <v>81</v>
       </c>
+      <c r="C1211" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="D1211" s="4" t="s">
         <v>100</v>
       </c>
@@ -28455,6 +28476,9 @@
       <c r="B1212" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="C1212" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="E1212" s="3" t="s">
         <v>74</v>
       </c>
@@ -28469,6 +28493,9 @@
       <c r="B1213" s="3" t="s">
         <v>89</v>
       </c>
+      <c r="C1213" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="D1213" s="3" t="s">
         <v>74</v>
       </c>
@@ -28486,6 +28513,9 @@
       <c r="B1214" s="3" t="s">
         <v>89</v>
       </c>
+      <c r="C1214" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="D1214" s="3" t="s">
         <v>74</v>
       </c>
@@ -29907,6 +29937,9 @@
       <c r="B1365" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="C1365" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="D1365" s="3" t="s">
         <v>74</v>
       </c>
@@ -29924,6 +29957,9 @@
       <c r="B1366" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="C1366" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="D1366" s="3" t="s">
         <v>74</v>
       </c>
@@ -29941,6 +29977,9 @@
       <c r="B1367" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="C1367" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="D1367" s="3" t="s">
         <v>74</v>
       </c>
@@ -29958,6 +29997,9 @@
       <c r="B1368" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="C1368" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="E1368" s="3" t="s">
         <v>89</v>
       </c>
@@ -31320,6 +31362,9 @@
       <c r="A1506" s="2" t="s">
         <v>1705</v>
       </c>
+      <c r="B1506" s="3" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="1507" spans="1:5">
       <c r="A1507" s="2" t="s">
@@ -32595,6 +32640,9 @@
       <c r="A1680" s="2" t="s">
         <v>1879</v>
       </c>
+      <c r="B1680" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="1681" spans="1:14">
       <c r="A1681" s="2" t="s">
@@ -32651,6 +32699,9 @@
       <c r="A1687" s="2" t="s">
         <v>1886</v>
       </c>
+      <c r="B1687" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="1688" spans="1:14">
       <c r="A1688" s="2" t="s">
@@ -33264,6 +33315,9 @@
       <c r="B1755" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="D1755" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="E1755" s="4" t="s">
         <v>111</v>
       </c>
@@ -33275,6 +33329,9 @@
       <c r="A1756" s="2" t="s">
         <v>1955</v>
       </c>
+      <c r="B1756" s="3" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="1757" spans="1:19">
       <c r="A1757" s="2" t="s">
@@ -34390,6 +34447,9 @@
       <c r="A1880" s="2" t="s">
         <v>2083</v>
       </c>
+      <c r="C1880" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="1881" spans="1:14">
       <c r="A1881" s="2" t="s">
@@ -34398,6 +34458,9 @@
       <c r="B1881" s="3" t="s">
         <v>79</v>
       </c>
+      <c r="C1881" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="N1881" s="4" t="s">
         <v>100</v>
       </c>
@@ -34407,11 +34470,35 @@
         <v>2085</v>
       </c>
       <c r="B1882" s="3" t="s">
-        <v>79</v>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:14">
+      <c r="A1883" s="2" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C1883" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:14">
+      <c r="A1884" s="2" t="s">
+        <v>2087</v>
+      </c>
+      <c r="C1884" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:14">
+      <c r="A1885" s="2" t="s">
+        <v>2088</v>
+      </c>
+      <c r="C1885" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AD1882"/>
+  <autoFilter ref="A1:AD1885"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="C2" r:id="rId2"/>
@@ -36315,6 +36402,9 @@
     <hyperlink ref="A1880" r:id="rId1900"/>
     <hyperlink ref="A1881" r:id="rId1901"/>
     <hyperlink ref="A1882" r:id="rId1902"/>
+    <hyperlink ref="A1883" r:id="rId1903"/>
+    <hyperlink ref="A1884" r:id="rId1904"/>
+    <hyperlink ref="A1885" r:id="rId1905"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/groups/old/results.xlsx
+++ b/groups/old/results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7819" uniqueCount="2089">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7838" uniqueCount="2089">
   <si>
     <t>№</t>
   </si>
@@ -6850,7 +6850,7 @@
         <v>60</v>
       </c>
       <c r="B3">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3">
         <v>71</v>
@@ -6859,82 +6859,82 @@
         <v>83</v>
       </c>
       <c r="E3">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F3">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G3">
-        <v>3834</v>
+        <v>3833</v>
       </c>
       <c r="H3">
-        <v>5021</v>
+        <v>5032</v>
       </c>
       <c r="I3">
-        <v>7732</v>
+        <v>7780</v>
       </c>
       <c r="J3">
-        <v>14360</v>
+        <v>14409</v>
       </c>
       <c r="K3">
-        <v>16644</v>
+        <v>16831</v>
       </c>
       <c r="L3">
-        <v>19270</v>
+        <v>19339</v>
       </c>
       <c r="M3">
-        <v>21704</v>
+        <v>21777</v>
       </c>
       <c r="N3">
-        <v>30203</v>
+        <v>30290</v>
       </c>
       <c r="O3">
-        <v>36399</v>
+        <v>36514</v>
       </c>
       <c r="P3">
-        <v>39888</v>
+        <v>39997</v>
       </c>
       <c r="Q3">
-        <v>41772</v>
+        <v>41897</v>
       </c>
       <c r="R3">
-        <v>47753</v>
+        <v>47906</v>
       </c>
       <c r="S3">
-        <v>49184</v>
+        <v>49326</v>
       </c>
       <c r="T3">
-        <v>49847</v>
+        <v>49997</v>
       </c>
       <c r="U3">
-        <v>55878</v>
+        <v>56072</v>
       </c>
       <c r="V3">
-        <v>66949</v>
+        <v>67198</v>
       </c>
       <c r="W3">
-        <v>73747</v>
+        <v>74027</v>
       </c>
       <c r="X3">
-        <v>77499</v>
+        <v>77802</v>
       </c>
       <c r="Y3">
-        <v>81364</v>
+        <v>85557</v>
       </c>
       <c r="Z3">
-        <v>110389</v>
+        <v>110872</v>
       </c>
       <c r="AA3">
-        <v>131572</v>
+        <v>132309</v>
       </c>
       <c r="AB3">
-        <v>137446</v>
+        <v>138222</v>
       </c>
       <c r="AC3">
-        <v>165640</v>
+        <v>166668</v>
       </c>
       <c r="AD3">
-        <v>194412</v>
+        <v>195684</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -6942,19 +6942,19 @@
         <v>61</v>
       </c>
       <c r="B4">
-        <v>26693</v>
+        <v>26798</v>
       </c>
       <c r="C4">
-        <v>25645</v>
+        <v>25635</v>
       </c>
       <c r="D4">
-        <v>24099</v>
+        <v>24089</v>
       </c>
       <c r="E4">
-        <v>23693</v>
+        <v>23683</v>
       </c>
       <c r="F4">
-        <v>15491</v>
+        <v>15481</v>
       </c>
       <c r="G4">
         <v>4075</v>
@@ -6963,13 +6963,13 @@
         <v>3332</v>
       </c>
       <c r="I4">
-        <v>2370</v>
+        <v>2360</v>
       </c>
       <c r="J4">
         <v>1303</v>
       </c>
       <c r="K4">
-        <v>1115</v>
+        <v>1105</v>
       </c>
       <c r="L4">
         <v>947</v>
@@ -7011,7 +7011,7 @@
         <v>113</v>
       </c>
       <c r="Y4">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="Z4">
         <v>47</v>
@@ -7034,7 +7034,7 @@
         <v>62</v>
       </c>
       <c r="B5">
-        <v>3976</v>
+        <v>4012</v>
       </c>
       <c r="C5">
         <v>1901</v>
@@ -7070,7 +7070,7 @@
         <v>210</v>
       </c>
       <c r="N5">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="O5">
         <v>104</v>
@@ -7126,7 +7126,7 @@
         <v>63</v>
       </c>
       <c r="B6">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="C6">
         <v>750</v>
@@ -7310,7 +7310,7 @@
         <v>65</v>
       </c>
       <c r="B8">
-        <v>1124</v>
+        <v>1137</v>
       </c>
       <c r="C8">
         <v>1012</v>
@@ -7346,7 +7346,7 @@
         <v>61</v>
       </c>
       <c r="N8">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="O8">
         <v>28</v>
@@ -7438,7 +7438,7 @@
         <v>10</v>
       </c>
       <c r="N9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O9">
         <v>14</v>
@@ -15832,6 +15832,9 @@
       <c r="A371" s="2" t="s">
         <v>531</v>
       </c>
+      <c r="B371" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="D371" s="3" t="s">
         <v>164</v>
       </c>
@@ -21246,6 +21249,9 @@
       <c r="A714" s="2" t="s">
         <v>889</v>
       </c>
+      <c r="B714" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="D714" s="3" t="s">
         <v>74</v>
       </c>
@@ -26121,6 +26127,9 @@
       <c r="A1032" s="2" t="s">
         <v>1219</v>
       </c>
+      <c r="B1032" s="3" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="1033" spans="1:5">
       <c r="A1033" s="2" t="s">
@@ -26418,37 +26427,37 @@
         <v>149</v>
       </c>
     </row>
-    <row r="1073" spans="1:9">
+    <row r="1073" spans="1:14">
       <c r="A1073" s="2" t="s">
         <v>1260</v>
       </c>
     </row>
-    <row r="1074" spans="1:9">
+    <row r="1074" spans="1:14">
       <c r="A1074" s="2" t="s">
         <v>1261</v>
       </c>
     </row>
-    <row r="1075" spans="1:9">
+    <row r="1075" spans="1:14">
       <c r="A1075" s="2" t="s">
         <v>1262</v>
       </c>
     </row>
-    <row r="1076" spans="1:9">
+    <row r="1076" spans="1:14">
       <c r="A1076" s="2" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="1077" spans="1:9">
+    <row r="1077" spans="1:14">
       <c r="A1077" s="2" t="s">
         <v>1264</v>
       </c>
     </row>
-    <row r="1078" spans="1:9">
+    <row r="1078" spans="1:14">
       <c r="A1078" s="2" t="s">
         <v>1265</v>
       </c>
     </row>
-    <row r="1079" spans="1:9">
+    <row r="1079" spans="1:14">
       <c r="A1079" s="2" t="s">
         <v>1266</v>
       </c>
@@ -26456,7 +26465,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1080" spans="1:9">
+    <row r="1080" spans="1:14">
       <c r="A1080" s="2" t="s">
         <v>1267</v>
       </c>
@@ -26467,7 +26476,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1081" spans="1:9">
+    <row r="1081" spans="1:14">
       <c r="A1081" s="2" t="s">
         <v>1268</v>
       </c>
@@ -26483,8 +26492,11 @@
       <c r="I1081" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="1082" spans="1:9">
+      <c r="N1081" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:14">
       <c r="A1082" s="2" t="s">
         <v>1269</v>
       </c>
@@ -26492,7 +26504,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1083" spans="1:9">
+    <row r="1083" spans="1:14">
       <c r="A1083" s="2" t="s">
         <v>1270</v>
       </c>
@@ -26500,7 +26512,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="1084" spans="1:9">
+    <row r="1084" spans="1:14">
       <c r="A1084" s="2" t="s">
         <v>1271</v>
       </c>
@@ -26514,22 +26526,22 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1085" spans="1:9">
+    <row r="1085" spans="1:14">
       <c r="A1085" s="2" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="1086" spans="1:9">
+    <row r="1086" spans="1:14">
       <c r="A1086" s="2" t="s">
         <v>1273</v>
       </c>
     </row>
-    <row r="1087" spans="1:9">
+    <row r="1087" spans="1:14">
       <c r="A1087" s="2" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="1088" spans="1:9">
+    <row r="1088" spans="1:14">
       <c r="A1088" s="2" t="s">
         <v>1275</v>
       </c>
@@ -27977,21 +27989,33 @@
       <c r="A1171" s="2" t="s">
         <v>1363</v>
       </c>
+      <c r="B1171" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="1172" spans="1:9">
       <c r="A1172" s="2" t="s">
         <v>1364</v>
       </c>
+      <c r="B1172" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="1173" spans="1:9">
       <c r="A1173" s="2" t="s">
         <v>1365</v>
       </c>
+      <c r="B1173" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="1174" spans="1:9">
       <c r="A1174" s="2" t="s">
         <v>1366</v>
       </c>
+      <c r="B1174" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="E1174" s="3" t="s">
         <v>1085</v>
       </c>
@@ -28000,6 +28024,9 @@
       <c r="A1175" s="2" t="s">
         <v>1367</v>
       </c>
+      <c r="B1175" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="1176" spans="1:9">
       <c r="A1176" s="2" t="s">
@@ -28033,11 +28060,17 @@
       <c r="A1178" s="2" t="s">
         <v>1370</v>
       </c>
+      <c r="B1178" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="1179" spans="1:9">
       <c r="A1179" s="2" t="s">
         <v>1371</v>
       </c>
+      <c r="B1179" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="1180" spans="1:9">
       <c r="A1180" s="2" t="s">
@@ -28342,17 +28375,17 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="1201" spans="1:11">
+    <row r="1201" spans="1:14">
       <c r="A1201" s="2" t="s">
         <v>1397</v>
       </c>
     </row>
-    <row r="1202" spans="1:11">
+    <row r="1202" spans="1:14">
       <c r="A1202" s="2" t="s">
         <v>1398</v>
       </c>
     </row>
-    <row r="1203" spans="1:11">
+    <row r="1203" spans="1:14">
       <c r="A1203" s="2" t="s">
         <v>1399</v>
       </c>
@@ -28363,7 +28396,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="1204" spans="1:11">
+    <row r="1204" spans="1:14">
       <c r="A1204" s="2" t="s">
         <v>1400</v>
       </c>
@@ -28371,12 +28404,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1205" spans="1:11">
+    <row r="1205" spans="1:14">
       <c r="A1205" s="2" t="s">
         <v>1401</v>
       </c>
     </row>
-    <row r="1206" spans="1:11">
+    <row r="1206" spans="1:14">
       <c r="A1206" s="2" t="s">
         <v>1402</v>
       </c>
@@ -28387,7 +28420,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="1207" spans="1:11">
+    <row r="1207" spans="1:14">
       <c r="A1207" s="2" t="s">
         <v>1404</v>
       </c>
@@ -28407,12 +28440,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="1208" spans="1:11">
+    <row r="1208" spans="1:14">
       <c r="A1208" s="2" t="s">
         <v>1405</v>
       </c>
     </row>
-    <row r="1209" spans="1:11">
+    <row r="1209" spans="1:14">
       <c r="A1209" s="2" t="s">
         <v>1406</v>
       </c>
@@ -28429,7 +28462,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="1210" spans="1:11">
+    <row r="1210" spans="1:14">
       <c r="A1210" s="2" t="s">
         <v>1407</v>
       </c>
@@ -28448,8 +28481,11 @@
       <c r="I1210" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="1211" spans="1:11">
+      <c r="N1210" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:14">
       <c r="A1211" s="2" t="s">
         <v>1408</v>
       </c>
@@ -28468,8 +28504,11 @@
       <c r="I1211" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="1212" spans="1:11">
+      <c r="N1211" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:14">
       <c r="A1212" s="2" t="s">
         <v>1409</v>
       </c>
@@ -28486,7 +28525,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1213" spans="1:11">
+    <row r="1213" spans="1:14">
       <c r="A1213" s="2" t="s">
         <v>1410</v>
       </c>
@@ -28506,7 +28545,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1214" spans="1:11">
+    <row r="1214" spans="1:14">
       <c r="A1214" s="2" t="s">
         <v>1411</v>
       </c>
@@ -28526,7 +28565,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1215" spans="1:11">
+    <row r="1215" spans="1:14">
       <c r="A1215" s="2" t="s">
         <v>1412</v>
       </c>
@@ -28534,7 +28573,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1216" spans="1:11">
+    <row r="1216" spans="1:14">
       <c r="A1216" s="2" t="s">
         <v>1413</v>
       </c>
@@ -29306,6 +29345,9 @@
       <c r="A1282" s="2" t="s">
         <v>1479</v>
       </c>
+      <c r="B1282" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="D1282" s="3" t="s">
         <v>81</v>
       </c>
@@ -29376,8 +29418,8 @@
       <c r="A1290" s="2" t="s">
         <v>1487</v>
       </c>
-      <c r="B1290" s="4" t="s">
-        <v>94</v>
+      <c r="B1290" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="D1290" s="3" t="s">
         <v>85</v>
@@ -33330,7 +33372,7 @@
         <v>1955</v>
       </c>
       <c r="B1756" s="3" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="1757" spans="1:19">
@@ -33678,6 +33720,9 @@
       <c r="M1791" s="3" t="s">
         <v>88</v>
       </c>
+      <c r="N1791" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="T1791" s="4" t="s">
         <v>100</v>
       </c>
@@ -34284,6 +34329,9 @@
       <c r="A1863" s="2" t="s">
         <v>2066</v>
       </c>
+      <c r="B1863" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="C1863" s="3" t="s">
         <v>189</v>
       </c>
@@ -34410,6 +34458,9 @@
       <c r="A1875" s="2" t="s">
         <v>2078</v>
       </c>
+      <c r="B1875" s="4" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="1876" spans="1:14">
       <c r="A1876" s="2" t="s">
@@ -34450,6 +34501,9 @@
       <c r="C1880" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="N1880" s="4" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="1881" spans="1:14">
       <c r="A1881" s="2" t="s">
@@ -34486,6 +34540,9 @@
         <v>2087</v>
       </c>
       <c r="C1884" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1884" s="3" t="s">
         <v>74</v>
       </c>
     </row>

--- a/groups/old/results.xlsx
+++ b/groups/old/results.xlsx
@@ -7003,7 +7003,7 @@
         <v>15640</v>
       </c>
       <c r="L3">
-        <v>18254</v>
+        <v>18255</v>
       </c>
       <c r="M3">
         <v>23798</v>
@@ -7027,10 +7027,10 @@
         <v>52491</v>
       </c>
       <c r="T3">
-        <v>54115</v>
+        <v>54116</v>
       </c>
       <c r="U3">
-        <v>54854</v>
+        <v>54855</v>
       </c>
       <c r="V3">
         <v>61626</v>

--- a/groups/old/results.xlsx
+++ b/groups/old/results.xlsx
@@ -6988,76 +6988,76 @@
         <v>322</v>
       </c>
       <c r="G3">
-        <v>3472</v>
+        <v>3474</v>
       </c>
       <c r="H3">
-        <v>5413</v>
+        <v>5414</v>
       </c>
       <c r="I3">
-        <v>7815</v>
+        <v>7817</v>
       </c>
       <c r="J3">
-        <v>11290</v>
+        <v>11292</v>
       </c>
       <c r="K3">
-        <v>15640</v>
+        <v>15651</v>
       </c>
       <c r="L3">
-        <v>18255</v>
+        <v>18265</v>
       </c>
       <c r="M3">
-        <v>23798</v>
+        <v>23815</v>
       </c>
       <c r="N3">
-        <v>24362</v>
+        <v>24383</v>
       </c>
       <c r="O3">
-        <v>40418</v>
+        <v>40444</v>
       </c>
       <c r="P3">
-        <v>41769</v>
+        <v>41791</v>
       </c>
       <c r="Q3">
-        <v>43748</v>
+        <v>43776</v>
       </c>
       <c r="R3">
-        <v>46326</v>
+        <v>46352</v>
       </c>
       <c r="S3">
-        <v>52491</v>
+        <v>52523</v>
       </c>
       <c r="T3">
-        <v>54116</v>
+        <v>54150</v>
       </c>
       <c r="U3">
-        <v>54855</v>
+        <v>54888</v>
       </c>
       <c r="V3">
-        <v>61626</v>
+        <v>61667</v>
       </c>
       <c r="W3">
-        <v>81679</v>
+        <v>81734</v>
       </c>
       <c r="X3">
-        <v>85863</v>
+        <v>85921</v>
       </c>
       <c r="Y3">
-        <v>94477</v>
+        <v>94532</v>
       </c>
       <c r="Z3">
-        <v>122579</v>
+        <v>122633</v>
       </c>
       <c r="AA3">
-        <v>146324</v>
+        <v>146399</v>
       </c>
       <c r="AB3">
-        <v>152693</v>
+        <v>152773</v>
       </c>
       <c r="AC3">
-        <v>184737</v>
+        <v>184815</v>
       </c>
       <c r="AD3">
-        <v>217152</v>
+        <v>217227</v>
       </c>
     </row>
     <row r="4" spans="1:30">

--- a/groups/old/results.xlsx
+++ b/groups/old/results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8194" uniqueCount="2130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8201" uniqueCount="2131">
   <si>
     <t>№</t>
   </si>
@@ -6389,6 +6389,9 @@
   </si>
   <si>
     <t>1906</t>
+  </si>
+  <si>
+    <t>1+, 27-</t>
   </si>
   <si>
     <t>1907</t>
@@ -6988,76 +6991,76 @@
         <v>322</v>
       </c>
       <c r="G3">
-        <v>3474</v>
+        <v>3479</v>
       </c>
       <c r="H3">
-        <v>5414</v>
+        <v>5416</v>
       </c>
       <c r="I3">
-        <v>7817</v>
+        <v>7820</v>
       </c>
       <c r="J3">
-        <v>11292</v>
+        <v>11304</v>
       </c>
       <c r="K3">
-        <v>15651</v>
+        <v>15680</v>
       </c>
       <c r="L3">
-        <v>18265</v>
+        <v>18301</v>
       </c>
       <c r="M3">
-        <v>23815</v>
+        <v>23865</v>
       </c>
       <c r="N3">
-        <v>24383</v>
+        <v>24435</v>
       </c>
       <c r="O3">
-        <v>40444</v>
+        <v>40545</v>
       </c>
       <c r="P3">
-        <v>41791</v>
+        <v>41889</v>
       </c>
       <c r="Q3">
-        <v>43776</v>
+        <v>43864</v>
       </c>
       <c r="R3">
-        <v>46352</v>
+        <v>46453</v>
       </c>
       <c r="S3">
-        <v>52523</v>
+        <v>52651</v>
       </c>
       <c r="T3">
-        <v>54150</v>
+        <v>54279</v>
       </c>
       <c r="U3">
-        <v>54888</v>
+        <v>55015</v>
       </c>
       <c r="V3">
-        <v>61667</v>
+        <v>61800</v>
       </c>
       <c r="W3">
-        <v>81734</v>
+        <v>81907</v>
       </c>
       <c r="X3">
-        <v>85921</v>
+        <v>86108</v>
       </c>
       <c r="Y3">
-        <v>94532</v>
+        <v>94747</v>
       </c>
       <c r="Z3">
-        <v>122633</v>
+        <v>122842</v>
       </c>
       <c r="AA3">
-        <v>146399</v>
+        <v>146643</v>
       </c>
       <c r="AB3">
-        <v>152773</v>
+        <v>153023</v>
       </c>
       <c r="AC3">
-        <v>184815</v>
+        <v>185068</v>
       </c>
       <c r="AD3">
-        <v>217227</v>
+        <v>217533</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -7157,10 +7160,10 @@
         <v>62</v>
       </c>
       <c r="B5">
-        <v>4550</v>
+        <v>4555</v>
       </c>
       <c r="C5">
-        <v>1969</v>
+        <v>2002</v>
       </c>
       <c r="D5">
         <v>2956</v>
@@ -7433,10 +7436,10 @@
         <v>65</v>
       </c>
       <c r="B8">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="C8">
-        <v>1026</v>
+        <v>1032</v>
       </c>
       <c r="D8">
         <v>831</v>
@@ -26899,7 +26902,7 @@
         <v>1243</v>
       </c>
       <c r="B1050" s="3" t="s">
-        <v>103</v>
+        <v>270</v>
       </c>
       <c r="D1050" s="3" t="s">
         <v>74</v>
@@ -31316,6 +31319,9 @@
       <c r="A1414" s="2" t="s">
         <v>1616</v>
       </c>
+      <c r="B1414" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="1415" spans="1:12">
       <c r="A1415" s="2" t="s">
@@ -35752,11 +35758,17 @@
       <c r="A1913" s="2" t="s">
         <v>2121</v>
       </c>
+      <c r="C1913" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="1914" spans="1:3">
       <c r="A1914" s="2" t="s">
         <v>2122</v>
       </c>
+      <c r="C1914" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="1915" spans="1:3">
       <c r="A1915" s="2" t="s">
@@ -35765,10 +35777,13 @@
       <c r="B1915" s="3" t="s">
         <v>81</v>
       </c>
+      <c r="C1915" s="3" t="s">
+        <v>2124</v>
+      </c>
     </row>
     <row r="1916" spans="1:3">
       <c r="A1916" s="2" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="B1916" s="3" t="s">
         <v>74</v>
@@ -35779,12 +35794,15 @@
     </row>
     <row r="1917" spans="1:3">
       <c r="A1917" s="2" t="s">
-        <v>2125</v>
+        <v>2126</v>
+      </c>
+      <c r="C1917" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="1918" spans="1:3">
       <c r="A1918" s="2" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="B1918" s="3" t="s">
         <v>74</v>
@@ -35795,12 +35813,15 @@
     </row>
     <row r="1919" spans="1:3">
       <c r="A1919" s="2" t="s">
-        <v>2127</v>
+        <v>2128</v>
+      </c>
+      <c r="C1919" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="1920" spans="1:3">
       <c r="A1920" s="2" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="B1920" s="3" t="s">
         <v>81</v>
@@ -35809,11 +35830,14 @@
         <v>74</v>
       </c>
     </row>
-    <row r="1921" spans="1:2">
+    <row r="1921" spans="1:3">
       <c r="A1921" s="2" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
       <c r="B1921" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1921" s="3" t="s">
         <v>74</v>
       </c>
     </row>

--- a/groups/old/results.xlsx
+++ b/groups/old/results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8201" uniqueCount="2131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8218" uniqueCount="2131">
   <si>
     <t>№</t>
   </si>
@@ -6979,7 +6979,7 @@
         <v>51</v>
       </c>
       <c r="C3">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D3">
         <v>89</v>
@@ -6991,76 +6991,76 @@
         <v>322</v>
       </c>
       <c r="G3">
-        <v>3479</v>
+        <v>3481</v>
       </c>
       <c r="H3">
-        <v>5416</v>
+        <v>5419</v>
       </c>
       <c r="I3">
-        <v>7820</v>
+        <v>7824</v>
       </c>
       <c r="J3">
-        <v>11304</v>
+        <v>11311</v>
       </c>
       <c r="K3">
-        <v>15680</v>
+        <v>15684</v>
       </c>
       <c r="L3">
-        <v>18301</v>
+        <v>18315</v>
       </c>
       <c r="M3">
-        <v>23865</v>
+        <v>23876</v>
       </c>
       <c r="N3">
-        <v>24435</v>
+        <v>24445</v>
       </c>
       <c r="O3">
-        <v>40545</v>
+        <v>40573</v>
       </c>
       <c r="P3">
-        <v>41889</v>
+        <v>41918</v>
       </c>
       <c r="Q3">
-        <v>43864</v>
+        <v>43903</v>
       </c>
       <c r="R3">
-        <v>46453</v>
+        <v>46488</v>
       </c>
       <c r="S3">
-        <v>52651</v>
+        <v>52686</v>
       </c>
       <c r="T3">
-        <v>54279</v>
+        <v>54315</v>
       </c>
       <c r="U3">
-        <v>55015</v>
+        <v>55051</v>
       </c>
       <c r="V3">
-        <v>61800</v>
+        <v>61831</v>
       </c>
       <c r="W3">
-        <v>81907</v>
+        <v>81952</v>
       </c>
       <c r="X3">
-        <v>86108</v>
+        <v>86151</v>
       </c>
       <c r="Y3">
-        <v>94747</v>
+        <v>94795</v>
       </c>
       <c r="Z3">
-        <v>122842</v>
+        <v>122915</v>
       </c>
       <c r="AA3">
-        <v>146643</v>
+        <v>146724</v>
       </c>
       <c r="AB3">
-        <v>153023</v>
+        <v>153108</v>
       </c>
       <c r="AC3">
-        <v>185068</v>
+        <v>185159</v>
       </c>
       <c r="AD3">
-        <v>217533</v>
+        <v>217629</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -7071,7 +7071,7 @@
         <v>29426</v>
       </c>
       <c r="C4">
-        <v>25918</v>
+        <v>26090</v>
       </c>
       <c r="D4">
         <v>24086</v>
@@ -7163,7 +7163,7 @@
         <v>4555</v>
       </c>
       <c r="C5">
-        <v>2002</v>
+        <v>2048</v>
       </c>
       <c r="D5">
         <v>2956</v>
@@ -7255,7 +7255,7 @@
         <v>793</v>
       </c>
       <c r="C6">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="D6">
         <v>585</v>
@@ -7439,7 +7439,7 @@
         <v>1293</v>
       </c>
       <c r="C8">
-        <v>1032</v>
+        <v>1051</v>
       </c>
       <c r="D8">
         <v>831</v>
@@ -7531,7 +7531,7 @@
         <v>22</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>45</v>
@@ -12976,6 +12976,9 @@
       <c r="B209" s="3" t="s">
         <v>80</v>
       </c>
+      <c r="C209" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="D209" s="3" t="s">
         <v>89</v>
       </c>
@@ -13217,6 +13220,9 @@
       <c r="B223" s="3" t="s">
         <v>81</v>
       </c>
+      <c r="C223" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="D223" s="3" t="s">
         <v>83</v>
       </c>
@@ -17501,6 +17507,9 @@
       <c r="B457" s="3" t="s">
         <v>79</v>
       </c>
+      <c r="C457" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="D457" s="3" t="s">
         <v>79</v>
       </c>
@@ -27005,8 +27014,8 @@
       <c r="B1063" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C1063" s="4" t="s">
-        <v>93</v>
+      <c r="C1063" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="D1063" s="4" t="s">
         <v>111</v>
@@ -34859,6 +34868,9 @@
       <c r="A1804" s="2" t="s">
         <v>2009</v>
       </c>
+      <c r="C1804" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="1805" spans="1:23">
       <c r="A1805" s="2" t="s">
@@ -35167,6 +35179,9 @@
       <c r="B1844" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="C1844" s="3" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="1845" spans="1:4">
       <c r="A1845" s="2" t="s">
@@ -35175,6 +35190,9 @@
       <c r="B1845" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="C1845" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="1846" spans="1:4">
       <c r="A1846" s="2" t="s">
@@ -35196,6 +35214,9 @@
       <c r="B1848" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="C1848" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="1849" spans="1:4">
       <c r="A1849" s="2" t="s">
@@ -35209,6 +35230,9 @@
       <c r="B1850" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="C1850" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="1851" spans="1:4">
       <c r="A1851" s="2" t="s">
@@ -35586,6 +35610,9 @@
       <c r="B1890" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="C1890" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="N1890" s="3" t="s">
         <v>74</v>
       </c>
@@ -35597,6 +35624,9 @@
       <c r="B1891" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="C1891" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="N1891" s="3" t="s">
         <v>74</v>
       </c>
@@ -35608,6 +35638,9 @@
       <c r="B1892" s="3" t="s">
         <v>113</v>
       </c>
+      <c r="C1892" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="1893" spans="1:14">
       <c r="A1893" s="2" t="s">
@@ -35624,6 +35657,9 @@
       <c r="B1894" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="C1894" s="3" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="1895" spans="1:14">
       <c r="A1895" s="2" t="s">
@@ -35632,6 +35668,9 @@
       <c r="B1895" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="C1895" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="1896" spans="1:14">
       <c r="A1896" s="2" t="s">
@@ -35640,6 +35679,9 @@
       <c r="B1896" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="C1896" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="N1896" s="3" t="s">
         <v>74</v>
       </c>
@@ -35664,6 +35706,9 @@
       <c r="B1899" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="C1899" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="N1899" s="3" t="s">
         <v>74</v>
       </c>
@@ -35718,6 +35763,9 @@
       <c r="B1908" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="C1908" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="1909" spans="1:3">
       <c r="A1909" s="2" t="s">
@@ -35726,6 +35774,9 @@
       <c r="B1909" s="3" t="s">
         <v>114</v>
       </c>
+      <c r="C1909" s="3" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="1910" spans="1:3">
       <c r="A1910" s="2" t="s">
@@ -35788,8 +35839,8 @@
       <c r="B1916" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C1916" s="4" t="s">
-        <v>149</v>
+      <c r="C1916" s="3" t="s">
+        <v>2041</v>
       </c>
     </row>
     <row r="1917" spans="1:3">

--- a/groups/old/results.xlsx
+++ b/groups/old/results.xlsx
@@ -532,6 +532,9 @@
     <t>8+, 18-</t>
   </si>
   <si>
+    <t>4+, 8-</t>
+  </si>
+  <si>
     <t>16+, 20-</t>
   </si>
   <si>
@@ -2396,9 +2399,6 @@
   </si>
   <si>
     <t>607</t>
-  </si>
-  <si>
-    <t>4+, 8-</t>
   </si>
   <si>
     <t>608</t>
@@ -7003,64 +7003,64 @@
         <v>11311</v>
       </c>
       <c r="K3">
-        <v>15684</v>
+        <v>15685</v>
       </c>
       <c r="L3">
         <v>18315</v>
       </c>
       <c r="M3">
-        <v>23876</v>
+        <v>23880</v>
       </c>
       <c r="N3">
-        <v>24445</v>
+        <v>24449</v>
       </c>
       <c r="O3">
-        <v>40573</v>
+        <v>40575</v>
       </c>
       <c r="P3">
-        <v>41918</v>
+        <v>41920</v>
       </c>
       <c r="Q3">
-        <v>43903</v>
+        <v>43906</v>
       </c>
       <c r="R3">
-        <v>46488</v>
+        <v>46491</v>
       </c>
       <c r="S3">
-        <v>52686</v>
+        <v>52688</v>
       </c>
       <c r="T3">
-        <v>54315</v>
+        <v>54316</v>
       </c>
       <c r="U3">
-        <v>55051</v>
+        <v>55053</v>
       </c>
       <c r="V3">
-        <v>61831</v>
+        <v>61836</v>
       </c>
       <c r="W3">
-        <v>81952</v>
+        <v>81958</v>
       </c>
       <c r="X3">
-        <v>86151</v>
+        <v>86158</v>
       </c>
       <c r="Y3">
-        <v>94795</v>
+        <v>94801</v>
       </c>
       <c r="Z3">
-        <v>122915</v>
+        <v>122919</v>
       </c>
       <c r="AA3">
-        <v>146724</v>
+        <v>146728</v>
       </c>
       <c r="AB3">
-        <v>153108</v>
+        <v>153115</v>
       </c>
       <c r="AC3">
-        <v>185159</v>
+        <v>185169</v>
       </c>
       <c r="AD3">
-        <v>217629</v>
+        <v>217636</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -7163,7 +7163,7 @@
         <v>4555</v>
       </c>
       <c r="C5">
-        <v>2048</v>
+        <v>2055</v>
       </c>
       <c r="D5">
         <v>2956</v>
@@ -9161,10 +9161,10 @@
         <v>170</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>114</v>
+        <v>171</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>91</v>
@@ -9176,7 +9176,7 @@
         <v>93</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>89</v>
@@ -9184,7 +9184,7 @@
     </row>
     <row r="51" spans="1:20">
       <c r="A51" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>79</v>
@@ -9207,7 +9207,7 @@
     </row>
     <row r="52" spans="1:20">
       <c r="A52" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>74</v>
@@ -9251,7 +9251,7 @@
     </row>
     <row r="53" spans="1:20">
       <c r="A53" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>83</v>
@@ -9295,7 +9295,7 @@
     </row>
     <row r="54" spans="1:20">
       <c r="A54" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>78</v>
@@ -9324,7 +9324,7 @@
     </row>
     <row r="55" spans="1:20">
       <c r="A55" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>86</v>
@@ -9359,7 +9359,7 @@
     </row>
     <row r="56" spans="1:20">
       <c r="A56" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>86</v>
@@ -9385,7 +9385,7 @@
     </row>
     <row r="57" spans="1:20">
       <c r="A57" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>74</v>
@@ -9394,7 +9394,7 @@
         <v>74</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>78</v>
@@ -9414,7 +9414,7 @@
     </row>
     <row r="58" spans="1:20">
       <c r="A58" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>74</v>
@@ -9434,7 +9434,7 @@
     </row>
     <row r="59" spans="1:20">
       <c r="A59" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>83</v>
@@ -9454,7 +9454,7 @@
     </row>
     <row r="60" spans="1:20">
       <c r="A60" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>83</v>
@@ -9480,7 +9480,7 @@
     </row>
     <row r="61" spans="1:20">
       <c r="A61" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>74</v>
@@ -9504,7 +9504,7 @@
         <v>83</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J61" s="3" t="s">
         <v>97</v>
@@ -9527,7 +9527,7 @@
     </row>
     <row r="62" spans="1:20">
       <c r="A62" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>83</v>
@@ -9553,7 +9553,7 @@
     </row>
     <row r="63" spans="1:20">
       <c r="A63" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>83</v>
@@ -9573,7 +9573,7 @@
     </row>
     <row r="64" spans="1:20">
       <c r="A64" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>110</v>
@@ -9582,7 +9582,7 @@
         <v>80</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>72</v>
@@ -9593,7 +9593,7 @@
     </row>
     <row r="65" spans="1:21">
       <c r="A65" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>74</v>
@@ -9616,7 +9616,7 @@
     </row>
     <row r="66" spans="1:21">
       <c r="A66" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>83</v>
@@ -9633,7 +9633,7 @@
     </row>
     <row r="67" spans="1:21">
       <c r="A67" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>113</v>
@@ -9656,7 +9656,7 @@
     </row>
     <row r="68" spans="1:21">
       <c r="A68" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>74</v>
@@ -9691,7 +9691,7 @@
     </row>
     <row r="69" spans="1:21">
       <c r="A69" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>83</v>
@@ -9711,7 +9711,7 @@
     </row>
     <row r="70" spans="1:21">
       <c r="A70" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>74</v>
@@ -9752,7 +9752,7 @@
     </row>
     <row r="71" spans="1:21">
       <c r="A71" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>83</v>
@@ -9793,7 +9793,7 @@
     </row>
     <row r="72" spans="1:21">
       <c r="A72" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>74</v>
@@ -9822,7 +9822,7 @@
     </row>
     <row r="73" spans="1:21">
       <c r="A73" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>80</v>
@@ -9842,7 +9842,7 @@
     </row>
     <row r="74" spans="1:21">
       <c r="A74" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>74</v>
@@ -9862,7 +9862,7 @@
     </row>
     <row r="75" spans="1:21">
       <c r="A75" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>74</v>
@@ -9897,7 +9897,7 @@
     </row>
     <row r="76" spans="1:21">
       <c r="A76" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>74</v>
@@ -9917,7 +9917,7 @@
     </row>
     <row r="77" spans="1:21">
       <c r="A77" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>80</v>
@@ -9935,18 +9935,18 @@
         <v>83</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H77" s="3" t="s">
         <v>74</v>
       </c>
       <c r="R77" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="78" spans="1:21">
       <c r="A78" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>83</v>
@@ -9969,7 +9969,7 @@
     </row>
     <row r="79" spans="1:21">
       <c r="A79" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>78</v>
@@ -9998,7 +9998,7 @@
     </row>
     <row r="80" spans="1:21">
       <c r="A80" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>72</v>
@@ -10018,7 +10018,7 @@
     </row>
     <row r="81" spans="1:20">
       <c r="A81" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>83</v>
@@ -10038,7 +10038,7 @@
     </row>
     <row r="82" spans="1:20">
       <c r="A82" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>74</v>
@@ -10055,7 +10055,7 @@
     </row>
     <row r="83" spans="1:20">
       <c r="A83" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>89</v>
@@ -10072,7 +10072,7 @@
     </row>
     <row r="84" spans="1:20">
       <c r="A84" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>74</v>
@@ -10098,7 +10098,7 @@
     </row>
     <row r="85" spans="1:20">
       <c r="A85" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>74</v>
@@ -10118,7 +10118,7 @@
     </row>
     <row r="86" spans="1:20">
       <c r="A86" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>72</v>
@@ -10141,7 +10141,7 @@
     </row>
     <row r="87" spans="1:20">
       <c r="A87" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>74</v>
@@ -10161,7 +10161,7 @@
     </row>
     <row r="88" spans="1:20">
       <c r="A88" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>86</v>
@@ -10193,7 +10193,7 @@
     </row>
     <row r="89" spans="1:20">
       <c r="A89" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>89</v>
@@ -10210,7 +10210,7 @@
     </row>
     <row r="90" spans="1:20">
       <c r="A90" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>89</v>
@@ -10254,7 +10254,7 @@
     </row>
     <row r="91" spans="1:20">
       <c r="A91" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>109</v>
@@ -10275,7 +10275,7 @@
         <v>74</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>74</v>
@@ -10283,7 +10283,7 @@
     </row>
     <row r="92" spans="1:20">
       <c r="A92" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>83</v>
@@ -10300,7 +10300,7 @@
     </row>
     <row r="93" spans="1:20">
       <c r="A93" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>89</v>
@@ -10320,7 +10320,7 @@
     </row>
     <row r="94" spans="1:20">
       <c r="A94" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>110</v>
@@ -10329,7 +10329,7 @@
         <v>74</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>148</v>
@@ -10355,7 +10355,7 @@
     </row>
     <row r="95" spans="1:20">
       <c r="A95" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>74</v>
@@ -10396,10 +10396,10 @@
     </row>
     <row r="96" spans="1:20">
       <c r="A96" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>91</v>
@@ -10416,7 +10416,7 @@
     </row>
     <row r="97" spans="1:18">
       <c r="A97" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>80</v>
@@ -10436,7 +10436,7 @@
     </row>
     <row r="98" spans="1:18">
       <c r="A98" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>79</v>
@@ -10451,12 +10451,12 @@
         <v>83</v>
       </c>
       <c r="Q98" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="99" spans="1:18">
       <c r="A99" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>74</v>
@@ -10476,7 +10476,7 @@
     </row>
     <row r="100" spans="1:18">
       <c r="A100" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>83</v>
@@ -10496,7 +10496,7 @@
     </row>
     <row r="101" spans="1:18">
       <c r="A101" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>74</v>
@@ -10543,7 +10543,7 @@
     </row>
     <row r="102" spans="1:18">
       <c r="A102" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>80</v>
@@ -10561,7 +10561,7 @@
         <v>83</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J102" s="4" t="s">
         <v>100</v>
@@ -10569,7 +10569,7 @@
     </row>
     <row r="103" spans="1:18">
       <c r="A103" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>74</v>
@@ -10598,7 +10598,7 @@
     </row>
     <row r="104" spans="1:18">
       <c r="A104" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>74</v>
@@ -10624,7 +10624,7 @@
     </row>
     <row r="105" spans="1:18">
       <c r="A105" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>74</v>
@@ -10650,7 +10650,7 @@
     </row>
     <row r="106" spans="1:18">
       <c r="A106" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>83</v>
@@ -10667,7 +10667,7 @@
     </row>
     <row r="107" spans="1:18">
       <c r="A107" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>78</v>
@@ -10690,7 +10690,7 @@
     </row>
     <row r="108" spans="1:18">
       <c r="A108" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>89</v>
@@ -10710,7 +10710,7 @@
     </row>
     <row r="109" spans="1:18">
       <c r="A109" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>74</v>
@@ -10727,7 +10727,7 @@
     </row>
     <row r="110" spans="1:18">
       <c r="A110" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>74</v>
@@ -10741,7 +10741,7 @@
     </row>
     <row r="111" spans="1:18">
       <c r="A111" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>89</v>
@@ -10764,7 +10764,7 @@
     </row>
     <row r="112" spans="1:18">
       <c r="A112" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>72</v>
@@ -10773,7 +10773,7 @@
         <v>97</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>74</v>
@@ -10793,7 +10793,7 @@
     </row>
     <row r="113" spans="1:29">
       <c r="A113" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>89</v>
@@ -10805,15 +10805,15 @@
         <v>80</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="114" spans="1:29">
       <c r="A114" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>89</v>
@@ -10821,7 +10821,7 @@
     </row>
     <row r="115" spans="1:29">
       <c r="A115" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>74</v>
@@ -10865,7 +10865,7 @@
     </row>
     <row r="116" spans="1:29">
       <c r="A116" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>74</v>
@@ -10885,7 +10885,7 @@
     </row>
     <row r="117" spans="1:29">
       <c r="A117" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>104</v>
@@ -10897,7 +10897,7 @@
         <v>89</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F117" s="3" t="s">
         <v>79</v>
@@ -10909,7 +10909,7 @@
         <v>74</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="J117" s="3" t="s">
         <v>97</v>
@@ -10956,7 +10956,7 @@
     </row>
     <row r="118" spans="1:29">
       <c r="A118" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>74</v>
@@ -10970,7 +10970,7 @@
     </row>
     <row r="119" spans="1:29">
       <c r="A119" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>110</v>
@@ -10978,7 +10978,7 @@
     </row>
     <row r="120" spans="1:29">
       <c r="A120" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>78</v>
@@ -10998,7 +10998,7 @@
     </row>
     <row r="121" spans="1:29">
       <c r="A121" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>92</v>
@@ -11021,10 +11021,10 @@
     </row>
     <row r="122" spans="1:29">
       <c r="A122" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>83</v>
@@ -11038,7 +11038,7 @@
     </row>
     <row r="123" spans="1:29">
       <c r="A123" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>74</v>
@@ -11064,7 +11064,7 @@
     </row>
     <row r="124" spans="1:29">
       <c r="A124" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>79</v>
@@ -11081,10 +11081,10 @@
     </row>
     <row r="125" spans="1:29">
       <c r="A125" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>74</v>
@@ -11098,7 +11098,7 @@
     </row>
     <row r="126" spans="1:29">
       <c r="A126" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>80</v>
@@ -11118,7 +11118,7 @@
     </row>
     <row r="127" spans="1:29">
       <c r="A127" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>74</v>
@@ -11141,7 +11141,7 @@
     </row>
     <row r="128" spans="1:29">
       <c r="A128" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>74</v>
@@ -11170,7 +11170,7 @@
     </row>
     <row r="129" spans="1:22">
       <c r="A129" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>91</v>
@@ -11193,7 +11193,7 @@
     </row>
     <row r="130" spans="1:22">
       <c r="A130" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>74</v>
@@ -11219,7 +11219,7 @@
     </row>
     <row r="131" spans="1:22">
       <c r="A131" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>147</v>
@@ -11242,7 +11242,7 @@
     </row>
     <row r="132" spans="1:22">
       <c r="A132" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>74</v>
@@ -11259,7 +11259,7 @@
     </row>
     <row r="133" spans="1:22">
       <c r="A133" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>142</v>
@@ -11303,7 +11303,7 @@
     </row>
     <row r="134" spans="1:22">
       <c r="A134" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>74</v>
@@ -11341,7 +11341,7 @@
     </row>
     <row r="135" spans="1:22">
       <c r="A135" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>74</v>
@@ -11350,7 +11350,7 @@
         <v>74</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>83</v>
@@ -11373,7 +11373,7 @@
     </row>
     <row r="136" spans="1:22">
       <c r="A136" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>74</v>
@@ -11396,10 +11396,10 @@
     </row>
     <row r="137" spans="1:22">
       <c r="A137" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>74</v>
@@ -11419,7 +11419,7 @@
     </row>
     <row r="138" spans="1:22">
       <c r="A138" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>72</v>
@@ -11442,7 +11442,7 @@
     </row>
     <row r="139" spans="1:22">
       <c r="A139" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>99</v>
@@ -11462,7 +11462,7 @@
     </row>
     <row r="140" spans="1:22">
       <c r="A140" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>78</v>
@@ -11497,7 +11497,7 @@
     </row>
     <row r="141" spans="1:22">
       <c r="A141" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>84</v>
@@ -11517,7 +11517,7 @@
     </row>
     <row r="142" spans="1:22">
       <c r="A142" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>74</v>
@@ -11537,7 +11537,7 @@
     </row>
     <row r="143" spans="1:22">
       <c r="A143" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>89</v>
@@ -11546,7 +11546,7 @@
         <v>74</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E143" s="3" t="s">
         <v>83</v>
@@ -11557,7 +11557,7 @@
     </row>
     <row r="144" spans="1:22">
       <c r="A144" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>99</v>
@@ -11580,7 +11580,7 @@
     </row>
     <row r="145" spans="1:24">
       <c r="A145" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>83</v>
@@ -11600,10 +11600,10 @@
     </row>
     <row r="146" spans="1:24">
       <c r="A146" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>89</v>
@@ -11620,7 +11620,7 @@
     </row>
     <row r="147" spans="1:24">
       <c r="A147" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>72</v>
@@ -11643,10 +11643,10 @@
     </row>
     <row r="148" spans="1:24">
       <c r="A148" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>78</v>
@@ -11658,15 +11658,15 @@
         <v>74</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="149" spans="1:24">
       <c r="A149" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>74</v>
@@ -11683,7 +11683,7 @@
     </row>
     <row r="150" spans="1:24">
       <c r="A150" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>80</v>
@@ -11709,7 +11709,7 @@
     </row>
     <row r="151" spans="1:24">
       <c r="A151" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>74</v>
@@ -11721,7 +11721,7 @@
         <v>74</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F151" s="3" t="s">
         <v>89</v>
@@ -11729,7 +11729,7 @@
     </row>
     <row r="152" spans="1:24">
       <c r="A152" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>114</v>
@@ -11752,7 +11752,7 @@
     </row>
     <row r="153" spans="1:24">
       <c r="A153" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>74</v>
@@ -11761,7 +11761,7 @@
         <v>84</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E153" s="3" t="s">
         <v>74</v>
@@ -11775,7 +11775,7 @@
     </row>
     <row r="154" spans="1:24">
       <c r="A154" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>74</v>
@@ -11801,7 +11801,7 @@
     </row>
     <row r="155" spans="1:24">
       <c r="A155" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>89</v>
@@ -11824,7 +11824,7 @@
     </row>
     <row r="156" spans="1:24">
       <c r="A156" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>128</v>
@@ -11874,16 +11874,16 @@
     </row>
     <row r="157" spans="1:24">
       <c r="A157" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E157" s="3" t="s">
         <v>78</v>
@@ -11921,7 +11921,7 @@
     </row>
     <row r="158" spans="1:24">
       <c r="A158" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>74</v>
@@ -11965,7 +11965,7 @@
     </row>
     <row r="159" spans="1:24">
       <c r="A159" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>74</v>
@@ -11988,7 +11988,7 @@
     </row>
     <row r="160" spans="1:24">
       <c r="A160" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>79</v>
@@ -12011,7 +12011,7 @@
     </row>
     <row r="161" spans="1:19">
       <c r="A161" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>79</v>
@@ -12031,7 +12031,7 @@
     </row>
     <row r="162" spans="1:19">
       <c r="A162" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>82</v>
@@ -12051,7 +12051,7 @@
     </row>
     <row r="163" spans="1:19">
       <c r="A163" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>113</v>
@@ -12063,7 +12063,7 @@
         <v>83</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G163" s="3" t="s">
         <v>74</v>
@@ -12071,15 +12071,15 @@
     </row>
     <row r="164" spans="1:19">
       <c r="A164" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="165" spans="1:19">
       <c r="A165" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>83</v>
@@ -12099,7 +12099,7 @@
     </row>
     <row r="166" spans="1:19">
       <c r="A166" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>74</v>
@@ -12131,7 +12131,7 @@
     </row>
     <row r="167" spans="1:19">
       <c r="A167" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>74</v>
@@ -12148,7 +12148,7 @@
     </row>
     <row r="168" spans="1:19">
       <c r="A168" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>74</v>
@@ -12168,7 +12168,7 @@
     </row>
     <row r="169" spans="1:19">
       <c r="A169" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>80</v>
@@ -12185,7 +12185,7 @@
     </row>
     <row r="170" spans="1:19">
       <c r="A170" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>74</v>
@@ -12202,7 +12202,7 @@
     </row>
     <row r="171" spans="1:19">
       <c r="A171" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>83</v>
@@ -12214,12 +12214,12 @@
         <v>114</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="172" spans="1:19">
       <c r="A172" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>74</v>
@@ -12251,13 +12251,13 @@
     </row>
     <row r="173" spans="1:19">
       <c r="A173" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D173" s="3" t="s">
         <v>74</v>
@@ -12274,7 +12274,7 @@
     </row>
     <row r="174" spans="1:19">
       <c r="A174" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>89</v>
@@ -12297,7 +12297,7 @@
     </row>
     <row r="175" spans="1:19">
       <c r="A175" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>89</v>
@@ -12311,7 +12311,7 @@
     </row>
     <row r="176" spans="1:19">
       <c r="A176" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>74</v>
@@ -12328,7 +12328,7 @@
     </row>
     <row r="177" spans="1:10">
       <c r="A177" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>74</v>
@@ -12351,7 +12351,7 @@
     </row>
     <row r="178" spans="1:10">
       <c r="A178" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>83</v>
@@ -12377,7 +12377,7 @@
     </row>
     <row r="179" spans="1:10">
       <c r="A179" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>74</v>
@@ -12386,7 +12386,7 @@
         <v>74</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E179" s="3" t="s">
         <v>78</v>
@@ -12397,7 +12397,7 @@
     </row>
     <row r="180" spans="1:10">
       <c r="A180" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>89</v>
@@ -12417,7 +12417,7 @@
     </row>
     <row r="181" spans="1:10">
       <c r="A181" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>74</v>
@@ -12440,7 +12440,7 @@
     </row>
     <row r="182" spans="1:10">
       <c r="A182" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>74</v>
@@ -12463,7 +12463,7 @@
     </row>
     <row r="183" spans="1:10">
       <c r="A183" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>80</v>
@@ -12486,7 +12486,7 @@
     </row>
     <row r="184" spans="1:10">
       <c r="A184" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>74</v>
@@ -12500,7 +12500,7 @@
     </row>
     <row r="185" spans="1:10">
       <c r="A185" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>74</v>
@@ -12514,7 +12514,7 @@
     </row>
     <row r="186" spans="1:10">
       <c r="A186" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D186" s="3" t="s">
         <v>89</v>
@@ -12525,7 +12525,7 @@
     </row>
     <row r="187" spans="1:10">
       <c r="A187" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>97</v>
@@ -12548,7 +12548,7 @@
     </row>
     <row r="188" spans="1:10">
       <c r="A188" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>74</v>
@@ -12568,7 +12568,7 @@
     </row>
     <row r="189" spans="1:10">
       <c r="A189" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>74</v>
@@ -12588,7 +12588,7 @@
     </row>
     <row r="190" spans="1:10">
       <c r="A190" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>83</v>
@@ -12602,7 +12602,7 @@
     </row>
     <row r="191" spans="1:10">
       <c r="A191" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>74</v>
@@ -12622,7 +12622,7 @@
     </row>
     <row r="192" spans="1:10">
       <c r="A192" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>89</v>
@@ -12639,7 +12639,7 @@
     </row>
     <row r="193" spans="1:27">
       <c r="A193" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C193" s="3" t="s">
         <v>74</v>
@@ -12651,12 +12651,12 @@
         <v>89</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="194" spans="1:27">
       <c r="A194" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>83</v>
@@ -12679,7 +12679,7 @@
     </row>
     <row r="195" spans="1:27">
       <c r="A195" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>113</v>
@@ -12696,7 +12696,7 @@
     </row>
     <row r="196" spans="1:27">
       <c r="A196" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>74</v>
@@ -12716,7 +12716,7 @@
     </row>
     <row r="197" spans="1:27">
       <c r="A197" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>79</v>
@@ -12733,7 +12733,7 @@
     </row>
     <row r="198" spans="1:27">
       <c r="A198" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>79</v>
@@ -12750,7 +12750,7 @@
     </row>
     <row r="199" spans="1:27">
       <c r="A199" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>74</v>
@@ -12767,7 +12767,7 @@
     </row>
     <row r="200" spans="1:27">
       <c r="A200" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>79</v>
@@ -12784,7 +12784,7 @@
     </row>
     <row r="201" spans="1:27">
       <c r="A201" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>89</v>
@@ -12804,7 +12804,7 @@
     </row>
     <row r="202" spans="1:27">
       <c r="A202" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>83</v>
@@ -12824,7 +12824,7 @@
     </row>
     <row r="203" spans="1:27">
       <c r="A203" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>99</v>
@@ -12841,7 +12841,7 @@
     </row>
     <row r="204" spans="1:27">
       <c r="A204" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>74</v>
@@ -12903,7 +12903,7 @@
     </row>
     <row r="205" spans="1:27">
       <c r="A205" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>74</v>
@@ -12923,7 +12923,7 @@
     </row>
     <row r="206" spans="1:27">
       <c r="A206" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>74</v>
@@ -12943,7 +12943,7 @@
     </row>
     <row r="207" spans="1:27">
       <c r="A207" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>74</v>
@@ -12952,12 +12952,12 @@
         <v>74</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="208" spans="1:27">
       <c r="A208" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>79</v>
@@ -12971,7 +12971,7 @@
     </row>
     <row r="209" spans="1:14">
       <c r="A209" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>80</v>
@@ -12985,7 +12985,7 @@
     </row>
     <row r="210" spans="1:14">
       <c r="A210" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D210" s="3" t="s">
         <v>83</v>
@@ -12993,10 +12993,10 @@
     </row>
     <row r="211" spans="1:14">
       <c r="A211" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>74</v>
@@ -13022,7 +13022,7 @@
     </row>
     <row r="212" spans="1:14">
       <c r="A212" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>83</v>
@@ -13042,7 +13042,7 @@
     </row>
     <row r="213" spans="1:14">
       <c r="A213" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>74</v>
@@ -13059,7 +13059,7 @@
     </row>
     <row r="214" spans="1:14">
       <c r="A214" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>89</v>
@@ -13070,7 +13070,7 @@
     </row>
     <row r="215" spans="1:14">
       <c r="A215" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>74</v>
@@ -13087,7 +13087,7 @@
     </row>
     <row r="216" spans="1:14">
       <c r="A216" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>74</v>
@@ -13107,7 +13107,7 @@
     </row>
     <row r="217" spans="1:14">
       <c r="A217" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>74</v>
@@ -13130,7 +13130,7 @@
     </row>
     <row r="218" spans="1:14">
       <c r="A218" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>74</v>
@@ -13150,7 +13150,7 @@
     </row>
     <row r="219" spans="1:14">
       <c r="A219" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>79</v>
@@ -13162,7 +13162,7 @@
         <v>83</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F219" s="3" t="s">
         <v>113</v>
@@ -13170,7 +13170,7 @@
     </row>
     <row r="220" spans="1:14">
       <c r="A220" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>74</v>
@@ -13190,7 +13190,7 @@
     </row>
     <row r="221" spans="1:14">
       <c r="A221" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D221" s="3" t="s">
         <v>74</v>
@@ -13198,7 +13198,7 @@
     </row>
     <row r="222" spans="1:14">
       <c r="A222" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>74</v>
@@ -13215,7 +13215,7 @@
     </row>
     <row r="223" spans="1:14">
       <c r="A223" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>81</v>
@@ -13232,7 +13232,7 @@
     </row>
     <row r="224" spans="1:14">
       <c r="A224" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>89</v>
@@ -13255,7 +13255,7 @@
     </row>
     <row r="225" spans="1:7">
       <c r="A225" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>74</v>
@@ -13264,7 +13264,7 @@
         <v>74</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E225" s="3" t="s">
         <v>74</v>
@@ -13272,7 +13272,7 @@
     </row>
     <row r="226" spans="1:7">
       <c r="A226" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>113</v>
@@ -13286,7 +13286,7 @@
     </row>
     <row r="227" spans="1:7">
       <c r="A227" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>74</v>
@@ -13294,10 +13294,10 @@
     </row>
     <row r="228" spans="1:7">
       <c r="A228" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E228" s="3" t="s">
         <v>69</v>
@@ -13305,12 +13305,12 @@
     </row>
     <row r="229" spans="1:7">
       <c r="A229" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="230" spans="1:7">
       <c r="A230" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>74</v>
@@ -13324,7 +13324,7 @@
     </row>
     <row r="231" spans="1:7">
       <c r="A231" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>74</v>
@@ -13335,7 +13335,7 @@
     </row>
     <row r="232" spans="1:7">
       <c r="A232" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D232" s="3" t="s">
         <v>80</v>
@@ -13343,10 +13343,10 @@
     </row>
     <row r="233" spans="1:7">
       <c r="A233" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C233" s="3" t="s">
         <v>74</v>
@@ -13355,7 +13355,7 @@
         <v>109</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F233" s="3" t="s">
         <v>86</v>
@@ -13363,7 +13363,7 @@
     </row>
     <row r="234" spans="1:7">
       <c r="A234" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>74</v>
@@ -13383,18 +13383,18 @@
     </row>
     <row r="235" spans="1:7">
       <c r="A235" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="236" spans="1:7">
       <c r="A236" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E236" s="3" t="s">
         <v>89</v>
@@ -13402,7 +13402,7 @@
     </row>
     <row r="237" spans="1:7">
       <c r="A237" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>83</v>
@@ -13413,7 +13413,7 @@
     </row>
     <row r="238" spans="1:7">
       <c r="A238" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D238" s="3" t="s">
         <v>78</v>
@@ -13421,7 +13421,7 @@
     </row>
     <row r="239" spans="1:7">
       <c r="A239" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>74</v>
@@ -13432,7 +13432,7 @@
     </row>
     <row r="240" spans="1:7">
       <c r="A240" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>110</v>
@@ -13455,7 +13455,7 @@
     </row>
     <row r="241" spans="1:20">
       <c r="A241" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D241" s="4" t="s">
         <v>93</v>
@@ -13463,7 +13463,7 @@
     </row>
     <row r="242" spans="1:20">
       <c r="A242" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>80</v>
@@ -13507,7 +13507,7 @@
     </row>
     <row r="243" spans="1:20">
       <c r="A243" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>74</v>
@@ -13527,7 +13527,7 @@
     </row>
     <row r="244" spans="1:20">
       <c r="A244" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>80</v>
@@ -13544,7 +13544,7 @@
     </row>
     <row r="245" spans="1:20">
       <c r="A245" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>164</v>
@@ -13564,7 +13564,7 @@
     </row>
     <row r="246" spans="1:20">
       <c r="A246" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>74</v>
@@ -13578,7 +13578,7 @@
     </row>
     <row r="247" spans="1:20">
       <c r="A247" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>83</v>
@@ -13592,7 +13592,7 @@
     </row>
     <row r="248" spans="1:20">
       <c r="A248" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D248" s="3" t="s">
         <v>83</v>
@@ -13600,12 +13600,12 @@
     </row>
     <row r="249" spans="1:20">
       <c r="A249" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="250" spans="1:20">
       <c r="A250" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>74</v>
@@ -13616,12 +13616,12 @@
     </row>
     <row r="251" spans="1:20">
       <c r="A251" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="252" spans="1:20">
       <c r="A252" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>74</v>
@@ -13635,7 +13635,7 @@
     </row>
     <row r="253" spans="1:20">
       <c r="A253" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>114</v>
@@ -13646,7 +13646,7 @@
     </row>
     <row r="254" spans="1:20">
       <c r="A254" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>74</v>
@@ -13663,7 +13663,7 @@
     </row>
     <row r="255" spans="1:20">
       <c r="A255" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>83</v>
@@ -13686,7 +13686,7 @@
     </row>
     <row r="256" spans="1:20">
       <c r="A256" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>74</v>
@@ -13697,7 +13697,7 @@
     </row>
     <row r="257" spans="1:14">
       <c r="A257" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D257" s="3" t="s">
         <v>74</v>
@@ -13708,7 +13708,7 @@
     </row>
     <row r="258" spans="1:14">
       <c r="A258" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>81</v>
@@ -13725,7 +13725,7 @@
     </row>
     <row r="259" spans="1:14">
       <c r="A259" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>78</v>
@@ -13745,15 +13745,15 @@
     </row>
     <row r="260" spans="1:14">
       <c r="A260" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="261" spans="1:14">
       <c r="A261" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>79</v>
@@ -13770,7 +13770,7 @@
     </row>
     <row r="262" spans="1:14">
       <c r="A262" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>83</v>
@@ -13790,7 +13790,7 @@
     </row>
     <row r="263" spans="1:14">
       <c r="A263" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>74</v>
@@ -13816,7 +13816,7 @@
     </row>
     <row r="264" spans="1:14">
       <c r="A264" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>74</v>
@@ -13833,7 +13833,7 @@
     </row>
     <row r="265" spans="1:14">
       <c r="A265" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>89</v>
@@ -13845,29 +13845,29 @@
         <v>89</v>
       </c>
       <c r="L265" s="4" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="266" spans="1:14">
       <c r="A266" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E266" s="3" t="s">
         <v>86</v>
       </c>
       <c r="F266" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="267" spans="1:14">
       <c r="A267" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>78</v>
@@ -13875,7 +13875,7 @@
     </row>
     <row r="268" spans="1:14">
       <c r="A268" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>89</v>
@@ -13889,7 +13889,7 @@
     </row>
     <row r="269" spans="1:14">
       <c r="A269" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>74</v>
@@ -13909,18 +13909,18 @@
     </row>
     <row r="270" spans="1:14">
       <c r="A270" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D270" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E270" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="271" spans="1:14">
       <c r="A271" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>79</v>
@@ -13937,7 +13937,7 @@
     </row>
     <row r="272" spans="1:14">
       <c r="A272" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>89</v>
@@ -13946,7 +13946,7 @@
         <v>74</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E272" s="3" t="s">
         <v>80</v>
@@ -13966,7 +13966,7 @@
     </row>
     <row r="273" spans="1:24">
       <c r="A273" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>74</v>
@@ -13978,7 +13978,7 @@
         <v>83</v>
       </c>
       <c r="E273" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F273" s="3" t="s">
         <v>74</v>
@@ -14007,7 +14007,7 @@
     </row>
     <row r="274" spans="1:24">
       <c r="A274" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>74</v>
@@ -14030,7 +14030,7 @@
     </row>
     <row r="275" spans="1:24">
       <c r="A275" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>79</v>
@@ -14053,7 +14053,7 @@
     </row>
     <row r="276" spans="1:24">
       <c r="A276" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>83</v>
@@ -14079,7 +14079,7 @@
     </row>
     <row r="277" spans="1:24">
       <c r="A277" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>74</v>
@@ -14096,7 +14096,7 @@
     </row>
     <row r="278" spans="1:24">
       <c r="A278" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>74</v>
@@ -14110,7 +14110,7 @@
     </row>
     <row r="279" spans="1:24">
       <c r="A279" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>83</v>
@@ -14127,7 +14127,7 @@
     </row>
     <row r="280" spans="1:24">
       <c r="A280" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>74</v>
@@ -14159,7 +14159,7 @@
     </row>
     <row r="281" spans="1:24">
       <c r="A281" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>147</v>
@@ -14191,7 +14191,7 @@
     </row>
     <row r="282" spans="1:24">
       <c r="A282" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>90</v>
@@ -14214,7 +14214,7 @@
     </row>
     <row r="283" spans="1:24">
       <c r="A283" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>74</v>
@@ -14240,10 +14240,10 @@
     </row>
     <row r="284" spans="1:24">
       <c r="A284" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>83</v>
@@ -14260,7 +14260,7 @@
     </row>
     <row r="285" spans="1:24">
       <c r="A285" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>74</v>
@@ -14295,7 +14295,7 @@
     </row>
     <row r="286" spans="1:24">
       <c r="A286" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>78</v>
@@ -14318,7 +14318,7 @@
     </row>
     <row r="287" spans="1:24">
       <c r="A287" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>74</v>
@@ -14341,10 +14341,10 @@
     </row>
     <row r="288" spans="1:24">
       <c r="A288" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>74</v>
@@ -14358,7 +14358,7 @@
     </row>
     <row r="289" spans="1:17">
       <c r="A289" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>89</v>
@@ -14378,7 +14378,7 @@
     </row>
     <row r="290" spans="1:17">
       <c r="A290" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>74</v>
@@ -14401,7 +14401,7 @@
     </row>
     <row r="291" spans="1:17">
       <c r="A291" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>81</v>
@@ -14421,7 +14421,7 @@
     </row>
     <row r="292" spans="1:17">
       <c r="A292" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>80</v>
@@ -14444,7 +14444,7 @@
     </row>
     <row r="293" spans="1:17">
       <c r="A293" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>74</v>
@@ -14479,7 +14479,7 @@
     </row>
     <row r="294" spans="1:17">
       <c r="A294" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>74</v>
@@ -14502,10 +14502,10 @@
     </row>
     <row r="295" spans="1:17">
       <c r="A295" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>89</v>
@@ -14522,7 +14522,7 @@
     </row>
     <row r="296" spans="1:17">
       <c r="A296" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>74</v>
@@ -14542,7 +14542,7 @@
     </row>
     <row r="297" spans="1:17">
       <c r="A297" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>89</v>
@@ -14550,7 +14550,7 @@
     </row>
     <row r="298" spans="1:17">
       <c r="A298" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B298" s="3" t="s">
         <v>78</v>
@@ -14564,7 +14564,7 @@
     </row>
     <row r="299" spans="1:17">
       <c r="A299" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>74</v>
@@ -14581,7 +14581,7 @@
     </row>
     <row r="300" spans="1:17">
       <c r="A300" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>89</v>
@@ -14601,7 +14601,7 @@
     </row>
     <row r="301" spans="1:17">
       <c r="A301" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>80</v>
@@ -14618,7 +14618,7 @@
     </row>
     <row r="302" spans="1:17">
       <c r="A302" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>74</v>
@@ -14650,7 +14650,7 @@
     </row>
     <row r="303" spans="1:17">
       <c r="A303" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>83</v>
@@ -14676,7 +14676,7 @@
     </row>
     <row r="304" spans="1:17">
       <c r="A304" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>83</v>
@@ -14685,7 +14685,7 @@
         <v>89</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E304" s="3" t="s">
         <v>83</v>
@@ -14696,7 +14696,7 @@
     </row>
     <row r="305" spans="1:19">
       <c r="A305" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>83</v>
@@ -14720,7 +14720,7 @@
         <v>74</v>
       </c>
       <c r="I305" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L305" s="3" t="s">
         <v>74</v>
@@ -14731,7 +14731,7 @@
     </row>
     <row r="306" spans="1:19">
       <c r="A306" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>74</v>
@@ -14763,7 +14763,7 @@
     </row>
     <row r="307" spans="1:19">
       <c r="A307" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>79</v>
@@ -14786,7 +14786,7 @@
     </row>
     <row r="308" spans="1:19">
       <c r="A308" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>99</v>
@@ -14803,7 +14803,7 @@
     </row>
     <row r="309" spans="1:19">
       <c r="A309" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>89</v>
@@ -14814,7 +14814,7 @@
     </row>
     <row r="310" spans="1:19">
       <c r="A310" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>83</v>
@@ -14831,7 +14831,7 @@
     </row>
     <row r="311" spans="1:19">
       <c r="A311" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B311" s="3" t="s">
         <v>98</v>
@@ -14851,7 +14851,7 @@
     </row>
     <row r="312" spans="1:19">
       <c r="A312" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>74</v>
@@ -14868,7 +14868,7 @@
     </row>
     <row r="313" spans="1:19">
       <c r="A313" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>83</v>
@@ -14885,7 +14885,7 @@
     </row>
     <row r="314" spans="1:19">
       <c r="A314" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>74</v>
@@ -14902,7 +14902,7 @@
     </row>
     <row r="315" spans="1:19">
       <c r="A315" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>83</v>
@@ -14916,7 +14916,7 @@
     </row>
     <row r="316" spans="1:19">
       <c r="A316" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C316" s="3" t="s">
         <v>74</v>
@@ -14930,10 +14930,10 @@
     </row>
     <row r="317" spans="1:19">
       <c r="A317" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C317" s="3" t="s">
         <v>74</v>
@@ -14947,7 +14947,7 @@
     </row>
     <row r="318" spans="1:19">
       <c r="A318" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>83</v>
@@ -14964,7 +14964,7 @@
     </row>
     <row r="319" spans="1:19">
       <c r="A319" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>79</v>
@@ -14981,7 +14981,7 @@
     </row>
     <row r="320" spans="1:19">
       <c r="A320" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>80</v>
@@ -15004,7 +15004,7 @@
     </row>
     <row r="321" spans="1:24">
       <c r="A321" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>79</v>
@@ -15066,7 +15066,7 @@
     </row>
     <row r="322" spans="1:24">
       <c r="A322" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>83</v>
@@ -15083,7 +15083,7 @@
     </row>
     <row r="323" spans="1:24">
       <c r="A323" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>74</v>
@@ -15106,7 +15106,7 @@
     </row>
     <row r="324" spans="1:24">
       <c r="A324" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>142</v>
@@ -15132,7 +15132,7 @@
     </row>
     <row r="325" spans="1:24">
       <c r="A325" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>74</v>
@@ -15143,7 +15143,7 @@
     </row>
     <row r="326" spans="1:24">
       <c r="A326" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>113</v>
@@ -15163,7 +15163,7 @@
     </row>
     <row r="327" spans="1:24">
       <c r="A327" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>83</v>
@@ -15183,7 +15183,7 @@
     </row>
     <row r="328" spans="1:24">
       <c r="A328" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>74</v>
@@ -15203,7 +15203,7 @@
     </row>
     <row r="329" spans="1:24">
       <c r="A329" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>83</v>
@@ -15220,7 +15220,7 @@
     </row>
     <row r="330" spans="1:24">
       <c r="A330" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>74</v>
@@ -15240,7 +15240,7 @@
     </row>
     <row r="331" spans="1:24">
       <c r="A331" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>89</v>
@@ -15263,7 +15263,7 @@
     </row>
     <row r="332" spans="1:24">
       <c r="A332" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>99</v>
@@ -15283,7 +15283,7 @@
     </row>
     <row r="333" spans="1:24">
       <c r="A333" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>74</v>
@@ -15333,7 +15333,7 @@
     </row>
     <row r="334" spans="1:24">
       <c r="A334" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>74</v>
@@ -15353,7 +15353,7 @@
     </row>
     <row r="335" spans="1:24">
       <c r="A335" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B335" s="3" t="s">
         <v>83</v>
@@ -15362,7 +15362,7 @@
         <v>74</v>
       </c>
       <c r="D335" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E335" s="3" t="s">
         <v>89</v>
@@ -15373,7 +15373,7 @@
     </row>
     <row r="336" spans="1:24">
       <c r="A336" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>109</v>
@@ -15414,7 +15414,7 @@
     </row>
     <row r="337" spans="1:23">
       <c r="A337" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B337" s="3" t="s">
         <v>74</v>
@@ -15458,7 +15458,7 @@
     </row>
     <row r="338" spans="1:23">
       <c r="A338" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B338" s="3" t="s">
         <v>84</v>
@@ -15470,7 +15470,7 @@
         <v>83</v>
       </c>
       <c r="E338" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F338" s="3" t="s">
         <v>74</v>
@@ -15478,7 +15478,7 @@
     </row>
     <row r="339" spans="1:23">
       <c r="A339" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B339" s="3" t="s">
         <v>74</v>
@@ -15498,7 +15498,7 @@
     </row>
     <row r="340" spans="1:23">
       <c r="A340" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B340" s="3" t="s">
         <v>83</v>
@@ -15536,7 +15536,7 @@
     </row>
     <row r="341" spans="1:23">
       <c r="A341" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B341" s="3" t="s">
         <v>74</v>
@@ -15553,7 +15553,7 @@
     </row>
     <row r="342" spans="1:23">
       <c r="A342" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>83</v>
@@ -15573,7 +15573,7 @@
     </row>
     <row r="343" spans="1:23">
       <c r="A343" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B343" s="3" t="s">
         <v>83</v>
@@ -15590,7 +15590,7 @@
     </row>
     <row r="344" spans="1:23">
       <c r="A344" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>74</v>
@@ -15604,7 +15604,7 @@
     </row>
     <row r="345" spans="1:23">
       <c r="A345" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B345" s="3" t="s">
         <v>74</v>
@@ -15642,13 +15642,13 @@
     </row>
     <row r="346" spans="1:23">
       <c r="A346" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D346" s="3" t="s">
         <v>74</v>
       </c>
       <c r="I346" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M346" s="4" t="s">
         <v>149</v>
@@ -15659,7 +15659,7 @@
     </row>
     <row r="347" spans="1:23">
       <c r="A347" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B347" s="3" t="s">
         <v>74</v>
@@ -15679,7 +15679,7 @@
     </row>
     <row r="348" spans="1:23">
       <c r="A348" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>74</v>
@@ -15696,7 +15696,7 @@
     </row>
     <row r="349" spans="1:23">
       <c r="A349" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>72</v>
@@ -15731,7 +15731,7 @@
     </row>
     <row r="350" spans="1:23">
       <c r="A350" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>74</v>
@@ -15748,7 +15748,7 @@
     </row>
     <row r="351" spans="1:23">
       <c r="A351" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B351" s="3" t="s">
         <v>80</v>
@@ -15762,7 +15762,7 @@
     </row>
     <row r="352" spans="1:23">
       <c r="A352" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>83</v>
@@ -15774,15 +15774,15 @@
         <v>89</v>
       </c>
       <c r="F352" s="3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="353" spans="1:20">
       <c r="A353" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C353" s="3" t="s">
         <v>83</v>
@@ -15799,7 +15799,7 @@
     </row>
     <row r="354" spans="1:20">
       <c r="A354" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>74</v>
@@ -15816,7 +15816,7 @@
     </row>
     <row r="355" spans="1:20">
       <c r="A355" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>86</v>
@@ -15836,7 +15836,7 @@
     </row>
     <row r="356" spans="1:20">
       <c r="A356" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>74</v>
@@ -15859,7 +15859,7 @@
     </row>
     <row r="357" spans="1:20">
       <c r="A357" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B357" s="3" t="s">
         <v>86</v>
@@ -15871,7 +15871,7 @@
         <v>80</v>
       </c>
       <c r="E357" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F357" s="3" t="s">
         <v>86</v>
@@ -15879,7 +15879,7 @@
     </row>
     <row r="358" spans="1:20">
       <c r="A358" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>110</v>
@@ -15902,7 +15902,7 @@
     </row>
     <row r="359" spans="1:20">
       <c r="A359" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>74</v>
@@ -15922,10 +15922,10 @@
     </row>
     <row r="360" spans="1:20">
       <c r="A360" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C360" s="3" t="s">
         <v>74</v>
@@ -15942,7 +15942,7 @@
     </row>
     <row r="361" spans="1:20">
       <c r="A361" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>74</v>
@@ -15951,7 +15951,7 @@
         <v>74</v>
       </c>
       <c r="D361" s="3" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E361" s="3" t="s">
         <v>89</v>
@@ -15962,7 +15962,7 @@
     </row>
     <row r="362" spans="1:20">
       <c r="A362" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>78</v>
@@ -15979,7 +15979,7 @@
     </row>
     <row r="363" spans="1:20">
       <c r="A363" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>86</v>
@@ -15999,7 +15999,7 @@
     </row>
     <row r="364" spans="1:20">
       <c r="A364" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>74</v>
@@ -16019,7 +16019,7 @@
     </row>
     <row r="365" spans="1:20">
       <c r="A365" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B365" s="3" t="s">
         <v>78</v>
@@ -16036,7 +16036,7 @@
     </row>
     <row r="366" spans="1:20">
       <c r="A366" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>74</v>
@@ -16074,7 +16074,7 @@
     </row>
     <row r="367" spans="1:20">
       <c r="A367" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B367" s="3" t="s">
         <v>86</v>
@@ -16091,7 +16091,7 @@
     </row>
     <row r="368" spans="1:20">
       <c r="A368" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>72</v>
@@ -16105,10 +16105,10 @@
     </row>
     <row r="369" spans="1:15">
       <c r="A369" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C369" s="3" t="s">
         <v>77</v>
@@ -16119,7 +16119,7 @@
     </row>
     <row r="370" spans="1:15">
       <c r="A370" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B370" s="3" t="s">
         <v>78</v>
@@ -16136,7 +16136,7 @@
     </row>
     <row r="371" spans="1:15">
       <c r="A371" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B371" s="3" t="s">
         <v>142</v>
@@ -16147,7 +16147,7 @@
     </row>
     <row r="372" spans="1:15">
       <c r="A372" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>74</v>
@@ -16173,7 +16173,7 @@
     </row>
     <row r="373" spans="1:15">
       <c r="A373" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>164</v>
@@ -16190,7 +16190,7 @@
     </row>
     <row r="374" spans="1:15">
       <c r="A374" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>74</v>
@@ -16210,7 +16210,7 @@
     </row>
     <row r="375" spans="1:15">
       <c r="A375" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>114</v>
@@ -16222,7 +16222,7 @@
         <v>77</v>
       </c>
       <c r="E375" s="3" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F375" s="3" t="s">
         <v>83</v>
@@ -16230,7 +16230,7 @@
     </row>
     <row r="376" spans="1:15">
       <c r="A376" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B376" s="3" t="s">
         <v>74</v>
@@ -16253,7 +16253,7 @@
     </row>
     <row r="377" spans="1:15">
       <c r="A377" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B377" s="3" t="s">
         <v>83</v>
@@ -16270,7 +16270,7 @@
     </row>
     <row r="378" spans="1:15">
       <c r="A378" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B378" s="3" t="s">
         <v>74</v>
@@ -16284,7 +16284,7 @@
     </row>
     <row r="379" spans="1:15">
       <c r="A379" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B379" s="3" t="s">
         <v>80</v>
@@ -16313,7 +16313,7 @@
     </row>
     <row r="380" spans="1:15">
       <c r="A380" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B380" s="3" t="s">
         <v>74</v>
@@ -16327,10 +16327,10 @@
     </row>
     <row r="381" spans="1:15">
       <c r="A381" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>74</v>
@@ -16344,7 +16344,7 @@
     </row>
     <row r="382" spans="1:15">
       <c r="A382" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B382" s="3" t="s">
         <v>74</v>
@@ -16358,7 +16358,7 @@
     </row>
     <row r="383" spans="1:15">
       <c r="A383" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B383" s="3" t="s">
         <v>78</v>
@@ -16370,7 +16370,7 @@
         <v>83</v>
       </c>
       <c r="E383" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F383" s="3" t="s">
         <v>74</v>
@@ -16378,7 +16378,7 @@
     </row>
     <row r="384" spans="1:15">
       <c r="A384" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B384" s="3" t="s">
         <v>83</v>
@@ -16392,7 +16392,7 @@
     </row>
     <row r="385" spans="1:17">
       <c r="A385" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>74</v>
@@ -16406,7 +16406,7 @@
     </row>
     <row r="386" spans="1:17">
       <c r="A386" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B386" s="3" t="s">
         <v>80</v>
@@ -16423,7 +16423,7 @@
     </row>
     <row r="387" spans="1:17">
       <c r="A387" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B387" s="3" t="s">
         <v>98</v>
@@ -16437,7 +16437,7 @@
     </row>
     <row r="388" spans="1:17">
       <c r="A388" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D388" s="3" t="s">
         <v>99</v>
@@ -16448,7 +16448,7 @@
     </row>
     <row r="389" spans="1:17">
       <c r="A389" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B389" s="3" t="s">
         <v>89</v>
@@ -16465,7 +16465,7 @@
     </row>
     <row r="390" spans="1:17">
       <c r="A390" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B390" s="3" t="s">
         <v>83</v>
@@ -16482,7 +16482,7 @@
     </row>
     <row r="391" spans="1:17">
       <c r="A391" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B391" s="3" t="s">
         <v>83</v>
@@ -16502,7 +16502,7 @@
     </row>
     <row r="392" spans="1:17">
       <c r="A392" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B392" s="3" t="s">
         <v>89</v>
@@ -16522,7 +16522,7 @@
     </row>
     <row r="393" spans="1:17">
       <c r="A393" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B393" s="3" t="s">
         <v>72</v>
@@ -16545,7 +16545,7 @@
     </row>
     <row r="394" spans="1:17">
       <c r="A394" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B394" s="3" t="s">
         <v>80</v>
@@ -16562,7 +16562,7 @@
     </row>
     <row r="395" spans="1:17">
       <c r="A395" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>74</v>
@@ -16570,7 +16570,7 @@
     </row>
     <row r="396" spans="1:17">
       <c r="A396" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B396" s="3" t="s">
         <v>78</v>
@@ -16596,7 +16596,7 @@
     </row>
     <row r="397" spans="1:17">
       <c r="A397" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B397" s="3" t="s">
         <v>110</v>
@@ -16613,7 +16613,7 @@
     </row>
     <row r="398" spans="1:17">
       <c r="A398" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D398" s="3" t="s">
         <v>78</v>
@@ -16621,7 +16621,7 @@
     </row>
     <row r="399" spans="1:17">
       <c r="A399" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B399" s="3" t="s">
         <v>83</v>
@@ -16638,7 +16638,7 @@
     </row>
     <row r="400" spans="1:17">
       <c r="A400" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B400" s="3" t="s">
         <v>74</v>
@@ -16652,7 +16652,7 @@
     </row>
     <row r="401" spans="1:17">
       <c r="A401" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B401" s="3" t="s">
         <v>83</v>
@@ -16670,12 +16670,12 @@
         <v>74</v>
       </c>
       <c r="I401" s="3" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="402" spans="1:17">
       <c r="A402" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B402" s="3" t="s">
         <v>83</v>
@@ -16686,7 +16686,7 @@
     </row>
     <row r="403" spans="1:17">
       <c r="A403" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B403" s="3" t="s">
         <v>90</v>
@@ -16715,7 +16715,7 @@
     </row>
     <row r="404" spans="1:17">
       <c r="A404" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B404" s="3" t="s">
         <v>74</v>
@@ -16735,7 +16735,7 @@
     </row>
     <row r="405" spans="1:17">
       <c r="A405" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B405" s="3" t="s">
         <v>89</v>
@@ -16758,7 +16758,7 @@
     </row>
     <row r="406" spans="1:17">
       <c r="A406" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B406" s="3" t="s">
         <v>72</v>
@@ -16772,7 +16772,7 @@
     </row>
     <row r="407" spans="1:17">
       <c r="A407" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B407" s="3" t="s">
         <v>78</v>
@@ -16801,7 +16801,7 @@
     </row>
     <row r="408" spans="1:17">
       <c r="A408" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B408" s="3" t="s">
         <v>83</v>
@@ -16810,7 +16810,7 @@
         <v>74</v>
       </c>
       <c r="D408" s="4" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E408" s="3" t="s">
         <v>81</v>
@@ -16818,7 +16818,7 @@
     </row>
     <row r="409" spans="1:17">
       <c r="A409" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B409" s="3" t="s">
         <v>83</v>
@@ -16835,7 +16835,7 @@
     </row>
     <row r="410" spans="1:17">
       <c r="A410" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B410" s="3" t="s">
         <v>74</v>
@@ -16852,15 +16852,15 @@
     </row>
     <row r="411" spans="1:17">
       <c r="A411" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D411" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="412" spans="1:17">
       <c r="A412" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B412" s="3" t="s">
         <v>83</v>
@@ -16871,7 +16871,7 @@
     </row>
     <row r="413" spans="1:17">
       <c r="A413" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D413" s="3" t="s">
         <v>89</v>
@@ -16882,7 +16882,7 @@
     </row>
     <row r="414" spans="1:17">
       <c r="A414" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B414" s="3" t="s">
         <v>82</v>
@@ -16896,7 +16896,7 @@
     </row>
     <row r="415" spans="1:17">
       <c r="A415" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C415" s="3" t="s">
         <v>83</v>
@@ -16904,7 +16904,7 @@
     </row>
     <row r="416" spans="1:17">
       <c r="A416" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B416" s="3" t="s">
         <v>78</v>
@@ -16924,7 +16924,7 @@
     </row>
     <row r="417" spans="1:9">
       <c r="A417" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B417" s="3" t="s">
         <v>91</v>
@@ -16938,7 +16938,7 @@
     </row>
     <row r="418" spans="1:9">
       <c r="A418" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B418" s="3" t="s">
         <v>74</v>
@@ -16961,7 +16961,7 @@
     </row>
     <row r="419" spans="1:9">
       <c r="A419" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D419" s="3" t="s">
         <v>83</v>
@@ -16969,7 +16969,7 @@
     </row>
     <row r="420" spans="1:9">
       <c r="A420" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B420" s="3" t="s">
         <v>83</v>
@@ -16987,12 +16987,12 @@
         <v>74</v>
       </c>
       <c r="G420" s="3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="421" spans="1:9">
       <c r="A421" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B421" s="3" t="s">
         <v>74</v>
@@ -17003,7 +17003,7 @@
     </row>
     <row r="422" spans="1:9">
       <c r="A422" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B422" s="3" t="s">
         <v>97</v>
@@ -17020,7 +17020,7 @@
     </row>
     <row r="423" spans="1:9">
       <c r="A423" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B423" s="3" t="s">
         <v>72</v>
@@ -17043,7 +17043,7 @@
     </row>
     <row r="424" spans="1:9">
       <c r="A424" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B424" s="3" t="s">
         <v>80</v>
@@ -17060,7 +17060,7 @@
     </row>
     <row r="425" spans="1:9">
       <c r="A425" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B425" s="3" t="s">
         <v>78</v>
@@ -17077,7 +17077,7 @@
     </row>
     <row r="426" spans="1:9">
       <c r="A426" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>74</v>
@@ -17091,7 +17091,7 @@
     </row>
     <row r="427" spans="1:9">
       <c r="A427" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>83</v>
@@ -17102,7 +17102,7 @@
     </row>
     <row r="428" spans="1:9">
       <c r="A428" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C428" s="3" t="s">
         <v>83</v>
@@ -17113,7 +17113,7 @@
     </row>
     <row r="429" spans="1:9">
       <c r="A429" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B429" s="3" t="s">
         <v>74</v>
@@ -17130,7 +17130,7 @@
     </row>
     <row r="430" spans="1:9">
       <c r="A430" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B430" s="3" t="s">
         <v>83</v>
@@ -17141,7 +17141,7 @@
     </row>
     <row r="431" spans="1:9">
       <c r="A431" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B431" s="3" t="s">
         <v>79</v>
@@ -17158,7 +17158,7 @@
     </row>
     <row r="432" spans="1:9">
       <c r="A432" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B432" s="3" t="s">
         <v>80</v>
@@ -17173,15 +17173,15 @@
         <v>83</v>
       </c>
       <c r="H432" s="3" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="I432" s="3" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="433" spans="1:9">
       <c r="A433" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B433" s="3" t="s">
         <v>74</v>
@@ -17196,7 +17196,7 @@
         <v>74</v>
       </c>
       <c r="G433" s="4" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H433" s="3" t="s">
         <v>74</v>
@@ -17204,7 +17204,7 @@
     </row>
     <row r="434" spans="1:9">
       <c r="A434" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B434" s="3" t="s">
         <v>74</v>
@@ -17215,7 +17215,7 @@
     </row>
     <row r="435" spans="1:9">
       <c r="A435" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B435" s="3" t="s">
         <v>89</v>
@@ -17232,7 +17232,7 @@
     </row>
     <row r="436" spans="1:9">
       <c r="A436" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B436" s="3" t="s">
         <v>83</v>
@@ -17243,15 +17243,15 @@
     </row>
     <row r="437" spans="1:9">
       <c r="A437" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D437" s="3" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="438" spans="1:9">
       <c r="A438" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B438" s="3" t="s">
         <v>79</v>
@@ -17268,7 +17268,7 @@
     </row>
     <row r="439" spans="1:9">
       <c r="A439" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C439" s="3" t="s">
         <v>113</v>
@@ -17279,7 +17279,7 @@
     </row>
     <row r="440" spans="1:9">
       <c r="A440" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B440" s="3" t="s">
         <v>86</v>
@@ -17296,7 +17296,7 @@
     </row>
     <row r="441" spans="1:9">
       <c r="A441" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B441" s="3" t="s">
         <v>83</v>
@@ -17305,7 +17305,7 @@
         <v>86</v>
       </c>
       <c r="E441" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F441" s="3" t="s">
         <v>80</v>
@@ -17316,7 +17316,7 @@
     </row>
     <row r="442" spans="1:9">
       <c r="A442" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B442" s="3" t="s">
         <v>83</v>
@@ -17333,41 +17333,41 @@
     </row>
     <row r="443" spans="1:9">
       <c r="A443" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="444" spans="1:9">
       <c r="A444" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="445" spans="1:9">
       <c r="A445" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D445" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E445" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="446" spans="1:9">
       <c r="A446" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="447" spans="1:9">
       <c r="A447" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="448" spans="1:9">
       <c r="A448" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B448" s="3" t="s">
         <v>74</v>
@@ -17387,7 +17387,7 @@
     </row>
     <row r="449" spans="1:9">
       <c r="A449" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B449" s="3" t="s">
         <v>83</v>
@@ -17407,7 +17407,7 @@
     </row>
     <row r="450" spans="1:9">
       <c r="A450" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B450" s="3" t="s">
         <v>74</v>
@@ -17421,7 +17421,7 @@
     </row>
     <row r="451" spans="1:9">
       <c r="A451" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C451" s="3" t="s">
         <v>74</v>
@@ -17429,7 +17429,7 @@
     </row>
     <row r="452" spans="1:9">
       <c r="A452" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B452" s="3" t="s">
         <v>74</v>
@@ -17446,7 +17446,7 @@
     </row>
     <row r="453" spans="1:9">
       <c r="A453" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B453" s="3" t="s">
         <v>83</v>
@@ -17457,12 +17457,12 @@
     </row>
     <row r="454" spans="1:9">
       <c r="A454" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="455" spans="1:9">
       <c r="A455" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B455" s="3" t="s">
         <v>74</v>
@@ -17482,7 +17482,7 @@
     </row>
     <row r="456" spans="1:9">
       <c r="A456" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B456" s="3" t="s">
         <v>74</v>
@@ -17502,7 +17502,7 @@
     </row>
     <row r="457" spans="1:9">
       <c r="A457" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B457" s="3" t="s">
         <v>79</v>
@@ -17519,7 +17519,7 @@
     </row>
     <row r="458" spans="1:9">
       <c r="A458" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B458" s="3" t="s">
         <v>83</v>
@@ -17533,7 +17533,7 @@
     </row>
     <row r="459" spans="1:9">
       <c r="A459" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C459" s="3" t="s">
         <v>89</v>
@@ -17550,7 +17550,7 @@
     </row>
     <row r="460" spans="1:9">
       <c r="A460" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="I460" s="4" t="s">
         <v>94</v>
@@ -17558,7 +17558,7 @@
     </row>
     <row r="461" spans="1:9">
       <c r="A461" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B461" s="3" t="s">
         <v>74</v>
@@ -17575,7 +17575,7 @@
     </row>
     <row r="462" spans="1:9">
       <c r="A462" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B462" s="3" t="s">
         <v>89</v>
@@ -17590,12 +17590,12 @@
         <v>74</v>
       </c>
       <c r="I462" s="3" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="463" spans="1:9">
       <c r="A463" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B463" s="3" t="s">
         <v>109</v>
@@ -17606,7 +17606,7 @@
     </row>
     <row r="464" spans="1:9">
       <c r="A464" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="I464" s="4" t="s">
         <v>100</v>
@@ -17614,7 +17614,7 @@
     </row>
     <row r="465" spans="1:20">
       <c r="A465" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B465" s="3" t="s">
         <v>113</v>
@@ -17631,7 +17631,7 @@
     </row>
     <row r="466" spans="1:20">
       <c r="A466" s="2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B466" s="3" t="s">
         <v>74</v>
@@ -17654,7 +17654,7 @@
     </row>
     <row r="467" spans="1:20">
       <c r="A467" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B467" s="4" t="s">
         <v>138</v>
@@ -17665,7 +17665,7 @@
     </row>
     <row r="468" spans="1:20">
       <c r="A468" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B468" s="3" t="s">
         <v>74</v>
@@ -17679,7 +17679,7 @@
     </row>
     <row r="469" spans="1:20">
       <c r="A469" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B469" s="3" t="s">
         <v>74</v>
@@ -17688,7 +17688,7 @@
         <v>78</v>
       </c>
       <c r="E469" s="3" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F469" s="3" t="s">
         <v>79</v>
@@ -17699,7 +17699,7 @@
     </row>
     <row r="470" spans="1:20">
       <c r="A470" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B470" s="3" t="s">
         <v>83</v>
@@ -17725,7 +17725,7 @@
     </row>
     <row r="471" spans="1:20">
       <c r="A471" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B471" s="3" t="s">
         <v>78</v>
@@ -17748,7 +17748,7 @@
     </row>
     <row r="472" spans="1:20">
       <c r="A472" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B472" s="3" t="s">
         <v>74</v>
@@ -17765,7 +17765,7 @@
     </row>
     <row r="473" spans="1:20">
       <c r="A473" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B473" s="3" t="s">
         <v>74</v>
@@ -17776,7 +17776,7 @@
     </row>
     <row r="474" spans="1:20">
       <c r="A474" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B474" s="3" t="s">
         <v>74</v>
@@ -17802,7 +17802,7 @@
     </row>
     <row r="475" spans="1:20">
       <c r="A475" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B475" s="3" t="s">
         <v>79</v>
@@ -17819,7 +17819,7 @@
     </row>
     <row r="476" spans="1:20">
       <c r="A476" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B476" s="3" t="s">
         <v>89</v>
@@ -17833,7 +17833,7 @@
     </row>
     <row r="477" spans="1:20">
       <c r="A477" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B477" s="3" t="s">
         <v>74</v>
@@ -17847,7 +17847,7 @@
     </row>
     <row r="478" spans="1:20">
       <c r="A478" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B478" s="3" t="s">
         <v>79</v>
@@ -17867,7 +17867,7 @@
     </row>
     <row r="479" spans="1:20">
       <c r="A479" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B479" s="3" t="s">
         <v>74</v>
@@ -17884,7 +17884,7 @@
     </row>
     <row r="480" spans="1:20">
       <c r="A480" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B480" s="3" t="s">
         <v>74</v>
@@ -17901,7 +17901,7 @@
     </row>
     <row r="481" spans="1:14">
       <c r="A481" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B481" s="3" t="s">
         <v>74</v>
@@ -17912,7 +17912,7 @@
     </row>
     <row r="482" spans="1:14">
       <c r="A482" s="2" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B482" s="3" t="s">
         <v>83</v>
@@ -17930,12 +17930,12 @@
         <v>116</v>
       </c>
       <c r="J482" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="483" spans="1:14">
       <c r="A483" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B483" s="3" t="s">
         <v>74</v>
@@ -17949,10 +17949,10 @@
     </row>
     <row r="484" spans="1:14">
       <c r="A484" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C484" s="3" t="s">
         <v>74</v>
@@ -17969,7 +17969,7 @@
     </row>
     <row r="485" spans="1:14">
       <c r="A485" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B485" s="3" t="s">
         <v>83</v>
@@ -17989,7 +17989,7 @@
     </row>
     <row r="486" spans="1:14">
       <c r="A486" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B486" s="3" t="s">
         <v>74</v>
@@ -18009,23 +18009,23 @@
     </row>
     <row r="487" spans="1:14">
       <c r="A487" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="488" spans="1:14">
       <c r="A488" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B488" s="3" t="s">
         <v>109</v>
       </c>
       <c r="E488" s="3" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="489" spans="1:14">
       <c r="A489" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B489" s="3" t="s">
         <v>83</v>
@@ -18039,7 +18039,7 @@
     </row>
     <row r="490" spans="1:14">
       <c r="A490" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B490" s="3" t="s">
         <v>74</v>
@@ -18053,7 +18053,7 @@
     </row>
     <row r="491" spans="1:14">
       <c r="A491" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B491" s="3" t="s">
         <v>74</v>
@@ -18076,7 +18076,7 @@
     </row>
     <row r="492" spans="1:14">
       <c r="A492" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B492" s="3" t="s">
         <v>74</v>
@@ -18093,12 +18093,12 @@
     </row>
     <row r="493" spans="1:14">
       <c r="A493" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="494" spans="1:14">
       <c r="A494" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C494" s="3" t="s">
         <v>89</v>
@@ -18115,7 +18115,7 @@
     </row>
     <row r="495" spans="1:14">
       <c r="A495" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B495" s="3" t="s">
         <v>83</v>
@@ -18129,7 +18129,7 @@
     </row>
     <row r="496" spans="1:14">
       <c r="A496" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B496" s="3" t="s">
         <v>74</v>
@@ -18149,7 +18149,7 @@
     </row>
     <row r="497" spans="1:9">
       <c r="A497" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B497" s="3" t="s">
         <v>74</v>
@@ -18163,7 +18163,7 @@
     </row>
     <row r="498" spans="1:9">
       <c r="A498" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C498" s="3" t="s">
         <v>89</v>
@@ -18171,7 +18171,7 @@
     </row>
     <row r="499" spans="1:9">
       <c r="A499" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B499" s="3" t="s">
         <v>89</v>
@@ -18191,7 +18191,7 @@
     </row>
     <row r="500" spans="1:9">
       <c r="A500" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B500" s="3" t="s">
         <v>91</v>
@@ -18217,7 +18217,7 @@
     </row>
     <row r="501" spans="1:9">
       <c r="A501" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C501" s="3" t="s">
         <v>78</v>
@@ -18225,7 +18225,7 @@
     </row>
     <row r="502" spans="1:9">
       <c r="A502" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B502" s="3" t="s">
         <v>74</v>
@@ -18245,7 +18245,7 @@
     </row>
     <row r="503" spans="1:9">
       <c r="A503" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B503" s="3" t="s">
         <v>86</v>
@@ -18257,12 +18257,12 @@
         <v>86</v>
       </c>
       <c r="E503" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="504" spans="1:9">
       <c r="A504" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B504" s="3" t="s">
         <v>74</v>
@@ -18279,10 +18279,10 @@
     </row>
     <row r="505" spans="1:9">
       <c r="A505" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C505" s="3" t="s">
         <v>74</v>
@@ -18308,7 +18308,7 @@
     </row>
     <row r="506" spans="1:9">
       <c r="A506" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B506" s="3" t="s">
         <v>74</v>
@@ -18322,7 +18322,7 @@
     </row>
     <row r="507" spans="1:9">
       <c r="A507" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B507" s="3" t="s">
         <v>74</v>
@@ -18342,7 +18342,7 @@
     </row>
     <row r="508" spans="1:9">
       <c r="A508" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B508" s="3" t="s">
         <v>83</v>
@@ -18365,7 +18365,7 @@
     </row>
     <row r="509" spans="1:9">
       <c r="A509" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B509" s="3" t="s">
         <v>81</v>
@@ -18385,7 +18385,7 @@
     </row>
     <row r="510" spans="1:9">
       <c r="A510" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B510" s="3" t="s">
         <v>83</v>
@@ -18402,7 +18402,7 @@
     </row>
     <row r="511" spans="1:9">
       <c r="A511" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B511" s="3" t="s">
         <v>69</v>
@@ -18416,7 +18416,7 @@
     </row>
     <row r="512" spans="1:9">
       <c r="A512" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D512" s="3" t="s">
         <v>83</v>
@@ -18424,7 +18424,7 @@
     </row>
     <row r="513" spans="1:23">
       <c r="A513" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B513" s="3" t="s">
         <v>80</v>
@@ -18459,7 +18459,7 @@
     </row>
     <row r="514" spans="1:23">
       <c r="A514" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B514" s="3" t="s">
         <v>74</v>
@@ -18479,7 +18479,7 @@
     </row>
     <row r="515" spans="1:23">
       <c r="A515" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B515" s="3" t="s">
         <v>99</v>
@@ -18487,7 +18487,7 @@
     </row>
     <row r="516" spans="1:23">
       <c r="A516" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B516" s="3" t="s">
         <v>89</v>
@@ -18501,7 +18501,7 @@
     </row>
     <row r="517" spans="1:23">
       <c r="A517" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C517" s="3" t="s">
         <v>83</v>
@@ -18509,7 +18509,7 @@
     </row>
     <row r="518" spans="1:23">
       <c r="A518" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B518" s="3" t="s">
         <v>74</v>
@@ -18526,7 +18526,7 @@
     </row>
     <row r="519" spans="1:23">
       <c r="A519" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B519" s="3" t="s">
         <v>147</v>
@@ -18543,7 +18543,7 @@
     </row>
     <row r="520" spans="1:23">
       <c r="A520" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B520" s="3" t="s">
         <v>80</v>
@@ -18572,7 +18572,7 @@
     </row>
     <row r="521" spans="1:23">
       <c r="A521" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="D521" s="3" t="s">
         <v>74</v>
@@ -18580,7 +18580,7 @@
     </row>
     <row r="522" spans="1:23">
       <c r="A522" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B522" s="3" t="s">
         <v>89</v>
@@ -18627,7 +18627,7 @@
     </row>
     <row r="523" spans="1:23">
       <c r="A523" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B523" s="3" t="s">
         <v>74</v>
@@ -18656,7 +18656,7 @@
     </row>
     <row r="524" spans="1:23">
       <c r="A524" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B524" s="3" t="s">
         <v>74</v>
@@ -18676,7 +18676,7 @@
     </row>
     <row r="525" spans="1:23">
       <c r="A525" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B525" s="3" t="s">
         <v>80</v>
@@ -18688,7 +18688,7 @@
         <v>74</v>
       </c>
       <c r="E525" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F525" s="3" t="s">
         <v>83</v>
@@ -18699,7 +18699,7 @@
     </row>
     <row r="526" spans="1:23">
       <c r="A526" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C526" s="3" t="s">
         <v>89</v>
@@ -18707,7 +18707,7 @@
     </row>
     <row r="527" spans="1:23">
       <c r="A527" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B527" s="3" t="s">
         <v>74</v>
@@ -18724,7 +18724,7 @@
     </row>
     <row r="528" spans="1:23">
       <c r="A528" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B528" s="3" t="s">
         <v>74</v>
@@ -18744,7 +18744,7 @@
     </row>
     <row r="529" spans="1:20">
       <c r="A529" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B529" s="3" t="s">
         <v>80</v>
@@ -18761,7 +18761,7 @@
     </row>
     <row r="530" spans="1:20">
       <c r="A530" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B530" s="3" t="s">
         <v>74</v>
@@ -18784,7 +18784,7 @@
     </row>
     <row r="531" spans="1:20">
       <c r="A531" s="2" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B531" s="3" t="s">
         <v>80</v>
@@ -18807,7 +18807,7 @@
     </row>
     <row r="532" spans="1:20">
       <c r="A532" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B532" s="3" t="s">
         <v>74</v>
@@ -18830,7 +18830,7 @@
     </row>
     <row r="533" spans="1:20">
       <c r="A533" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B533" s="3" t="s">
         <v>78</v>
@@ -18841,7 +18841,7 @@
     </row>
     <row r="534" spans="1:20">
       <c r="A534" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B534" s="3" t="s">
         <v>74</v>
@@ -18858,7 +18858,7 @@
     </row>
     <row r="535" spans="1:20">
       <c r="A535" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B535" s="3" t="s">
         <v>109</v>
@@ -18875,7 +18875,7 @@
     </row>
     <row r="536" spans="1:20">
       <c r="A536" s="2" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B536" s="3" t="s">
         <v>74</v>
@@ -18895,7 +18895,7 @@
     </row>
     <row r="537" spans="1:20">
       <c r="A537" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B537" s="3" t="s">
         <v>74</v>
@@ -18921,7 +18921,7 @@
     </row>
     <row r="538" spans="1:20">
       <c r="A538" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B538" s="3" t="s">
         <v>79</v>
@@ -18965,7 +18965,7 @@
     </row>
     <row r="539" spans="1:20">
       <c r="A539" s="2" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B539" s="3" t="s">
         <v>74</v>
@@ -18985,7 +18985,7 @@
     </row>
     <row r="540" spans="1:20">
       <c r="A540" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B540" s="3" t="s">
         <v>83</v>
@@ -18999,7 +18999,7 @@
     </row>
     <row r="541" spans="1:20">
       <c r="A541" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B541" s="3" t="s">
         <v>83</v>
@@ -19010,7 +19010,7 @@
     </row>
     <row r="542" spans="1:20">
       <c r="A542" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B542" s="3" t="s">
         <v>92</v>
@@ -19024,7 +19024,7 @@
     </row>
     <row r="543" spans="1:20">
       <c r="A543" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B543" s="3" t="s">
         <v>74</v>
@@ -19050,7 +19050,7 @@
     </row>
     <row r="544" spans="1:20">
       <c r="A544" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B544" s="3" t="s">
         <v>83</v>
@@ -19070,7 +19070,7 @@
     </row>
     <row r="545" spans="1:25">
       <c r="A545" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B545" s="3" t="s">
         <v>83</v>
@@ -19084,18 +19084,18 @@
     </row>
     <row r="546" spans="1:25">
       <c r="A546" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B546" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D546" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="547" spans="1:25">
       <c r="A547" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B547" s="3" t="s">
         <v>82</v>
@@ -19109,7 +19109,7 @@
     </row>
     <row r="548" spans="1:25">
       <c r="A548" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B548" s="3" t="s">
         <v>113</v>
@@ -19121,7 +19121,7 @@
         <v>110</v>
       </c>
       <c r="E548" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F548" s="3" t="s">
         <v>91</v>
@@ -19153,7 +19153,7 @@
     </row>
     <row r="549" spans="1:25">
       <c r="A549" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C549" s="3" t="s">
         <v>74</v>
@@ -19161,7 +19161,7 @@
     </row>
     <row r="550" spans="1:25">
       <c r="A550" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B550" s="3" t="s">
         <v>74</v>
@@ -19175,7 +19175,7 @@
     </row>
     <row r="551" spans="1:25">
       <c r="A551" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B551" s="3" t="s">
         <v>83</v>
@@ -19201,7 +19201,7 @@
     </row>
     <row r="552" spans="1:25">
       <c r="A552" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B552" s="3" t="s">
         <v>89</v>
@@ -19224,7 +19224,7 @@
     </row>
     <row r="553" spans="1:25">
       <c r="A553" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B553" s="3" t="s">
         <v>74</v>
@@ -19253,7 +19253,7 @@
     </row>
     <row r="554" spans="1:25">
       <c r="A554" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D554" s="4" t="s">
         <v>94</v>
@@ -19261,7 +19261,7 @@
     </row>
     <row r="555" spans="1:25">
       <c r="A555" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C555" s="3" t="s">
         <v>83</v>
@@ -19272,7 +19272,7 @@
     </row>
     <row r="556" spans="1:25">
       <c r="A556" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B556" s="3" t="s">
         <v>91</v>
@@ -19283,7 +19283,7 @@
     </row>
     <row r="557" spans="1:25">
       <c r="A557" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B557" s="3" t="s">
         <v>113</v>
@@ -19297,18 +19297,18 @@
     </row>
     <row r="558" spans="1:25">
       <c r="A558" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B558" s="3" t="s">
         <v>74</v>
       </c>
       <c r="D558" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="559" spans="1:25">
       <c r="A559" s="2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B559" s="3" t="s">
         <v>86</v>
@@ -19346,7 +19346,7 @@
     </row>
     <row r="560" spans="1:25">
       <c r="A560" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B560" s="3" t="s">
         <v>83</v>
@@ -19360,7 +19360,7 @@
     </row>
     <row r="561" spans="1:18">
       <c r="A561" s="2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B561" s="3" t="s">
         <v>89</v>
@@ -19377,7 +19377,7 @@
     </row>
     <row r="562" spans="1:18">
       <c r="A562" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B562" s="3" t="s">
         <v>74</v>
@@ -19391,7 +19391,7 @@
     </row>
     <row r="563" spans="1:18">
       <c r="A563" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B563" s="3" t="s">
         <v>83</v>
@@ -19435,7 +19435,7 @@
     </row>
     <row r="564" spans="1:18">
       <c r="A564" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D564" s="3" t="s">
         <v>83</v>
@@ -19443,7 +19443,7 @@
     </row>
     <row r="565" spans="1:18">
       <c r="A565" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B565" s="3" t="s">
         <v>74</v>
@@ -19457,7 +19457,7 @@
     </row>
     <row r="566" spans="1:18">
       <c r="A566" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C566" s="3" t="s">
         <v>74</v>
@@ -19468,12 +19468,12 @@
     </row>
     <row r="567" spans="1:18">
       <c r="A567" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="568" spans="1:18">
       <c r="A568" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B568" s="3" t="s">
         <v>74</v>
@@ -19487,26 +19487,26 @@
     </row>
     <row r="569" spans="1:18">
       <c r="A569" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="E569" s="4" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="570" spans="1:18">
       <c r="A570" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D570" s="3" t="s">
         <v>78</v>
       </c>
       <c r="I570" s="4" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="571" spans="1:18">
       <c r="A571" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B571" s="3" t="s">
         <v>74</v>
@@ -19523,7 +19523,7 @@
     </row>
     <row r="572" spans="1:18">
       <c r="A572" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D572" s="3" t="s">
         <v>113</v>
@@ -19534,7 +19534,7 @@
     </row>
     <row r="573" spans="1:18">
       <c r="A573" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B573" s="3" t="s">
         <v>83</v>
@@ -19548,7 +19548,7 @@
     </row>
     <row r="574" spans="1:18">
       <c r="A574" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B574" s="3" t="s">
         <v>114</v>
@@ -19556,7 +19556,7 @@
     </row>
     <row r="575" spans="1:18">
       <c r="A575" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B575" s="3" t="s">
         <v>80</v>
@@ -19570,7 +19570,7 @@
     </row>
     <row r="576" spans="1:18">
       <c r="A576" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="F576" s="4" t="s">
         <v>149</v>
@@ -19578,7 +19578,7 @@
     </row>
     <row r="577" spans="1:10">
       <c r="A577" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B577" s="3" t="s">
         <v>83</v>
@@ -19595,7 +19595,7 @@
     </row>
     <row r="578" spans="1:10">
       <c r="A578" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C578" s="3" t="s">
         <v>74</v>
@@ -19603,7 +19603,7 @@
     </row>
     <row r="579" spans="1:10">
       <c r="A579" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C579" s="3" t="s">
         <v>83</v>
@@ -19611,20 +19611,20 @@
     </row>
     <row r="580" spans="1:10">
       <c r="A580" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="581" spans="1:10">
       <c r="A581" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B581" s="4" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="582" spans="1:10">
       <c r="A582" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B582" s="3" t="s">
         <v>91</v>
@@ -19638,7 +19638,7 @@
     </row>
     <row r="583" spans="1:10">
       <c r="A583" s="2" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B583" s="3" t="s">
         <v>83</v>
@@ -19653,7 +19653,7 @@
         <v>104</v>
       </c>
       <c r="F583" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G583" s="3" t="s">
         <v>74</v>
@@ -19661,7 +19661,7 @@
     </row>
     <row r="584" spans="1:10">
       <c r="A584" s="2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B584" s="3" t="s">
         <v>99</v>
@@ -19672,7 +19672,7 @@
     </row>
     <row r="585" spans="1:10">
       <c r="A585" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B585" s="3" t="s">
         <v>89</v>
@@ -19695,7 +19695,7 @@
     </row>
     <row r="586" spans="1:10">
       <c r="A586" s="2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B586" s="3" t="s">
         <v>142</v>
@@ -19715,7 +19715,7 @@
     </row>
     <row r="587" spans="1:10">
       <c r="A587" s="2" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B587" s="3" t="s">
         <v>89</v>
@@ -19735,7 +19735,7 @@
     </row>
     <row r="588" spans="1:10">
       <c r="A588" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B588" s="3" t="s">
         <v>113</v>
@@ -19752,7 +19752,7 @@
     </row>
     <row r="589" spans="1:10">
       <c r="A589" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B589" s="3" t="s">
         <v>83</v>
@@ -19766,7 +19766,7 @@
     </row>
     <row r="590" spans="1:10">
       <c r="A590" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C590" s="3" t="s">
         <v>89</v>
@@ -19777,7 +19777,7 @@
     </row>
     <row r="591" spans="1:10">
       <c r="A591" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B591" s="3" t="s">
         <v>74</v>
@@ -19794,12 +19794,12 @@
     </row>
     <row r="592" spans="1:10">
       <c r="A592" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="593" spans="1:26">
       <c r="A593" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C593" s="3" t="s">
         <v>74</v>
@@ -19807,7 +19807,7 @@
     </row>
     <row r="594" spans="1:26">
       <c r="A594" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D594" s="3" t="s">
         <v>83</v>
@@ -19818,20 +19818,20 @@
     </row>
     <row r="595" spans="1:26">
       <c r="A595" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="596" spans="1:26">
       <c r="A596" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C596" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="597" spans="1:26">
       <c r="A597" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B597" s="3" t="s">
         <v>74</v>
@@ -19842,12 +19842,12 @@
     </row>
     <row r="598" spans="1:26">
       <c r="A598" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="599" spans="1:26">
       <c r="A599" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C599" s="3" t="s">
         <v>74</v>
@@ -19855,17 +19855,17 @@
     </row>
     <row r="600" spans="1:26">
       <c r="A600" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="601" spans="1:26">
       <c r="A601" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="602" spans="1:26">
       <c r="A602" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B602" s="3" t="s">
         <v>83</v>
@@ -19879,7 +19879,7 @@
     </row>
     <row r="603" spans="1:26">
       <c r="A603" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B603" s="3" t="s">
         <v>80</v>
@@ -19890,7 +19890,7 @@
     </row>
     <row r="604" spans="1:26">
       <c r="A604" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B604" s="3" t="s">
         <v>89</v>
@@ -19907,7 +19907,7 @@
     </row>
     <row r="605" spans="1:26">
       <c r="A605" s="2" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B605" s="3" t="s">
         <v>74</v>
@@ -19921,7 +19921,7 @@
     </row>
     <row r="606" spans="1:26">
       <c r="A606" s="2" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B606" s="3" t="s">
         <v>78</v>
@@ -19968,7 +19968,7 @@
     </row>
     <row r="607" spans="1:26">
       <c r="A607" s="2" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B607" s="3" t="s">
         <v>83</v>
@@ -19982,7 +19982,7 @@
     </row>
     <row r="608" spans="1:26">
       <c r="A608" s="2" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B608" s="3" t="s">
         <v>77</v>
@@ -19996,7 +19996,7 @@
     </row>
     <row r="609" spans="1:12">
       <c r="A609" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B609" s="3" t="s">
         <v>83</v>
@@ -20019,7 +20019,7 @@
     </row>
     <row r="610" spans="1:12">
       <c r="A610" s="2" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B610" s="3" t="s">
         <v>74</v>
@@ -20036,7 +20036,7 @@
     </row>
     <row r="611" spans="1:12">
       <c r="A611" s="2" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B611" s="3" t="s">
         <v>74</v>
@@ -20050,7 +20050,7 @@
     </row>
     <row r="612" spans="1:12">
       <c r="A612" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C612" s="3" t="s">
         <v>74</v>
@@ -20058,7 +20058,7 @@
     </row>
     <row r="613" spans="1:12">
       <c r="A613" s="2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D613" s="3" t="s">
         <v>72</v>
@@ -20069,7 +20069,7 @@
     </row>
     <row r="614" spans="1:12">
       <c r="A614" s="2" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C614" s="3" t="s">
         <v>74</v>
@@ -20077,7 +20077,7 @@
     </row>
     <row r="615" spans="1:12">
       <c r="A615" s="2" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B615" s="3" t="s">
         <v>78</v>
@@ -20112,10 +20112,10 @@
     </row>
     <row r="616" spans="1:12">
       <c r="A616" s="2" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B616" s="3" t="s">
-        <v>793</v>
+        <v>171</v>
       </c>
     </row>
     <row r="617" spans="1:12">
@@ -20976,7 +20976,7 @@
         <v>79</v>
       </c>
       <c r="E682" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="683" spans="1:18">
@@ -21068,7 +21068,7 @@
         <v>74</v>
       </c>
       <c r="F686" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L686" s="4" t="s">
         <v>111</v>
@@ -21301,7 +21301,7 @@
         <v>877</v>
       </c>
       <c r="B696" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C696" s="3" t="s">
         <v>83</v>
@@ -21419,7 +21419,7 @@
         <v>83</v>
       </c>
       <c r="D701" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E701" s="3" t="s">
         <v>79</v>
@@ -21440,7 +21440,7 @@
         <v>78</v>
       </c>
       <c r="L701" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M701" s="3" t="s">
         <v>78</v>
@@ -21828,13 +21828,13 @@
         <v>80</v>
       </c>
       <c r="F721" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G721" s="3" t="s">
         <v>109</v>
       </c>
       <c r="N721" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="S721" s="4" t="s">
         <v>100</v>
@@ -21848,7 +21848,7 @@
         <v>83</v>
       </c>
       <c r="D722" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="723" spans="1:19">
@@ -22179,7 +22179,7 @@
         <v>74</v>
       </c>
       <c r="C751" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D751" s="3" t="s">
         <v>83</v>
@@ -22262,7 +22262,7 @@
         <v>942</v>
       </c>
       <c r="B758" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="759" spans="1:26">
@@ -22289,10 +22289,10 @@
         <v>945</v>
       </c>
       <c r="B761" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E761" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="762" spans="1:26">
@@ -22326,7 +22326,7 @@
         <v>83</v>
       </c>
       <c r="E763" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F763" s="3" t="s">
         <v>74</v>
@@ -22446,7 +22446,7 @@
         <v>83</v>
       </c>
       <c r="G766" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H766" s="3" t="s">
         <v>83</v>
@@ -22521,7 +22521,7 @@
         <v>953</v>
       </c>
       <c r="B769" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C769" s="3" t="s">
         <v>89</v>
@@ -22728,7 +22728,7 @@
         <v>89</v>
       </c>
       <c r="F778" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="779" spans="1:29">
@@ -23305,7 +23305,7 @@
         <v>995</v>
       </c>
       <c r="D810" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="811" spans="1:12">
@@ -23632,7 +23632,7 @@
         <v>1016</v>
       </c>
       <c r="B831" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C831" s="3" t="s">
         <v>98</v>
@@ -23641,7 +23641,7 @@
         <v>83</v>
       </c>
       <c r="E831" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F831" s="3" t="s">
         <v>1017</v>
@@ -23650,13 +23650,13 @@
         <v>74</v>
       </c>
       <c r="H831" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J831" s="3" t="s">
         <v>78</v>
       </c>
       <c r="K831" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L831" s="4" t="s">
         <v>100</v>
@@ -23708,7 +23708,7 @@
         <v>99</v>
       </c>
       <c r="D836" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="837" spans="1:12">
@@ -23814,7 +23814,7 @@
         <v>90</v>
       </c>
       <c r="F844" s="4" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="845" spans="1:12">
@@ -24126,7 +24126,7 @@
         <v>1049</v>
       </c>
       <c r="D862" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="863" spans="1:18">
@@ -24240,7 +24240,7 @@
         <v>74</v>
       </c>
       <c r="H868" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I868" s="3" t="s">
         <v>74</v>
@@ -24338,7 +24338,7 @@
         <v>74</v>
       </c>
       <c r="F878" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G878" s="3" t="s">
         <v>83</v>
@@ -24645,7 +24645,7 @@
         <v>83</v>
       </c>
       <c r="K901" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L901" s="3" t="s">
         <v>74</v>
@@ -24704,7 +24704,7 @@
         <v>89</v>
       </c>
       <c r="T902" s="4" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="U902" s="3" t="s">
         <v>90</v>
@@ -24913,7 +24913,7 @@
         <v>81</v>
       </c>
       <c r="J912" s="3" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="K912" s="3" t="s">
         <v>99</v>
@@ -25238,7 +25238,7 @@
         <v>74</v>
       </c>
       <c r="D932" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E932" s="3" t="s">
         <v>1122</v>
@@ -25335,7 +25335,7 @@
         <v>1128</v>
       </c>
       <c r="D937" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="938" spans="1:18">
@@ -25615,7 +25615,7 @@
         <v>74</v>
       </c>
       <c r="D951" s="3" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="E951" s="3" t="s">
         <v>79</v>
@@ -25744,7 +25744,7 @@
         <v>74</v>
       </c>
       <c r="F954" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G954" s="4" t="s">
         <v>100</v>
@@ -25833,7 +25833,7 @@
         <v>1149</v>
       </c>
       <c r="B958" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C958" s="3" t="s">
         <v>83</v>
@@ -25911,7 +25911,7 @@
         <v>89</v>
       </c>
       <c r="E961" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F961" s="3" t="s">
         <v>89</v>
@@ -25962,7 +25962,7 @@
         <v>1155</v>
       </c>
       <c r="B964" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C964" s="3" t="s">
         <v>74</v>
@@ -26347,7 +26347,7 @@
         <v>89</v>
       </c>
       <c r="J993" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="994" spans="1:10">
@@ -26397,7 +26397,7 @@
         <v>1190</v>
       </c>
       <c r="B997" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C997" s="3" t="s">
         <v>74</v>
@@ -26448,7 +26448,7 @@
         <v>1196</v>
       </c>
       <c r="E1003" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="1004" spans="1:10">
@@ -26847,7 +26847,7 @@
         <v>1238</v>
       </c>
       <c r="B1045" s="4" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="1046" spans="1:18">
@@ -26855,7 +26855,7 @@
         <v>1239</v>
       </c>
       <c r="B1046" s="3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="1047" spans="1:18">
@@ -26911,7 +26911,7 @@
         <v>1243</v>
       </c>
       <c r="B1050" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D1050" s="3" t="s">
         <v>74</v>
@@ -28015,7 +28015,7 @@
         <v>80</v>
       </c>
       <c r="E1134" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L1134" s="3" t="s">
         <v>78</v>
@@ -28383,7 +28383,7 @@
         <v>78</v>
       </c>
       <c r="E1153" s="4" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="1154" spans="1:18">
@@ -28463,7 +28463,7 @@
         <v>89</v>
       </c>
       <c r="E1157" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G1157" s="3" t="s">
         <v>74</v>
@@ -28650,7 +28650,7 @@
         <v>1365</v>
       </c>
       <c r="B1168" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="1169" spans="1:9">
@@ -28675,7 +28675,7 @@
         <v>74</v>
       </c>
       <c r="D1170" s="3" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="E1170" s="3" t="s">
         <v>72</v>
@@ -28829,7 +28829,7 @@
         <v>93</v>
       </c>
       <c r="I1184" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="1185" spans="1:14">
@@ -28950,7 +28950,7 @@
         <v>74</v>
       </c>
       <c r="D1192" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E1192" s="3" t="s">
         <v>74</v>
@@ -28993,7 +28993,7 @@
         <v>1393</v>
       </c>
       <c r="E1194" s="3" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="I1194" s="3" t="s">
         <v>1394</v>
@@ -29887,7 +29887,7 @@
         <v>1464</v>
       </c>
       <c r="B1263" s="3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="1264" spans="1:4">
@@ -30120,7 +30120,7 @@
         <v>1489</v>
       </c>
       <c r="B1288" s="4" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D1288" s="3" t="s">
         <v>80</v>
@@ -30524,7 +30524,7 @@
         <v>1535</v>
       </c>
       <c r="B1334" s="4" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="1335" spans="1:5">
@@ -30641,7 +30641,7 @@
         <v>1550</v>
       </c>
       <c r="B1349" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="1350" spans="1:4">
@@ -30657,7 +30657,7 @@
         <v>1552</v>
       </c>
       <c r="B1351" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="1352" spans="1:4">
@@ -31063,7 +31063,7 @@
         <v>89</v>
       </c>
       <c r="E1389" s="3" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="1390" spans="1:5">
@@ -31261,7 +31261,7 @@
         <v>1609</v>
       </c>
       <c r="B1407" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E1407" s="3" t="s">
         <v>83</v>
@@ -31528,7 +31528,7 @@
         <v>1633</v>
       </c>
       <c r="D1431" s="4" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="1432" spans="1:20">
@@ -31680,7 +31680,7 @@
         <v>1649</v>
       </c>
       <c r="B1447" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E1447" s="3" t="s">
         <v>79</v>
@@ -31902,7 +31902,7 @@
         <v>89</v>
       </c>
       <c r="E1474" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P1474" s="4" t="s">
         <v>100</v>
@@ -32025,7 +32025,7 @@
         <v>1688</v>
       </c>
       <c r="B1486" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E1486" s="4" t="s">
         <v>94</v>
@@ -32036,7 +32036,7 @@
         <v>1689</v>
       </c>
       <c r="D1487" s="3" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="1488" spans="1:18">
@@ -32047,7 +32047,7 @@
         <v>89</v>
       </c>
       <c r="C1488" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D1488" s="3" t="s">
         <v>74</v>
@@ -32170,7 +32170,7 @@
         <v>1701</v>
       </c>
       <c r="D1497" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="1498" spans="1:14">
@@ -32195,7 +32195,7 @@
         <v>1703</v>
       </c>
       <c r="N1499" s="4" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="1500" spans="1:14">
@@ -32391,7 +32391,7 @@
         <v>83</v>
       </c>
       <c r="E1522" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="1523" spans="1:9">
@@ -33256,7 +33256,7 @@
         <v>1836</v>
       </c>
       <c r="B1632" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D1632" s="4" t="s">
         <v>93</v>
@@ -33415,7 +33415,7 @@
         <v>74</v>
       </c>
       <c r="I1656" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N1656" s="4" t="s">
         <v>94</v>
@@ -33451,7 +33451,7 @@
         <v>74</v>
       </c>
       <c r="M1659" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="1660" spans="1:14">
@@ -33459,7 +33459,7 @@
         <v>1864</v>
       </c>
       <c r="B1660" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E1660" s="3" t="s">
         <v>74</v>
@@ -33624,10 +33624,10 @@
         <v>1888</v>
       </c>
       <c r="B1684" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E1684" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="1685" spans="1:14">
@@ -33745,7 +33745,7 @@
         <v>74</v>
       </c>
       <c r="E1695" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N1695" s="3" t="s">
         <v>83</v>
@@ -34110,7 +34110,7 @@
         <v>74</v>
       </c>
       <c r="L1738" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="1739" spans="1:14">
@@ -34198,7 +34198,7 @@
         <v>1953</v>
       </c>
       <c r="B1749" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C1749" s="3" t="s">
         <v>79</v>
@@ -34210,7 +34210,7 @@
         <v>86</v>
       </c>
       <c r="T1749" s="4" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="1750" spans="1:20">
@@ -34820,7 +34820,7 @@
         <v>2003</v>
       </c>
       <c r="B1799" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C1799" s="3" t="s">
         <v>78</v>
@@ -34834,7 +34834,7 @@
         <v>2004</v>
       </c>
       <c r="L1800" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="1801" spans="1:23">
@@ -35347,7 +35347,7 @@
         <v>72</v>
       </c>
       <c r="C1863" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="1864" spans="1:13">
@@ -35544,7 +35544,7 @@
         <v>2089</v>
       </c>
       <c r="B1882" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="1883" spans="1:14">
@@ -35552,7 +35552,7 @@
         <v>2090</v>
       </c>
       <c r="C1883" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="1884" spans="1:14">

--- a/groups/old/results.xlsx
+++ b/groups/old/results.xlsx
@@ -6991,76 +6991,76 @@
         <v>322</v>
       </c>
       <c r="G3">
-        <v>3481</v>
+        <v>3482</v>
       </c>
       <c r="H3">
-        <v>5419</v>
+        <v>5420</v>
       </c>
       <c r="I3">
         <v>7824</v>
       </c>
       <c r="J3">
-        <v>11311</v>
+        <v>11313</v>
       </c>
       <c r="K3">
-        <v>15685</v>
+        <v>15689</v>
       </c>
       <c r="L3">
-        <v>18315</v>
+        <v>18322</v>
       </c>
       <c r="M3">
-        <v>23880</v>
+        <v>23885</v>
       </c>
       <c r="N3">
-        <v>24449</v>
+        <v>24457</v>
       </c>
       <c r="O3">
-        <v>40575</v>
+        <v>40584</v>
       </c>
       <c r="P3">
-        <v>41920</v>
+        <v>41926</v>
       </c>
       <c r="Q3">
-        <v>43906</v>
+        <v>43915</v>
       </c>
       <c r="R3">
-        <v>46491</v>
+        <v>46502</v>
       </c>
       <c r="S3">
-        <v>52688</v>
+        <v>52703</v>
       </c>
       <c r="T3">
-        <v>54316</v>
+        <v>54326</v>
       </c>
       <c r="U3">
-        <v>55053</v>
+        <v>55064</v>
       </c>
       <c r="V3">
-        <v>61836</v>
+        <v>61857</v>
       </c>
       <c r="W3">
-        <v>81958</v>
+        <v>81981</v>
       </c>
       <c r="X3">
-        <v>86158</v>
+        <v>86179</v>
       </c>
       <c r="Y3">
-        <v>94801</v>
+        <v>94826</v>
       </c>
       <c r="Z3">
-        <v>122919</v>
+        <v>122951</v>
       </c>
       <c r="AA3">
-        <v>146728</v>
+        <v>146765</v>
       </c>
       <c r="AB3">
-        <v>153115</v>
+        <v>153154</v>
       </c>
       <c r="AC3">
-        <v>185169</v>
+        <v>185199</v>
       </c>
       <c r="AD3">
-        <v>217636</v>
+        <v>217674</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -7163,7 +7163,7 @@
         <v>4555</v>
       </c>
       <c r="C5">
-        <v>2055</v>
+        <v>2058</v>
       </c>
       <c r="D5">
         <v>2956</v>
@@ -12154,7 +12154,7 @@
         <v>74</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="D168" s="3" t="s">
         <v>74</v>

--- a/groups/old/results.xlsx
+++ b/groups/old/results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8218" uniqueCount="2131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8231" uniqueCount="2131">
   <si>
     <t>№</t>
   </si>
@@ -6988,79 +6988,79 @@
         <v>92</v>
       </c>
       <c r="F3">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G3">
         <v>3482</v>
       </c>
       <c r="H3">
-        <v>5420</v>
+        <v>5421</v>
       </c>
       <c r="I3">
-        <v>7824</v>
+        <v>7828</v>
       </c>
       <c r="J3">
-        <v>11313</v>
+        <v>11315</v>
       </c>
       <c r="K3">
-        <v>15689</v>
+        <v>15697</v>
       </c>
       <c r="L3">
-        <v>18322</v>
+        <v>18332</v>
       </c>
       <c r="M3">
-        <v>23885</v>
+        <v>23895</v>
       </c>
       <c r="N3">
-        <v>24457</v>
+        <v>24466</v>
       </c>
       <c r="O3">
-        <v>40584</v>
+        <v>40611</v>
       </c>
       <c r="P3">
-        <v>41926</v>
+        <v>41954</v>
       </c>
       <c r="Q3">
-        <v>43915</v>
+        <v>43948</v>
       </c>
       <c r="R3">
-        <v>46502</v>
+        <v>46541</v>
       </c>
       <c r="S3">
-        <v>52703</v>
+        <v>52738</v>
       </c>
       <c r="T3">
-        <v>54326</v>
+        <v>54360</v>
       </c>
       <c r="U3">
-        <v>55064</v>
+        <v>55099</v>
       </c>
       <c r="V3">
-        <v>61857</v>
+        <v>61897</v>
       </c>
       <c r="W3">
-        <v>81981</v>
+        <v>82043</v>
       </c>
       <c r="X3">
-        <v>86179</v>
+        <v>86241</v>
       </c>
       <c r="Y3">
-        <v>94826</v>
+        <v>94886</v>
       </c>
       <c r="Z3">
-        <v>122951</v>
+        <v>123010</v>
       </c>
       <c r="AA3">
-        <v>146765</v>
+        <v>146853</v>
       </c>
       <c r="AB3">
-        <v>153154</v>
+        <v>153250</v>
       </c>
       <c r="AC3">
-        <v>185199</v>
+        <v>185318</v>
       </c>
       <c r="AD3">
-        <v>217674</v>
+        <v>217809</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -7071,7 +7071,7 @@
         <v>29426</v>
       </c>
       <c r="C4">
-        <v>26090</v>
+        <v>26205</v>
       </c>
       <c r="D4">
         <v>24086</v>
@@ -7080,7 +7080,7 @@
         <v>23680</v>
       </c>
       <c r="F4">
-        <v>15513</v>
+        <v>15471</v>
       </c>
       <c r="G4">
         <v>4571</v>
@@ -7163,7 +7163,7 @@
         <v>4555</v>
       </c>
       <c r="C5">
-        <v>2058</v>
+        <v>2078</v>
       </c>
       <c r="D5">
         <v>2956</v>
@@ -7255,7 +7255,7 @@
         <v>793</v>
       </c>
       <c r="C6">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="D6">
         <v>585</v>
@@ -7439,7 +7439,7 @@
         <v>1293</v>
       </c>
       <c r="C8">
-        <v>1051</v>
+        <v>1067</v>
       </c>
       <c r="D8">
         <v>831</v>
@@ -7531,7 +7531,7 @@
         <v>22</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>45</v>
@@ -26315,6 +26315,9 @@
       <c r="B991" s="3" t="s">
         <v>89</v>
       </c>
+      <c r="C991" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="E991" s="3" t="s">
         <v>113</v>
       </c>
@@ -26439,6 +26442,9 @@
       <c r="B1002" s="3" t="s">
         <v>97</v>
       </c>
+      <c r="C1002" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="D1002" s="3" t="s">
         <v>74</v>
       </c>
@@ -26610,6 +26616,9 @@
       <c r="B1017" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="C1017" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="D1017" s="3" t="s">
         <v>74</v>
       </c>
@@ -26660,6 +26669,9 @@
       <c r="B1021" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="C1021" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="1022" spans="1:18">
       <c r="A1022" s="2" t="s">
@@ -26668,6 +26680,9 @@
       <c r="B1022" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="C1022" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="1023" spans="1:18">
       <c r="A1023" s="2" t="s">
@@ -26730,6 +26745,9 @@
       <c r="B1029" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="C1029" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="1030" spans="1:5">
       <c r="A1030" s="2" t="s">
@@ -26838,6 +26856,9 @@
       <c r="B1044" s="3" t="s">
         <v>79</v>
       </c>
+      <c r="C1044" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="E1044" s="3" t="s">
         <v>74</v>
       </c>
@@ -26900,6 +26921,9 @@
       <c r="B1048" s="3" t="s">
         <v>80</v>
       </c>
+      <c r="C1048" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="1049" spans="1:18">
       <c r="A1049" s="2" t="s">
@@ -26957,6 +26981,9 @@
       <c r="B1054" s="3" t="s">
         <v>103</v>
       </c>
+      <c r="C1054" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="1055" spans="1:18">
       <c r="A1055" s="2" t="s">
@@ -26970,6 +26997,9 @@
       <c r="B1056" s="3" t="s">
         <v>89</v>
       </c>
+      <c r="C1056" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="D1056" s="3" t="s">
         <v>74</v>
       </c>
@@ -27117,6 +27147,9 @@
       <c r="B1080" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="C1080" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="D1080" s="3" t="s">
         <v>74</v>
       </c>
@@ -27427,6 +27460,9 @@
       <c r="A1103" s="2" t="s">
         <v>1298</v>
       </c>
+      <c r="C1103" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="D1103" s="3" t="s">
         <v>74</v>
       </c>
@@ -27444,6 +27480,9 @@
       <c r="B1104" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="C1104" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="D1104" s="3" t="s">
         <v>74</v>
       </c>
@@ -28356,8 +28395,8 @@
       <c r="B1152" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C1152" s="4" t="s">
-        <v>100</v>
+      <c r="C1152" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="D1152" s="3" t="s">
         <v>74</v>
@@ -28376,8 +28415,8 @@
       <c r="B1153" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C1153" s="4" t="s">
-        <v>100</v>
+      <c r="C1153" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="D1153" s="3" t="s">
         <v>78</v>
@@ -30191,8 +30230,8 @@
       <c r="B1294" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C1294" s="4" t="s">
-        <v>93</v>
+      <c r="C1294" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="D1294" s="3" t="s">
         <v>74</v>

--- a/groups/old/results.xlsx
+++ b/groups/old/results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8231" uniqueCount="2131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8232" uniqueCount="2131">
   <si>
     <t>№</t>
   </si>
@@ -1333,6 +1333,9 @@
     <t>272</t>
   </si>
   <si>
+    <t>6+, 3-</t>
+  </si>
+  <si>
     <t>273</t>
   </si>
   <si>
@@ -1943,9 +1946,6 @@
   </si>
   <si>
     <t>460</t>
-  </si>
-  <si>
-    <t>6+, 3-</t>
   </si>
   <si>
     <t>461</t>
@@ -6991,76 +6991,76 @@
         <v>324</v>
       </c>
       <c r="G3">
-        <v>3482</v>
+        <v>3483</v>
       </c>
       <c r="H3">
-        <v>5421</v>
+        <v>5422</v>
       </c>
       <c r="I3">
-        <v>7828</v>
+        <v>7830</v>
       </c>
       <c r="J3">
-        <v>11315</v>
+        <v>11128</v>
       </c>
       <c r="K3">
-        <v>15697</v>
+        <v>15708</v>
       </c>
       <c r="L3">
-        <v>18332</v>
+        <v>18342</v>
       </c>
       <c r="M3">
-        <v>23895</v>
+        <v>23912</v>
       </c>
       <c r="N3">
-        <v>24466</v>
+        <v>24483</v>
       </c>
       <c r="O3">
-        <v>40611</v>
+        <v>40629</v>
       </c>
       <c r="P3">
-        <v>41954</v>
+        <v>41970</v>
       </c>
       <c r="Q3">
-        <v>43948</v>
+        <v>43964</v>
       </c>
       <c r="R3">
-        <v>46541</v>
+        <v>46561</v>
       </c>
       <c r="S3">
-        <v>52738</v>
+        <v>52764</v>
       </c>
       <c r="T3">
-        <v>54360</v>
+        <v>54389</v>
       </c>
       <c r="U3">
-        <v>55099</v>
+        <v>55127</v>
       </c>
       <c r="V3">
-        <v>61897</v>
+        <v>61934</v>
       </c>
       <c r="W3">
-        <v>82043</v>
+        <v>82088</v>
       </c>
       <c r="X3">
-        <v>86241</v>
+        <v>86288</v>
       </c>
       <c r="Y3">
-        <v>94886</v>
+        <v>94931</v>
       </c>
       <c r="Z3">
-        <v>123010</v>
+        <v>123059</v>
       </c>
       <c r="AA3">
-        <v>146853</v>
+        <v>146928</v>
       </c>
       <c r="AB3">
-        <v>153250</v>
+        <v>153328</v>
       </c>
       <c r="AC3">
-        <v>185318</v>
+        <v>185408</v>
       </c>
       <c r="AD3">
-        <v>217809</v>
+        <v>217921</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -7092,7 +7092,7 @@
         <v>2513</v>
       </c>
       <c r="J4">
-        <v>1795</v>
+        <v>1830</v>
       </c>
       <c r="K4">
         <v>1303</v>
@@ -7163,7 +7163,7 @@
         <v>4555</v>
       </c>
       <c r="C5">
-        <v>2078</v>
+        <v>2079</v>
       </c>
       <c r="D5">
         <v>2956</v>
@@ -7184,7 +7184,7 @@
         <v>861</v>
       </c>
       <c r="J5">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="K5">
         <v>276</v>
@@ -7276,7 +7276,7 @@
         <v>82</v>
       </c>
       <c r="J6">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K6">
         <v>93</v>
@@ -7460,7 +7460,7 @@
         <v>142</v>
       </c>
       <c r="J8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K8">
         <v>104</v>
@@ -14165,7 +14165,7 @@
         <v>147</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>68</v>
+        <v>438</v>
       </c>
       <c r="D281" s="3" t="s">
         <v>110</v>
@@ -14191,7 +14191,7 @@
     </row>
     <row r="282" spans="1:24">
       <c r="A282" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>90</v>
@@ -14214,7 +14214,7 @@
     </row>
     <row r="283" spans="1:24">
       <c r="A283" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>74</v>
@@ -14240,7 +14240,7 @@
     </row>
     <row r="284" spans="1:24">
       <c r="A284" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>223</v>
@@ -14260,7 +14260,7 @@
     </row>
     <row r="285" spans="1:24">
       <c r="A285" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>74</v>
@@ -14295,7 +14295,7 @@
     </row>
     <row r="286" spans="1:24">
       <c r="A286" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>78</v>
@@ -14318,7 +14318,7 @@
     </row>
     <row r="287" spans="1:24">
       <c r="A287" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>74</v>
@@ -14341,10 +14341,10 @@
     </row>
     <row r="288" spans="1:24">
       <c r="A288" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>74</v>
@@ -14358,7 +14358,7 @@
     </row>
     <row r="289" spans="1:17">
       <c r="A289" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>89</v>
@@ -14378,7 +14378,7 @@
     </row>
     <row r="290" spans="1:17">
       <c r="A290" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>74</v>
@@ -14401,7 +14401,7 @@
     </row>
     <row r="291" spans="1:17">
       <c r="A291" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>81</v>
@@ -14421,7 +14421,7 @@
     </row>
     <row r="292" spans="1:17">
       <c r="A292" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>80</v>
@@ -14444,7 +14444,7 @@
     </row>
     <row r="293" spans="1:17">
       <c r="A293" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>74</v>
@@ -14479,7 +14479,7 @@
     </row>
     <row r="294" spans="1:17">
       <c r="A294" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>74</v>
@@ -14502,10 +14502,10 @@
     </row>
     <row r="295" spans="1:17">
       <c r="A295" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>89</v>
@@ -14522,7 +14522,7 @@
     </row>
     <row r="296" spans="1:17">
       <c r="A296" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>74</v>
@@ -14542,7 +14542,7 @@
     </row>
     <row r="297" spans="1:17">
       <c r="A297" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>89</v>
@@ -14550,7 +14550,7 @@
     </row>
     <row r="298" spans="1:17">
       <c r="A298" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B298" s="3" t="s">
         <v>78</v>
@@ -14564,7 +14564,7 @@
     </row>
     <row r="299" spans="1:17">
       <c r="A299" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>74</v>
@@ -14581,7 +14581,7 @@
     </row>
     <row r="300" spans="1:17">
       <c r="A300" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>89</v>
@@ -14601,7 +14601,7 @@
     </row>
     <row r="301" spans="1:17">
       <c r="A301" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>80</v>
@@ -14618,7 +14618,7 @@
     </row>
     <row r="302" spans="1:17">
       <c r="A302" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>74</v>
@@ -14650,7 +14650,7 @@
     </row>
     <row r="303" spans="1:17">
       <c r="A303" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>83</v>
@@ -14676,7 +14676,7 @@
     </row>
     <row r="304" spans="1:17">
       <c r="A304" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>83</v>
@@ -14696,7 +14696,7 @@
     </row>
     <row r="305" spans="1:19">
       <c r="A305" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>83</v>
@@ -14720,7 +14720,7 @@
         <v>74</v>
       </c>
       <c r="I305" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L305" s="3" t="s">
         <v>74</v>
@@ -14731,7 +14731,7 @@
     </row>
     <row r="306" spans="1:19">
       <c r="A306" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>74</v>
@@ -14763,7 +14763,7 @@
     </row>
     <row r="307" spans="1:19">
       <c r="A307" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>79</v>
@@ -14786,7 +14786,7 @@
     </row>
     <row r="308" spans="1:19">
       <c r="A308" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>99</v>
@@ -14803,7 +14803,7 @@
     </row>
     <row r="309" spans="1:19">
       <c r="A309" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>89</v>
@@ -14814,7 +14814,7 @@
     </row>
     <row r="310" spans="1:19">
       <c r="A310" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>83</v>
@@ -14831,7 +14831,7 @@
     </row>
     <row r="311" spans="1:19">
       <c r="A311" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B311" s="3" t="s">
         <v>98</v>
@@ -14851,7 +14851,7 @@
     </row>
     <row r="312" spans="1:19">
       <c r="A312" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>74</v>
@@ -14868,7 +14868,7 @@
     </row>
     <row r="313" spans="1:19">
       <c r="A313" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>83</v>
@@ -14885,7 +14885,7 @@
     </row>
     <row r="314" spans="1:19">
       <c r="A314" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>74</v>
@@ -14902,7 +14902,7 @@
     </row>
     <row r="315" spans="1:19">
       <c r="A315" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>83</v>
@@ -14916,7 +14916,7 @@
     </row>
     <row r="316" spans="1:19">
       <c r="A316" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C316" s="3" t="s">
         <v>74</v>
@@ -14930,7 +14930,7 @@
     </row>
     <row r="317" spans="1:19">
       <c r="A317" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>223</v>
@@ -14947,7 +14947,7 @@
     </row>
     <row r="318" spans="1:19">
       <c r="A318" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>83</v>
@@ -14964,7 +14964,7 @@
     </row>
     <row r="319" spans="1:19">
       <c r="A319" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>79</v>
@@ -14981,7 +14981,7 @@
     </row>
     <row r="320" spans="1:19">
       <c r="A320" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>80</v>
@@ -15004,7 +15004,7 @@
     </row>
     <row r="321" spans="1:24">
       <c r="A321" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>79</v>
@@ -15066,7 +15066,7 @@
     </row>
     <row r="322" spans="1:24">
       <c r="A322" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>83</v>
@@ -15083,7 +15083,7 @@
     </row>
     <row r="323" spans="1:24">
       <c r="A323" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>74</v>
@@ -15106,7 +15106,7 @@
     </row>
     <row r="324" spans="1:24">
       <c r="A324" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>142</v>
@@ -15132,7 +15132,7 @@
     </row>
     <row r="325" spans="1:24">
       <c r="A325" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>74</v>
@@ -15143,7 +15143,7 @@
     </row>
     <row r="326" spans="1:24">
       <c r="A326" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>113</v>
@@ -15163,7 +15163,7 @@
     </row>
     <row r="327" spans="1:24">
       <c r="A327" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>83</v>
@@ -15183,7 +15183,7 @@
     </row>
     <row r="328" spans="1:24">
       <c r="A328" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>74</v>
@@ -15203,7 +15203,7 @@
     </row>
     <row r="329" spans="1:24">
       <c r="A329" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>83</v>
@@ -15220,7 +15220,7 @@
     </row>
     <row r="330" spans="1:24">
       <c r="A330" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>74</v>
@@ -15240,7 +15240,7 @@
     </row>
     <row r="331" spans="1:24">
       <c r="A331" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>89</v>
@@ -15263,7 +15263,7 @@
     </row>
     <row r="332" spans="1:24">
       <c r="A332" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>99</v>
@@ -15283,7 +15283,7 @@
     </row>
     <row r="333" spans="1:24">
       <c r="A333" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>74</v>
@@ -15333,7 +15333,7 @@
     </row>
     <row r="334" spans="1:24">
       <c r="A334" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>74</v>
@@ -15353,7 +15353,7 @@
     </row>
     <row r="335" spans="1:24">
       <c r="A335" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B335" s="3" t="s">
         <v>83</v>
@@ -15362,7 +15362,7 @@
         <v>74</v>
       </c>
       <c r="D335" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E335" s="3" t="s">
         <v>89</v>
@@ -15373,7 +15373,7 @@
     </row>
     <row r="336" spans="1:24">
       <c r="A336" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>109</v>
@@ -15414,7 +15414,7 @@
     </row>
     <row r="337" spans="1:23">
       <c r="A337" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B337" s="3" t="s">
         <v>74</v>
@@ -15458,7 +15458,7 @@
     </row>
     <row r="338" spans="1:23">
       <c r="A338" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B338" s="3" t="s">
         <v>84</v>
@@ -15478,7 +15478,7 @@
     </row>
     <row r="339" spans="1:23">
       <c r="A339" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B339" s="3" t="s">
         <v>74</v>
@@ -15498,7 +15498,7 @@
     </row>
     <row r="340" spans="1:23">
       <c r="A340" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B340" s="3" t="s">
         <v>83</v>
@@ -15536,7 +15536,7 @@
     </row>
     <row r="341" spans="1:23">
       <c r="A341" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B341" s="3" t="s">
         <v>74</v>
@@ -15553,7 +15553,7 @@
     </row>
     <row r="342" spans="1:23">
       <c r="A342" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>83</v>
@@ -15573,7 +15573,7 @@
     </row>
     <row r="343" spans="1:23">
       <c r="A343" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B343" s="3" t="s">
         <v>83</v>
@@ -15590,7 +15590,7 @@
     </row>
     <row r="344" spans="1:23">
       <c r="A344" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>74</v>
@@ -15604,7 +15604,7 @@
     </row>
     <row r="345" spans="1:23">
       <c r="A345" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B345" s="3" t="s">
         <v>74</v>
@@ -15642,13 +15642,13 @@
     </row>
     <row r="346" spans="1:23">
       <c r="A346" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D346" s="3" t="s">
         <v>74</v>
       </c>
       <c r="I346" s="3" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M346" s="4" t="s">
         <v>149</v>
@@ -15659,7 +15659,7 @@
     </row>
     <row r="347" spans="1:23">
       <c r="A347" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B347" s="3" t="s">
         <v>74</v>
@@ -15679,7 +15679,7 @@
     </row>
     <row r="348" spans="1:23">
       <c r="A348" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>74</v>
@@ -15696,7 +15696,7 @@
     </row>
     <row r="349" spans="1:23">
       <c r="A349" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B349" s="3" t="s">
         <v>72</v>
@@ -15731,7 +15731,7 @@
     </row>
     <row r="350" spans="1:23">
       <c r="A350" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>74</v>
@@ -15748,7 +15748,7 @@
     </row>
     <row r="351" spans="1:23">
       <c r="A351" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B351" s="3" t="s">
         <v>80</v>
@@ -15762,7 +15762,7 @@
     </row>
     <row r="352" spans="1:23">
       <c r="A352" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>83</v>
@@ -15774,15 +15774,15 @@
         <v>89</v>
       </c>
       <c r="F352" s="3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="353" spans="1:20">
       <c r="A353" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C353" s="3" t="s">
         <v>83</v>
@@ -15799,7 +15799,7 @@
     </row>
     <row r="354" spans="1:20">
       <c r="A354" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>74</v>
@@ -15816,7 +15816,7 @@
     </row>
     <row r="355" spans="1:20">
       <c r="A355" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B355" s="3" t="s">
         <v>86</v>
@@ -15836,7 +15836,7 @@
     </row>
     <row r="356" spans="1:20">
       <c r="A356" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>74</v>
@@ -15859,7 +15859,7 @@
     </row>
     <row r="357" spans="1:20">
       <c r="A357" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B357" s="3" t="s">
         <v>86</v>
@@ -15879,7 +15879,7 @@
     </row>
     <row r="358" spans="1:20">
       <c r="A358" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>110</v>
@@ -15902,7 +15902,7 @@
     </row>
     <row r="359" spans="1:20">
       <c r="A359" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>74</v>
@@ -15922,7 +15922,7 @@
     </row>
     <row r="360" spans="1:20">
       <c r="A360" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>226</v>
@@ -15942,7 +15942,7 @@
     </row>
     <row r="361" spans="1:20">
       <c r="A361" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B361" s="3" t="s">
         <v>74</v>
@@ -15951,7 +15951,7 @@
         <v>74</v>
       </c>
       <c r="D361" s="3" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E361" s="3" t="s">
         <v>89</v>
@@ -15962,7 +15962,7 @@
     </row>
     <row r="362" spans="1:20">
       <c r="A362" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>78</v>
@@ -15979,7 +15979,7 @@
     </row>
     <row r="363" spans="1:20">
       <c r="A363" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B363" s="3" t="s">
         <v>86</v>
@@ -15999,7 +15999,7 @@
     </row>
     <row r="364" spans="1:20">
       <c r="A364" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>74</v>
@@ -16019,7 +16019,7 @@
     </row>
     <row r="365" spans="1:20">
       <c r="A365" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B365" s="3" t="s">
         <v>78</v>
@@ -16036,7 +16036,7 @@
     </row>
     <row r="366" spans="1:20">
       <c r="A366" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>74</v>
@@ -16074,7 +16074,7 @@
     </row>
     <row r="367" spans="1:20">
       <c r="A367" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B367" s="3" t="s">
         <v>86</v>
@@ -16091,7 +16091,7 @@
     </row>
     <row r="368" spans="1:20">
       <c r="A368" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>72</v>
@@ -16105,10 +16105,10 @@
     </row>
     <row r="369" spans="1:15">
       <c r="A369" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C369" s="3" t="s">
         <v>77</v>
@@ -16119,7 +16119,7 @@
     </row>
     <row r="370" spans="1:15">
       <c r="A370" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B370" s="3" t="s">
         <v>78</v>
@@ -16136,7 +16136,7 @@
     </row>
     <row r="371" spans="1:15">
       <c r="A371" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B371" s="3" t="s">
         <v>142</v>
@@ -16147,7 +16147,7 @@
     </row>
     <row r="372" spans="1:15">
       <c r="A372" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>74</v>
@@ -16173,7 +16173,7 @@
     </row>
     <row r="373" spans="1:15">
       <c r="A373" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B373" s="3" t="s">
         <v>164</v>
@@ -16190,7 +16190,7 @@
     </row>
     <row r="374" spans="1:15">
       <c r="A374" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>74</v>
@@ -16210,7 +16210,7 @@
     </row>
     <row r="375" spans="1:15">
       <c r="A375" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B375" s="3" t="s">
         <v>114</v>
@@ -16222,7 +16222,7 @@
         <v>77</v>
       </c>
       <c r="E375" s="3" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F375" s="3" t="s">
         <v>83</v>
@@ -16230,7 +16230,7 @@
     </row>
     <row r="376" spans="1:15">
       <c r="A376" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B376" s="3" t="s">
         <v>74</v>
@@ -16253,7 +16253,7 @@
     </row>
     <row r="377" spans="1:15">
       <c r="A377" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B377" s="3" t="s">
         <v>83</v>
@@ -16270,7 +16270,7 @@
     </row>
     <row r="378" spans="1:15">
       <c r="A378" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B378" s="3" t="s">
         <v>74</v>
@@ -16284,7 +16284,7 @@
     </row>
     <row r="379" spans="1:15">
       <c r="A379" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B379" s="3" t="s">
         <v>80</v>
@@ -16313,7 +16313,7 @@
     </row>
     <row r="380" spans="1:15">
       <c r="A380" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B380" s="3" t="s">
         <v>74</v>
@@ -16327,7 +16327,7 @@
     </row>
     <row r="381" spans="1:15">
       <c r="A381" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B381" s="3" t="s">
         <v>233</v>
@@ -16344,7 +16344,7 @@
     </row>
     <row r="382" spans="1:15">
       <c r="A382" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B382" s="3" t="s">
         <v>74</v>
@@ -16358,7 +16358,7 @@
     </row>
     <row r="383" spans="1:15">
       <c r="A383" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B383" s="3" t="s">
         <v>78</v>
@@ -16378,7 +16378,7 @@
     </row>
     <row r="384" spans="1:15">
       <c r="A384" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B384" s="3" t="s">
         <v>83</v>
@@ -16392,7 +16392,7 @@
     </row>
     <row r="385" spans="1:17">
       <c r="A385" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>74</v>
@@ -16406,7 +16406,7 @@
     </row>
     <row r="386" spans="1:17">
       <c r="A386" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B386" s="3" t="s">
         <v>80</v>
@@ -16423,7 +16423,7 @@
     </row>
     <row r="387" spans="1:17">
       <c r="A387" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B387" s="3" t="s">
         <v>98</v>
@@ -16437,7 +16437,7 @@
     </row>
     <row r="388" spans="1:17">
       <c r="A388" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D388" s="3" t="s">
         <v>99</v>
@@ -16448,7 +16448,7 @@
     </row>
     <row r="389" spans="1:17">
       <c r="A389" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B389" s="3" t="s">
         <v>89</v>
@@ -16465,7 +16465,7 @@
     </row>
     <row r="390" spans="1:17">
       <c r="A390" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B390" s="3" t="s">
         <v>83</v>
@@ -16482,7 +16482,7 @@
     </row>
     <row r="391" spans="1:17">
       <c r="A391" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B391" s="3" t="s">
         <v>83</v>
@@ -16502,7 +16502,7 @@
     </row>
     <row r="392" spans="1:17">
       <c r="A392" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B392" s="3" t="s">
         <v>89</v>
@@ -16522,7 +16522,7 @@
     </row>
     <row r="393" spans="1:17">
       <c r="A393" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B393" s="3" t="s">
         <v>72</v>
@@ -16545,7 +16545,7 @@
     </row>
     <row r="394" spans="1:17">
       <c r="A394" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B394" s="3" t="s">
         <v>80</v>
@@ -16562,7 +16562,7 @@
     </row>
     <row r="395" spans="1:17">
       <c r="A395" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>74</v>
@@ -16570,7 +16570,7 @@
     </row>
     <row r="396" spans="1:17">
       <c r="A396" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B396" s="3" t="s">
         <v>78</v>
@@ -16596,7 +16596,7 @@
     </row>
     <row r="397" spans="1:17">
       <c r="A397" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B397" s="3" t="s">
         <v>110</v>
@@ -16613,7 +16613,7 @@
     </row>
     <row r="398" spans="1:17">
       <c r="A398" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D398" s="3" t="s">
         <v>78</v>
@@ -16621,7 +16621,7 @@
     </row>
     <row r="399" spans="1:17">
       <c r="A399" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B399" s="3" t="s">
         <v>83</v>
@@ -16638,7 +16638,7 @@
     </row>
     <row r="400" spans="1:17">
       <c r="A400" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B400" s="3" t="s">
         <v>74</v>
@@ -16652,7 +16652,7 @@
     </row>
     <row r="401" spans="1:17">
       <c r="A401" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B401" s="3" t="s">
         <v>83</v>
@@ -16670,12 +16670,12 @@
         <v>74</v>
       </c>
       <c r="I401" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="402" spans="1:17">
       <c r="A402" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B402" s="3" t="s">
         <v>83</v>
@@ -16686,7 +16686,7 @@
     </row>
     <row r="403" spans="1:17">
       <c r="A403" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B403" s="3" t="s">
         <v>90</v>
@@ -16715,7 +16715,7 @@
     </row>
     <row r="404" spans="1:17">
       <c r="A404" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B404" s="3" t="s">
         <v>74</v>
@@ -16735,7 +16735,7 @@
     </row>
     <row r="405" spans="1:17">
       <c r="A405" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B405" s="3" t="s">
         <v>89</v>
@@ -16758,7 +16758,7 @@
     </row>
     <row r="406" spans="1:17">
       <c r="A406" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B406" s="3" t="s">
         <v>72</v>
@@ -16772,7 +16772,7 @@
     </row>
     <row r="407" spans="1:17">
       <c r="A407" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B407" s="3" t="s">
         <v>78</v>
@@ -16801,7 +16801,7 @@
     </row>
     <row r="408" spans="1:17">
       <c r="A408" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B408" s="3" t="s">
         <v>83</v>
@@ -16810,7 +16810,7 @@
         <v>74</v>
       </c>
       <c r="D408" s="4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E408" s="3" t="s">
         <v>81</v>
@@ -16818,7 +16818,7 @@
     </row>
     <row r="409" spans="1:17">
       <c r="A409" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B409" s="3" t="s">
         <v>83</v>
@@ -16835,7 +16835,7 @@
     </row>
     <row r="410" spans="1:17">
       <c r="A410" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B410" s="3" t="s">
         <v>74</v>
@@ -16852,7 +16852,7 @@
     </row>
     <row r="411" spans="1:17">
       <c r="A411" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D411" s="3" t="s">
         <v>190</v>
@@ -16860,7 +16860,7 @@
     </row>
     <row r="412" spans="1:17">
       <c r="A412" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B412" s="3" t="s">
         <v>83</v>
@@ -16871,7 +16871,7 @@
     </row>
     <row r="413" spans="1:17">
       <c r="A413" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D413" s="3" t="s">
         <v>89</v>
@@ -16882,7 +16882,7 @@
     </row>
     <row r="414" spans="1:17">
       <c r="A414" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B414" s="3" t="s">
         <v>82</v>
@@ -16896,7 +16896,7 @@
     </row>
     <row r="415" spans="1:17">
       <c r="A415" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C415" s="3" t="s">
         <v>83</v>
@@ -16904,7 +16904,7 @@
     </row>
     <row r="416" spans="1:17">
       <c r="A416" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B416" s="3" t="s">
         <v>78</v>
@@ -16924,7 +16924,7 @@
     </row>
     <row r="417" spans="1:9">
       <c r="A417" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B417" s="3" t="s">
         <v>91</v>
@@ -16938,7 +16938,7 @@
     </row>
     <row r="418" spans="1:9">
       <c r="A418" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B418" s="3" t="s">
         <v>74</v>
@@ -16961,7 +16961,7 @@
     </row>
     <row r="419" spans="1:9">
       <c r="A419" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D419" s="3" t="s">
         <v>83</v>
@@ -16969,7 +16969,7 @@
     </row>
     <row r="420" spans="1:9">
       <c r="A420" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B420" s="3" t="s">
         <v>83</v>
@@ -16987,12 +16987,12 @@
         <v>74</v>
       </c>
       <c r="G420" s="3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="421" spans="1:9">
       <c r="A421" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B421" s="3" t="s">
         <v>74</v>
@@ -17003,7 +17003,7 @@
     </row>
     <row r="422" spans="1:9">
       <c r="A422" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B422" s="3" t="s">
         <v>97</v>
@@ -17020,7 +17020,7 @@
     </row>
     <row r="423" spans="1:9">
       <c r="A423" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B423" s="3" t="s">
         <v>72</v>
@@ -17043,7 +17043,7 @@
     </row>
     <row r="424" spans="1:9">
       <c r="A424" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B424" s="3" t="s">
         <v>80</v>
@@ -17060,7 +17060,7 @@
     </row>
     <row r="425" spans="1:9">
       <c r="A425" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B425" s="3" t="s">
         <v>78</v>
@@ -17077,7 +17077,7 @@
     </row>
     <row r="426" spans="1:9">
       <c r="A426" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>74</v>
@@ -17091,7 +17091,7 @@
     </row>
     <row r="427" spans="1:9">
       <c r="A427" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>83</v>
@@ -17102,7 +17102,7 @@
     </row>
     <row r="428" spans="1:9">
       <c r="A428" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C428" s="3" t="s">
         <v>83</v>
@@ -17113,7 +17113,7 @@
     </row>
     <row r="429" spans="1:9">
       <c r="A429" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B429" s="3" t="s">
         <v>74</v>
@@ -17130,7 +17130,7 @@
     </row>
     <row r="430" spans="1:9">
       <c r="A430" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B430" s="3" t="s">
         <v>83</v>
@@ -17141,7 +17141,7 @@
     </row>
     <row r="431" spans="1:9">
       <c r="A431" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B431" s="3" t="s">
         <v>79</v>
@@ -17158,7 +17158,7 @@
     </row>
     <row r="432" spans="1:9">
       <c r="A432" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B432" s="3" t="s">
         <v>80</v>
@@ -17173,15 +17173,15 @@
         <v>83</v>
       </c>
       <c r="H432" s="3" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="I432" s="3" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="433" spans="1:9">
       <c r="A433" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B433" s="3" t="s">
         <v>74</v>
@@ -17196,7 +17196,7 @@
         <v>74</v>
       </c>
       <c r="G433" s="4" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H433" s="3" t="s">
         <v>74</v>
@@ -17204,7 +17204,7 @@
     </row>
     <row r="434" spans="1:9">
       <c r="A434" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B434" s="3" t="s">
         <v>74</v>
@@ -17215,7 +17215,7 @@
     </row>
     <row r="435" spans="1:9">
       <c r="A435" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B435" s="3" t="s">
         <v>89</v>
@@ -17232,7 +17232,7 @@
     </row>
     <row r="436" spans="1:9">
       <c r="A436" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B436" s="3" t="s">
         <v>83</v>
@@ -17243,15 +17243,15 @@
     </row>
     <row r="437" spans="1:9">
       <c r="A437" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D437" s="3" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="438" spans="1:9">
       <c r="A438" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B438" s="3" t="s">
         <v>79</v>
@@ -17268,7 +17268,7 @@
     </row>
     <row r="439" spans="1:9">
       <c r="A439" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C439" s="3" t="s">
         <v>113</v>
@@ -17279,7 +17279,7 @@
     </row>
     <row r="440" spans="1:9">
       <c r="A440" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B440" s="3" t="s">
         <v>86</v>
@@ -17296,7 +17296,7 @@
     </row>
     <row r="441" spans="1:9">
       <c r="A441" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B441" s="3" t="s">
         <v>83</v>
@@ -17316,7 +17316,7 @@
     </row>
     <row r="442" spans="1:9">
       <c r="A442" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B442" s="3" t="s">
         <v>83</v>
@@ -17333,20 +17333,20 @@
     </row>
     <row r="443" spans="1:9">
       <c r="A443" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="444" spans="1:9">
       <c r="A444" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="445" spans="1:9">
       <c r="A445" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D445" s="3" t="s">
         <v>89</v>
@@ -17357,17 +17357,17 @@
     </row>
     <row r="446" spans="1:9">
       <c r="A446" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="447" spans="1:9">
       <c r="A447" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="448" spans="1:9">
       <c r="A448" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B448" s="3" t="s">
         <v>74</v>
@@ -17387,7 +17387,7 @@
     </row>
     <row r="449" spans="1:9">
       <c r="A449" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B449" s="3" t="s">
         <v>83</v>
@@ -17407,7 +17407,7 @@
     </row>
     <row r="450" spans="1:9">
       <c r="A450" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B450" s="3" t="s">
         <v>74</v>
@@ -17421,7 +17421,7 @@
     </row>
     <row r="451" spans="1:9">
       <c r="A451" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C451" s="3" t="s">
         <v>74</v>
@@ -17429,7 +17429,7 @@
     </row>
     <row r="452" spans="1:9">
       <c r="A452" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B452" s="3" t="s">
         <v>74</v>
@@ -17446,7 +17446,7 @@
     </row>
     <row r="453" spans="1:9">
       <c r="A453" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B453" s="3" t="s">
         <v>83</v>
@@ -17457,12 +17457,12 @@
     </row>
     <row r="454" spans="1:9">
       <c r="A454" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="455" spans="1:9">
       <c r="A455" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B455" s="3" t="s">
         <v>74</v>
@@ -17482,7 +17482,7 @@
     </row>
     <row r="456" spans="1:9">
       <c r="A456" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B456" s="3" t="s">
         <v>74</v>
@@ -17502,7 +17502,7 @@
     </row>
     <row r="457" spans="1:9">
       <c r="A457" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B457" s="3" t="s">
         <v>79</v>
@@ -17519,7 +17519,7 @@
     </row>
     <row r="458" spans="1:9">
       <c r="A458" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B458" s="3" t="s">
         <v>83</v>
@@ -17533,7 +17533,7 @@
     </row>
     <row r="459" spans="1:9">
       <c r="A459" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C459" s="3" t="s">
         <v>89</v>
@@ -17550,7 +17550,7 @@
     </row>
     <row r="460" spans="1:9">
       <c r="A460" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="I460" s="4" t="s">
         <v>94</v>
@@ -17558,7 +17558,7 @@
     </row>
     <row r="461" spans="1:9">
       <c r="A461" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B461" s="3" t="s">
         <v>74</v>
@@ -17575,7 +17575,7 @@
     </row>
     <row r="462" spans="1:9">
       <c r="A462" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B462" s="3" t="s">
         <v>89</v>
@@ -17590,12 +17590,12 @@
         <v>74</v>
       </c>
       <c r="I462" s="3" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="463" spans="1:9">
       <c r="A463" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B463" s="3" t="s">
         <v>109</v>
@@ -17606,7 +17606,7 @@
     </row>
     <row r="464" spans="1:9">
       <c r="A464" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="I464" s="4" t="s">
         <v>100</v>
@@ -17614,7 +17614,7 @@
     </row>
     <row r="465" spans="1:20">
       <c r="A465" s="2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B465" s="3" t="s">
         <v>113</v>
@@ -17631,7 +17631,7 @@
     </row>
     <row r="466" spans="1:20">
       <c r="A466" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B466" s="3" t="s">
         <v>74</v>
@@ -17654,7 +17654,7 @@
     </row>
     <row r="467" spans="1:20">
       <c r="A467" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B467" s="4" t="s">
         <v>138</v>
@@ -17665,7 +17665,7 @@
     </row>
     <row r="468" spans="1:20">
       <c r="A468" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B468" s="3" t="s">
         <v>74</v>
@@ -17679,7 +17679,7 @@
     </row>
     <row r="469" spans="1:20">
       <c r="A469" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B469" s="3" t="s">
         <v>74</v>
@@ -17688,7 +17688,7 @@
         <v>78</v>
       </c>
       <c r="E469" s="3" t="s">
-        <v>642</v>
+        <v>438</v>
       </c>
       <c r="F469" s="3" t="s">
         <v>79</v>
@@ -22446,7 +22446,7 @@
         <v>83</v>
       </c>
       <c r="G766" s="3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="H766" s="3" t="s">
         <v>83</v>
@@ -23632,7 +23632,7 @@
         <v>1016</v>
       </c>
       <c r="B831" s="3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C831" s="3" t="s">
         <v>98</v>
@@ -24343,6 +24343,9 @@
       <c r="G878" s="3" t="s">
         <v>83</v>
       </c>
+      <c r="J878" s="3" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="879" spans="1:17">
       <c r="A879" s="2" t="s">
@@ -24913,7 +24916,7 @@
         <v>81</v>
       </c>
       <c r="J912" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="K912" s="3" t="s">
         <v>99</v>
@@ -25615,7 +25618,7 @@
         <v>74</v>
       </c>
       <c r="D951" s="3" t="s">
-        <v>642</v>
+        <v>438</v>
       </c>
       <c r="E951" s="3" t="s">
         <v>79</v>
@@ -26876,7 +26879,7 @@
         <v>1239</v>
       </c>
       <c r="B1046" s="3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="1047" spans="1:18">
@@ -28714,7 +28717,7 @@
         <v>74</v>
       </c>
       <c r="D1170" s="3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E1170" s="3" t="s">
         <v>72</v>
@@ -28868,7 +28871,7 @@
         <v>93</v>
       </c>
       <c r="I1184" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="1185" spans="1:14">
@@ -28989,7 +28992,7 @@
         <v>74</v>
       </c>
       <c r="D1192" s="3" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E1192" s="3" t="s">
         <v>74</v>
@@ -29032,7 +29035,7 @@
         <v>1393</v>
       </c>
       <c r="E1194" s="3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="I1194" s="3" t="s">
         <v>1394</v>
@@ -29926,7 +29929,7 @@
         <v>1464</v>
       </c>
       <c r="B1263" s="3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="1264" spans="1:4">
@@ -30159,7 +30162,7 @@
         <v>1489</v>
       </c>
       <c r="B1288" s="4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D1288" s="3" t="s">
         <v>80</v>
@@ -31102,7 +31105,7 @@
         <v>89</v>
       </c>
       <c r="E1389" s="3" t="s">
-        <v>642</v>
+        <v>438</v>
       </c>
     </row>
     <row r="1390" spans="1:5">
@@ -32075,7 +32078,7 @@
         <v>1689</v>
       </c>
       <c r="D1487" s="3" t="s">
-        <v>642</v>
+        <v>438</v>
       </c>
     </row>
     <row r="1488" spans="1:18">

--- a/groups/old/results.xlsx
+++ b/groups/old/results.xlsx
@@ -7060,7 +7060,7 @@
         <v>185408</v>
       </c>
       <c r="AD3">
-        <v>217921</v>
+        <v>217923</v>
       </c>
     </row>
     <row r="4" spans="1:30">
